--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>IFNNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2103800</v>
+        <v>2199700</v>
       </c>
       <c r="E8" s="3">
-        <v>2264100</v>
+        <v>2122200</v>
       </c>
       <c r="F8" s="3">
-        <v>2212500</v>
+        <v>2283900</v>
       </c>
       <c r="G8" s="3">
-        <v>2177300</v>
+        <v>2231800</v>
       </c>
       <c r="H8" s="3">
-        <v>2163100</v>
+        <v>2196400</v>
       </c>
       <c r="I8" s="3">
-        <v>2247600</v>
+        <v>2182000</v>
       </c>
       <c r="J8" s="3">
+        <v>2267300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2131200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2060000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1991500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6136200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2054400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4006200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1932100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1966100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1325300</v>
+        <v>1439900</v>
       </c>
       <c r="E9" s="3">
-        <v>1461400</v>
+        <v>1336900</v>
       </c>
       <c r="F9" s="3">
-        <v>1405400</v>
+        <v>1474200</v>
       </c>
       <c r="G9" s="3">
-        <v>1354900</v>
+        <v>1417700</v>
       </c>
       <c r="H9" s="3">
-        <v>1307700</v>
+        <v>1366800</v>
       </c>
       <c r="I9" s="3">
-        <v>1353800</v>
+        <v>1319200</v>
       </c>
       <c r="J9" s="3">
+        <v>1365700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1316500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1294800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1266700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3817000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1269000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2554200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1237200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1252500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>778500</v>
+        <v>759800</v>
       </c>
       <c r="E10" s="3">
-        <v>802600</v>
+        <v>785300</v>
       </c>
       <c r="F10" s="3">
-        <v>807000</v>
+        <v>809700</v>
       </c>
       <c r="G10" s="3">
-        <v>822400</v>
+        <v>814100</v>
       </c>
       <c r="H10" s="3">
-        <v>855300</v>
+        <v>829600</v>
       </c>
       <c r="I10" s="3">
-        <v>893800</v>
+        <v>862800</v>
       </c>
       <c r="J10" s="3">
+        <v>901600</v>
+      </c>
+      <c r="K10" s="3">
         <v>814700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>765200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>724800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2319200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>785400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1452000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>694900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,55 +907,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>266800</v>
+        <v>266900</v>
       </c>
       <c r="E12" s="3">
-        <v>252500</v>
+        <v>269100</v>
       </c>
       <c r="F12" s="3">
-        <v>266800</v>
+        <v>254700</v>
       </c>
       <c r="G12" s="3">
-        <v>259100</v>
+        <v>269100</v>
       </c>
       <c r="H12" s="3">
-        <v>259100</v>
+        <v>261400</v>
       </c>
       <c r="I12" s="3">
-        <v>244900</v>
+        <v>261400</v>
       </c>
       <c r="J12" s="3">
+        <v>247000</v>
+      </c>
+      <c r="K12" s="3">
         <v>239400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>223300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>218800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>642900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>218800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>460100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>234800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -988,31 +1005,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>11100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1026,8 +1046,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1035,25 +1055,28 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>21000</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3">
-        <v>11000</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H15" s="3">
+        <v>11100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -1061,11 +1084,11 @@
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3">
         <v>14600</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
@@ -1073,8 +1096,8 @@
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1811700</v>
+        <v>1960500</v>
       </c>
       <c r="E17" s="3">
-        <v>1994000</v>
+        <v>1827500</v>
       </c>
       <c r="F17" s="3">
-        <v>1901700</v>
+        <v>2011400</v>
       </c>
       <c r="G17" s="3">
-        <v>1842400</v>
+        <v>1918400</v>
       </c>
       <c r="H17" s="3">
-        <v>1804000</v>
+        <v>1858600</v>
       </c>
       <c r="I17" s="3">
-        <v>1841300</v>
+        <v>1819800</v>
       </c>
       <c r="J17" s="3">
+        <v>1857400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1781000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1463100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1713300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5191400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1720000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3521400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1716100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1696200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>292100</v>
+        <v>239200</v>
       </c>
       <c r="E18" s="3">
-        <v>270100</v>
+        <v>294600</v>
       </c>
       <c r="F18" s="3">
-        <v>310700</v>
+        <v>272500</v>
       </c>
       <c r="G18" s="3">
-        <v>334900</v>
+        <v>313500</v>
       </c>
       <c r="H18" s="3">
-        <v>359000</v>
+        <v>337800</v>
       </c>
       <c r="I18" s="3">
-        <v>406300</v>
+        <v>362200</v>
       </c>
       <c r="J18" s="3">
+        <v>409800</v>
+      </c>
+      <c r="K18" s="3">
         <v>350300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>596900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>278300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>944700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>334400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>484800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>216000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,125 +1244,132 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-14300</v>
+        <v>-18800</v>
       </c>
       <c r="E20" s="3">
-        <v>-22000</v>
+        <v>-14400</v>
       </c>
       <c r="F20" s="3">
-        <v>-34000</v>
+        <v>-22200</v>
       </c>
       <c r="G20" s="3">
-        <v>-11000</v>
+        <v>-34300</v>
       </c>
       <c r="H20" s="3">
-        <v>-18700</v>
+        <v>-11100</v>
       </c>
       <c r="I20" s="3">
-        <v>-16500</v>
+        <v>-18800</v>
       </c>
       <c r="J20" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-17600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-37000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-32900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>552300</v>
+        <v>496200</v>
       </c>
       <c r="E21" s="3">
-        <v>516100</v>
+        <v>557100</v>
       </c>
       <c r="F21" s="3">
-        <v>538000</v>
+        <v>520600</v>
       </c>
       <c r="G21" s="3">
-        <v>579700</v>
+        <v>542700</v>
       </c>
       <c r="H21" s="3">
-        <v>592900</v>
+        <v>584800</v>
       </c>
       <c r="I21" s="3">
-        <v>637900</v>
+        <v>598100</v>
       </c>
       <c r="J21" s="3">
+        <v>643500</v>
+      </c>
+      <c r="K21" s="3">
         <v>573200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>820200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>491400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2048800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>94200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>927300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>430800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1343,8 +1383,8 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>10</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>10</v>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>277800</v>
+        <v>220400</v>
       </c>
       <c r="E23" s="3">
-        <v>248100</v>
+        <v>280200</v>
       </c>
       <c r="F23" s="3">
-        <v>276700</v>
+        <v>250300</v>
       </c>
       <c r="G23" s="3">
-        <v>323900</v>
+        <v>279100</v>
       </c>
       <c r="H23" s="3">
-        <v>340400</v>
+        <v>326700</v>
       </c>
       <c r="I23" s="3">
-        <v>389800</v>
+        <v>343400</v>
       </c>
       <c r="J23" s="3">
+        <v>393200</v>
+      </c>
+      <c r="K23" s="3">
         <v>332700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>582300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>262500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>907700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>322000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>451900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>196000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47200</v>
+        <v>23300</v>
       </c>
       <c r="E24" s="3">
-        <v>69200</v>
+        <v>47600</v>
       </c>
       <c r="F24" s="3">
-        <v>30700</v>
+        <v>69800</v>
       </c>
       <c r="G24" s="3">
-        <v>50500</v>
+        <v>31000</v>
       </c>
       <c r="H24" s="3">
-        <v>61500</v>
+        <v>50900</v>
       </c>
       <c r="I24" s="3">
-        <v>59300</v>
+        <v>62000</v>
       </c>
       <c r="J24" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K24" s="3">
         <v>53800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>69600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>228900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>41500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>24700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>230600</v>
+        <v>197200</v>
       </c>
       <c r="E26" s="3">
-        <v>179000</v>
+        <v>232600</v>
       </c>
       <c r="F26" s="3">
-        <v>246000</v>
+        <v>180500</v>
       </c>
       <c r="G26" s="3">
-        <v>273400</v>
+        <v>248100</v>
       </c>
       <c r="H26" s="3">
+        <v>275800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>281300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>333400</v>
+      </c>
+      <c r="K26" s="3">
         <v>278900</v>
       </c>
-      <c r="I26" s="3">
-        <v>330500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>278900</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>512700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>231100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>678800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>280500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>427300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>194900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>230600</v>
+        <v>186100</v>
       </c>
       <c r="E27" s="3">
-        <v>179000</v>
+        <v>223700</v>
       </c>
       <c r="F27" s="3">
-        <v>246000</v>
+        <v>180500</v>
       </c>
       <c r="G27" s="3">
-        <v>273400</v>
+        <v>248100</v>
       </c>
       <c r="H27" s="3">
+        <v>275800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>281300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>333400</v>
+      </c>
+      <c r="K27" s="3">
         <v>278900</v>
       </c>
-      <c r="I27" s="3">
-        <v>330500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>278900</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>512700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>231100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>678800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>280500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>427300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>194900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1643,46 +1704,49 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-2200</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
-        <v>-19800</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-19900</v>
       </c>
       <c r="I29" s="3">
-        <v>-174600</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-176100</v>
+      </c>
+      <c r="K29" s="3">
         <v>18700</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>1100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>3400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-3500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>14300</v>
+        <v>18800</v>
       </c>
       <c r="E32" s="3">
-        <v>22000</v>
+        <v>14400</v>
       </c>
       <c r="F32" s="3">
-        <v>34000</v>
+        <v>22200</v>
       </c>
       <c r="G32" s="3">
-        <v>11000</v>
+        <v>34300</v>
       </c>
       <c r="H32" s="3">
-        <v>18700</v>
+        <v>11100</v>
       </c>
       <c r="I32" s="3">
-        <v>16500</v>
+        <v>18800</v>
       </c>
       <c r="J32" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K32" s="3">
         <v>17600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>37000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>32900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>230600</v>
+        <v>186100</v>
       </c>
       <c r="E33" s="3">
-        <v>176800</v>
+        <v>223700</v>
       </c>
       <c r="F33" s="3">
-        <v>246000</v>
+        <v>178300</v>
       </c>
       <c r="G33" s="3">
-        <v>253600</v>
+        <v>248100</v>
       </c>
       <c r="H33" s="3">
-        <v>278900</v>
+        <v>255900</v>
       </c>
       <c r="I33" s="3">
-        <v>155900</v>
+        <v>281300</v>
       </c>
       <c r="J33" s="3">
+        <v>157300</v>
+      </c>
+      <c r="K33" s="3">
         <v>297600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>512700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>230000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>679900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>283900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>423700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>190200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>230600</v>
+        <v>186100</v>
       </c>
       <c r="E35" s="3">
-        <v>176800</v>
+        <v>223700</v>
       </c>
       <c r="F35" s="3">
-        <v>246000</v>
+        <v>178300</v>
       </c>
       <c r="G35" s="3">
-        <v>253600</v>
+        <v>248100</v>
       </c>
       <c r="H35" s="3">
-        <v>278900</v>
+        <v>255900</v>
       </c>
       <c r="I35" s="3">
-        <v>155900</v>
+        <v>281300</v>
       </c>
       <c r="J35" s="3">
+        <v>157300</v>
+      </c>
+      <c r="K35" s="3">
         <v>297600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>512700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>230000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>679900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>283900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>423700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>190200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2139,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1474600</v>
+        <v>1250500</v>
       </c>
       <c r="E41" s="3">
-        <v>1121100</v>
+        <v>1487500</v>
       </c>
       <c r="F41" s="3">
-        <v>792800</v>
+        <v>1130900</v>
       </c>
       <c r="G41" s="3">
-        <v>888300</v>
+        <v>799700</v>
       </c>
       <c r="H41" s="3">
-        <v>908000</v>
+        <v>896000</v>
       </c>
       <c r="I41" s="3">
-        <v>803700</v>
+        <v>916000</v>
       </c>
       <c r="J41" s="3">
+        <v>810800</v>
+      </c>
+      <c r="K41" s="3">
         <v>846600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>814600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>835900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>964900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>814600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>846300</v>
       </c>
-      <c r="P41" s="3" t="s">
+      <c r="Q41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3860600</v>
+        <v>3831200</v>
       </c>
       <c r="E42" s="3">
-        <v>3028300</v>
+        <v>3894300</v>
       </c>
       <c r="F42" s="3">
-        <v>2978900</v>
+        <v>3054800</v>
       </c>
       <c r="G42" s="3">
-        <v>1178200</v>
+        <v>3004900</v>
       </c>
       <c r="H42" s="3">
-        <v>1623900</v>
+        <v>1188500</v>
       </c>
       <c r="I42" s="3">
-        <v>1988500</v>
+        <v>1638100</v>
       </c>
       <c r="J42" s="3">
+        <v>2005900</v>
+      </c>
+      <c r="K42" s="3">
         <v>2031300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1920800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1758200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1786200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1672900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1558800</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1895700</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1083700</v>
+        <v>1189600</v>
       </c>
       <c r="E43" s="3">
-        <v>1166100</v>
+        <v>1093200</v>
       </c>
       <c r="F43" s="3">
-        <v>1165000</v>
+        <v>1176300</v>
       </c>
       <c r="G43" s="3">
-        <v>1163900</v>
+        <v>1175200</v>
       </c>
       <c r="H43" s="3">
+        <v>1174100</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1143000</v>
+      </c>
+      <c r="J43" s="3">
         <v>1133100</v>
       </c>
-      <c r="I43" s="3">
-        <v>1123300</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1046400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>970500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>902100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3306500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>958200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>970700</v>
       </c>
-      <c r="P43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>915600</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1940200</v>
+        <v>1922800</v>
       </c>
       <c r="E44" s="3">
-        <v>1867700</v>
+        <v>1957100</v>
       </c>
       <c r="F44" s="3">
-        <v>1930300</v>
+        <v>1884000</v>
       </c>
       <c r="G44" s="3">
-        <v>1873200</v>
+        <v>1947200</v>
       </c>
       <c r="H44" s="3">
-        <v>1746900</v>
+        <v>1889600</v>
       </c>
       <c r="I44" s="3">
-        <v>1625000</v>
+        <v>1762200</v>
       </c>
       <c r="J44" s="3">
+        <v>1639200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1524000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1464200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1438400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1391300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1396900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1441400</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="Q44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1398000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>691700</v>
+        <v>913800</v>
       </c>
       <c r="E45" s="3">
-        <v>858600</v>
+        <v>697800</v>
       </c>
       <c r="F45" s="3">
-        <v>810300</v>
+        <v>866100</v>
       </c>
       <c r="G45" s="3">
-        <v>598400</v>
+        <v>817400</v>
       </c>
       <c r="H45" s="3">
-        <v>495200</v>
+        <v>603600</v>
       </c>
       <c r="I45" s="3">
-        <v>413900</v>
+        <v>499500</v>
       </c>
       <c r="J45" s="3">
+        <v>417600</v>
+      </c>
+      <c r="K45" s="3">
         <v>435900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>409500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>410600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6195600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>356800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>336900</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>329800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9050800</v>
+        <v>9107800</v>
       </c>
       <c r="E46" s="3">
-        <v>8041800</v>
+        <v>9129900</v>
       </c>
       <c r="F46" s="3">
-        <v>7677200</v>
+        <v>8112100</v>
       </c>
       <c r="G46" s="3">
-        <v>5701900</v>
+        <v>7744300</v>
       </c>
       <c r="H46" s="3">
-        <v>5907200</v>
+        <v>5751800</v>
       </c>
       <c r="I46" s="3">
-        <v>5954500</v>
+        <v>5958900</v>
       </c>
       <c r="J46" s="3">
+        <v>6006500</v>
+      </c>
+      <c r="K46" s="3">
         <v>5884200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5579700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5345200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8448600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5199300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5154200</v>
       </c>
-      <c r="P46" s="3" t="s">
+      <c r="Q46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5272800</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80200</v>
+        <v>80900</v>
       </c>
       <c r="E47" s="3">
-        <v>31800</v>
+        <v>80900</v>
       </c>
       <c r="F47" s="3">
-        <v>40600</v>
+        <v>32100</v>
       </c>
       <c r="G47" s="3">
-        <v>40600</v>
+        <v>41000</v>
       </c>
       <c r="H47" s="3">
-        <v>36200</v>
+        <v>41000</v>
       </c>
       <c r="I47" s="3">
-        <v>40600</v>
+        <v>36600</v>
       </c>
       <c r="J47" s="3">
+        <v>41000</v>
+      </c>
+      <c r="K47" s="3">
         <v>43900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>31400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11876300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>38100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>42300</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4140600</v>
+        <v>4159000</v>
       </c>
       <c r="E48" s="3">
-        <v>3854000</v>
+        <v>4176800</v>
       </c>
       <c r="F48" s="3">
-        <v>3727700</v>
+        <v>3887700</v>
       </c>
       <c r="G48" s="3">
-        <v>3627800</v>
+        <v>3760300</v>
       </c>
       <c r="H48" s="3">
-        <v>3505900</v>
+        <v>3659500</v>
       </c>
       <c r="I48" s="3">
-        <v>3335700</v>
+        <v>3536600</v>
       </c>
       <c r="J48" s="3">
+        <v>3364900</v>
+      </c>
+      <c r="K48" s="3">
         <v>3132600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3128100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3085500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2983400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2851000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2974400</v>
       </c>
-      <c r="P48" s="3" t="s">
+      <c r="Q48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2487300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1961000</v>
+        <v>1998100</v>
       </c>
       <c r="E49" s="3">
-        <v>1981900</v>
+        <v>1978200</v>
       </c>
       <c r="F49" s="3">
-        <v>1920400</v>
+        <v>1999200</v>
       </c>
       <c r="G49" s="3">
-        <v>1930300</v>
+        <v>1937200</v>
       </c>
       <c r="H49" s="3">
-        <v>1906100</v>
+        <v>1947200</v>
       </c>
       <c r="I49" s="3">
-        <v>1752400</v>
+        <v>1922800</v>
       </c>
       <c r="J49" s="3">
+        <v>1767700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1733700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1705400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1755900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1810900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1819900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1989600</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1943800</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>816900</v>
+        <v>822900</v>
       </c>
       <c r="E52" s="3">
-        <v>816900</v>
+        <v>824100</v>
       </c>
       <c r="F52" s="3">
-        <v>853100</v>
+        <v>824100</v>
       </c>
       <c r="G52" s="3">
-        <v>879500</v>
+        <v>860600</v>
       </c>
       <c r="H52" s="3">
-        <v>864100</v>
+        <v>887200</v>
       </c>
       <c r="I52" s="3">
-        <v>861900</v>
+        <v>871700</v>
       </c>
       <c r="J52" s="3">
+        <v>869500</v>
+      </c>
+      <c r="K52" s="3">
         <v>858600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>843700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>926800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2890200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>913300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>961400</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="Q52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>921400</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16049500</v>
+        <v>16168700</v>
       </c>
       <c r="E54" s="3">
-        <v>14726400</v>
+        <v>16189800</v>
       </c>
       <c r="F54" s="3">
-        <v>14219100</v>
+        <v>14855100</v>
       </c>
       <c r="G54" s="3">
-        <v>12180100</v>
+        <v>14343400</v>
       </c>
       <c r="H54" s="3">
-        <v>12219600</v>
+        <v>12286600</v>
       </c>
       <c r="I54" s="3">
-        <v>11945100</v>
+        <v>12326500</v>
       </c>
       <c r="J54" s="3">
+        <v>12049600</v>
+      </c>
+      <c r="K54" s="3">
         <v>11653100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11299600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11144700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11158200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10821600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11121800</v>
       </c>
-      <c r="P54" s="3" t="s">
+      <c r="Q54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10666400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,290 +2879,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1013500</v>
+        <v>978000</v>
       </c>
       <c r="E57" s="3">
-        <v>1195700</v>
+        <v>1022300</v>
       </c>
       <c r="F57" s="3">
-        <v>1184700</v>
+        <v>1206200</v>
       </c>
       <c r="G57" s="3">
-        <v>1238500</v>
+        <v>1195100</v>
       </c>
       <c r="H57" s="3">
-        <v>1306600</v>
+        <v>1249400</v>
       </c>
       <c r="I57" s="3">
-        <v>1296700</v>
+        <v>1318000</v>
       </c>
       <c r="J57" s="3">
+        <v>1308100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1110100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1073700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1069300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1144400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>987400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>971900</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="Q57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1006000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>263500</v>
+        <v>258100</v>
       </c>
       <c r="E58" s="3">
-        <v>24200</v>
+        <v>265800</v>
       </c>
       <c r="F58" s="3">
-        <v>30700</v>
+        <v>24400</v>
       </c>
       <c r="G58" s="3">
-        <v>30700</v>
+        <v>31000</v>
       </c>
       <c r="H58" s="3">
-        <v>24200</v>
+        <v>31000</v>
       </c>
       <c r="I58" s="3">
-        <v>27500</v>
+        <v>24400</v>
       </c>
       <c r="J58" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K58" s="3">
         <v>350300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>359000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>354500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1506800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>22400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>142000</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>910200</v>
+        <v>1043400</v>
       </c>
       <c r="E59" s="3">
-        <v>1024400</v>
+        <v>918200</v>
       </c>
       <c r="F59" s="3">
-        <v>1089200</v>
+        <v>1033400</v>
       </c>
       <c r="G59" s="3">
-        <v>789500</v>
+        <v>1098700</v>
       </c>
       <c r="H59" s="3">
-        <v>981600</v>
+        <v>796400</v>
       </c>
       <c r="I59" s="3">
-        <v>1071600</v>
+        <v>990200</v>
       </c>
       <c r="J59" s="3">
+        <v>1081000</v>
+      </c>
+      <c r="K59" s="3">
         <v>795000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>695600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>711300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3932600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>802200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>694900</v>
       </c>
-      <c r="P59" s="3" t="s">
+      <c r="Q59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2187200</v>
+        <v>2279400</v>
       </c>
       <c r="E60" s="3">
-        <v>2244300</v>
+        <v>2206300</v>
       </c>
       <c r="F60" s="3">
-        <v>2304700</v>
+        <v>2263900</v>
       </c>
       <c r="G60" s="3">
-        <v>2058800</v>
+        <v>2324900</v>
       </c>
       <c r="H60" s="3">
-        <v>2312400</v>
+        <v>2076800</v>
       </c>
       <c r="I60" s="3">
-        <v>2395800</v>
+        <v>2332600</v>
       </c>
       <c r="J60" s="3">
+        <v>2416800</v>
+      </c>
+      <c r="K60" s="3">
         <v>2255300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2128400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2135100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4049300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1812000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1808800</v>
       </c>
-      <c r="P60" s="3" t="s">
+      <c r="Q60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1795900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1693100</v>
+        <v>1710100</v>
       </c>
       <c r="E61" s="3">
-        <v>1684300</v>
+        <v>1707900</v>
       </c>
       <c r="F61" s="3">
-        <v>1654700</v>
+        <v>1699100</v>
       </c>
       <c r="G61" s="3">
-        <v>1670100</v>
+        <v>1669200</v>
       </c>
       <c r="H61" s="3">
-        <v>1659100</v>
+        <v>1684700</v>
       </c>
       <c r="I61" s="3">
-        <v>1654700</v>
+        <v>1673600</v>
       </c>
       <c r="J61" s="3">
+        <v>1669200</v>
+      </c>
+      <c r="K61" s="3">
         <v>1658000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1648200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1675100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2259700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2063300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2225500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>2056500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1245100</v>
+        <v>1158500</v>
       </c>
       <c r="E62" s="3">
-        <v>1318700</v>
+        <v>1256000</v>
       </c>
       <c r="F62" s="3">
-        <v>1192400</v>
+        <v>1330200</v>
       </c>
       <c r="G62" s="3">
-        <v>1134200</v>
+        <v>1202900</v>
       </c>
       <c r="H62" s="3">
-        <v>829000</v>
+        <v>1144200</v>
       </c>
       <c r="I62" s="3">
-        <v>816900</v>
+        <v>836200</v>
       </c>
       <c r="J62" s="3">
+        <v>824100</v>
+      </c>
+      <c r="K62" s="3">
         <v>803700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>814600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>788800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>880800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>777500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>820500</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5125500</v>
+        <v>5148100</v>
       </c>
       <c r="E66" s="3">
-        <v>5247300</v>
+        <v>5170300</v>
       </c>
       <c r="F66" s="3">
-        <v>5151800</v>
+        <v>5293200</v>
       </c>
       <c r="G66" s="3">
-        <v>4863000</v>
+        <v>5196900</v>
       </c>
       <c r="H66" s="3">
-        <v>4800500</v>
+        <v>4905600</v>
       </c>
       <c r="I66" s="3">
-        <v>4867400</v>
+        <v>4842400</v>
       </c>
       <c r="J66" s="3">
+        <v>4910000</v>
+      </c>
+      <c r="K66" s="3">
         <v>4717000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4591200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4599000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4834700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4652900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4854900</v>
       </c>
-      <c r="P66" s="3" t="s">
+      <c r="Q66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4770400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>737900</v>
+        <v>636900</v>
       </c>
       <c r="E72" s="3">
-        <v>462300</v>
+        <v>744300</v>
       </c>
       <c r="F72" s="3">
-        <v>341500</v>
+        <v>466300</v>
       </c>
       <c r="G72" s="3">
-        <v>135100</v>
+        <v>344500</v>
       </c>
       <c r="H72" s="3">
-        <v>34000</v>
+        <v>136200</v>
       </c>
       <c r="I72" s="3">
-        <v>-304100</v>
+        <v>34300</v>
       </c>
       <c r="J72" s="3">
+        <v>-306800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-461200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-844900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1325100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3115800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1713300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2158600</v>
       </c>
-      <c r="P72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2713800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10924000</v>
+        <v>11020600</v>
       </c>
       <c r="E76" s="3">
-        <v>9479000</v>
+        <v>11019500</v>
       </c>
       <c r="F76" s="3">
-        <v>9067300</v>
+        <v>9561900</v>
       </c>
       <c r="G76" s="3">
-        <v>7317100</v>
+        <v>9146600</v>
       </c>
       <c r="H76" s="3">
-        <v>7419200</v>
+        <v>7381000</v>
       </c>
       <c r="I76" s="3">
-        <v>7077700</v>
+        <v>7484100</v>
       </c>
       <c r="J76" s="3">
+        <v>7139600</v>
+      </c>
+      <c r="K76" s="3">
         <v>6936100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6708400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6545700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6323500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6168700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6267000</v>
       </c>
-      <c r="P76" s="3" t="s">
+      <c r="Q76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5896000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>230600</v>
+        <v>186100</v>
       </c>
       <c r="E81" s="3">
-        <v>176800</v>
+        <v>223700</v>
       </c>
       <c r="F81" s="3">
-        <v>246000</v>
+        <v>178300</v>
       </c>
       <c r="G81" s="3">
-        <v>253600</v>
+        <v>248100</v>
       </c>
       <c r="H81" s="3">
-        <v>278900</v>
+        <v>255900</v>
       </c>
       <c r="I81" s="3">
-        <v>155900</v>
+        <v>281300</v>
       </c>
       <c r="J81" s="3">
+        <v>157300</v>
+      </c>
+      <c r="K81" s="3">
         <v>297600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>512700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>230000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>679900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>283900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>423700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>190200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>274500</v>
+        <v>275800</v>
       </c>
       <c r="E83" s="3">
-        <v>267900</v>
+        <v>276900</v>
       </c>
       <c r="F83" s="3">
-        <v>261300</v>
+        <v>270300</v>
       </c>
       <c r="G83" s="3">
-        <v>255800</v>
+        <v>263600</v>
       </c>
       <c r="H83" s="3">
-        <v>252500</v>
+        <v>258100</v>
       </c>
       <c r="I83" s="3">
-        <v>248100</v>
+        <v>254700</v>
       </c>
       <c r="J83" s="3">
+        <v>250300</v>
+      </c>
+      <c r="K83" s="3">
         <v>240500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>237900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>228900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>230000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>226600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>475400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>234800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>198700</v>
+        <v>389900</v>
       </c>
       <c r="E89" s="3">
-        <v>751000</v>
+        <v>200500</v>
       </c>
       <c r="F89" s="3">
-        <v>433700</v>
+        <v>757600</v>
       </c>
       <c r="G89" s="3">
-        <v>233900</v>
+        <v>437500</v>
       </c>
       <c r="H89" s="3">
-        <v>339300</v>
+        <v>235900</v>
       </c>
       <c r="I89" s="3">
-        <v>706000</v>
+        <v>342200</v>
       </c>
       <c r="J89" s="3">
+        <v>712200</v>
+      </c>
+      <c r="K89" s="3">
         <v>506200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>344500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>184000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>690000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>593500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>679600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>331000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>518800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-236100</v>
+        <v>-230400</v>
       </c>
       <c r="E91" s="3">
-        <v>-336000</v>
+        <v>-238100</v>
       </c>
       <c r="F91" s="3">
-        <v>-336000</v>
+        <v>-338900</v>
       </c>
       <c r="G91" s="3">
-        <v>-344800</v>
+        <v>-338900</v>
       </c>
       <c r="H91" s="3">
-        <v>-405200</v>
+        <v>-347800</v>
       </c>
       <c r="I91" s="3">
-        <v>-405200</v>
+        <v>-408700</v>
       </c>
       <c r="J91" s="3">
+        <v>-408700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-265700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-250200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-287200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-362400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-209800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-495300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-238300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-325100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1139700</v>
+        <v>-211600</v>
       </c>
       <c r="E94" s="3">
-        <v>-415000</v>
+        <v>-1149700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2174000</v>
+        <v>-418700</v>
       </c>
       <c r="G94" s="3">
-        <v>71400</v>
+        <v>-2193000</v>
       </c>
       <c r="H94" s="3">
-        <v>-214100</v>
+        <v>72000</v>
       </c>
       <c r="I94" s="3">
-        <v>-417200</v>
+        <v>-216000</v>
       </c>
       <c r="J94" s="3">
+        <v>-420900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-427100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-142500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-299600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-537400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-458900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-285200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-314600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-495300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4420,16 +4654,19 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-291100</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1282500</v>
+        <v>-396500</v>
       </c>
       <c r="E100" s="3">
-        <v>-9900</v>
+        <v>1293700</v>
       </c>
       <c r="F100" s="3">
-        <v>1645900</v>
+        <v>-10000</v>
       </c>
       <c r="G100" s="3">
-        <v>-333800</v>
+        <v>1660300</v>
       </c>
       <c r="H100" s="3">
-        <v>-20900</v>
+        <v>-336700</v>
       </c>
       <c r="I100" s="3">
-        <v>-328300</v>
+        <v>-21000</v>
       </c>
       <c r="J100" s="3">
+        <v>-331200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-23100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-234500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-116700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-282900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>9400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>12100</v>
+        <v>-18800</v>
       </c>
       <c r="E101" s="3">
+        <v>12200</v>
+      </c>
+      <c r="F101" s="3">
         <v>2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
-        <v>8800</v>
-      </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-3300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-13500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>353600</v>
+        <v>-237000</v>
       </c>
       <c r="E102" s="3">
-        <v>328300</v>
+        <v>356600</v>
       </c>
       <c r="F102" s="3">
-        <v>-95500</v>
+        <v>331200</v>
       </c>
       <c r="G102" s="3">
-        <v>-19800</v>
+        <v>-96400</v>
       </c>
       <c r="H102" s="3">
-        <v>104300</v>
+        <v>-19900</v>
       </c>
       <c r="I102" s="3">
-        <v>-42800</v>
+        <v>105200</v>
       </c>
       <c r="J102" s="3">
+        <v>-43200</v>
+      </c>
+      <c r="K102" s="3">
         <v>49400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-129000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>150300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>112700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>10600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2199700</v>
+        <v>2349200</v>
       </c>
       <c r="E8" s="3">
-        <v>2122200</v>
+        <v>2266400</v>
       </c>
       <c r="F8" s="3">
-        <v>2283900</v>
+        <v>2439100</v>
       </c>
       <c r="G8" s="3">
-        <v>2231800</v>
+        <v>2383500</v>
       </c>
       <c r="H8" s="3">
-        <v>2196400</v>
+        <v>2345700</v>
       </c>
       <c r="I8" s="3">
-        <v>2182000</v>
+        <v>2330300</v>
       </c>
       <c r="J8" s="3">
-        <v>2267300</v>
+        <v>2421400</v>
       </c>
       <c r="K8" s="3">
         <v>2131200</v>
@@ -794,25 +794,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1439900</v>
+        <v>1537800</v>
       </c>
       <c r="E9" s="3">
-        <v>1336900</v>
+        <v>1427800</v>
       </c>
       <c r="F9" s="3">
-        <v>1474200</v>
+        <v>1574400</v>
       </c>
       <c r="G9" s="3">
-        <v>1417700</v>
+        <v>1514100</v>
       </c>
       <c r="H9" s="3">
-        <v>1366800</v>
+        <v>1459700</v>
       </c>
       <c r="I9" s="3">
-        <v>1319200</v>
+        <v>1408800</v>
       </c>
       <c r="J9" s="3">
-        <v>1365700</v>
+        <v>1458500</v>
       </c>
       <c r="K9" s="3">
         <v>1316500</v>
@@ -844,25 +844,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>759800</v>
+        <v>811500</v>
       </c>
       <c r="E10" s="3">
-        <v>785300</v>
+        <v>838700</v>
       </c>
       <c r="F10" s="3">
-        <v>809700</v>
+        <v>864700</v>
       </c>
       <c r="G10" s="3">
-        <v>814100</v>
+        <v>869400</v>
       </c>
       <c r="H10" s="3">
-        <v>829600</v>
+        <v>886000</v>
       </c>
       <c r="I10" s="3">
-        <v>862800</v>
+        <v>921500</v>
       </c>
       <c r="J10" s="3">
-        <v>901600</v>
+        <v>962900</v>
       </c>
       <c r="K10" s="3">
         <v>814700</v>
@@ -914,25 +914,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>266900</v>
+        <v>285100</v>
       </c>
       <c r="E12" s="3">
-        <v>269100</v>
+        <v>287400</v>
       </c>
       <c r="F12" s="3">
-        <v>254700</v>
+        <v>272100</v>
       </c>
       <c r="G12" s="3">
-        <v>269100</v>
+        <v>287400</v>
       </c>
       <c r="H12" s="3">
-        <v>261400</v>
+        <v>279200</v>
       </c>
       <c r="I12" s="3">
-        <v>261400</v>
+        <v>279200</v>
       </c>
       <c r="J12" s="3">
-        <v>247000</v>
+        <v>263800</v>
       </c>
       <c r="K12" s="3">
         <v>239400</v>
@@ -1014,7 +1014,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>11100</v>
+        <v>11800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -1064,10 +1064,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19900</v>
+        <v>21300</v>
       </c>
       <c r="E15" s="3">
-        <v>21000</v>
+        <v>22500</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -1076,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="H15" s="3">
-        <v>11100</v>
+        <v>11800</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
@@ -1131,25 +1131,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1960500</v>
+        <v>2093700</v>
       </c>
       <c r="E17" s="3">
-        <v>1827500</v>
+        <v>1951800</v>
       </c>
       <c r="F17" s="3">
-        <v>2011400</v>
+        <v>2148100</v>
       </c>
       <c r="G17" s="3">
-        <v>1918400</v>
+        <v>2048800</v>
       </c>
       <c r="H17" s="3">
-        <v>1858600</v>
+        <v>1984900</v>
       </c>
       <c r="I17" s="3">
-        <v>1819800</v>
+        <v>1943500</v>
       </c>
       <c r="J17" s="3">
-        <v>1857400</v>
+        <v>1983700</v>
       </c>
       <c r="K17" s="3">
         <v>1781000</v>
@@ -1181,25 +1181,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>239200</v>
+        <v>255500</v>
       </c>
       <c r="E18" s="3">
-        <v>294600</v>
+        <v>314700</v>
       </c>
       <c r="F18" s="3">
-        <v>272500</v>
+        <v>291000</v>
       </c>
       <c r="G18" s="3">
-        <v>313500</v>
+        <v>334800</v>
       </c>
       <c r="H18" s="3">
-        <v>337800</v>
+        <v>360800</v>
       </c>
       <c r="I18" s="3">
-        <v>362200</v>
+        <v>386800</v>
       </c>
       <c r="J18" s="3">
-        <v>409800</v>
+        <v>437700</v>
       </c>
       <c r="K18" s="3">
         <v>350300</v>
@@ -1251,25 +1251,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-18800</v>
+        <v>-20100</v>
       </c>
       <c r="E20" s="3">
-        <v>-14400</v>
+        <v>-15400</v>
       </c>
       <c r="F20" s="3">
-        <v>-22200</v>
+        <v>-23700</v>
       </c>
       <c r="G20" s="3">
-        <v>-34300</v>
+        <v>-36700</v>
       </c>
       <c r="H20" s="3">
-        <v>-11100</v>
+        <v>-11800</v>
       </c>
       <c r="I20" s="3">
-        <v>-18800</v>
+        <v>-20100</v>
       </c>
       <c r="J20" s="3">
-        <v>-16600</v>
+        <v>-17700</v>
       </c>
       <c r="K20" s="3">
         <v>-17600</v>
@@ -1301,25 +1301,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>496200</v>
+        <v>529900</v>
       </c>
       <c r="E21" s="3">
-        <v>557100</v>
+        <v>595000</v>
       </c>
       <c r="F21" s="3">
-        <v>520600</v>
+        <v>556000</v>
       </c>
       <c r="G21" s="3">
-        <v>542700</v>
+        <v>579600</v>
       </c>
       <c r="H21" s="3">
-        <v>584800</v>
+        <v>624600</v>
       </c>
       <c r="I21" s="3">
-        <v>598100</v>
+        <v>638800</v>
       </c>
       <c r="J21" s="3">
-        <v>643500</v>
+        <v>687300</v>
       </c>
       <c r="K21" s="3">
         <v>573200</v>
@@ -1401,25 +1401,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>220400</v>
+        <v>235400</v>
       </c>
       <c r="E23" s="3">
-        <v>280200</v>
+        <v>299300</v>
       </c>
       <c r="F23" s="3">
-        <v>250300</v>
+        <v>267300</v>
       </c>
       <c r="G23" s="3">
-        <v>279100</v>
+        <v>298100</v>
       </c>
       <c r="H23" s="3">
-        <v>326700</v>
+        <v>349000</v>
       </c>
       <c r="I23" s="3">
-        <v>343400</v>
+        <v>366700</v>
       </c>
       <c r="J23" s="3">
-        <v>393200</v>
+        <v>419900</v>
       </c>
       <c r="K23" s="3">
         <v>332700</v>
@@ -1451,25 +1451,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>23300</v>
+        <v>24800</v>
       </c>
       <c r="E24" s="3">
-        <v>47600</v>
+        <v>50900</v>
       </c>
       <c r="F24" s="3">
-        <v>69800</v>
+        <v>74500</v>
       </c>
       <c r="G24" s="3">
-        <v>31000</v>
+        <v>33100</v>
       </c>
       <c r="H24" s="3">
-        <v>50900</v>
+        <v>54400</v>
       </c>
       <c r="I24" s="3">
-        <v>62000</v>
+        <v>66200</v>
       </c>
       <c r="J24" s="3">
-        <v>59800</v>
+        <v>63900</v>
       </c>
       <c r="K24" s="3">
         <v>53800</v>
@@ -1551,25 +1551,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>197200</v>
+        <v>210600</v>
       </c>
       <c r="E26" s="3">
-        <v>232600</v>
+        <v>248400</v>
       </c>
       <c r="F26" s="3">
-        <v>180500</v>
+        <v>192800</v>
       </c>
       <c r="G26" s="3">
-        <v>248100</v>
+        <v>265000</v>
       </c>
       <c r="H26" s="3">
-        <v>275800</v>
+        <v>294500</v>
       </c>
       <c r="I26" s="3">
-        <v>281300</v>
+        <v>300500</v>
       </c>
       <c r="J26" s="3">
-        <v>333400</v>
+        <v>356100</v>
       </c>
       <c r="K26" s="3">
         <v>278900</v>
@@ -1601,25 +1601,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>186100</v>
+        <v>198700</v>
       </c>
       <c r="E27" s="3">
-        <v>223700</v>
+        <v>238900</v>
       </c>
       <c r="F27" s="3">
-        <v>180500</v>
+        <v>192800</v>
       </c>
       <c r="G27" s="3">
-        <v>248100</v>
+        <v>265000</v>
       </c>
       <c r="H27" s="3">
-        <v>275800</v>
+        <v>294500</v>
       </c>
       <c r="I27" s="3">
-        <v>281300</v>
+        <v>300500</v>
       </c>
       <c r="J27" s="3">
-        <v>333400</v>
+        <v>356100</v>
       </c>
       <c r="K27" s="3">
         <v>278900</v>
@@ -1707,19 +1707,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-19900</v>
+        <v>-21300</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-176100</v>
+        <v>-188100</v>
       </c>
       <c r="K29" s="3">
         <v>18700</v>
@@ -1851,25 +1851,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>18800</v>
+        <v>20100</v>
       </c>
       <c r="E32" s="3">
-        <v>14400</v>
+        <v>15400</v>
       </c>
       <c r="F32" s="3">
-        <v>22200</v>
+        <v>23700</v>
       </c>
       <c r="G32" s="3">
-        <v>34300</v>
+        <v>36700</v>
       </c>
       <c r="H32" s="3">
-        <v>11100</v>
+        <v>11800</v>
       </c>
       <c r="I32" s="3">
-        <v>18800</v>
+        <v>20100</v>
       </c>
       <c r="J32" s="3">
-        <v>16600</v>
+        <v>17700</v>
       </c>
       <c r="K32" s="3">
         <v>17600</v>
@@ -1901,25 +1901,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>186100</v>
+        <v>198700</v>
       </c>
       <c r="E33" s="3">
-        <v>223700</v>
+        <v>238900</v>
       </c>
       <c r="F33" s="3">
-        <v>178300</v>
+        <v>190400</v>
       </c>
       <c r="G33" s="3">
-        <v>248100</v>
+        <v>265000</v>
       </c>
       <c r="H33" s="3">
-        <v>255900</v>
+        <v>273200</v>
       </c>
       <c r="I33" s="3">
-        <v>281300</v>
+        <v>300500</v>
       </c>
       <c r="J33" s="3">
-        <v>157300</v>
+        <v>168000</v>
       </c>
       <c r="K33" s="3">
         <v>297600</v>
@@ -2001,25 +2001,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>186100</v>
+        <v>198700</v>
       </c>
       <c r="E35" s="3">
-        <v>223700</v>
+        <v>238900</v>
       </c>
       <c r="F35" s="3">
-        <v>178300</v>
+        <v>190400</v>
       </c>
       <c r="G35" s="3">
-        <v>248100</v>
+        <v>265000</v>
       </c>
       <c r="H35" s="3">
-        <v>255900</v>
+        <v>273200</v>
       </c>
       <c r="I35" s="3">
-        <v>281300</v>
+        <v>300500</v>
       </c>
       <c r="J35" s="3">
-        <v>157300</v>
+        <v>168000</v>
       </c>
       <c r="K35" s="3">
         <v>297600</v>
@@ -2146,25 +2146,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1250500</v>
+        <v>1335500</v>
       </c>
       <c r="E41" s="3">
-        <v>1487500</v>
+        <v>1588600</v>
       </c>
       <c r="F41" s="3">
-        <v>1130900</v>
+        <v>1207700</v>
       </c>
       <c r="G41" s="3">
-        <v>799700</v>
+        <v>854100</v>
       </c>
       <c r="H41" s="3">
-        <v>896000</v>
+        <v>957000</v>
       </c>
       <c r="I41" s="3">
-        <v>916000</v>
+        <v>978300</v>
       </c>
       <c r="J41" s="3">
-        <v>810800</v>
+        <v>865900</v>
       </c>
       <c r="K41" s="3">
         <v>846600</v>
@@ -2196,25 +2196,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3831200</v>
+        <v>4091700</v>
       </c>
       <c r="E42" s="3">
-        <v>3894300</v>
+        <v>4159100</v>
       </c>
       <c r="F42" s="3">
-        <v>3054800</v>
+        <v>3262400</v>
       </c>
       <c r="G42" s="3">
-        <v>3004900</v>
+        <v>3209200</v>
       </c>
       <c r="H42" s="3">
-        <v>1188500</v>
+        <v>1269300</v>
       </c>
       <c r="I42" s="3">
-        <v>1638100</v>
+        <v>1749500</v>
       </c>
       <c r="J42" s="3">
-        <v>2005900</v>
+        <v>2142200</v>
       </c>
       <c r="K42" s="3">
         <v>2031300</v>
@@ -2246,25 +2246,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1189600</v>
+        <v>1469200</v>
       </c>
       <c r="E43" s="3">
-        <v>1093200</v>
+        <v>1167500</v>
       </c>
       <c r="F43" s="3">
-        <v>1176300</v>
+        <v>1456100</v>
       </c>
       <c r="G43" s="3">
-        <v>1175200</v>
+        <v>1255100</v>
       </c>
       <c r="H43" s="3">
-        <v>1174100</v>
+        <v>1253900</v>
       </c>
       <c r="I43" s="3">
-        <v>1143000</v>
+        <v>1220800</v>
       </c>
       <c r="J43" s="3">
-        <v>1133100</v>
+        <v>1210100</v>
       </c>
       <c r="K43" s="3">
         <v>1046400</v>
@@ -2296,25 +2296,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1922800</v>
+        <v>2053500</v>
       </c>
       <c r="E44" s="3">
-        <v>1957100</v>
+        <v>2090200</v>
       </c>
       <c r="F44" s="3">
-        <v>1884000</v>
+        <v>2012100</v>
       </c>
       <c r="G44" s="3">
-        <v>1947200</v>
+        <v>2079500</v>
       </c>
       <c r="H44" s="3">
-        <v>1889600</v>
+        <v>2018000</v>
       </c>
       <c r="I44" s="3">
-        <v>1762200</v>
+        <v>1882000</v>
       </c>
       <c r="J44" s="3">
-        <v>1639200</v>
+        <v>1750700</v>
       </c>
       <c r="K44" s="3">
         <v>1524000</v>
@@ -2346,25 +2346,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>913800</v>
+        <v>975900</v>
       </c>
       <c r="E45" s="3">
-        <v>697800</v>
+        <v>745200</v>
       </c>
       <c r="F45" s="3">
-        <v>866100</v>
+        <v>925000</v>
       </c>
       <c r="G45" s="3">
-        <v>817400</v>
+        <v>873000</v>
       </c>
       <c r="H45" s="3">
-        <v>603600</v>
+        <v>644700</v>
       </c>
       <c r="I45" s="3">
-        <v>499500</v>
+        <v>533500</v>
       </c>
       <c r="J45" s="3">
-        <v>417600</v>
+        <v>446000</v>
       </c>
       <c r="K45" s="3">
         <v>435900</v>
@@ -2396,25 +2396,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9107800</v>
+        <v>9925700</v>
       </c>
       <c r="E46" s="3">
-        <v>9129900</v>
+        <v>9750600</v>
       </c>
       <c r="F46" s="3">
-        <v>8112100</v>
+        <v>8863500</v>
       </c>
       <c r="G46" s="3">
-        <v>7744300</v>
+        <v>8270800</v>
       </c>
       <c r="H46" s="3">
-        <v>5751800</v>
+        <v>6142800</v>
       </c>
       <c r="I46" s="3">
-        <v>5958900</v>
+        <v>6364000</v>
       </c>
       <c r="J46" s="3">
-        <v>6006500</v>
+        <v>6414900</v>
       </c>
       <c r="K46" s="3">
         <v>5884200</v>
@@ -2446,25 +2446,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80900</v>
+        <v>86400</v>
       </c>
       <c r="E47" s="3">
-        <v>80900</v>
+        <v>86400</v>
       </c>
       <c r="F47" s="3">
-        <v>32100</v>
+        <v>34300</v>
       </c>
       <c r="G47" s="3">
-        <v>41000</v>
+        <v>43800</v>
       </c>
       <c r="H47" s="3">
-        <v>41000</v>
+        <v>43800</v>
       </c>
       <c r="I47" s="3">
-        <v>36600</v>
+        <v>39000</v>
       </c>
       <c r="J47" s="3">
-        <v>41000</v>
+        <v>43800</v>
       </c>
       <c r="K47" s="3">
         <v>43900</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4159000</v>
+        <v>4441800</v>
       </c>
       <c r="E48" s="3">
-        <v>4176800</v>
+        <v>4460700</v>
       </c>
       <c r="F48" s="3">
-        <v>3887700</v>
+        <v>4152000</v>
       </c>
       <c r="G48" s="3">
-        <v>3760300</v>
+        <v>4015900</v>
       </c>
       <c r="H48" s="3">
-        <v>3659500</v>
+        <v>3908300</v>
       </c>
       <c r="I48" s="3">
-        <v>3536600</v>
+        <v>3777000</v>
       </c>
       <c r="J48" s="3">
-        <v>3364900</v>
+        <v>3593700</v>
       </c>
       <c r="K48" s="3">
         <v>3132600</v>
@@ -2546,25 +2546,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1998100</v>
+        <v>4267900</v>
       </c>
       <c r="E49" s="3">
-        <v>1978200</v>
+        <v>2112700</v>
       </c>
       <c r="F49" s="3">
-        <v>1999200</v>
+        <v>4270300</v>
       </c>
       <c r="G49" s="3">
-        <v>1937200</v>
+        <v>2068900</v>
       </c>
       <c r="H49" s="3">
-        <v>1947200</v>
+        <v>2079500</v>
       </c>
       <c r="I49" s="3">
-        <v>1922800</v>
+        <v>2053500</v>
       </c>
       <c r="J49" s="3">
-        <v>1767700</v>
+        <v>1887900</v>
       </c>
       <c r="K49" s="3">
         <v>1733700</v>
@@ -2696,25 +2696,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>822900</v>
+        <v>878900</v>
       </c>
       <c r="E52" s="3">
-        <v>824100</v>
+        <v>880100</v>
       </c>
       <c r="F52" s="3">
-        <v>824100</v>
+        <v>880100</v>
       </c>
       <c r="G52" s="3">
-        <v>860600</v>
+        <v>919100</v>
       </c>
       <c r="H52" s="3">
-        <v>887200</v>
+        <v>947500</v>
       </c>
       <c r="I52" s="3">
-        <v>871700</v>
+        <v>930900</v>
       </c>
       <c r="J52" s="3">
-        <v>869500</v>
+        <v>928600</v>
       </c>
       <c r="K52" s="3">
         <v>858600</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16168700</v>
+        <v>17466700</v>
       </c>
       <c r="E54" s="3">
-        <v>16189800</v>
+        <v>17290400</v>
       </c>
       <c r="F54" s="3">
-        <v>14855100</v>
+        <v>16065000</v>
       </c>
       <c r="G54" s="3">
-        <v>14343400</v>
+        <v>15318600</v>
       </c>
       <c r="H54" s="3">
-        <v>12286600</v>
+        <v>13121900</v>
       </c>
       <c r="I54" s="3">
-        <v>12326500</v>
+        <v>13164500</v>
       </c>
       <c r="J54" s="3">
-        <v>12049600</v>
+        <v>12868800</v>
       </c>
       <c r="K54" s="3">
         <v>11653100</v>
@@ -2886,25 +2886,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>978000</v>
+        <v>1044500</v>
       </c>
       <c r="E57" s="3">
-        <v>1022300</v>
+        <v>1091800</v>
       </c>
       <c r="F57" s="3">
-        <v>1206200</v>
+        <v>1288200</v>
       </c>
       <c r="G57" s="3">
-        <v>1195100</v>
+        <v>1276300</v>
       </c>
       <c r="H57" s="3">
-        <v>1249400</v>
+        <v>1334300</v>
       </c>
       <c r="I57" s="3">
-        <v>1318000</v>
+        <v>1407700</v>
       </c>
       <c r="J57" s="3">
-        <v>1308100</v>
+        <v>1397000</v>
       </c>
       <c r="K57" s="3">
         <v>1110100</v>
@@ -2936,25 +2936,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>258100</v>
+        <v>275600</v>
       </c>
       <c r="E58" s="3">
-        <v>265800</v>
+        <v>283900</v>
       </c>
       <c r="F58" s="3">
-        <v>24400</v>
+        <v>26000</v>
       </c>
       <c r="G58" s="3">
-        <v>31000</v>
+        <v>33100</v>
       </c>
       <c r="H58" s="3">
-        <v>31000</v>
+        <v>33100</v>
       </c>
       <c r="I58" s="3">
-        <v>24400</v>
+        <v>26000</v>
       </c>
       <c r="J58" s="3">
-        <v>27700</v>
+        <v>29600</v>
       </c>
       <c r="K58" s="3">
         <v>350300</v>
@@ -2986,25 +2986,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1043400</v>
+        <v>1313000</v>
       </c>
       <c r="E59" s="3">
-        <v>918200</v>
+        <v>980600</v>
       </c>
       <c r="F59" s="3">
-        <v>1033400</v>
+        <v>1303600</v>
       </c>
       <c r="G59" s="3">
-        <v>1098700</v>
+        <v>1173400</v>
       </c>
       <c r="H59" s="3">
-        <v>796400</v>
+        <v>850500</v>
       </c>
       <c r="I59" s="3">
-        <v>990200</v>
+        <v>1057500</v>
       </c>
       <c r="J59" s="3">
-        <v>1081000</v>
+        <v>1154500</v>
       </c>
       <c r="K59" s="3">
         <v>795000</v>
@@ -3036,25 +3036,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2279400</v>
+        <v>2633100</v>
       </c>
       <c r="E60" s="3">
-        <v>2206300</v>
+        <v>2356300</v>
       </c>
       <c r="F60" s="3">
-        <v>2263900</v>
+        <v>2617800</v>
       </c>
       <c r="G60" s="3">
-        <v>2324900</v>
+        <v>2482900</v>
       </c>
       <c r="H60" s="3">
-        <v>2076800</v>
+        <v>2217900</v>
       </c>
       <c r="I60" s="3">
-        <v>2332600</v>
+        <v>2491200</v>
       </c>
       <c r="J60" s="3">
-        <v>2416800</v>
+        <v>2581100</v>
       </c>
       <c r="K60" s="3">
         <v>2255300</v>
@@ -3086,25 +3086,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1710100</v>
+        <v>1826400</v>
       </c>
       <c r="E61" s="3">
-        <v>1707900</v>
+        <v>1824000</v>
       </c>
       <c r="F61" s="3">
-        <v>1699100</v>
+        <v>1814600</v>
       </c>
       <c r="G61" s="3">
-        <v>1669200</v>
+        <v>1782600</v>
       </c>
       <c r="H61" s="3">
-        <v>1684700</v>
+        <v>1799200</v>
       </c>
       <c r="I61" s="3">
-        <v>1673600</v>
+        <v>1787400</v>
       </c>
       <c r="J61" s="3">
-        <v>1669200</v>
+        <v>1782600</v>
       </c>
       <c r="K61" s="3">
         <v>1658000</v>
@@ -3136,25 +3136,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1158500</v>
+        <v>1237300</v>
       </c>
       <c r="E62" s="3">
-        <v>1256000</v>
+        <v>1341400</v>
       </c>
       <c r="F62" s="3">
-        <v>1330200</v>
+        <v>1420700</v>
       </c>
       <c r="G62" s="3">
-        <v>1202900</v>
+        <v>1284600</v>
       </c>
       <c r="H62" s="3">
-        <v>1144200</v>
+        <v>1221900</v>
       </c>
       <c r="I62" s="3">
-        <v>836200</v>
+        <v>893100</v>
       </c>
       <c r="J62" s="3">
-        <v>824100</v>
+        <v>880100</v>
       </c>
       <c r="K62" s="3">
         <v>803700</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5148100</v>
+        <v>5696800</v>
       </c>
       <c r="E66" s="3">
-        <v>5170300</v>
+        <v>5521800</v>
       </c>
       <c r="F66" s="3">
-        <v>5293200</v>
+        <v>5853000</v>
       </c>
       <c r="G66" s="3">
-        <v>5196900</v>
+        <v>5550200</v>
       </c>
       <c r="H66" s="3">
-        <v>4905600</v>
+        <v>5239100</v>
       </c>
       <c r="I66" s="3">
-        <v>4842400</v>
+        <v>5171600</v>
       </c>
       <c r="J66" s="3">
-        <v>4910000</v>
+        <v>5243800</v>
       </c>
       <c r="K66" s="3">
         <v>4717000</v>
@@ -3606,25 +3606,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>636900</v>
+        <v>916700</v>
       </c>
       <c r="E72" s="3">
-        <v>744300</v>
+        <v>794900</v>
       </c>
       <c r="F72" s="3">
-        <v>466300</v>
+        <v>798500</v>
       </c>
       <c r="G72" s="3">
-        <v>344500</v>
+        <v>367900</v>
       </c>
       <c r="H72" s="3">
-        <v>136200</v>
+        <v>145500</v>
       </c>
       <c r="I72" s="3">
-        <v>34300</v>
+        <v>36700</v>
       </c>
       <c r="J72" s="3">
-        <v>-306800</v>
+        <v>-327700</v>
       </c>
       <c r="K72" s="3">
         <v>-461200</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11020600</v>
+        <v>11769900</v>
       </c>
       <c r="E76" s="3">
-        <v>11019500</v>
+        <v>11768700</v>
       </c>
       <c r="F76" s="3">
-        <v>9561900</v>
+        <v>10212000</v>
       </c>
       <c r="G76" s="3">
-        <v>9146600</v>
+        <v>9768400</v>
       </c>
       <c r="H76" s="3">
-        <v>7381000</v>
+        <v>7882800</v>
       </c>
       <c r="I76" s="3">
-        <v>7484100</v>
+        <v>7992900</v>
       </c>
       <c r="J76" s="3">
-        <v>7139600</v>
+        <v>7625000</v>
       </c>
       <c r="K76" s="3">
         <v>6936100</v>
@@ -3961,25 +3961,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>186100</v>
+        <v>198700</v>
       </c>
       <c r="E81" s="3">
-        <v>223700</v>
+        <v>238900</v>
       </c>
       <c r="F81" s="3">
-        <v>178300</v>
+        <v>190400</v>
       </c>
       <c r="G81" s="3">
-        <v>248100</v>
+        <v>265000</v>
       </c>
       <c r="H81" s="3">
-        <v>255900</v>
+        <v>273200</v>
       </c>
       <c r="I81" s="3">
-        <v>281300</v>
+        <v>300500</v>
       </c>
       <c r="J81" s="3">
-        <v>157300</v>
+        <v>168000</v>
       </c>
       <c r="K81" s="3">
         <v>297600</v>
@@ -4031,25 +4031,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>275800</v>
+        <v>294500</v>
       </c>
       <c r="E83" s="3">
-        <v>276900</v>
+        <v>295700</v>
       </c>
       <c r="F83" s="3">
-        <v>270300</v>
+        <v>288600</v>
       </c>
       <c r="G83" s="3">
-        <v>263600</v>
+        <v>281500</v>
       </c>
       <c r="H83" s="3">
-        <v>258100</v>
+        <v>275600</v>
       </c>
       <c r="I83" s="3">
-        <v>254700</v>
+        <v>272100</v>
       </c>
       <c r="J83" s="3">
-        <v>250300</v>
+        <v>267300</v>
       </c>
       <c r="K83" s="3">
         <v>240500</v>
@@ -4331,25 +4331,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>389900</v>
+        <v>416400</v>
       </c>
       <c r="E89" s="3">
-        <v>200500</v>
+        <v>214100</v>
       </c>
       <c r="F89" s="3">
-        <v>757600</v>
+        <v>809100</v>
       </c>
       <c r="G89" s="3">
-        <v>437500</v>
+        <v>467200</v>
       </c>
       <c r="H89" s="3">
-        <v>235900</v>
+        <v>252000</v>
       </c>
       <c r="I89" s="3">
-        <v>342200</v>
+        <v>365500</v>
       </c>
       <c r="J89" s="3">
-        <v>712200</v>
+        <v>760600</v>
       </c>
       <c r="K89" s="3">
         <v>506200</v>
@@ -4401,25 +4401,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-230400</v>
+        <v>-246000</v>
       </c>
       <c r="E91" s="3">
-        <v>-238100</v>
+        <v>-254300</v>
       </c>
       <c r="F91" s="3">
-        <v>-338900</v>
+        <v>-362000</v>
       </c>
       <c r="G91" s="3">
-        <v>-338900</v>
+        <v>-362000</v>
       </c>
       <c r="H91" s="3">
-        <v>-347800</v>
+        <v>-371400</v>
       </c>
       <c r="I91" s="3">
-        <v>-408700</v>
+        <v>-436500</v>
       </c>
       <c r="J91" s="3">
-        <v>-408700</v>
+        <v>-436500</v>
       </c>
       <c r="K91" s="3">
         <v>-265700</v>
@@ -4551,25 +4551,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-211600</v>
+        <v>-225900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1149700</v>
+        <v>-1227900</v>
       </c>
       <c r="F94" s="3">
-        <v>-418700</v>
+        <v>-447100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2193000</v>
+        <v>-2342100</v>
       </c>
       <c r="H94" s="3">
-        <v>72000</v>
+        <v>76900</v>
       </c>
       <c r="I94" s="3">
-        <v>-216000</v>
+        <v>-230700</v>
       </c>
       <c r="J94" s="3">
-        <v>-420900</v>
+        <v>-449500</v>
       </c>
       <c r="K94" s="3">
         <v>-427100</v>
@@ -4821,25 +4821,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-396500</v>
+        <v>-423500</v>
       </c>
       <c r="E100" s="3">
-        <v>1293700</v>
+        <v>1381600</v>
       </c>
       <c r="F100" s="3">
-        <v>-10000</v>
+        <v>-10600</v>
       </c>
       <c r="G100" s="3">
-        <v>1660300</v>
+        <v>1773200</v>
       </c>
       <c r="H100" s="3">
-        <v>-336700</v>
+        <v>-359600</v>
       </c>
       <c r="I100" s="3">
-        <v>-21000</v>
+        <v>-22500</v>
       </c>
       <c r="J100" s="3">
-        <v>-331200</v>
+        <v>-353700</v>
       </c>
       <c r="K100" s="3">
         <v>-23100</v>
@@ -4871,25 +4871,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-18800</v>
+        <v>-20100</v>
       </c>
       <c r="E101" s="3">
-        <v>12200</v>
+        <v>13000</v>
       </c>
       <c r="F101" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="G101" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H101" s="3">
-        <v>8900</v>
+        <v>9500</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>-3300</v>
+        <v>-3500</v>
       </c>
       <c r="K101" s="3">
         <v>-6600</v>
@@ -4921,25 +4921,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-237000</v>
+        <v>-253100</v>
       </c>
       <c r="E102" s="3">
-        <v>356600</v>
+        <v>380900</v>
       </c>
       <c r="F102" s="3">
-        <v>331200</v>
+        <v>353700</v>
       </c>
       <c r="G102" s="3">
-        <v>-96400</v>
+        <v>-102900</v>
       </c>
       <c r="H102" s="3">
-        <v>-19900</v>
+        <v>-21300</v>
       </c>
       <c r="I102" s="3">
-        <v>105200</v>
+        <v>112400</v>
       </c>
       <c r="J102" s="3">
-        <v>-43200</v>
+        <v>-46100</v>
       </c>
       <c r="K102" s="3">
         <v>49400</v>

--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>IFNNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,257 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2349200</v>
+        <v>2978500</v>
       </c>
       <c r="E8" s="3">
-        <v>2266400</v>
+        <v>2600500</v>
       </c>
       <c r="F8" s="3">
-        <v>2439100</v>
+        <v>2375700</v>
       </c>
       <c r="G8" s="3">
-        <v>2383500</v>
+        <v>2291900</v>
       </c>
       <c r="H8" s="3">
-        <v>2345700</v>
+        <v>2466600</v>
       </c>
       <c r="I8" s="3">
+        <v>2410300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2372100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2330300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2421400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2131200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2060000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1991500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6136200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2054400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4006200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1932100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1966100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1537800</v>
+        <v>2030000</v>
       </c>
       <c r="E9" s="3">
-        <v>1427800</v>
+        <v>1898400</v>
       </c>
       <c r="F9" s="3">
-        <v>1574400</v>
+        <v>1555100</v>
       </c>
       <c r="G9" s="3">
-        <v>1514100</v>
+        <v>1443800</v>
       </c>
       <c r="H9" s="3">
-        <v>1459700</v>
+        <v>1592100</v>
       </c>
       <c r="I9" s="3">
+        <v>1531100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1476100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1408800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1458500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1316500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1294800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1266700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3817000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1269000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2554200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1237200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1252500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>811500</v>
+        <v>948600</v>
       </c>
       <c r="E10" s="3">
-        <v>838700</v>
+        <v>702200</v>
       </c>
       <c r="F10" s="3">
-        <v>864700</v>
+        <v>820600</v>
       </c>
       <c r="G10" s="3">
-        <v>869400</v>
+        <v>848100</v>
       </c>
       <c r="H10" s="3">
-        <v>886000</v>
+        <v>874400</v>
       </c>
       <c r="I10" s="3">
+        <v>879200</v>
+      </c>
+      <c r="J10" s="3">
+        <v>896000</v>
+      </c>
+      <c r="K10" s="3">
         <v>921500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>962900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>814700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>765200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>724800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2319200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>785400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1452000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>694900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +934,66 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>285100</v>
+        <v>367200</v>
       </c>
       <c r="E12" s="3">
-        <v>287400</v>
+        <v>384000</v>
       </c>
       <c r="F12" s="3">
-        <v>272100</v>
+        <v>288300</v>
       </c>
       <c r="G12" s="3">
-        <v>287400</v>
+        <v>290700</v>
       </c>
       <c r="H12" s="3">
+        <v>275100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>290700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>282300</v>
+      </c>
+      <c r="K12" s="3">
         <v>279200</v>
       </c>
-      <c r="I12" s="3">
-        <v>279200</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>263800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>239400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>223300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>218800</v>
-      </c>
-      <c r="N12" s="3">
-        <v>642900</v>
       </c>
       <c r="O12" s="3">
         <v>218800</v>
       </c>
       <c r="P12" s="3">
+        <v>642900</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>218800</v>
+      </c>
+      <c r="R12" s="3">
         <v>460100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>234800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,19 +1042,25 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>11800</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>26300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>12000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1034,11 +1074,11 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1049,67 +1089,79 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>21300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>22500</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="3">
-        <v>11800</v>
+      <c r="F15" s="3">
+        <v>21500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>22700</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+      <c r="J15" s="3">
+        <v>12000</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3">
-        <v>14600</v>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>10</v>
+      <c r="N15" s="3">
+        <v>14600</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2093700</v>
+        <v>2787100</v>
       </c>
       <c r="E17" s="3">
-        <v>1951800</v>
+        <v>2732100</v>
       </c>
       <c r="F17" s="3">
-        <v>2148100</v>
+        <v>2117300</v>
       </c>
       <c r="G17" s="3">
-        <v>2048800</v>
+        <v>1973700</v>
       </c>
       <c r="H17" s="3">
-        <v>1984900</v>
+        <v>2172300</v>
       </c>
       <c r="I17" s="3">
+        <v>2071800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2007200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1943500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1983700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1781000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1463100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1713300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5191400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1720000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3521400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1716100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1696200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>255500</v>
+        <v>191400</v>
       </c>
       <c r="E18" s="3">
-        <v>314700</v>
+        <v>-131600</v>
       </c>
       <c r="F18" s="3">
-        <v>291000</v>
+        <v>258400</v>
       </c>
       <c r="G18" s="3">
-        <v>334800</v>
+        <v>318200</v>
       </c>
       <c r="H18" s="3">
-        <v>360800</v>
+        <v>294300</v>
       </c>
       <c r="I18" s="3">
+        <v>338500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>364800</v>
+      </c>
+      <c r="K18" s="3">
         <v>386800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>437700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>350300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>596900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>278300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>944700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>334400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>484800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>216000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,138 +1311,152 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-20100</v>
       </c>
-      <c r="E20" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-23700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-36700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-17700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-17600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-14600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-15700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-37000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-12300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-32900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>529900</v>
+        <v>626800</v>
       </c>
       <c r="E21" s="3">
-        <v>595000</v>
+        <v>251200</v>
       </c>
       <c r="F21" s="3">
-        <v>556000</v>
+        <v>535900</v>
       </c>
       <c r="G21" s="3">
-        <v>579600</v>
+        <v>601700</v>
       </c>
       <c r="H21" s="3">
-        <v>624600</v>
+        <v>562200</v>
       </c>
       <c r="I21" s="3">
+        <v>586100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>631600</v>
+      </c>
+      <c r="K21" s="3">
         <v>638800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>687300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>573200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>820200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>491400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>2048800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>94200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>927300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>430800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1386,117 +1466,135 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>10</v>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>235400</v>
+        <v>173400</v>
       </c>
       <c r="E23" s="3">
-        <v>299300</v>
+        <v>-205700</v>
       </c>
       <c r="F23" s="3">
-        <v>267300</v>
+        <v>238000</v>
       </c>
       <c r="G23" s="3">
-        <v>298100</v>
+        <v>302600</v>
       </c>
       <c r="H23" s="3">
-        <v>349000</v>
+        <v>270300</v>
       </c>
       <c r="I23" s="3">
+        <v>301400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>352900</v>
+      </c>
+      <c r="K23" s="3">
         <v>366700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>419900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>332700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>582300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>262500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>907700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>322000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>451900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>196000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>24800</v>
+        <v>39500</v>
       </c>
       <c r="E24" s="3">
-        <v>50900</v>
+        <v>-52600</v>
       </c>
       <c r="F24" s="3">
-        <v>74500</v>
+        <v>25100</v>
       </c>
       <c r="G24" s="3">
-        <v>33100</v>
+        <v>51400</v>
       </c>
       <c r="H24" s="3">
-        <v>54400</v>
+        <v>75400</v>
       </c>
       <c r="I24" s="3">
+        <v>33500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K24" s="3">
         <v>66200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>63900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>53800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>69600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>31400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>228900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>41500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>24700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>210600</v>
+        <v>134000</v>
       </c>
       <c r="E26" s="3">
-        <v>248400</v>
+        <v>-153100</v>
       </c>
       <c r="F26" s="3">
-        <v>192800</v>
+        <v>212900</v>
       </c>
       <c r="G26" s="3">
-        <v>265000</v>
+        <v>251200</v>
       </c>
       <c r="H26" s="3">
-        <v>294500</v>
+        <v>195000</v>
       </c>
       <c r="I26" s="3">
+        <v>267900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>297900</v>
+      </c>
+      <c r="K26" s="3">
         <v>300500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>356100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>278900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>512700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>231100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>678800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>280500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>427300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>194900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>198700</v>
+        <v>125600</v>
       </c>
       <c r="E27" s="3">
-        <v>238900</v>
+        <v>-165100</v>
       </c>
       <c r="F27" s="3">
-        <v>192800</v>
+        <v>201000</v>
       </c>
       <c r="G27" s="3">
-        <v>265000</v>
+        <v>241600</v>
       </c>
       <c r="H27" s="3">
-        <v>294500</v>
+        <v>195000</v>
       </c>
       <c r="I27" s="3">
+        <v>267900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>297900</v>
+      </c>
+      <c r="K27" s="3">
         <v>300500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>356100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>278900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>512700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>231100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>678800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>280500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>427300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>194900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,58 +1811,70 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-2400</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-21300</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-188100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>18700</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>1100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>3400</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-4700</v>
       </c>
       <c r="R29" s="3">
         <v>-3500</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="T29" s="3">
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>74200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>20300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>15600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>23900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>37100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K32" s="3">
         <v>20100</v>
       </c>
-      <c r="E32" s="3">
-        <v>15400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>23700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>36700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>11800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>20100</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>17700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>17600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>14600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>15700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>37000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>12300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>32900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>198700</v>
+        <v>122000</v>
       </c>
       <c r="E33" s="3">
-        <v>238900</v>
+        <v>-165100</v>
       </c>
       <c r="F33" s="3">
-        <v>190400</v>
+        <v>201000</v>
       </c>
       <c r="G33" s="3">
-        <v>265000</v>
+        <v>241600</v>
       </c>
       <c r="H33" s="3">
-        <v>273200</v>
+        <v>192600</v>
       </c>
       <c r="I33" s="3">
+        <v>267900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>276300</v>
+      </c>
+      <c r="K33" s="3">
         <v>300500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>168000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>297600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>512700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>230000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>679900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>283900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>423700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>190200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>198700</v>
+        <v>122000</v>
       </c>
       <c r="E35" s="3">
-        <v>238900</v>
+        <v>-165100</v>
       </c>
       <c r="F35" s="3">
-        <v>190400</v>
+        <v>201000</v>
       </c>
       <c r="G35" s="3">
-        <v>265000</v>
+        <v>241600</v>
       </c>
       <c r="H35" s="3">
-        <v>273200</v>
+        <v>192600</v>
       </c>
       <c r="I35" s="3">
+        <v>267900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>276300</v>
+      </c>
+      <c r="K35" s="3">
         <v>300500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>168000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>297600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>512700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>230000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>679900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>283900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>423700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>190200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2312,514 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1335500</v>
+        <v>2214200</v>
       </c>
       <c r="E41" s="3">
-        <v>1588600</v>
+        <v>2929500</v>
       </c>
       <c r="F41" s="3">
-        <v>1207700</v>
+        <v>1350500</v>
       </c>
       <c r="G41" s="3">
-        <v>854100</v>
+        <v>1606500</v>
       </c>
       <c r="H41" s="3">
-        <v>957000</v>
+        <v>1221300</v>
       </c>
       <c r="I41" s="3">
+        <v>863700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>967700</v>
+      </c>
+      <c r="K41" s="3">
         <v>978300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>865900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>846600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>814600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>835900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>964900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>814600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>846300</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="S41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4091700</v>
+        <v>1646000</v>
       </c>
       <c r="E42" s="3">
-        <v>4159100</v>
+        <v>1197400</v>
       </c>
       <c r="F42" s="3">
-        <v>3262400</v>
+        <v>4137700</v>
       </c>
       <c r="G42" s="3">
-        <v>3209200</v>
+        <v>4205800</v>
       </c>
       <c r="H42" s="3">
-        <v>1269300</v>
+        <v>3299100</v>
       </c>
       <c r="I42" s="3">
+        <v>3245300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1283500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1749500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>2142200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>2031300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1920800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1758200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1786200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1672900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1558800</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1895700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1469200</v>
+        <v>1638800</v>
       </c>
       <c r="E43" s="3">
-        <v>1167500</v>
+        <v>1528700</v>
       </c>
       <c r="F43" s="3">
-        <v>1456100</v>
+        <v>1485700</v>
       </c>
       <c r="G43" s="3">
-        <v>1255100</v>
+        <v>1180600</v>
       </c>
       <c r="H43" s="3">
-        <v>1253900</v>
+        <v>1472500</v>
       </c>
       <c r="I43" s="3">
+        <v>1269200</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1268000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1220800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1210100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1046400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>970500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>902100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>3306500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>958200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>970700</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>915600</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2053500</v>
+        <v>2454600</v>
       </c>
       <c r="E44" s="3">
-        <v>2090200</v>
+        <v>2649600</v>
       </c>
       <c r="F44" s="3">
-        <v>2012100</v>
+        <v>2076600</v>
       </c>
       <c r="G44" s="3">
-        <v>2079500</v>
+        <v>2113700</v>
       </c>
       <c r="H44" s="3">
-        <v>2018000</v>
+        <v>2034700</v>
       </c>
       <c r="I44" s="3">
+        <v>2102900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2040700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1882000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1750700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1524000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1464200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1438400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1391300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1396900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1441400</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1398000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>975900</v>
+        <v>634000</v>
       </c>
       <c r="E45" s="3">
-        <v>745200</v>
+        <v>759600</v>
       </c>
       <c r="F45" s="3">
-        <v>925000</v>
+        <v>986900</v>
       </c>
       <c r="G45" s="3">
-        <v>873000</v>
+        <v>753600</v>
       </c>
       <c r="H45" s="3">
-        <v>644700</v>
+        <v>935400</v>
       </c>
       <c r="I45" s="3">
+        <v>882800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>651900</v>
+      </c>
+      <c r="K45" s="3">
         <v>533500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>446000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>435900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>409500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>410600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>6195600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>356800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>336900</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>329800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9925700</v>
+        <v>8587500</v>
       </c>
       <c r="E46" s="3">
-        <v>9750600</v>
+        <v>9064800</v>
       </c>
       <c r="F46" s="3">
-        <v>8863500</v>
+        <v>10037300</v>
       </c>
       <c r="G46" s="3">
-        <v>8270800</v>
+        <v>9860300</v>
       </c>
       <c r="H46" s="3">
-        <v>6142800</v>
+        <v>8963100</v>
       </c>
       <c r="I46" s="3">
+        <v>8363800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>6211900</v>
+      </c>
+      <c r="K46" s="3">
         <v>6364000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6414900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5884200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5579700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5345200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>8448600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5199300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5154200</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5272800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>86400</v>
+        <v>105300</v>
       </c>
       <c r="E47" s="3">
-        <v>86400</v>
+        <v>130400</v>
       </c>
       <c r="F47" s="3">
-        <v>34300</v>
+        <v>87300</v>
       </c>
       <c r="G47" s="3">
+        <v>87300</v>
+      </c>
+      <c r="H47" s="3">
+        <v>34700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>44300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K47" s="3">
+        <v>39000</v>
+      </c>
+      <c r="L47" s="3">
         <v>43800</v>
       </c>
-      <c r="H47" s="3">
-        <v>43800</v>
-      </c>
-      <c r="I47" s="3">
-        <v>39000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>43800</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>43900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>42600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>31400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>11876300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>38100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>42300</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="S47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4441800</v>
+        <v>5258500</v>
       </c>
       <c r="E48" s="3">
-        <v>4460700</v>
+        <v>5198700</v>
       </c>
       <c r="F48" s="3">
-        <v>4152000</v>
+        <v>4491700</v>
       </c>
       <c r="G48" s="3">
-        <v>4015900</v>
+        <v>4510900</v>
       </c>
       <c r="H48" s="3">
-        <v>3908300</v>
+        <v>4198700</v>
       </c>
       <c r="I48" s="3">
+        <v>4061100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3952200</v>
+      </c>
+      <c r="K48" s="3">
         <v>3777000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3593700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3132600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3128100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3085500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2983400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2851000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2974400</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="S48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2487300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4267900</v>
+        <v>11385400</v>
       </c>
       <c r="E49" s="3">
-        <v>2112700</v>
+        <v>11958400</v>
       </c>
       <c r="F49" s="3">
-        <v>4270300</v>
+        <v>4315900</v>
       </c>
       <c r="G49" s="3">
-        <v>2068900</v>
+        <v>2136400</v>
       </c>
       <c r="H49" s="3">
-        <v>2079500</v>
+        <v>4318300</v>
       </c>
       <c r="I49" s="3">
+        <v>2092200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2102900</v>
+      </c>
+      <c r="K49" s="3">
         <v>2053500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1887900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1733700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1705400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1755900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1810900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1819900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1989600</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="S49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1943800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2924,70 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>878900</v>
+        <v>978500</v>
       </c>
       <c r="E52" s="3">
-        <v>880100</v>
+        <v>1009600</v>
       </c>
       <c r="F52" s="3">
-        <v>880100</v>
+        <v>888800</v>
       </c>
       <c r="G52" s="3">
-        <v>919100</v>
+        <v>890000</v>
       </c>
       <c r="H52" s="3">
-        <v>947500</v>
+        <v>890000</v>
       </c>
       <c r="I52" s="3">
+        <v>929400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>958200</v>
+      </c>
+      <c r="K52" s="3">
         <v>930900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>928600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>858600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>843700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>926800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2890200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>913300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>961400</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="S52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>921400</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17466700</v>
+        <v>26315200</v>
       </c>
       <c r="E54" s="3">
-        <v>17290400</v>
+        <v>27361900</v>
       </c>
       <c r="F54" s="3">
-        <v>16065000</v>
+        <v>17663100</v>
       </c>
       <c r="G54" s="3">
-        <v>15318600</v>
+        <v>17484900</v>
       </c>
       <c r="H54" s="3">
-        <v>13121900</v>
+        <v>16245600</v>
       </c>
       <c r="I54" s="3">
+        <v>15490800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>13269400</v>
+      </c>
+      <c r="K54" s="3">
         <v>13164500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12868800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11653100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11299600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>11144700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11158200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10821600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11121800</v>
       </c>
-      <c r="Q54" s="3" t="s">
+      <c r="S54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>10666400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3140,346 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1044500</v>
+        <v>1387600</v>
       </c>
       <c r="E57" s="3">
-        <v>1091800</v>
+        <v>1305100</v>
       </c>
       <c r="F57" s="3">
-        <v>1288200</v>
+        <v>1056200</v>
       </c>
       <c r="G57" s="3">
-        <v>1276300</v>
+        <v>1104100</v>
       </c>
       <c r="H57" s="3">
-        <v>1334300</v>
+        <v>1302700</v>
       </c>
       <c r="I57" s="3">
+        <v>1290700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1349300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1407700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1397000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1110100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1073700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1069300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1144400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>987400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>971900</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="S57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1006000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>275600</v>
+        <v>674700</v>
       </c>
       <c r="E58" s="3">
-        <v>283900</v>
+        <v>773900</v>
       </c>
       <c r="F58" s="3">
+        <v>278700</v>
+      </c>
+      <c r="G58" s="3">
+        <v>287100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>26300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>33500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K58" s="3">
         <v>26000</v>
       </c>
-      <c r="G58" s="3">
-        <v>33100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>33100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>26000</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>29600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>350300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>359000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>354500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1506800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>22400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>142000</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1313000</v>
+        <v>2064600</v>
       </c>
       <c r="E59" s="3">
-        <v>980600</v>
+        <v>1759600</v>
       </c>
       <c r="F59" s="3">
-        <v>1303600</v>
+        <v>1327800</v>
       </c>
       <c r="G59" s="3">
-        <v>1173400</v>
+        <v>991600</v>
       </c>
       <c r="H59" s="3">
-        <v>850500</v>
+        <v>1318200</v>
       </c>
       <c r="I59" s="3">
+        <v>1186600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>860100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1057500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1154500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>795000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>695600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>711300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3932600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>802200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>694900</v>
       </c>
-      <c r="Q59" s="3" t="s">
+      <c r="S59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2633100</v>
+        <v>4126900</v>
       </c>
       <c r="E60" s="3">
-        <v>2356300</v>
+        <v>3838600</v>
       </c>
       <c r="F60" s="3">
-        <v>2617800</v>
+        <v>2662700</v>
       </c>
       <c r="G60" s="3">
-        <v>2482900</v>
+        <v>2382800</v>
       </c>
       <c r="H60" s="3">
-        <v>2217900</v>
+        <v>2647200</v>
       </c>
       <c r="I60" s="3">
+        <v>2510800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2242900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2491200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2581100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2255300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2128400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2135100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4049300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1812000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1808800</v>
       </c>
-      <c r="Q60" s="3" t="s">
+      <c r="S60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1795900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1826400</v>
+        <v>8089900</v>
       </c>
       <c r="E61" s="3">
-        <v>1824000</v>
+        <v>8830300</v>
       </c>
       <c r="F61" s="3">
-        <v>1814600</v>
+        <v>1846900</v>
       </c>
       <c r="G61" s="3">
+        <v>1844500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1835000</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1802700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1819400</v>
+      </c>
+      <c r="K61" s="3">
+        <v>1787400</v>
+      </c>
+      <c r="L61" s="3">
         <v>1782600</v>
       </c>
-      <c r="H61" s="3">
-        <v>1799200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1787400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1782600</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1658000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1648200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1675100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2259700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2063300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2225500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>2056500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1237300</v>
+        <v>1874400</v>
       </c>
       <c r="E62" s="3">
-        <v>1341400</v>
+        <v>2181900</v>
       </c>
       <c r="F62" s="3">
-        <v>1420700</v>
+        <v>1251200</v>
       </c>
       <c r="G62" s="3">
-        <v>1284600</v>
+        <v>1356500</v>
       </c>
       <c r="H62" s="3">
-        <v>1221900</v>
+        <v>1436600</v>
       </c>
       <c r="I62" s="3">
+        <v>1299100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1235700</v>
+      </c>
+      <c r="K62" s="3">
         <v>893100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>880100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>803700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>814600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>788800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>880800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>777500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>820500</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="S62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5696800</v>
+        <v>14091200</v>
       </c>
       <c r="E66" s="3">
-        <v>5521800</v>
+        <v>14850800</v>
       </c>
       <c r="F66" s="3">
-        <v>5853000</v>
+        <v>5760900</v>
       </c>
       <c r="G66" s="3">
-        <v>5550200</v>
+        <v>5583900</v>
       </c>
       <c r="H66" s="3">
-        <v>5239100</v>
+        <v>5918800</v>
       </c>
       <c r="I66" s="3">
+        <v>5612600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5298000</v>
+      </c>
+      <c r="K66" s="3">
         <v>5171600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5243800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4717000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4591200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4599000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4834700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4652900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4854900</v>
       </c>
-      <c r="Q66" s="3" t="s">
+      <c r="S66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4770400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>916700</v>
+        <v>520300</v>
       </c>
       <c r="E72" s="3">
-        <v>794900</v>
+        <v>465300</v>
       </c>
       <c r="F72" s="3">
-        <v>798500</v>
+        <v>927100</v>
       </c>
       <c r="G72" s="3">
-        <v>367900</v>
+        <v>803800</v>
       </c>
       <c r="H72" s="3">
-        <v>145500</v>
+        <v>503600</v>
       </c>
       <c r="I72" s="3">
+        <v>372000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>147100</v>
+      </c>
+      <c r="K72" s="3">
         <v>36700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-327700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-461200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-844900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1325100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3115800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1713300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2158600</v>
       </c>
-      <c r="Q72" s="3" t="s">
+      <c r="S72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2713800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11769900</v>
+        <v>12224000</v>
       </c>
       <c r="E76" s="3">
-        <v>11768700</v>
+        <v>12511100</v>
       </c>
       <c r="F76" s="3">
-        <v>10212000</v>
+        <v>11902200</v>
       </c>
       <c r="G76" s="3">
-        <v>9768400</v>
+        <v>11901000</v>
       </c>
       <c r="H76" s="3">
-        <v>7882800</v>
+        <v>10326800</v>
       </c>
       <c r="I76" s="3">
+        <v>9878200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7971500</v>
+      </c>
+      <c r="K76" s="3">
         <v>7992900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7625000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6936100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6708400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6545700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6323500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6168700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6267000</v>
       </c>
-      <c r="Q76" s="3" t="s">
+      <c r="S76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5896000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>198700</v>
+        <v>122000</v>
       </c>
       <c r="E81" s="3">
-        <v>238900</v>
+        <v>-165100</v>
       </c>
       <c r="F81" s="3">
-        <v>190400</v>
+        <v>201000</v>
       </c>
       <c r="G81" s="3">
-        <v>265000</v>
+        <v>241600</v>
       </c>
       <c r="H81" s="3">
-        <v>273200</v>
+        <v>192600</v>
       </c>
       <c r="I81" s="3">
+        <v>267900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>276300</v>
+      </c>
+      <c r="K81" s="3">
         <v>300500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>168000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>297600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>512700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>230000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>679900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>283900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>423700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>190200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4421,66 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>294500</v>
+        <v>453400</v>
       </c>
       <c r="E83" s="3">
-        <v>295700</v>
+        <v>456900</v>
       </c>
       <c r="F83" s="3">
-        <v>288600</v>
+        <v>297900</v>
       </c>
       <c r="G83" s="3">
-        <v>281500</v>
+        <v>299100</v>
       </c>
       <c r="H83" s="3">
-        <v>275600</v>
+        <v>291900</v>
       </c>
       <c r="I83" s="3">
+        <v>284700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>278700</v>
+      </c>
+      <c r="K83" s="3">
         <v>272100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>267300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>240500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>237900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>228900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>230000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>226600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>475400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>234800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>416400</v>
+        <v>892400</v>
       </c>
       <c r="E89" s="3">
-        <v>214100</v>
+        <v>636400</v>
       </c>
       <c r="F89" s="3">
-        <v>809100</v>
+        <v>421100</v>
       </c>
       <c r="G89" s="3">
-        <v>467200</v>
+        <v>216500</v>
       </c>
       <c r="H89" s="3">
-        <v>252000</v>
+        <v>818200</v>
       </c>
       <c r="I89" s="3">
+        <v>472500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>254800</v>
+      </c>
+      <c r="K89" s="3">
         <v>365500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>760600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>506200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>344500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>184000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>690000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>593500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>679600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>331000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>518800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-246000</v>
+        <v>-329000</v>
       </c>
       <c r="E91" s="3">
-        <v>-254300</v>
+        <v>-259600</v>
       </c>
       <c r="F91" s="3">
-        <v>-362000</v>
+        <v>-248800</v>
       </c>
       <c r="G91" s="3">
-        <v>-362000</v>
+        <v>-257200</v>
       </c>
       <c r="H91" s="3">
-        <v>-371400</v>
+        <v>-366000</v>
       </c>
       <c r="I91" s="3">
+        <v>-366000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-375600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-436500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-436500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-265700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-250200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-287200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-362400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-209800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-495300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-238300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-325100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-225900</v>
+        <v>-879200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1227900</v>
+        <v>-6229800</v>
       </c>
       <c r="F94" s="3">
-        <v>-447100</v>
+        <v>-228500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2342100</v>
+        <v>-1241700</v>
       </c>
       <c r="H94" s="3">
-        <v>76900</v>
+        <v>-452200</v>
       </c>
       <c r="I94" s="3">
+        <v>-2368500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-230700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-449500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-427100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-142500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-299600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-537400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-458900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-285200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-314600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-495300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4657,16 +5125,22 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-291100</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5301,178 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-423500</v>
+        <v>-677000</v>
       </c>
       <c r="E100" s="3">
-        <v>1381600</v>
+        <v>7213100</v>
       </c>
       <c r="F100" s="3">
-        <v>-10600</v>
+        <v>-428200</v>
       </c>
       <c r="G100" s="3">
-        <v>1773200</v>
+        <v>1397200</v>
       </c>
       <c r="H100" s="3">
-        <v>-359600</v>
+        <v>-10800</v>
       </c>
       <c r="I100" s="3">
+        <v>1793100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-363600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-22500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-353700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-23100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-234500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-14600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>4500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-116700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-282900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>9400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-20100</v>
+        <v>-51400</v>
       </c>
       <c r="E101" s="3">
-        <v>13000</v>
+        <v>-40700</v>
       </c>
       <c r="F101" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>13200</v>
+      </c>
+      <c r="H101" s="3">
         <v>2400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>9500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-3500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-6600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>11200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-6700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-13500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-15300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-253100</v>
+        <v>-715300</v>
       </c>
       <c r="E102" s="3">
-        <v>380900</v>
+        <v>1579000</v>
       </c>
       <c r="F102" s="3">
-        <v>353700</v>
+        <v>-256000</v>
       </c>
       <c r="G102" s="3">
-        <v>-102900</v>
+        <v>385200</v>
       </c>
       <c r="H102" s="3">
+        <v>357700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="K102" s="3">
+        <v>112400</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="M102" s="3">
+        <v>49400</v>
+      </c>
+      <c r="N102" s="3">
         <v>-21300</v>
       </c>
-      <c r="I102" s="3">
-        <v>112400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-46100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>49400</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-21300</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-129000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>150300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>5600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>112700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>10600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>17600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2978500</v>
+        <v>2929200</v>
       </c>
       <c r="E8" s="3">
-        <v>2600500</v>
+        <v>2557500</v>
       </c>
       <c r="F8" s="3">
-        <v>2375700</v>
+        <v>2336300</v>
       </c>
       <c r="G8" s="3">
-        <v>2291900</v>
+        <v>2254000</v>
       </c>
       <c r="H8" s="3">
-        <v>2466600</v>
+        <v>2425700</v>
       </c>
       <c r="I8" s="3">
-        <v>2410300</v>
+        <v>2370400</v>
       </c>
       <c r="J8" s="3">
-        <v>2372100</v>
+        <v>2332800</v>
       </c>
       <c r="K8" s="3">
         <v>2330300</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2030000</v>
+        <v>1996400</v>
       </c>
       <c r="E9" s="3">
-        <v>1898400</v>
+        <v>1866900</v>
       </c>
       <c r="F9" s="3">
-        <v>1555100</v>
+        <v>1529300</v>
       </c>
       <c r="G9" s="3">
-        <v>1443800</v>
+        <v>1419900</v>
       </c>
       <c r="H9" s="3">
-        <v>1592100</v>
+        <v>1565800</v>
       </c>
       <c r="I9" s="3">
-        <v>1531100</v>
+        <v>1505800</v>
       </c>
       <c r="J9" s="3">
-        <v>1476100</v>
+        <v>1451700</v>
       </c>
       <c r="K9" s="3">
         <v>1408800</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>948600</v>
+        <v>932900</v>
       </c>
       <c r="E10" s="3">
-        <v>702200</v>
+        <v>690500</v>
       </c>
       <c r="F10" s="3">
-        <v>820600</v>
+        <v>807000</v>
       </c>
       <c r="G10" s="3">
-        <v>848100</v>
+        <v>834100</v>
       </c>
       <c r="H10" s="3">
-        <v>874400</v>
+        <v>859900</v>
       </c>
       <c r="I10" s="3">
-        <v>879200</v>
+        <v>864700</v>
       </c>
       <c r="J10" s="3">
-        <v>896000</v>
+        <v>881100</v>
       </c>
       <c r="K10" s="3">
         <v>921500</v>
@@ -942,25 +942,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>367200</v>
+        <v>361200</v>
       </c>
       <c r="E12" s="3">
-        <v>384000</v>
+        <v>377600</v>
       </c>
       <c r="F12" s="3">
-        <v>288300</v>
+        <v>283500</v>
       </c>
       <c r="G12" s="3">
-        <v>290700</v>
+        <v>285900</v>
       </c>
       <c r="H12" s="3">
-        <v>275100</v>
+        <v>270600</v>
       </c>
       <c r="I12" s="3">
-        <v>290700</v>
+        <v>285900</v>
       </c>
       <c r="J12" s="3">
-        <v>282300</v>
+        <v>277600</v>
       </c>
       <c r="K12" s="3">
         <v>279200</v>
@@ -1054,13 +1054,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>26300</v>
+        <v>25900</v>
       </c>
       <c r="E14" s="3">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="F14" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1116,10 +1116,10 @@
         <v>10</v>
       </c>
       <c r="F15" s="3">
-        <v>21500</v>
+        <v>21200</v>
       </c>
       <c r="G15" s="3">
-        <v>22700</v>
+        <v>22400</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
@@ -1128,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -1185,25 +1185,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2787100</v>
+        <v>2741000</v>
       </c>
       <c r="E17" s="3">
-        <v>2732100</v>
+        <v>2686900</v>
       </c>
       <c r="F17" s="3">
-        <v>2117300</v>
+        <v>2082200</v>
       </c>
       <c r="G17" s="3">
-        <v>1973700</v>
+        <v>1941100</v>
       </c>
       <c r="H17" s="3">
-        <v>2172300</v>
+        <v>2136300</v>
       </c>
       <c r="I17" s="3">
-        <v>2071800</v>
+        <v>2037500</v>
       </c>
       <c r="J17" s="3">
-        <v>2007200</v>
+        <v>1974000</v>
       </c>
       <c r="K17" s="3">
         <v>1943500</v>
@@ -1241,25 +1241,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>191400</v>
+        <v>188200</v>
       </c>
       <c r="E18" s="3">
-        <v>-131600</v>
+        <v>-129400</v>
       </c>
       <c r="F18" s="3">
-        <v>258400</v>
+        <v>254100</v>
       </c>
       <c r="G18" s="3">
-        <v>318200</v>
+        <v>312900</v>
       </c>
       <c r="H18" s="3">
-        <v>294300</v>
+        <v>289400</v>
       </c>
       <c r="I18" s="3">
-        <v>338500</v>
+        <v>332900</v>
       </c>
       <c r="J18" s="3">
-        <v>364800</v>
+        <v>358800</v>
       </c>
       <c r="K18" s="3">
         <v>386800</v>
@@ -1319,25 +1319,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-17900</v>
+        <v>-17600</v>
       </c>
       <c r="E20" s="3">
-        <v>-74200</v>
+        <v>-72900</v>
       </c>
       <c r="F20" s="3">
-        <v>-20300</v>
+        <v>-20000</v>
       </c>
       <c r="G20" s="3">
-        <v>-15600</v>
+        <v>-15300</v>
       </c>
       <c r="H20" s="3">
-        <v>-23900</v>
+        <v>-23500</v>
       </c>
       <c r="I20" s="3">
-        <v>-37100</v>
+        <v>-36500</v>
       </c>
       <c r="J20" s="3">
-        <v>-12000</v>
+        <v>-11800</v>
       </c>
       <c r="K20" s="3">
         <v>-20100</v>
@@ -1375,25 +1375,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>626800</v>
+        <v>616400</v>
       </c>
       <c r="E21" s="3">
-        <v>251200</v>
+        <v>247000</v>
       </c>
       <c r="F21" s="3">
-        <v>535900</v>
+        <v>527000</v>
       </c>
       <c r="G21" s="3">
-        <v>601700</v>
+        <v>591700</v>
       </c>
       <c r="H21" s="3">
-        <v>562200</v>
+        <v>552900</v>
       </c>
       <c r="I21" s="3">
-        <v>586100</v>
+        <v>576400</v>
       </c>
       <c r="J21" s="3">
-        <v>631600</v>
+        <v>621100</v>
       </c>
       <c r="K21" s="3">
         <v>638800</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>173400</v>
+        <v>170600</v>
       </c>
       <c r="E23" s="3">
-        <v>-205700</v>
+        <v>-202300</v>
       </c>
       <c r="F23" s="3">
-        <v>238000</v>
+        <v>234100</v>
       </c>
       <c r="G23" s="3">
-        <v>302600</v>
+        <v>297600</v>
       </c>
       <c r="H23" s="3">
-        <v>270300</v>
+        <v>265900</v>
       </c>
       <c r="I23" s="3">
-        <v>301400</v>
+        <v>296500</v>
       </c>
       <c r="J23" s="3">
-        <v>352900</v>
+        <v>347000</v>
       </c>
       <c r="K23" s="3">
         <v>366700</v>
@@ -1543,25 +1543,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>39500</v>
+        <v>38800</v>
       </c>
       <c r="E24" s="3">
-        <v>-52600</v>
+        <v>-51800</v>
       </c>
       <c r="F24" s="3">
-        <v>25100</v>
+        <v>24700</v>
       </c>
       <c r="G24" s="3">
-        <v>51400</v>
+        <v>50600</v>
       </c>
       <c r="H24" s="3">
-        <v>75400</v>
+        <v>74100</v>
       </c>
       <c r="I24" s="3">
-        <v>33500</v>
+        <v>32900</v>
       </c>
       <c r="J24" s="3">
-        <v>55000</v>
+        <v>54100</v>
       </c>
       <c r="K24" s="3">
         <v>66200</v>
@@ -1655,25 +1655,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>134000</v>
+        <v>131800</v>
       </c>
       <c r="E26" s="3">
-        <v>-153100</v>
+        <v>-150600</v>
       </c>
       <c r="F26" s="3">
-        <v>212900</v>
+        <v>209400</v>
       </c>
       <c r="G26" s="3">
-        <v>251200</v>
+        <v>247000</v>
       </c>
       <c r="H26" s="3">
-        <v>195000</v>
+        <v>191800</v>
       </c>
       <c r="I26" s="3">
-        <v>267900</v>
+        <v>263500</v>
       </c>
       <c r="J26" s="3">
-        <v>297900</v>
+        <v>292900</v>
       </c>
       <c r="K26" s="3">
         <v>300500</v>
@@ -1711,25 +1711,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>125600</v>
+        <v>123500</v>
       </c>
       <c r="E27" s="3">
-        <v>-165100</v>
+        <v>-162300</v>
       </c>
       <c r="F27" s="3">
-        <v>201000</v>
+        <v>197600</v>
       </c>
       <c r="G27" s="3">
-        <v>241600</v>
+        <v>237600</v>
       </c>
       <c r="H27" s="3">
-        <v>195000</v>
+        <v>191800</v>
       </c>
       <c r="I27" s="3">
-        <v>267900</v>
+        <v>263500</v>
       </c>
       <c r="J27" s="3">
-        <v>297900</v>
+        <v>292900</v>
       </c>
       <c r="K27" s="3">
         <v>300500</v>
@@ -1823,7 +1823,7 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-3600</v>
+        <v>-3500</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-21500</v>
+        <v>-21200</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1991,25 +1991,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>17900</v>
+        <v>17600</v>
       </c>
       <c r="E32" s="3">
-        <v>74200</v>
+        <v>72900</v>
       </c>
       <c r="F32" s="3">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="G32" s="3">
-        <v>15600</v>
+        <v>15300</v>
       </c>
       <c r="H32" s="3">
-        <v>23900</v>
+        <v>23500</v>
       </c>
       <c r="I32" s="3">
-        <v>37100</v>
+        <v>36500</v>
       </c>
       <c r="J32" s="3">
-        <v>12000</v>
+        <v>11800</v>
       </c>
       <c r="K32" s="3">
         <v>20100</v>
@@ -2047,25 +2047,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>122000</v>
+        <v>120000</v>
       </c>
       <c r="E33" s="3">
-        <v>-165100</v>
+        <v>-162300</v>
       </c>
       <c r="F33" s="3">
-        <v>201000</v>
+        <v>197600</v>
       </c>
       <c r="G33" s="3">
-        <v>241600</v>
+        <v>237600</v>
       </c>
       <c r="H33" s="3">
-        <v>192600</v>
+        <v>189400</v>
       </c>
       <c r="I33" s="3">
-        <v>267900</v>
+        <v>263500</v>
       </c>
       <c r="J33" s="3">
-        <v>276300</v>
+        <v>271700</v>
       </c>
       <c r="K33" s="3">
         <v>300500</v>
@@ -2159,25 +2159,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>122000</v>
+        <v>120000</v>
       </c>
       <c r="E35" s="3">
-        <v>-165100</v>
+        <v>-162300</v>
       </c>
       <c r="F35" s="3">
-        <v>201000</v>
+        <v>197600</v>
       </c>
       <c r="G35" s="3">
-        <v>241600</v>
+        <v>237600</v>
       </c>
       <c r="H35" s="3">
-        <v>192600</v>
+        <v>189400</v>
       </c>
       <c r="I35" s="3">
-        <v>267900</v>
+        <v>263500</v>
       </c>
       <c r="J35" s="3">
-        <v>276300</v>
+        <v>271700</v>
       </c>
       <c r="K35" s="3">
         <v>300500</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2214200</v>
+        <v>2177500</v>
       </c>
       <c r="E41" s="3">
-        <v>2929500</v>
+        <v>2881000</v>
       </c>
       <c r="F41" s="3">
-        <v>1350500</v>
+        <v>1328200</v>
       </c>
       <c r="G41" s="3">
-        <v>1606500</v>
+        <v>1579900</v>
       </c>
       <c r="H41" s="3">
-        <v>1221300</v>
+        <v>1201100</v>
       </c>
       <c r="I41" s="3">
-        <v>863700</v>
+        <v>849400</v>
       </c>
       <c r="J41" s="3">
-        <v>967700</v>
+        <v>951700</v>
       </c>
       <c r="K41" s="3">
         <v>978300</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1646000</v>
+        <v>1618700</v>
       </c>
       <c r="E42" s="3">
-        <v>1197400</v>
+        <v>1177600</v>
       </c>
       <c r="F42" s="3">
-        <v>4137700</v>
+        <v>4069200</v>
       </c>
       <c r="G42" s="3">
-        <v>4205800</v>
+        <v>4136200</v>
       </c>
       <c r="H42" s="3">
-        <v>3299100</v>
+        <v>3244500</v>
       </c>
       <c r="I42" s="3">
-        <v>3245300</v>
+        <v>3191600</v>
       </c>
       <c r="J42" s="3">
-        <v>1283500</v>
+        <v>1262300</v>
       </c>
       <c r="K42" s="3">
         <v>1749500</v>
@@ -2432,25 +2432,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1638800</v>
+        <v>1611700</v>
       </c>
       <c r="E43" s="3">
-        <v>1528700</v>
+        <v>1503400</v>
       </c>
       <c r="F43" s="3">
-        <v>1485700</v>
+        <v>1461100</v>
       </c>
       <c r="G43" s="3">
-        <v>1180600</v>
+        <v>1161100</v>
       </c>
       <c r="H43" s="3">
-        <v>1472500</v>
+        <v>1448100</v>
       </c>
       <c r="I43" s="3">
-        <v>1269200</v>
+        <v>1248200</v>
       </c>
       <c r="J43" s="3">
-        <v>1268000</v>
+        <v>1247000</v>
       </c>
       <c r="K43" s="3">
         <v>1220800</v>
@@ -2488,25 +2488,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2454600</v>
+        <v>2414000</v>
       </c>
       <c r="E44" s="3">
-        <v>2649600</v>
+        <v>2605700</v>
       </c>
       <c r="F44" s="3">
-        <v>2076600</v>
+        <v>2042200</v>
       </c>
       <c r="G44" s="3">
-        <v>2113700</v>
+        <v>2078700</v>
       </c>
       <c r="H44" s="3">
-        <v>2034700</v>
+        <v>2001100</v>
       </c>
       <c r="I44" s="3">
-        <v>2102900</v>
+        <v>2068100</v>
       </c>
       <c r="J44" s="3">
-        <v>2040700</v>
+        <v>2006900</v>
       </c>
       <c r="K44" s="3">
         <v>1882000</v>
@@ -2544,25 +2544,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>634000</v>
+        <v>623500</v>
       </c>
       <c r="E45" s="3">
-        <v>759600</v>
+        <v>747000</v>
       </c>
       <c r="F45" s="3">
-        <v>986900</v>
+        <v>970500</v>
       </c>
       <c r="G45" s="3">
-        <v>753600</v>
+        <v>741100</v>
       </c>
       <c r="H45" s="3">
-        <v>935400</v>
+        <v>919900</v>
       </c>
       <c r="I45" s="3">
-        <v>882800</v>
+        <v>868200</v>
       </c>
       <c r="J45" s="3">
-        <v>651900</v>
+        <v>641100</v>
       </c>
       <c r="K45" s="3">
         <v>533500</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8587500</v>
+        <v>8445400</v>
       </c>
       <c r="E46" s="3">
-        <v>9064800</v>
+        <v>8914800</v>
       </c>
       <c r="F46" s="3">
-        <v>10037300</v>
+        <v>9871200</v>
       </c>
       <c r="G46" s="3">
-        <v>9860300</v>
+        <v>9697100</v>
       </c>
       <c r="H46" s="3">
-        <v>8963100</v>
+        <v>8814800</v>
       </c>
       <c r="I46" s="3">
-        <v>8363800</v>
+        <v>8225400</v>
       </c>
       <c r="J46" s="3">
-        <v>6211900</v>
+        <v>6109000</v>
       </c>
       <c r="K46" s="3">
         <v>6364000</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>105300</v>
+        <v>103500</v>
       </c>
       <c r="E47" s="3">
-        <v>130400</v>
+        <v>128200</v>
       </c>
       <c r="F47" s="3">
-        <v>87300</v>
+        <v>85900</v>
       </c>
       <c r="G47" s="3">
-        <v>87300</v>
+        <v>85900</v>
       </c>
       <c r="H47" s="3">
-        <v>34700</v>
+        <v>34100</v>
       </c>
       <c r="I47" s="3">
-        <v>44300</v>
+        <v>43500</v>
       </c>
       <c r="J47" s="3">
-        <v>44300</v>
+        <v>43500</v>
       </c>
       <c r="K47" s="3">
         <v>39000</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5258500</v>
+        <v>5171500</v>
       </c>
       <c r="E48" s="3">
-        <v>5198700</v>
+        <v>5112600</v>
       </c>
       <c r="F48" s="3">
-        <v>4491700</v>
+        <v>4417400</v>
       </c>
       <c r="G48" s="3">
-        <v>4510900</v>
+        <v>4436200</v>
       </c>
       <c r="H48" s="3">
-        <v>4198700</v>
+        <v>4129200</v>
       </c>
       <c r="I48" s="3">
-        <v>4061100</v>
+        <v>3993900</v>
       </c>
       <c r="J48" s="3">
-        <v>3952200</v>
+        <v>3886800</v>
       </c>
       <c r="K48" s="3">
         <v>3777000</v>
@@ -2768,25 +2768,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11385400</v>
+        <v>11197000</v>
       </c>
       <c r="E49" s="3">
-        <v>11958400</v>
+        <v>11760500</v>
       </c>
       <c r="F49" s="3">
-        <v>4315900</v>
+        <v>4244500</v>
       </c>
       <c r="G49" s="3">
-        <v>2136400</v>
+        <v>2101100</v>
       </c>
       <c r="H49" s="3">
-        <v>4318300</v>
+        <v>4246800</v>
       </c>
       <c r="I49" s="3">
-        <v>2092200</v>
+        <v>2057500</v>
       </c>
       <c r="J49" s="3">
-        <v>2102900</v>
+        <v>2068100</v>
       </c>
       <c r="K49" s="3">
         <v>2053500</v>
@@ -2936,25 +2936,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>978500</v>
+        <v>962300</v>
       </c>
       <c r="E52" s="3">
-        <v>1009600</v>
+        <v>992900</v>
       </c>
       <c r="F52" s="3">
-        <v>888800</v>
+        <v>874100</v>
       </c>
       <c r="G52" s="3">
-        <v>890000</v>
+        <v>875200</v>
       </c>
       <c r="H52" s="3">
-        <v>890000</v>
+        <v>875200</v>
       </c>
       <c r="I52" s="3">
-        <v>929400</v>
+        <v>914100</v>
       </c>
       <c r="J52" s="3">
-        <v>958200</v>
+        <v>942300</v>
       </c>
       <c r="K52" s="3">
         <v>930900</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26315200</v>
+        <v>25879600</v>
       </c>
       <c r="E54" s="3">
-        <v>27361900</v>
+        <v>26909000</v>
       </c>
       <c r="F54" s="3">
-        <v>17663100</v>
+        <v>17370700</v>
       </c>
       <c r="G54" s="3">
-        <v>17484900</v>
+        <v>17195400</v>
       </c>
       <c r="H54" s="3">
-        <v>16245600</v>
+        <v>15976700</v>
       </c>
       <c r="I54" s="3">
-        <v>15490800</v>
+        <v>15234400</v>
       </c>
       <c r="J54" s="3">
-        <v>13269400</v>
+        <v>13049800</v>
       </c>
       <c r="K54" s="3">
         <v>13164500</v>
@@ -3148,25 +3148,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1387600</v>
+        <v>1364600</v>
       </c>
       <c r="E57" s="3">
-        <v>1305100</v>
+        <v>1283500</v>
       </c>
       <c r="F57" s="3">
-        <v>1056200</v>
+        <v>1038800</v>
       </c>
       <c r="G57" s="3">
-        <v>1104100</v>
+        <v>1085800</v>
       </c>
       <c r="H57" s="3">
-        <v>1302700</v>
+        <v>1281100</v>
       </c>
       <c r="I57" s="3">
-        <v>1290700</v>
+        <v>1269300</v>
       </c>
       <c r="J57" s="3">
-        <v>1349300</v>
+        <v>1327000</v>
       </c>
       <c r="K57" s="3">
         <v>1407700</v>
@@ -3204,25 +3204,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>674700</v>
+        <v>663500</v>
       </c>
       <c r="E58" s="3">
-        <v>773900</v>
+        <v>761100</v>
       </c>
       <c r="F58" s="3">
-        <v>278700</v>
+        <v>274100</v>
       </c>
       <c r="G58" s="3">
-        <v>287100</v>
+        <v>282300</v>
       </c>
       <c r="H58" s="3">
-        <v>26300</v>
+        <v>25900</v>
       </c>
       <c r="I58" s="3">
-        <v>33500</v>
+        <v>32900</v>
       </c>
       <c r="J58" s="3">
-        <v>33500</v>
+        <v>32900</v>
       </c>
       <c r="K58" s="3">
         <v>26000</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2064600</v>
+        <v>2030500</v>
       </c>
       <c r="E59" s="3">
-        <v>1759600</v>
+        <v>1730500</v>
       </c>
       <c r="F59" s="3">
-        <v>1327800</v>
+        <v>1305800</v>
       </c>
       <c r="G59" s="3">
-        <v>991600</v>
+        <v>975200</v>
       </c>
       <c r="H59" s="3">
-        <v>1318200</v>
+        <v>1296400</v>
       </c>
       <c r="I59" s="3">
-        <v>1186600</v>
+        <v>1167000</v>
       </c>
       <c r="J59" s="3">
-        <v>860100</v>
+        <v>845800</v>
       </c>
       <c r="K59" s="3">
         <v>1057500</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4126900</v>
+        <v>4058600</v>
       </c>
       <c r="E60" s="3">
-        <v>3838600</v>
+        <v>3775100</v>
       </c>
       <c r="F60" s="3">
-        <v>2662700</v>
+        <v>2618700</v>
       </c>
       <c r="G60" s="3">
-        <v>2382800</v>
+        <v>2343400</v>
       </c>
       <c r="H60" s="3">
-        <v>2647200</v>
+        <v>2603400</v>
       </c>
       <c r="I60" s="3">
-        <v>2510800</v>
+        <v>2469300</v>
       </c>
       <c r="J60" s="3">
-        <v>2242900</v>
+        <v>2205800</v>
       </c>
       <c r="K60" s="3">
         <v>2491200</v>
@@ -3372,25 +3372,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8089900</v>
+        <v>7956000</v>
       </c>
       <c r="E61" s="3">
-        <v>8830300</v>
+        <v>8684200</v>
       </c>
       <c r="F61" s="3">
-        <v>1846900</v>
+        <v>1816400</v>
       </c>
       <c r="G61" s="3">
-        <v>1844500</v>
+        <v>1814000</v>
       </c>
       <c r="H61" s="3">
-        <v>1835000</v>
+        <v>1804600</v>
       </c>
       <c r="I61" s="3">
-        <v>1802700</v>
+        <v>1772800</v>
       </c>
       <c r="J61" s="3">
-        <v>1819400</v>
+        <v>1789300</v>
       </c>
       <c r="K61" s="3">
         <v>1787400</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1874400</v>
+        <v>1843400</v>
       </c>
       <c r="E62" s="3">
-        <v>2181900</v>
+        <v>2145800</v>
       </c>
       <c r="F62" s="3">
-        <v>1251200</v>
+        <v>1230500</v>
       </c>
       <c r="G62" s="3">
-        <v>1356500</v>
+        <v>1334000</v>
       </c>
       <c r="H62" s="3">
-        <v>1436600</v>
+        <v>1412900</v>
       </c>
       <c r="I62" s="3">
-        <v>1299100</v>
+        <v>1277600</v>
       </c>
       <c r="J62" s="3">
-        <v>1235700</v>
+        <v>1215200</v>
       </c>
       <c r="K62" s="3">
         <v>893100</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14091200</v>
+        <v>13858000</v>
       </c>
       <c r="E66" s="3">
-        <v>14850800</v>
+        <v>14605000</v>
       </c>
       <c r="F66" s="3">
-        <v>5760900</v>
+        <v>5665500</v>
       </c>
       <c r="G66" s="3">
-        <v>5583900</v>
+        <v>5491400</v>
       </c>
       <c r="H66" s="3">
-        <v>5918800</v>
+        <v>5820800</v>
       </c>
       <c r="I66" s="3">
-        <v>5612600</v>
+        <v>5519700</v>
       </c>
       <c r="J66" s="3">
-        <v>5298000</v>
+        <v>5210300</v>
       </c>
       <c r="K66" s="3">
         <v>5171600</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>520300</v>
+        <v>511700</v>
       </c>
       <c r="E72" s="3">
-        <v>465300</v>
+        <v>457600</v>
       </c>
       <c r="F72" s="3">
-        <v>927100</v>
+        <v>911700</v>
       </c>
       <c r="G72" s="3">
-        <v>803800</v>
+        <v>790500</v>
       </c>
       <c r="H72" s="3">
-        <v>503600</v>
+        <v>495300</v>
       </c>
       <c r="I72" s="3">
-        <v>372000</v>
+        <v>365900</v>
       </c>
       <c r="J72" s="3">
-        <v>147100</v>
+        <v>144700</v>
       </c>
       <c r="K72" s="3">
         <v>36700</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12224000</v>
+        <v>12021600</v>
       </c>
       <c r="E76" s="3">
-        <v>12511100</v>
+        <v>12304000</v>
       </c>
       <c r="F76" s="3">
-        <v>11902200</v>
+        <v>11705200</v>
       </c>
       <c r="G76" s="3">
-        <v>11901000</v>
+        <v>11704000</v>
       </c>
       <c r="H76" s="3">
-        <v>10326800</v>
+        <v>10155900</v>
       </c>
       <c r="I76" s="3">
-        <v>9878200</v>
+        <v>9714700</v>
       </c>
       <c r="J76" s="3">
-        <v>7971500</v>
+        <v>7839500</v>
       </c>
       <c r="K76" s="3">
         <v>7992900</v>
@@ -4351,25 +4351,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>122000</v>
+        <v>120000</v>
       </c>
       <c r="E81" s="3">
-        <v>-165100</v>
+        <v>-162300</v>
       </c>
       <c r="F81" s="3">
-        <v>201000</v>
+        <v>197600</v>
       </c>
       <c r="G81" s="3">
-        <v>241600</v>
+        <v>237600</v>
       </c>
       <c r="H81" s="3">
-        <v>192600</v>
+        <v>189400</v>
       </c>
       <c r="I81" s="3">
-        <v>267900</v>
+        <v>263500</v>
       </c>
       <c r="J81" s="3">
-        <v>276300</v>
+        <v>271700</v>
       </c>
       <c r="K81" s="3">
         <v>300500</v>
@@ -4429,25 +4429,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>453400</v>
+        <v>445900</v>
       </c>
       <c r="E83" s="3">
-        <v>456900</v>
+        <v>449400</v>
       </c>
       <c r="F83" s="3">
-        <v>297900</v>
+        <v>292900</v>
       </c>
       <c r="G83" s="3">
-        <v>299100</v>
+        <v>294100</v>
       </c>
       <c r="H83" s="3">
-        <v>291900</v>
+        <v>287000</v>
       </c>
       <c r="I83" s="3">
-        <v>284700</v>
+        <v>280000</v>
       </c>
       <c r="J83" s="3">
-        <v>278700</v>
+        <v>274100</v>
       </c>
       <c r="K83" s="3">
         <v>272100</v>
@@ -4765,25 +4765,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>892400</v>
+        <v>877600</v>
       </c>
       <c r="E89" s="3">
-        <v>636400</v>
+        <v>625800</v>
       </c>
       <c r="F89" s="3">
-        <v>421100</v>
+        <v>414100</v>
       </c>
       <c r="G89" s="3">
-        <v>216500</v>
+        <v>212900</v>
       </c>
       <c r="H89" s="3">
-        <v>818200</v>
+        <v>804700</v>
       </c>
       <c r="I89" s="3">
-        <v>472500</v>
+        <v>464700</v>
       </c>
       <c r="J89" s="3">
-        <v>254800</v>
+        <v>250600</v>
       </c>
       <c r="K89" s="3">
         <v>365500</v>
@@ -4843,25 +4843,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-329000</v>
+        <v>-323500</v>
       </c>
       <c r="E91" s="3">
-        <v>-259600</v>
+        <v>-255300</v>
       </c>
       <c r="F91" s="3">
-        <v>-248800</v>
+        <v>-244700</v>
       </c>
       <c r="G91" s="3">
-        <v>-257200</v>
+        <v>-252900</v>
       </c>
       <c r="H91" s="3">
-        <v>-366000</v>
+        <v>-360000</v>
       </c>
       <c r="I91" s="3">
-        <v>-366000</v>
+        <v>-360000</v>
       </c>
       <c r="J91" s="3">
-        <v>-375600</v>
+        <v>-369400</v>
       </c>
       <c r="K91" s="3">
         <v>-436500</v>
@@ -5011,25 +5011,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-879200</v>
+        <v>-864700</v>
       </c>
       <c r="E94" s="3">
-        <v>-6229800</v>
+        <v>-6126700</v>
       </c>
       <c r="F94" s="3">
-        <v>-228500</v>
+        <v>-224700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1241700</v>
+        <v>-1221100</v>
       </c>
       <c r="H94" s="3">
-        <v>-452200</v>
+        <v>-444700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2368500</v>
+        <v>-2329300</v>
       </c>
       <c r="J94" s="3">
-        <v>77800</v>
+        <v>76500</v>
       </c>
       <c r="K94" s="3">
         <v>-230700</v>
@@ -5313,25 +5313,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-677000</v>
+        <v>-665800</v>
       </c>
       <c r="E100" s="3">
-        <v>7213100</v>
+        <v>7093700</v>
       </c>
       <c r="F100" s="3">
-        <v>-428200</v>
+        <v>-421200</v>
       </c>
       <c r="G100" s="3">
-        <v>1397200</v>
+        <v>1374000</v>
       </c>
       <c r="H100" s="3">
-        <v>-10800</v>
+        <v>-10600</v>
       </c>
       <c r="I100" s="3">
-        <v>1793100</v>
+        <v>1763400</v>
       </c>
       <c r="J100" s="3">
-        <v>-363600</v>
+        <v>-357600</v>
       </c>
       <c r="K100" s="3">
         <v>-22500</v>
@@ -5369,16 +5369,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-51400</v>
+        <v>-50600</v>
       </c>
       <c r="E101" s="3">
-        <v>-40700</v>
+        <v>-40000</v>
       </c>
       <c r="F101" s="3">
-        <v>-20300</v>
+        <v>-20000</v>
       </c>
       <c r="G101" s="3">
-        <v>13200</v>
+        <v>12900</v>
       </c>
       <c r="H101" s="3">
         <v>2400</v>
@@ -5387,7 +5387,7 @@
         <v>-1200</v>
       </c>
       <c r="J101" s="3">
-        <v>9600</v>
+        <v>9400</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5425,25 +5425,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-715300</v>
+        <v>-703500</v>
       </c>
       <c r="E102" s="3">
-        <v>1579000</v>
+        <v>1552800</v>
       </c>
       <c r="F102" s="3">
-        <v>-256000</v>
+        <v>-251700</v>
       </c>
       <c r="G102" s="3">
-        <v>385200</v>
+        <v>378800</v>
       </c>
       <c r="H102" s="3">
-        <v>357700</v>
+        <v>351700</v>
       </c>
       <c r="I102" s="3">
-        <v>-104100</v>
+        <v>-102300</v>
       </c>
       <c r="J102" s="3">
-        <v>-21500</v>
+        <v>-21200</v>
       </c>
       <c r="K102" s="3">
         <v>112400</v>

--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2929200</v>
+        <v>3307500</v>
       </c>
       <c r="E8" s="3">
-        <v>2557500</v>
+        <v>3222900</v>
       </c>
       <c r="F8" s="3">
-        <v>2336300</v>
+        <v>3050200</v>
       </c>
       <c r="G8" s="3">
-        <v>2254000</v>
+        <v>2663100</v>
       </c>
       <c r="H8" s="3">
-        <v>2425700</v>
+        <v>2432800</v>
       </c>
       <c r="I8" s="3">
+        <v>2347100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2525900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2370400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2332800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2330300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2421400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2131200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2060000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1991500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6136200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2054400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4006200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1932100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1966100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1996400</v>
+        <v>2116800</v>
       </c>
       <c r="E9" s="3">
-        <v>1866900</v>
+        <v>2016300</v>
       </c>
       <c r="F9" s="3">
-        <v>1529300</v>
+        <v>2078800</v>
       </c>
       <c r="G9" s="3">
-        <v>1419900</v>
+        <v>1944100</v>
       </c>
       <c r="H9" s="3">
-        <v>1565800</v>
+        <v>1592500</v>
       </c>
       <c r="I9" s="3">
+        <v>1478600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1630500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1505800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1451700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1408800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1458500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1316500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1294800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1266700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3817000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1269000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2554200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1237200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1252500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>932900</v>
+        <v>1190700</v>
       </c>
       <c r="E10" s="3">
-        <v>690500</v>
+        <v>1206600</v>
       </c>
       <c r="F10" s="3">
-        <v>807000</v>
+        <v>971400</v>
       </c>
       <c r="G10" s="3">
-        <v>834100</v>
+        <v>719100</v>
       </c>
       <c r="H10" s="3">
-        <v>859900</v>
+        <v>840300</v>
       </c>
       <c r="I10" s="3">
+        <v>868500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>895500</v>
+      </c>
+      <c r="K10" s="3">
         <v>864700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>881100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>921500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>962900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>814700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>765200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>724800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2319200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>785400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1452000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>694900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +961,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>361200</v>
+        <v>414000</v>
       </c>
       <c r="E12" s="3">
-        <v>377600</v>
+        <v>400600</v>
       </c>
       <c r="F12" s="3">
-        <v>283500</v>
+        <v>376100</v>
       </c>
       <c r="G12" s="3">
+        <v>393200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>295200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>297700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>281700</v>
+      </c>
+      <c r="K12" s="3">
         <v>285900</v>
       </c>
-      <c r="H12" s="3">
-        <v>270600</v>
-      </c>
-      <c r="I12" s="3">
-        <v>285900</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>277600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>279200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>263800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>239400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>223300</v>
-      </c>
-      <c r="O12" s="3">
-        <v>218800</v>
-      </c>
-      <c r="P12" s="3">
-        <v>642900</v>
       </c>
       <c r="Q12" s="3">
         <v>218800</v>
       </c>
       <c r="R12" s="3">
+        <v>642900</v>
+      </c>
+      <c r="S12" s="3">
+        <v>218800</v>
+      </c>
+      <c r="T12" s="3">
         <v>460100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>234800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,25 +1081,31 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>25900</v>
+        <v>3700</v>
       </c>
       <c r="E14" s="3">
-        <v>20000</v>
+        <v>2400</v>
       </c>
       <c r="F14" s="3">
-        <v>11800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>26900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>20800</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1080,11 +1119,11 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1095,73 +1134,85 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>84500</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3">
-        <v>21200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>22400</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>23300</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="3">
-        <v>11800</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
+      <c r="L15" s="3">
+        <v>11800</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3">
-        <v>14600</v>
+      <c r="N15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>10</v>
+      <c r="P15" s="3">
+        <v>14600</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2741000</v>
+        <v>2926500</v>
       </c>
       <c r="E17" s="3">
-        <v>2686900</v>
+        <v>2818700</v>
       </c>
       <c r="F17" s="3">
-        <v>2082200</v>
+        <v>2854200</v>
       </c>
       <c r="G17" s="3">
-        <v>1941100</v>
+        <v>2797900</v>
       </c>
       <c r="H17" s="3">
-        <v>2136300</v>
+        <v>2168200</v>
       </c>
       <c r="I17" s="3">
+        <v>2021200</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2224600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2037500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1974000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1943500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1983700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1781000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1463100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1713300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5191400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1720000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3521400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1716100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1696200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>188200</v>
+        <v>381000</v>
       </c>
       <c r="E18" s="3">
-        <v>-129400</v>
+        <v>404200</v>
       </c>
       <c r="F18" s="3">
-        <v>254100</v>
+        <v>196000</v>
       </c>
       <c r="G18" s="3">
-        <v>312900</v>
+        <v>-134700</v>
       </c>
       <c r="H18" s="3">
-        <v>289400</v>
+        <v>264600</v>
       </c>
       <c r="I18" s="3">
+        <v>325800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>301300</v>
+      </c>
+      <c r="K18" s="3">
         <v>332900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>358800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>386800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>437700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>350300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>596900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>278300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>944700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>334400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>484800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>216000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1378,134 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-75900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="O20" s="3">
         <v>-17600</v>
       </c>
-      <c r="E20" s="3">
-        <v>-72900</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="P20" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-32900</v>
+      </c>
+      <c r="U20" s="3">
         <v>-20000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-23500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-36500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-20100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-17700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-15700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-37000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-32900</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>616400</v>
+        <v>782800</v>
       </c>
       <c r="E21" s="3">
-        <v>247000</v>
+        <v>824400</v>
       </c>
       <c r="F21" s="3">
-        <v>527000</v>
+        <v>641900</v>
       </c>
       <c r="G21" s="3">
-        <v>591700</v>
+        <v>257200</v>
       </c>
       <c r="H21" s="3">
-        <v>552900</v>
+        <v>548800</v>
       </c>
       <c r="I21" s="3">
+        <v>616200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>575700</v>
+      </c>
+      <c r="K21" s="3">
         <v>576400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>621100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>638800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>687300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>573200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>820200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>491400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>2048800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>94200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>927300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>430800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1451,18 +1530,18 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
@@ -1472,129 +1551,147 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>10</v>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>170600</v>
+        <v>332000</v>
       </c>
       <c r="E23" s="3">
-        <v>-202300</v>
+        <v>373600</v>
       </c>
       <c r="F23" s="3">
-        <v>234100</v>
+        <v>177600</v>
       </c>
       <c r="G23" s="3">
-        <v>297600</v>
+        <v>-210700</v>
       </c>
       <c r="H23" s="3">
-        <v>265900</v>
+        <v>243800</v>
       </c>
       <c r="I23" s="3">
+        <v>309900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>276800</v>
+      </c>
+      <c r="K23" s="3">
         <v>296500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>347000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>366700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>419900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>332700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>582300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>262500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>907700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>322000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>451900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>196000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>38800</v>
+        <v>75900</v>
       </c>
       <c r="E24" s="3">
-        <v>-51800</v>
+        <v>60000</v>
       </c>
       <c r="F24" s="3">
+        <v>40400</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-53900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>25700</v>
+      </c>
+      <c r="I24" s="3">
+        <v>52700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>77200</v>
+      </c>
+      <c r="K24" s="3">
+        <v>32900</v>
+      </c>
+      <c r="L24" s="3">
+        <v>54100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>66200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>63900</v>
+      </c>
+      <c r="O24" s="3">
+        <v>53800</v>
+      </c>
+      <c r="P24" s="3">
+        <v>69600</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>31400</v>
+      </c>
+      <c r="R24" s="3">
+        <v>228900</v>
+      </c>
+      <c r="S24" s="3">
+        <v>41500</v>
+      </c>
+      <c r="T24" s="3">
         <v>24700</v>
       </c>
-      <c r="G24" s="3">
-        <v>50600</v>
-      </c>
-      <c r="H24" s="3">
-        <v>74100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>32900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>54100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>66200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>63900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>53800</v>
-      </c>
-      <c r="N24" s="3">
-        <v>69600</v>
-      </c>
-      <c r="O24" s="3">
-        <v>31400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>228900</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>41500</v>
-      </c>
-      <c r="R24" s="3">
-        <v>24700</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>131800</v>
+        <v>256000</v>
       </c>
       <c r="E26" s="3">
-        <v>-150600</v>
+        <v>313600</v>
       </c>
       <c r="F26" s="3">
-        <v>209400</v>
+        <v>137200</v>
       </c>
       <c r="G26" s="3">
-        <v>247000</v>
+        <v>-156800</v>
       </c>
       <c r="H26" s="3">
-        <v>191800</v>
+        <v>218000</v>
       </c>
       <c r="I26" s="3">
+        <v>257200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>199700</v>
+      </c>
+      <c r="K26" s="3">
         <v>263500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>292900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>300500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>356100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>278900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>512700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>231100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>678800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>280500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>427300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>194900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>123500</v>
+        <v>246200</v>
       </c>
       <c r="E27" s="3">
-        <v>-162300</v>
+        <v>303800</v>
       </c>
       <c r="F27" s="3">
-        <v>197600</v>
+        <v>128600</v>
       </c>
       <c r="G27" s="3">
-        <v>237600</v>
+        <v>-169000</v>
       </c>
       <c r="H27" s="3">
-        <v>191800</v>
+        <v>205800</v>
       </c>
       <c r="I27" s="3">
+        <v>247400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>199700</v>
+      </c>
+      <c r="K27" s="3">
         <v>263500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>292900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>300500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>356100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>278900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>512700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>231100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>678800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>280500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>427300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>194900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,64 +1932,76 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-3500</v>
+        <v>-7300</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-3700</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-2400</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-21200</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-188100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>18700</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>1100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>3400</v>
-      </c>
-      <c r="R29" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="S29" s="3">
-        <v>-4700</v>
       </c>
       <c r="T29" s="3">
         <v>-3500</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="V29" s="3">
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>30600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>75900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>20800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>24500</v>
+      </c>
+      <c r="K32" s="3">
+        <v>36500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>11800</v>
+      </c>
+      <c r="M32" s="3">
+        <v>20100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>17700</v>
+      </c>
+      <c r="O32" s="3">
         <v>17600</v>
       </c>
-      <c r="E32" s="3">
-        <v>72900</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="P32" s="3">
+        <v>14600</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>15700</v>
+      </c>
+      <c r="R32" s="3">
+        <v>37000</v>
+      </c>
+      <c r="S32" s="3">
+        <v>12300</v>
+      </c>
+      <c r="T32" s="3">
+        <v>32900</v>
+      </c>
+      <c r="U32" s="3">
         <v>20000</v>
       </c>
-      <c r="G32" s="3">
-        <v>15300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>23500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>36500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>11800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>20100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>17700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>17600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>14600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>15700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>37000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>12300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>32900</v>
-      </c>
-      <c r="S32" s="3">
-        <v>20000</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>120000</v>
+        <v>238900</v>
       </c>
       <c r="E33" s="3">
-        <v>-162300</v>
+        <v>303800</v>
       </c>
       <c r="F33" s="3">
-        <v>197600</v>
+        <v>124900</v>
       </c>
       <c r="G33" s="3">
-        <v>237600</v>
+        <v>-169000</v>
       </c>
       <c r="H33" s="3">
-        <v>189400</v>
+        <v>205800</v>
       </c>
       <c r="I33" s="3">
+        <v>247400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>197200</v>
+      </c>
+      <c r="K33" s="3">
         <v>263500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>271700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>300500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>168000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>297600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>512700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>230000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>679900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>283900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>423700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>190200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>120000</v>
+        <v>238900</v>
       </c>
       <c r="E35" s="3">
-        <v>-162300</v>
+        <v>303800</v>
       </c>
       <c r="F35" s="3">
-        <v>197600</v>
+        <v>124900</v>
       </c>
       <c r="G35" s="3">
-        <v>237600</v>
+        <v>-169000</v>
       </c>
       <c r="H35" s="3">
-        <v>189400</v>
+        <v>205800</v>
       </c>
       <c r="I35" s="3">
+        <v>247400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>197200</v>
+      </c>
+      <c r="K35" s="3">
         <v>263500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>271700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>300500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>168000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>297600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>512700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>230000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>679900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>283900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>423700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>190200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2485,568 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2177500</v>
+        <v>2294400</v>
       </c>
       <c r="E41" s="3">
-        <v>2881000</v>
+        <v>2320100</v>
       </c>
       <c r="F41" s="3">
-        <v>1328200</v>
+        <v>2267500</v>
       </c>
       <c r="G41" s="3">
-        <v>1579900</v>
+        <v>3000000</v>
       </c>
       <c r="H41" s="3">
-        <v>1201100</v>
+        <v>1383000</v>
       </c>
       <c r="I41" s="3">
+        <v>1645200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1250700</v>
+      </c>
+      <c r="K41" s="3">
         <v>849400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>951700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>978300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>865900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>846600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>814600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>835900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>964900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>814600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>846300</v>
       </c>
-      <c r="S41" s="3" t="s">
+      <c r="U41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1618700</v>
+        <v>1924500</v>
       </c>
       <c r="E42" s="3">
-        <v>1177600</v>
+        <v>1764000</v>
       </c>
       <c r="F42" s="3">
-        <v>4069200</v>
+        <v>1685600</v>
       </c>
       <c r="G42" s="3">
-        <v>4136200</v>
+        <v>1226200</v>
       </c>
       <c r="H42" s="3">
-        <v>3244500</v>
+        <v>4237200</v>
       </c>
       <c r="I42" s="3">
+        <v>4307100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3378500</v>
+      </c>
+      <c r="K42" s="3">
         <v>3191600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1262300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1749500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2142200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>2031300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1920800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1758200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1786200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1672900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1558800</v>
       </c>
-      <c r="S42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1895700</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1611700</v>
+        <v>1804400</v>
       </c>
       <c r="E43" s="3">
-        <v>1503400</v>
+        <v>1587600</v>
       </c>
       <c r="F43" s="3">
-        <v>1461100</v>
+        <v>1678200</v>
       </c>
       <c r="G43" s="3">
-        <v>1161100</v>
+        <v>1565500</v>
       </c>
       <c r="H43" s="3">
-        <v>1448100</v>
+        <v>1521400</v>
       </c>
       <c r="I43" s="3">
+        <v>1209100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1508000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1248200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1247000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1220800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1210100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1046400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>970500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>902100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3306500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>958200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>970700</v>
       </c>
-      <c r="S43" s="3" t="s">
+      <c r="U43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>915600</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2414000</v>
+        <v>2372800</v>
       </c>
       <c r="E44" s="3">
-        <v>2605700</v>
+        <v>2394900</v>
       </c>
       <c r="F44" s="3">
-        <v>2042200</v>
+        <v>2513700</v>
       </c>
       <c r="G44" s="3">
-        <v>2078700</v>
+        <v>2713400</v>
       </c>
       <c r="H44" s="3">
-        <v>2001100</v>
+        <v>2126600</v>
       </c>
       <c r="I44" s="3">
+        <v>2164600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2083700</v>
+      </c>
+      <c r="K44" s="3">
         <v>2068100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2006900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1882000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1750700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1524000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1464200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1438400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1391300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1396900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1441400</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="U44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1398000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>623500</v>
+        <v>667600</v>
       </c>
       <c r="E45" s="3">
-        <v>747000</v>
+        <v>645600</v>
       </c>
       <c r="F45" s="3">
-        <v>970500</v>
+        <v>649200</v>
       </c>
       <c r="G45" s="3">
-        <v>741100</v>
+        <v>777900</v>
       </c>
       <c r="H45" s="3">
-        <v>919900</v>
+        <v>1010600</v>
       </c>
       <c r="I45" s="3">
+        <v>771700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>957900</v>
+      </c>
+      <c r="K45" s="3">
         <v>868200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>641100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>533500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>446000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>435900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>409500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>410600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>6195600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>356800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>336900</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>329800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8445400</v>
+        <v>9063700</v>
       </c>
       <c r="E46" s="3">
-        <v>8914800</v>
+        <v>8712100</v>
       </c>
       <c r="F46" s="3">
-        <v>9871200</v>
+        <v>8794200</v>
       </c>
       <c r="G46" s="3">
-        <v>9697100</v>
+        <v>9283000</v>
       </c>
       <c r="H46" s="3">
-        <v>8814800</v>
+        <v>10278900</v>
       </c>
       <c r="I46" s="3">
+        <v>10097600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9178900</v>
+      </c>
+      <c r="K46" s="3">
         <v>8225400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6109000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6364000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6414900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5884200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>5579700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5345200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8448600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5199300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5154200</v>
       </c>
-      <c r="S46" s="3" t="s">
+      <c r="U46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5272800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>103500</v>
+        <v>96800</v>
       </c>
       <c r="E47" s="3">
-        <v>128200</v>
+        <v>98000</v>
       </c>
       <c r="F47" s="3">
-        <v>85900</v>
+        <v>107800</v>
       </c>
       <c r="G47" s="3">
-        <v>85900</v>
+        <v>133500</v>
       </c>
       <c r="H47" s="3">
-        <v>34100</v>
+        <v>89400</v>
       </c>
       <c r="I47" s="3">
+        <v>89400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>35500</v>
+      </c>
+      <c r="K47" s="3">
         <v>43500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>43500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>39000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>43800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>43900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>42600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>31400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>11876300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>38100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>42300</v>
       </c>
-      <c r="S47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5171500</v>
+        <v>5464700</v>
       </c>
       <c r="E48" s="3">
-        <v>5112600</v>
+        <v>5363000</v>
       </c>
       <c r="F48" s="3">
-        <v>4417400</v>
+        <v>5385100</v>
       </c>
       <c r="G48" s="3">
-        <v>4436200</v>
+        <v>5323800</v>
       </c>
       <c r="H48" s="3">
-        <v>4129200</v>
+        <v>4599800</v>
       </c>
       <c r="I48" s="3">
+        <v>4619400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4299700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3993900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3886800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3777000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3593700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3132600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3128100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3085500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2983400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2851000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2974400</v>
       </c>
-      <c r="S48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2487300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11197000</v>
+        <v>11464700</v>
       </c>
       <c r="E49" s="3">
-        <v>11760500</v>
+        <v>11076400</v>
       </c>
       <c r="F49" s="3">
-        <v>4244500</v>
+        <v>11659500</v>
       </c>
       <c r="G49" s="3">
-        <v>2101100</v>
+        <v>12246200</v>
       </c>
       <c r="H49" s="3">
-        <v>4246800</v>
+        <v>4419800</v>
       </c>
       <c r="I49" s="3">
+        <v>2187800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4422200</v>
+      </c>
+      <c r="K49" s="3">
         <v>2057500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2068100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2053500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1887900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1733700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1705400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1755900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1810900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>1819900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>1989600</v>
       </c>
-      <c r="S49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1943800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3163,76 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>962300</v>
+        <v>1005700</v>
       </c>
       <c r="E52" s="3">
-        <v>992900</v>
+        <v>1000800</v>
       </c>
       <c r="F52" s="3">
-        <v>874100</v>
+        <v>1002000</v>
       </c>
       <c r="G52" s="3">
-        <v>875200</v>
+        <v>1033900</v>
       </c>
       <c r="H52" s="3">
-        <v>875200</v>
+        <v>910200</v>
       </c>
       <c r="I52" s="3">
+        <v>911400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>911400</v>
+      </c>
+      <c r="K52" s="3">
         <v>914100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>942300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>930900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>928600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>858600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>843700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>926800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2890200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>913300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>961400</v>
       </c>
-      <c r="S52" s="3" t="s">
+      <c r="U52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>921400</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25879600</v>
+        <v>27095600</v>
       </c>
       <c r="E54" s="3">
-        <v>26909000</v>
+        <v>26250300</v>
       </c>
       <c r="F54" s="3">
-        <v>17370700</v>
+        <v>26948600</v>
       </c>
       <c r="G54" s="3">
-        <v>17195400</v>
+        <v>28020400</v>
       </c>
       <c r="H54" s="3">
-        <v>15976700</v>
+        <v>18088200</v>
       </c>
       <c r="I54" s="3">
+        <v>17905700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>16636600</v>
+      </c>
+      <c r="K54" s="3">
         <v>15234400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13049800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13164500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12868800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>11653100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>11299600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11144700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11158200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10821600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>11121800</v>
       </c>
-      <c r="S54" s="3" t="s">
+      <c r="U54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>10666400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3401,382 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1364600</v>
+        <v>1559400</v>
       </c>
       <c r="E57" s="3">
-        <v>1283500</v>
+        <v>1380600</v>
       </c>
       <c r="F57" s="3">
-        <v>1038800</v>
+        <v>1421000</v>
       </c>
       <c r="G57" s="3">
-        <v>1085800</v>
+        <v>1336500</v>
       </c>
       <c r="H57" s="3">
-        <v>1281100</v>
+        <v>1081700</v>
       </c>
       <c r="I57" s="3">
+        <v>1130700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1269300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1327000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1407700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1397000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1110100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1073700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1069300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1144400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>987400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>971900</v>
       </c>
-      <c r="S57" s="3" t="s">
+      <c r="U57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1006000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>663500</v>
+        <v>1095100</v>
       </c>
       <c r="E58" s="3">
-        <v>761100</v>
+        <v>463000</v>
       </c>
       <c r="F58" s="3">
-        <v>274100</v>
+        <v>690900</v>
       </c>
       <c r="G58" s="3">
-        <v>282300</v>
+        <v>792600</v>
       </c>
       <c r="H58" s="3">
-        <v>25900</v>
+        <v>285400</v>
       </c>
       <c r="I58" s="3">
+        <v>294000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K58" s="3">
         <v>32900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>32900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>26000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>29600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>350300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>359000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>354500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1506800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>22400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>142000</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2030500</v>
+        <v>2050600</v>
       </c>
       <c r="E59" s="3">
-        <v>1730500</v>
+        <v>1957500</v>
       </c>
       <c r="F59" s="3">
-        <v>1305800</v>
+        <v>2114300</v>
       </c>
       <c r="G59" s="3">
-        <v>975200</v>
+        <v>1802000</v>
       </c>
       <c r="H59" s="3">
-        <v>1296400</v>
+        <v>1359700</v>
       </c>
       <c r="I59" s="3">
+        <v>1015500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1349900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1167000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>845800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1057500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1154500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>795000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>695600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>711300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3932600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>802200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>694900</v>
       </c>
-      <c r="S59" s="3" t="s">
+      <c r="U59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4058600</v>
+        <v>4705200</v>
       </c>
       <c r="E60" s="3">
-        <v>3775100</v>
+        <v>3801100</v>
       </c>
       <c r="F60" s="3">
-        <v>2618700</v>
+        <v>4226200</v>
       </c>
       <c r="G60" s="3">
-        <v>2343400</v>
+        <v>3931000</v>
       </c>
       <c r="H60" s="3">
-        <v>2603400</v>
+        <v>2726800</v>
       </c>
       <c r="I60" s="3">
+        <v>2440200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2710900</v>
+      </c>
+      <c r="K60" s="3">
         <v>2469300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2205800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2491200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2581100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2255300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2128400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2135100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4049300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1812000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1808800</v>
       </c>
-      <c r="S60" s="3" t="s">
+      <c r="U60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1795900</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7956000</v>
+        <v>7694200</v>
       </c>
       <c r="E61" s="3">
-        <v>8684200</v>
+        <v>8109400</v>
       </c>
       <c r="F61" s="3">
-        <v>1816400</v>
+        <v>8284600</v>
       </c>
       <c r="G61" s="3">
-        <v>1814000</v>
+        <v>9042900</v>
       </c>
       <c r="H61" s="3">
-        <v>1804600</v>
+        <v>1891400</v>
       </c>
       <c r="I61" s="3">
+        <v>1888900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1879100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1772800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1789300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1787400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1782600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1658000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1648200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1675100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2259700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2063300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2225500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>2056500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1843400</v>
+        <v>1813000</v>
       </c>
       <c r="E62" s="3">
-        <v>2145800</v>
+        <v>1880400</v>
       </c>
       <c r="F62" s="3">
-        <v>1230500</v>
+        <v>1919600</v>
       </c>
       <c r="G62" s="3">
-        <v>1334000</v>
+        <v>2234400</v>
       </c>
       <c r="H62" s="3">
-        <v>1412900</v>
+        <v>1281300</v>
       </c>
       <c r="I62" s="3">
+        <v>1389100</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1471200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1277600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1215200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>893100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>880100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>803700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>814600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>788800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>880800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>777500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>820500</v>
       </c>
-      <c r="S62" s="3" t="s">
+      <c r="U62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13858000</v>
+        <v>14212300</v>
       </c>
       <c r="E66" s="3">
-        <v>14605000</v>
+        <v>13790900</v>
       </c>
       <c r="F66" s="3">
-        <v>5665500</v>
+        <v>14430400</v>
       </c>
       <c r="G66" s="3">
-        <v>5491400</v>
+        <v>15208300</v>
       </c>
       <c r="H66" s="3">
-        <v>5820800</v>
+        <v>5899600</v>
       </c>
       <c r="I66" s="3">
+        <v>5718300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6061300</v>
+      </c>
+      <c r="K66" s="3">
         <v>5519700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5210300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5171600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5243800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4717000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4591200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4599000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4834700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4652900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4854900</v>
       </c>
-      <c r="S66" s="3" t="s">
+      <c r="U66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4770400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>511700</v>
+        <v>808500</v>
       </c>
       <c r="E72" s="3">
-        <v>457600</v>
+        <v>-109000</v>
       </c>
       <c r="F72" s="3">
-        <v>911700</v>
+        <v>532900</v>
       </c>
       <c r="G72" s="3">
-        <v>790500</v>
+        <v>476500</v>
       </c>
       <c r="H72" s="3">
-        <v>495300</v>
+        <v>949400</v>
       </c>
       <c r="I72" s="3">
+        <v>823200</v>
+      </c>
+      <c r="J72" s="3">
+        <v>515700</v>
+      </c>
+      <c r="K72" s="3">
         <v>365900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>144700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>36700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-327700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-461200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-844900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1325100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3115800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1713300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2158600</v>
       </c>
-      <c r="S72" s="3" t="s">
+      <c r="U72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2713800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4537,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12021600</v>
+        <v>12883200</v>
       </c>
       <c r="E76" s="3">
-        <v>12304000</v>
+        <v>12459400</v>
       </c>
       <c r="F76" s="3">
-        <v>11705200</v>
+        <v>12518200</v>
       </c>
       <c r="G76" s="3">
-        <v>11704000</v>
+        <v>12812200</v>
       </c>
       <c r="H76" s="3">
-        <v>10155900</v>
+        <v>12188700</v>
       </c>
       <c r="I76" s="3">
+        <v>12187400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>10575300</v>
+      </c>
+      <c r="K76" s="3">
         <v>9714700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>7839500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>7992900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7625000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6936100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6708400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6545700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6323500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>6168700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6267000</v>
       </c>
-      <c r="S76" s="3" t="s">
+      <c r="U76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5896000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>120000</v>
+        <v>238900</v>
       </c>
       <c r="E81" s="3">
-        <v>-162300</v>
+        <v>303800</v>
       </c>
       <c r="F81" s="3">
-        <v>197600</v>
+        <v>124900</v>
       </c>
       <c r="G81" s="3">
-        <v>237600</v>
+        <v>-169000</v>
       </c>
       <c r="H81" s="3">
-        <v>189400</v>
+        <v>205800</v>
       </c>
       <c r="I81" s="3">
+        <v>247400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>197200</v>
+      </c>
+      <c r="K81" s="3">
         <v>263500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>271700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>300500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>168000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>297600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>512700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>230000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>679900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>283900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>423700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>190200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4818,72 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>445900</v>
+        <v>450800</v>
       </c>
       <c r="E83" s="3">
-        <v>449400</v>
+        <v>450800</v>
       </c>
       <c r="F83" s="3">
-        <v>292900</v>
+        <v>464300</v>
       </c>
       <c r="G83" s="3">
-        <v>294100</v>
+        <v>467900</v>
       </c>
       <c r="H83" s="3">
-        <v>287000</v>
+        <v>305000</v>
       </c>
       <c r="I83" s="3">
+        <v>306200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>298900</v>
+      </c>
+      <c r="K83" s="3">
         <v>280000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>274100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>272100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>267300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>240500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>237900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>228900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>230000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>226600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>475400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>234800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>877600</v>
+        <v>907700</v>
       </c>
       <c r="E89" s="3">
-        <v>625800</v>
+        <v>719100</v>
       </c>
       <c r="F89" s="3">
-        <v>414100</v>
+        <v>913800</v>
       </c>
       <c r="G89" s="3">
-        <v>212900</v>
+        <v>651700</v>
       </c>
       <c r="H89" s="3">
-        <v>804700</v>
+        <v>431200</v>
       </c>
       <c r="I89" s="3">
+        <v>221700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>837900</v>
+      </c>
+      <c r="K89" s="3">
         <v>464700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>250600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>365500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>760600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>506200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>344500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>184000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>690000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>593500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>679600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>331000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>518800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5276,72 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-323500</v>
+        <v>-323400</v>
       </c>
       <c r="E91" s="3">
-        <v>-255300</v>
+        <v>-285400</v>
       </c>
       <c r="F91" s="3">
-        <v>-244700</v>
+        <v>-336900</v>
       </c>
       <c r="G91" s="3">
-        <v>-252900</v>
+        <v>-265800</v>
       </c>
       <c r="H91" s="3">
+        <v>-254800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-263400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-374800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-360000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-360000</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-369400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-436500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-436500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-265700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-250200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-287200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-362400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-209800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-495300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-238300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-325100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5458,76 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-864700</v>
+        <v>-569600</v>
       </c>
       <c r="E94" s="3">
-        <v>-6126700</v>
+        <v>-415300</v>
       </c>
       <c r="F94" s="3">
-        <v>-224700</v>
+        <v>-900400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1221100</v>
+        <v>-6379700</v>
       </c>
       <c r="H94" s="3">
-        <v>-444700</v>
+        <v>-234000</v>
       </c>
       <c r="I94" s="3">
+        <v>-1271500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-463000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2329300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>76500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-230700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-449500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-427100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-142500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-299600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-537400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-458900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-285200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-314600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-495300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5131,16 +5598,22 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-291100</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5792,196 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-665800</v>
+        <v>-373600</v>
       </c>
       <c r="E100" s="3">
-        <v>7093700</v>
+        <v>-235200</v>
       </c>
       <c r="F100" s="3">
-        <v>-421200</v>
+        <v>-693300</v>
       </c>
       <c r="G100" s="3">
-        <v>1374000</v>
+        <v>7386700</v>
       </c>
       <c r="H100" s="3">
-        <v>-10600</v>
+        <v>-438500</v>
       </c>
       <c r="I100" s="3">
+        <v>1430800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="K100" s="3">
         <v>1763400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-357600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-22500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-353700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-23100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-234500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-14600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>4500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-116700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-282900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>9400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-50600</v>
+        <v>9800</v>
       </c>
       <c r="E101" s="3">
-        <v>-40000</v>
+        <v>-15900</v>
       </c>
       <c r="F101" s="3">
-        <v>-20000</v>
+        <v>-52700</v>
       </c>
       <c r="G101" s="3">
-        <v>12900</v>
+        <v>-41600</v>
       </c>
       <c r="H101" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="I101" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J101" s="3">
         <v>2400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>9400</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-3500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-6600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>11200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-13500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-15300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-703500</v>
+        <v>-25700</v>
       </c>
       <c r="E102" s="3">
-        <v>1552800</v>
+        <v>52700</v>
       </c>
       <c r="F102" s="3">
-        <v>-251700</v>
+        <v>-732500</v>
       </c>
       <c r="G102" s="3">
-        <v>378800</v>
+        <v>1617000</v>
       </c>
       <c r="H102" s="3">
-        <v>351700</v>
+        <v>-262100</v>
       </c>
       <c r="I102" s="3">
+        <v>394400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>366300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-102300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-21200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>112400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-46100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>49400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-21300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-129000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>150300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>5600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>112700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>10600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>17600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>IFNNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3307500</v>
+        <v>3177700</v>
       </c>
       <c r="E8" s="3">
-        <v>3222900</v>
+        <v>3152000</v>
       </c>
       <c r="F8" s="3">
-        <v>3050200</v>
+        <v>3071500</v>
       </c>
       <c r="G8" s="3">
-        <v>2663100</v>
+        <v>2906900</v>
       </c>
       <c r="H8" s="3">
-        <v>2432800</v>
+        <v>2537900</v>
       </c>
       <c r="I8" s="3">
-        <v>2347100</v>
+        <v>2318500</v>
       </c>
       <c r="J8" s="3">
+        <v>2236800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2525900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2370400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2332800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2330300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2421400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2131200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2060000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1991500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6136200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2054400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4006200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1932100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1966100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2116800</v>
+        <v>1934400</v>
       </c>
       <c r="E9" s="3">
-        <v>2016300</v>
+        <v>2017300</v>
       </c>
       <c r="F9" s="3">
-        <v>2078800</v>
+        <v>1921600</v>
       </c>
       <c r="G9" s="3">
-        <v>1944100</v>
+        <v>1981100</v>
       </c>
       <c r="H9" s="3">
-        <v>1592500</v>
+        <v>1852700</v>
       </c>
       <c r="I9" s="3">
-        <v>1478600</v>
+        <v>1517600</v>
       </c>
       <c r="J9" s="3">
+        <v>1409100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1630500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1505800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1451700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1408800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1458500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1316500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1294800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1266700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3817000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1269000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2554200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1237200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1252500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1190700</v>
+        <v>1243300</v>
       </c>
       <c r="E10" s="3">
-        <v>1206600</v>
+        <v>1134700</v>
       </c>
       <c r="F10" s="3">
-        <v>971400</v>
+        <v>1149900</v>
       </c>
       <c r="G10" s="3">
-        <v>719100</v>
+        <v>925800</v>
       </c>
       <c r="H10" s="3">
-        <v>840300</v>
+        <v>685300</v>
       </c>
       <c r="I10" s="3">
-        <v>868500</v>
+        <v>800800</v>
       </c>
       <c r="J10" s="3">
+        <v>827700</v>
+      </c>
+      <c r="K10" s="3">
         <v>895500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>864700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>881100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>921500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>962900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>814700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>765200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>724800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2319200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>785400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1452000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>694900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>414000</v>
+        <v>438900</v>
       </c>
       <c r="E12" s="3">
-        <v>400600</v>
+        <v>394600</v>
       </c>
       <c r="F12" s="3">
-        <v>376100</v>
+        <v>381700</v>
       </c>
       <c r="G12" s="3">
-        <v>393200</v>
+        <v>358400</v>
       </c>
       <c r="H12" s="3">
-        <v>295200</v>
+        <v>374700</v>
       </c>
       <c r="I12" s="3">
-        <v>297700</v>
+        <v>281300</v>
       </c>
       <c r="J12" s="3">
+        <v>283700</v>
+      </c>
+      <c r="K12" s="3">
         <v>281700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>285900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>277600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>279200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>263800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>239400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>223300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>218800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>642900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>218800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>460100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>234800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,28 +1104,31 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3700</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="3">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="F14" s="3">
-        <v>26900</v>
+        <v>2300</v>
       </c>
       <c r="G14" s="3">
-        <v>20800</v>
+        <v>25700</v>
       </c>
       <c r="H14" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>19800</v>
+      </c>
+      <c r="I14" s="3">
+        <v>11700</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1125,8 +1145,8 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1140,8 +1160,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1149,40 +1169,43 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>78400</v>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>84500</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>74700</v>
+      </c>
+      <c r="F15" s="3">
+        <v>80600</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="3">
-        <v>22000</v>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I15" s="3">
-        <v>23300</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+        <v>21000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>22200</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3">
         <v>11800</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
@@ -1190,11 +1213,11 @@
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3">
         <v>14600</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>10</v>
@@ -1202,8 +1225,8 @@
       <c r="S15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2926500</v>
+        <v>2773800</v>
       </c>
       <c r="E17" s="3">
-        <v>2818700</v>
+        <v>2788900</v>
       </c>
       <c r="F17" s="3">
-        <v>2854200</v>
+        <v>2686200</v>
       </c>
       <c r="G17" s="3">
-        <v>2797900</v>
+        <v>2720100</v>
       </c>
       <c r="H17" s="3">
-        <v>2168200</v>
+        <v>2666400</v>
       </c>
       <c r="I17" s="3">
-        <v>2021200</v>
+        <v>2066300</v>
       </c>
       <c r="J17" s="3">
+        <v>1926200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2224600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2037500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1974000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1943500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1983700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1781000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1463100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1713300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5191400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1720000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3521400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1716100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1696200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>381000</v>
+        <v>403900</v>
       </c>
       <c r="E18" s="3">
-        <v>404200</v>
+        <v>363100</v>
       </c>
       <c r="F18" s="3">
-        <v>196000</v>
+        <v>385200</v>
       </c>
       <c r="G18" s="3">
-        <v>-134700</v>
+        <v>186800</v>
       </c>
       <c r="H18" s="3">
-        <v>264600</v>
+        <v>-128400</v>
       </c>
       <c r="I18" s="3">
-        <v>325800</v>
+        <v>252200</v>
       </c>
       <c r="J18" s="3">
+        <v>310500</v>
+      </c>
+      <c r="K18" s="3">
         <v>301300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>332900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>358800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>386800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>437700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>350300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>596900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>278300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>944700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>334400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>484800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>216000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-49000</v>
+        <v>-60700</v>
       </c>
       <c r="E20" s="3">
-        <v>-30600</v>
+        <v>-46700</v>
       </c>
       <c r="F20" s="3">
-        <v>-18400</v>
+        <v>-29200</v>
       </c>
       <c r="G20" s="3">
-        <v>-75900</v>
+        <v>-17500</v>
       </c>
       <c r="H20" s="3">
-        <v>-20800</v>
+        <v>-72400</v>
       </c>
       <c r="I20" s="3">
-        <v>-15900</v>
+        <v>-19800</v>
       </c>
       <c r="J20" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-24500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-36500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-17700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-17600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-14600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-37000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-12300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-32900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-20000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>782800</v>
+        <v>786800</v>
       </c>
       <c r="E21" s="3">
-        <v>824400</v>
+        <v>746000</v>
       </c>
       <c r="F21" s="3">
-        <v>641900</v>
+        <v>785700</v>
       </c>
       <c r="G21" s="3">
-        <v>257200</v>
+        <v>611700</v>
       </c>
       <c r="H21" s="3">
-        <v>548800</v>
+        <v>245200</v>
       </c>
       <c r="I21" s="3">
-        <v>616200</v>
+        <v>523000</v>
       </c>
       <c r="J21" s="3">
+        <v>587200</v>
+      </c>
+      <c r="K21" s="3">
         <v>575700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>576400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>621100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>638800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>687300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>573200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>820200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>491400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2048800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>94200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>927300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>430800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1536,14 +1576,14 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>10</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1557,8 +1597,8 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>10</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>10</v>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>332000</v>
+        <v>343200</v>
       </c>
       <c r="E23" s="3">
-        <v>373600</v>
+        <v>316400</v>
       </c>
       <c r="F23" s="3">
-        <v>177600</v>
+        <v>356100</v>
       </c>
       <c r="G23" s="3">
-        <v>-210700</v>
+        <v>169300</v>
       </c>
       <c r="H23" s="3">
-        <v>243800</v>
+        <v>-200800</v>
       </c>
       <c r="I23" s="3">
-        <v>309900</v>
+        <v>232300</v>
       </c>
       <c r="J23" s="3">
+        <v>295400</v>
+      </c>
+      <c r="K23" s="3">
         <v>276800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>296500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>347000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>366700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>419900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>332700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>582300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>262500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>907700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>322000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>451900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>196000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>75900</v>
+        <v>57200</v>
       </c>
       <c r="E24" s="3">
-        <v>60000</v>
+        <v>72400</v>
       </c>
       <c r="F24" s="3">
-        <v>40400</v>
+        <v>57200</v>
       </c>
       <c r="G24" s="3">
-        <v>-53900</v>
+        <v>38500</v>
       </c>
       <c r="H24" s="3">
-        <v>25700</v>
+        <v>-51400</v>
       </c>
       <c r="I24" s="3">
-        <v>52700</v>
+        <v>24500</v>
       </c>
       <c r="J24" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K24" s="3">
         <v>77200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>54100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>66200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>63900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>53800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>69600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>228900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>41500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>24700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>256000</v>
+        <v>286000</v>
       </c>
       <c r="E26" s="3">
-        <v>313600</v>
+        <v>244000</v>
       </c>
       <c r="F26" s="3">
-        <v>137200</v>
+        <v>298900</v>
       </c>
       <c r="G26" s="3">
-        <v>-156800</v>
+        <v>130700</v>
       </c>
       <c r="H26" s="3">
-        <v>218000</v>
+        <v>-149400</v>
       </c>
       <c r="I26" s="3">
-        <v>257200</v>
+        <v>207800</v>
       </c>
       <c r="J26" s="3">
+        <v>245200</v>
+      </c>
+      <c r="K26" s="3">
         <v>199700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>263500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>292900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>356100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>278900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>512700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>231100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>678800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>280500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>427300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>194900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>246200</v>
+        <v>276700</v>
       </c>
       <c r="E27" s="3">
-        <v>303800</v>
+        <v>234600</v>
       </c>
       <c r="F27" s="3">
-        <v>128600</v>
+        <v>289500</v>
       </c>
       <c r="G27" s="3">
-        <v>-169000</v>
+        <v>122600</v>
       </c>
       <c r="H27" s="3">
-        <v>205800</v>
+        <v>-161100</v>
       </c>
       <c r="I27" s="3">
-        <v>247400</v>
+        <v>196100</v>
       </c>
       <c r="J27" s="3">
+        <v>235800</v>
+      </c>
+      <c r="K27" s="3">
         <v>199700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>263500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>292900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>356100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>278900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>512700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>231100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>678800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>280500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>427300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>194900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,22 +1996,25 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-7300</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>-7000</v>
       </c>
       <c r="F29" s="3">
-        <v>-3700</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>-3500</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1962,46 +2023,49 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2400</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-21200</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-188100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>18700</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>3400</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-3500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-4700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>49000</v>
+        <v>60700</v>
       </c>
       <c r="E32" s="3">
-        <v>30600</v>
+        <v>46700</v>
       </c>
       <c r="F32" s="3">
-        <v>18400</v>
+        <v>29200</v>
       </c>
       <c r="G32" s="3">
-        <v>75900</v>
+        <v>17500</v>
       </c>
       <c r="H32" s="3">
-        <v>20800</v>
+        <v>72400</v>
       </c>
       <c r="I32" s="3">
-        <v>15900</v>
+        <v>19800</v>
       </c>
       <c r="J32" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K32" s="3">
         <v>24500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>36500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>17700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>17600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>14600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>37000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>12300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>32900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>20000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>238900</v>
+        <v>276700</v>
       </c>
       <c r="E33" s="3">
-        <v>303800</v>
+        <v>227600</v>
       </c>
       <c r="F33" s="3">
-        <v>124900</v>
+        <v>289500</v>
       </c>
       <c r="G33" s="3">
-        <v>-169000</v>
+        <v>119100</v>
       </c>
       <c r="H33" s="3">
-        <v>205800</v>
+        <v>-161100</v>
       </c>
       <c r="I33" s="3">
-        <v>247400</v>
+        <v>196100</v>
       </c>
       <c r="J33" s="3">
+        <v>235800</v>
+      </c>
+      <c r="K33" s="3">
         <v>197200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>263500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>271700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>168000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>297600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>512700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>230000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>679900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>283900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>423700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>190200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>238900</v>
+        <v>276700</v>
       </c>
       <c r="E35" s="3">
-        <v>303800</v>
+        <v>227600</v>
       </c>
       <c r="F35" s="3">
-        <v>124900</v>
+        <v>289500</v>
       </c>
       <c r="G35" s="3">
-        <v>-169000</v>
+        <v>119100</v>
       </c>
       <c r="H35" s="3">
-        <v>205800</v>
+        <v>-161100</v>
       </c>
       <c r="I35" s="3">
-        <v>247400</v>
+        <v>196100</v>
       </c>
       <c r="J35" s="3">
+        <v>235800</v>
+      </c>
+      <c r="K35" s="3">
         <v>197200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>263500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>271700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>168000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>297600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>512700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>230000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>679900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>283900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>423700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>190200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2294400</v>
+        <v>2241400</v>
       </c>
       <c r="E41" s="3">
-        <v>2320100</v>
+        <v>2186600</v>
       </c>
       <c r="F41" s="3">
-        <v>2267500</v>
+        <v>2211100</v>
       </c>
       <c r="G41" s="3">
-        <v>3000000</v>
+        <v>2160900</v>
       </c>
       <c r="H41" s="3">
-        <v>1383000</v>
+        <v>2859000</v>
       </c>
       <c r="I41" s="3">
-        <v>1645200</v>
+        <v>1318000</v>
       </c>
       <c r="J41" s="3">
+        <v>1567800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1250700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>849400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>951700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>978300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>865900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>846600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>814600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>835900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>964900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>814600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>846300</v>
       </c>
-      <c r="U41" s="3" t="s">
+      <c r="V41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1924500</v>
+        <v>2268300</v>
       </c>
       <c r="E42" s="3">
-        <v>1764000</v>
+        <v>1834000</v>
       </c>
       <c r="F42" s="3">
-        <v>1685600</v>
+        <v>1681100</v>
       </c>
       <c r="G42" s="3">
-        <v>1226200</v>
+        <v>1606400</v>
       </c>
       <c r="H42" s="3">
-        <v>4237200</v>
+        <v>1168600</v>
       </c>
       <c r="I42" s="3">
-        <v>4307100</v>
+        <v>4038100</v>
       </c>
       <c r="J42" s="3">
+        <v>4104600</v>
+      </c>
+      <c r="K42" s="3">
         <v>3378500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3191600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1262300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1749500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2142200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2031300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1920800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1758200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1786200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1672900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1558800</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="V42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1895700</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1804400</v>
+        <v>1586500</v>
       </c>
       <c r="E43" s="3">
-        <v>1587600</v>
+        <v>1719600</v>
       </c>
       <c r="F43" s="3">
-        <v>1678200</v>
+        <v>1513000</v>
       </c>
       <c r="G43" s="3">
-        <v>1565500</v>
+        <v>1599400</v>
       </c>
       <c r="H43" s="3">
-        <v>1521400</v>
+        <v>1491900</v>
       </c>
       <c r="I43" s="3">
-        <v>1209100</v>
+        <v>1449900</v>
       </c>
       <c r="J43" s="3">
+        <v>1152200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1508000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1248200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1247000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1220800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1210100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1046400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>970500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>902100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3306500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>958200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>970700</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="V43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>915600</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2372800</v>
+        <v>2396700</v>
       </c>
       <c r="E44" s="3">
-        <v>2394900</v>
+        <v>2261300</v>
       </c>
       <c r="F44" s="3">
-        <v>2513700</v>
+        <v>2282300</v>
       </c>
       <c r="G44" s="3">
-        <v>2713400</v>
+        <v>2395500</v>
       </c>
       <c r="H44" s="3">
-        <v>2126600</v>
+        <v>2585800</v>
       </c>
       <c r="I44" s="3">
-        <v>2164600</v>
+        <v>2026600</v>
       </c>
       <c r="J44" s="3">
+        <v>2062800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2083700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2068100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2006900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1882000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1750700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1524000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1464200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1438400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1391300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1396900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1441400</v>
       </c>
-      <c r="U44" s="3" t="s">
+      <c r="V44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1398000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>667600</v>
+        <v>695800</v>
       </c>
       <c r="E45" s="3">
-        <v>645600</v>
+        <v>636200</v>
       </c>
       <c r="F45" s="3">
-        <v>649200</v>
+        <v>615200</v>
       </c>
       <c r="G45" s="3">
-        <v>777900</v>
+        <v>618700</v>
       </c>
       <c r="H45" s="3">
-        <v>1010600</v>
+        <v>741300</v>
       </c>
       <c r="I45" s="3">
-        <v>771700</v>
+        <v>963100</v>
       </c>
       <c r="J45" s="3">
+        <v>735500</v>
+      </c>
+      <c r="K45" s="3">
         <v>957900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>868200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>641100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>533500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>446000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>435900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>409500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>410600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6195600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>356800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>336900</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="V45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>329800</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9063700</v>
+        <v>9188700</v>
       </c>
       <c r="E46" s="3">
-        <v>8712100</v>
+        <v>8637700</v>
       </c>
       <c r="F46" s="3">
-        <v>8794200</v>
+        <v>8302600</v>
       </c>
       <c r="G46" s="3">
-        <v>9283000</v>
+        <v>8380800</v>
       </c>
       <c r="H46" s="3">
-        <v>10278900</v>
+        <v>8846600</v>
       </c>
       <c r="I46" s="3">
-        <v>10097600</v>
+        <v>9795700</v>
       </c>
       <c r="J46" s="3">
+        <v>9623000</v>
+      </c>
+      <c r="K46" s="3">
         <v>9178900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8225400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6109000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6364000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6414900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5884200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5579700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5345200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8448600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5199300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5154200</v>
       </c>
-      <c r="U46" s="3" t="s">
+      <c r="V46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5272800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>96800</v>
+        <v>73500</v>
       </c>
       <c r="E47" s="3">
-        <v>98000</v>
+        <v>92200</v>
       </c>
       <c r="F47" s="3">
-        <v>107800</v>
+        <v>93400</v>
       </c>
       <c r="G47" s="3">
-        <v>133500</v>
+        <v>102700</v>
       </c>
       <c r="H47" s="3">
-        <v>89400</v>
+        <v>127200</v>
       </c>
       <c r="I47" s="3">
-        <v>89400</v>
+        <v>85200</v>
       </c>
       <c r="J47" s="3">
+        <v>85200</v>
+      </c>
+      <c r="K47" s="3">
         <v>35500</v>
-      </c>
-      <c r="K47" s="3">
-        <v>43500</v>
       </c>
       <c r="L47" s="3">
         <v>43500</v>
       </c>
       <c r="M47" s="3">
+        <v>43500</v>
+      </c>
+      <c r="N47" s="3">
         <v>39000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>43800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>43900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>42600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>31400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>11876300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>38100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>42300</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5464700</v>
+        <v>5193800</v>
       </c>
       <c r="E48" s="3">
-        <v>5363000</v>
+        <v>5207800</v>
       </c>
       <c r="F48" s="3">
-        <v>5385100</v>
+        <v>5110900</v>
       </c>
       <c r="G48" s="3">
-        <v>5323800</v>
+        <v>5131900</v>
       </c>
       <c r="H48" s="3">
-        <v>4599800</v>
+        <v>5073600</v>
       </c>
       <c r="I48" s="3">
-        <v>4619400</v>
+        <v>4383600</v>
       </c>
       <c r="J48" s="3">
+        <v>4402300</v>
+      </c>
+      <c r="K48" s="3">
         <v>4299700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3993900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3886800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3777000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3593700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3132600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3128100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3085500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2983400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2851000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2974400</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="V48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2487300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11464700</v>
+        <v>10707500</v>
       </c>
       <c r="E49" s="3">
-        <v>11076400</v>
+        <v>10925800</v>
       </c>
       <c r="F49" s="3">
-        <v>11659500</v>
+        <v>10555700</v>
       </c>
       <c r="G49" s="3">
-        <v>12246200</v>
+        <v>11111400</v>
       </c>
       <c r="H49" s="3">
-        <v>4419800</v>
+        <v>11670600</v>
       </c>
       <c r="I49" s="3">
-        <v>2187800</v>
+        <v>4212000</v>
       </c>
       <c r="J49" s="3">
+        <v>2085000</v>
+      </c>
+      <c r="K49" s="3">
         <v>4422200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2057500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2068100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2053500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1887900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1733700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1705400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1755900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1810900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1819900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1989600</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="V49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1943800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1005700</v>
+        <v>924600</v>
       </c>
       <c r="E52" s="3">
-        <v>1000800</v>
+        <v>958400</v>
       </c>
       <c r="F52" s="3">
-        <v>1002000</v>
+        <v>953800</v>
       </c>
       <c r="G52" s="3">
-        <v>1033900</v>
+        <v>954900</v>
       </c>
       <c r="H52" s="3">
-        <v>910200</v>
+        <v>985300</v>
       </c>
       <c r="I52" s="3">
+        <v>867400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>868600</v>
+      </c>
+      <c r="K52" s="3">
         <v>911400</v>
       </c>
-      <c r="J52" s="3">
-        <v>911400</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>914100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>942300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>930900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>928600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>858600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>843700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>926800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2890200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>913300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>961400</v>
       </c>
-      <c r="U52" s="3" t="s">
+      <c r="V52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>921400</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27095600</v>
+        <v>26088100</v>
       </c>
       <c r="E54" s="3">
-        <v>26250300</v>
+        <v>25821900</v>
       </c>
       <c r="F54" s="3">
-        <v>26948600</v>
+        <v>25016400</v>
       </c>
       <c r="G54" s="3">
-        <v>28020400</v>
+        <v>25681900</v>
       </c>
       <c r="H54" s="3">
-        <v>18088200</v>
+        <v>26703300</v>
       </c>
       <c r="I54" s="3">
-        <v>17905700</v>
+        <v>17238000</v>
       </c>
       <c r="J54" s="3">
+        <v>17064000</v>
+      </c>
+      <c r="K54" s="3">
         <v>16636600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15234400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13049800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13164500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12868800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11653100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11299600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11144700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11158200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10821600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11121800</v>
       </c>
-      <c r="U54" s="3" t="s">
+      <c r="V54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10666400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1559400</v>
+        <v>1490800</v>
       </c>
       <c r="E57" s="3">
-        <v>1380600</v>
+        <v>1486100</v>
       </c>
       <c r="F57" s="3">
-        <v>1421000</v>
+        <v>1315700</v>
       </c>
       <c r="G57" s="3">
-        <v>1336500</v>
+        <v>1354200</v>
       </c>
       <c r="H57" s="3">
-        <v>1081700</v>
+        <v>1273600</v>
       </c>
       <c r="I57" s="3">
-        <v>1130700</v>
+        <v>1030800</v>
       </c>
       <c r="J57" s="3">
+        <v>1077500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1334000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1269300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1327000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1407700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1397000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1110100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1073700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1069300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1144400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>987400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>971900</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="V57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1006000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1095100</v>
+        <v>1035500</v>
       </c>
       <c r="E58" s="3">
-        <v>463000</v>
+        <v>1043700</v>
       </c>
       <c r="F58" s="3">
-        <v>690900</v>
+        <v>441300</v>
       </c>
       <c r="G58" s="3">
-        <v>792600</v>
+        <v>658400</v>
       </c>
       <c r="H58" s="3">
-        <v>285400</v>
+        <v>755300</v>
       </c>
       <c r="I58" s="3">
-        <v>294000</v>
+        <v>272000</v>
       </c>
       <c r="J58" s="3">
+        <v>280200</v>
+      </c>
+      <c r="K58" s="3">
         <v>26900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>32900</v>
       </c>
       <c r="L58" s="3">
         <v>32900</v>
       </c>
       <c r="M58" s="3">
+        <v>32900</v>
+      </c>
+      <c r="N58" s="3">
         <v>26000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>29600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>350300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>359000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>354500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1506800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>22400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>142000</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="V58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2050600</v>
+        <v>2117700</v>
       </c>
       <c r="E59" s="3">
-        <v>1957500</v>
+        <v>1954200</v>
       </c>
       <c r="F59" s="3">
-        <v>2114300</v>
+        <v>1865500</v>
       </c>
       <c r="G59" s="3">
-        <v>1802000</v>
+        <v>2014900</v>
       </c>
       <c r="H59" s="3">
-        <v>1359700</v>
+        <v>1717300</v>
       </c>
       <c r="I59" s="3">
-        <v>1015500</v>
+        <v>1295800</v>
       </c>
       <c r="J59" s="3">
+        <v>967800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1349900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1167000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>845800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1057500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1154500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>795000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>695600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>711300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3932600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>802200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>694900</v>
       </c>
-      <c r="U59" s="3" t="s">
+      <c r="V59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4705200</v>
+        <v>4644000</v>
       </c>
       <c r="E60" s="3">
-        <v>3801100</v>
+        <v>4484000</v>
       </c>
       <c r="F60" s="3">
-        <v>4226200</v>
+        <v>3622500</v>
       </c>
       <c r="G60" s="3">
-        <v>3931000</v>
+        <v>4027600</v>
       </c>
       <c r="H60" s="3">
-        <v>2726800</v>
+        <v>3746200</v>
       </c>
       <c r="I60" s="3">
-        <v>2440200</v>
+        <v>2598700</v>
       </c>
       <c r="J60" s="3">
+        <v>2325500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2710900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2469300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2205800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2491200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2581100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2255300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2128400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2135100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4049300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1812000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1808800</v>
       </c>
-      <c r="U60" s="3" t="s">
+      <c r="V60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1795900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7694200</v>
+        <v>7268300</v>
       </c>
       <c r="E61" s="3">
-        <v>8109400</v>
+        <v>7332500</v>
       </c>
       <c r="F61" s="3">
-        <v>8284600</v>
+        <v>7728300</v>
       </c>
       <c r="G61" s="3">
-        <v>9042900</v>
+        <v>7895200</v>
       </c>
       <c r="H61" s="3">
-        <v>1891400</v>
+        <v>8617800</v>
       </c>
       <c r="I61" s="3">
-        <v>1888900</v>
+        <v>1802500</v>
       </c>
       <c r="J61" s="3">
+        <v>1800100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1879100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1772800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1789300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1787400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1782600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1658000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1648200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1675100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2259700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2063300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2225500</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>2056500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1813000</v>
+        <v>1735900</v>
       </c>
       <c r="E62" s="3">
-        <v>1880400</v>
+        <v>1727800</v>
       </c>
       <c r="F62" s="3">
-        <v>1919600</v>
+        <v>1792000</v>
       </c>
       <c r="G62" s="3">
-        <v>2234400</v>
+        <v>1829300</v>
       </c>
       <c r="H62" s="3">
-        <v>1281300</v>
+        <v>2129400</v>
       </c>
       <c r="I62" s="3">
-        <v>1389100</v>
+        <v>1221100</v>
       </c>
       <c r="J62" s="3">
+        <v>1323800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1471200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1277600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1215200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>893100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>880100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>803700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>814600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>788800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>880800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>777500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>820500</v>
       </c>
-      <c r="U62" s="3" t="s">
+      <c r="V62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14212300</v>
+        <v>13648200</v>
       </c>
       <c r="E66" s="3">
-        <v>13790900</v>
+        <v>13544300</v>
       </c>
       <c r="F66" s="3">
-        <v>14430400</v>
+        <v>13142700</v>
       </c>
       <c r="G66" s="3">
-        <v>15208300</v>
+        <v>13752100</v>
       </c>
       <c r="H66" s="3">
-        <v>5899600</v>
+        <v>14493400</v>
       </c>
       <c r="I66" s="3">
-        <v>5718300</v>
+        <v>5622200</v>
       </c>
       <c r="J66" s="3">
+        <v>5449500</v>
+      </c>
+      <c r="K66" s="3">
         <v>6061300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5519700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5210300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5171600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5243800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4717000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4591200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4599000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4834700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4652900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4854900</v>
       </c>
-      <c r="U66" s="3" t="s">
+      <c r="V66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4770400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>808500</v>
+        <v>464600</v>
       </c>
       <c r="E72" s="3">
-        <v>-109000</v>
+        <v>770500</v>
       </c>
       <c r="F72" s="3">
-        <v>532900</v>
+        <v>-103900</v>
       </c>
       <c r="G72" s="3">
-        <v>476500</v>
+        <v>507800</v>
       </c>
       <c r="H72" s="3">
-        <v>949400</v>
+        <v>454100</v>
       </c>
       <c r="I72" s="3">
-        <v>823200</v>
+        <v>904700</v>
       </c>
       <c r="J72" s="3">
+        <v>784500</v>
+      </c>
+      <c r="K72" s="3">
         <v>515700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>365900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>144700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>36700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-327700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-461200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-844900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1325100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3115800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1713300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2158600</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="V72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2713800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12883200</v>
+        <v>12439900</v>
       </c>
       <c r="E76" s="3">
-        <v>12459400</v>
+        <v>12277700</v>
       </c>
       <c r="F76" s="3">
-        <v>12518200</v>
+        <v>11873700</v>
       </c>
       <c r="G76" s="3">
-        <v>12812200</v>
+        <v>11929800</v>
       </c>
       <c r="H76" s="3">
-        <v>12188700</v>
+        <v>12209900</v>
       </c>
       <c r="I76" s="3">
-        <v>12187400</v>
+        <v>11615700</v>
       </c>
       <c r="J76" s="3">
+        <v>11614600</v>
+      </c>
+      <c r="K76" s="3">
         <v>10575300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9714700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7839500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7992900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7625000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6936100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6708400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6545700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6323500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6168700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6267000</v>
       </c>
-      <c r="U76" s="3" t="s">
+      <c r="V76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5896000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>238900</v>
+        <v>276700</v>
       </c>
       <c r="E81" s="3">
-        <v>303800</v>
+        <v>227600</v>
       </c>
       <c r="F81" s="3">
-        <v>124900</v>
+        <v>289500</v>
       </c>
       <c r="G81" s="3">
-        <v>-169000</v>
+        <v>119100</v>
       </c>
       <c r="H81" s="3">
-        <v>205800</v>
+        <v>-161100</v>
       </c>
       <c r="I81" s="3">
-        <v>247400</v>
+        <v>196100</v>
       </c>
       <c r="J81" s="3">
+        <v>235800</v>
+      </c>
+      <c r="K81" s="3">
         <v>197200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>263500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>271700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>168000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>297600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>512700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>230000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>679900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>283900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>423700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>190200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>450800</v>
+        <v>443600</v>
       </c>
       <c r="E83" s="3">
-        <v>450800</v>
+        <v>429600</v>
       </c>
       <c r="F83" s="3">
-        <v>464300</v>
+        <v>429600</v>
       </c>
       <c r="G83" s="3">
-        <v>467900</v>
+        <v>442400</v>
       </c>
       <c r="H83" s="3">
-        <v>305000</v>
+        <v>446000</v>
       </c>
       <c r="I83" s="3">
-        <v>306200</v>
+        <v>290700</v>
       </c>
       <c r="J83" s="3">
+        <v>291900</v>
+      </c>
+      <c r="K83" s="3">
         <v>298900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>280000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>274100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>272100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>267300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>240500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>237900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>228900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>230000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>226600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>475400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>234800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>907700</v>
+        <v>894200</v>
       </c>
       <c r="E89" s="3">
-        <v>719100</v>
+        <v>865100</v>
       </c>
       <c r="F89" s="3">
-        <v>913800</v>
+        <v>685300</v>
       </c>
       <c r="G89" s="3">
-        <v>651700</v>
+        <v>870900</v>
       </c>
       <c r="H89" s="3">
-        <v>431200</v>
+        <v>621100</v>
       </c>
       <c r="I89" s="3">
-        <v>221700</v>
+        <v>410900</v>
       </c>
       <c r="J89" s="3">
+        <v>211300</v>
+      </c>
+      <c r="K89" s="3">
         <v>837900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>464700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>250600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>365500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>760600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>506200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>344500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>184000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>690000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>593500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>679600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>331000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>518800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-323400</v>
+        <v>-270800</v>
       </c>
       <c r="E91" s="3">
-        <v>-285400</v>
+        <v>-308200</v>
       </c>
       <c r="F91" s="3">
-        <v>-336900</v>
+        <v>-272000</v>
       </c>
       <c r="G91" s="3">
-        <v>-265800</v>
+        <v>-321000</v>
       </c>
       <c r="H91" s="3">
-        <v>-254800</v>
+        <v>-253300</v>
       </c>
       <c r="I91" s="3">
-        <v>-263400</v>
+        <v>-242800</v>
       </c>
       <c r="J91" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-374800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-360000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-369400</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-436500</v>
       </c>
       <c r="N91" s="3">
         <v>-436500</v>
       </c>
       <c r="O91" s="3">
+        <v>-436500</v>
+      </c>
+      <c r="P91" s="3">
         <v>-265700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-250200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-287200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-362400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-209800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-495300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-238300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-325100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-569600</v>
+        <v>-769300</v>
       </c>
       <c r="E94" s="3">
-        <v>-415300</v>
+        <v>-542800</v>
       </c>
       <c r="F94" s="3">
-        <v>-900400</v>
+        <v>-395800</v>
       </c>
       <c r="G94" s="3">
-        <v>-6379700</v>
+        <v>-858000</v>
       </c>
       <c r="H94" s="3">
-        <v>-234000</v>
+        <v>-6079900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1271500</v>
+        <v>-223000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1211800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-463000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2329300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>76500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-230700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-449500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-427100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-142500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-299600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-537400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-458900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-285200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-314600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-495300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5604,16 +5838,19 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-291100</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-373600</v>
+        <v>-71200</v>
       </c>
       <c r="E100" s="3">
-        <v>-235200</v>
+        <v>-356100</v>
       </c>
       <c r="F100" s="3">
-        <v>-693300</v>
+        <v>-224100</v>
       </c>
       <c r="G100" s="3">
-        <v>7386700</v>
+        <v>-660800</v>
       </c>
       <c r="H100" s="3">
-        <v>-438500</v>
+        <v>7039500</v>
       </c>
       <c r="I100" s="3">
-        <v>1430800</v>
+        <v>-417900</v>
       </c>
       <c r="J100" s="3">
+        <v>1363500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-11000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1763400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-357600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-22500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-353700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-23100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-234500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-116700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-282900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>9400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9800</v>
+        <v>1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-15900</v>
+        <v>9300</v>
       </c>
       <c r="F101" s="3">
-        <v>-52700</v>
+        <v>-15200</v>
       </c>
       <c r="G101" s="3">
-        <v>-41600</v>
+        <v>-50200</v>
       </c>
       <c r="H101" s="3">
-        <v>-20800</v>
+        <v>-39700</v>
       </c>
       <c r="I101" s="3">
-        <v>13500</v>
+        <v>-19800</v>
       </c>
       <c r="J101" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K101" s="3">
         <v>2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>9400</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-3500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-13500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-15300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-25700</v>
+        <v>54900</v>
       </c>
       <c r="E102" s="3">
-        <v>52700</v>
+        <v>-24500</v>
       </c>
       <c r="F102" s="3">
-        <v>-732500</v>
+        <v>50200</v>
       </c>
       <c r="G102" s="3">
-        <v>1617000</v>
+        <v>-698100</v>
       </c>
       <c r="H102" s="3">
-        <v>-262100</v>
+        <v>1541000</v>
       </c>
       <c r="I102" s="3">
-        <v>394400</v>
+        <v>-249800</v>
       </c>
       <c r="J102" s="3">
+        <v>375900</v>
+      </c>
+      <c r="K102" s="3">
         <v>366300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-102300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>112400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-46100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>49400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-129000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>150300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>112700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>10600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>17600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>IFNNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3177700</v>
+        <v>3395200</v>
       </c>
       <c r="E8" s="3">
-        <v>3152000</v>
+        <v>3073400</v>
       </c>
       <c r="F8" s="3">
-        <v>3071500</v>
+        <v>3048600</v>
       </c>
       <c r="G8" s="3">
-        <v>2906900</v>
+        <v>2970700</v>
       </c>
       <c r="H8" s="3">
-        <v>2537900</v>
+        <v>2811500</v>
       </c>
       <c r="I8" s="3">
-        <v>2318500</v>
+        <v>2454700</v>
       </c>
       <c r="J8" s="3">
+        <v>2242400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2236800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2525900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2370400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2332800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2330300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2421400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2131200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2060000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1991500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6136200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2054400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4006200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1932100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1966100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1934400</v>
+        <v>1997400</v>
       </c>
       <c r="E9" s="3">
-        <v>2017300</v>
+        <v>1870900</v>
       </c>
       <c r="F9" s="3">
-        <v>1921600</v>
+        <v>1951100</v>
       </c>
       <c r="G9" s="3">
-        <v>1981100</v>
+        <v>1858500</v>
       </c>
       <c r="H9" s="3">
-        <v>1852700</v>
+        <v>1916100</v>
       </c>
       <c r="I9" s="3">
-        <v>1517600</v>
+        <v>1791900</v>
       </c>
       <c r="J9" s="3">
+        <v>1467800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1409100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1630500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1505800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1451700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1408800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1458500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1316500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1294800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1266700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3817000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1269000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2554200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1237200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1252500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1243300</v>
+        <v>1397800</v>
       </c>
       <c r="E10" s="3">
-        <v>1134700</v>
+        <v>1202500</v>
       </c>
       <c r="F10" s="3">
-        <v>1149900</v>
+        <v>1097500</v>
       </c>
       <c r="G10" s="3">
-        <v>925800</v>
+        <v>1112200</v>
       </c>
       <c r="H10" s="3">
-        <v>685300</v>
+        <v>895400</v>
       </c>
       <c r="I10" s="3">
-        <v>800800</v>
+        <v>662800</v>
       </c>
       <c r="J10" s="3">
+        <v>774600</v>
+      </c>
+      <c r="K10" s="3">
         <v>827700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>895500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>864700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>881100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>921500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>962900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>814700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>765200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>724800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2319200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>785400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1452000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>694900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>438900</v>
+        <v>449400</v>
       </c>
       <c r="E12" s="3">
-        <v>394600</v>
+        <v>424500</v>
       </c>
       <c r="F12" s="3">
-        <v>381700</v>
+        <v>381600</v>
       </c>
       <c r="G12" s="3">
-        <v>358400</v>
+        <v>369200</v>
       </c>
       <c r="H12" s="3">
-        <v>374700</v>
+        <v>346600</v>
       </c>
       <c r="I12" s="3">
-        <v>281300</v>
+        <v>362400</v>
       </c>
       <c r="J12" s="3">
+        <v>272100</v>
+      </c>
+      <c r="K12" s="3">
         <v>283700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>281700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>285900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>277600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>279200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>263800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>239400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>223300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>218800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>642900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>218800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>460100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>234800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,31 +1124,34 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3">
-        <v>3500</v>
+        <v>1100</v>
       </c>
       <c r="F14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G14" s="3">
         <v>2300</v>
       </c>
-      <c r="G14" s="3">
-        <v>25700</v>
-      </c>
       <c r="H14" s="3">
-        <v>19800</v>
+        <v>24800</v>
       </c>
       <c r="I14" s="3">
-        <v>11700</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>19200</v>
+      </c>
+      <c r="J14" s="3">
+        <v>11300</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1148,8 +1168,8 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1163,8 +1183,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1172,43 +1192,46 @@
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3">
-        <v>74700</v>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F15" s="3">
-        <v>80600</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>10</v>
+        <v>72300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>77900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="3">
-        <v>21000</v>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J15" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K15" s="3">
         <v>22200</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="3">
         <v>11800</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>10</v>
@@ -1216,11 +1239,11 @@
       <c r="P15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="3">
         <v>14600</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>10</v>
@@ -1228,8 +1251,8 @@
       <c r="T15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="U15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2773800</v>
+        <v>2857800</v>
       </c>
       <c r="E17" s="3">
-        <v>2788900</v>
+        <v>2682700</v>
       </c>
       <c r="F17" s="3">
-        <v>2686200</v>
+        <v>2697400</v>
       </c>
       <c r="G17" s="3">
-        <v>2720100</v>
+        <v>2598100</v>
       </c>
       <c r="H17" s="3">
-        <v>2666400</v>
+        <v>2630800</v>
       </c>
       <c r="I17" s="3">
-        <v>2066300</v>
+        <v>2578900</v>
       </c>
       <c r="J17" s="3">
+        <v>1998500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1926200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2224600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2037500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1974000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1943500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1983700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1781000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1463100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1713300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5191400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1720000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3521400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1716100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1696200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>403900</v>
+        <v>537500</v>
       </c>
       <c r="E18" s="3">
-        <v>363100</v>
+        <v>390700</v>
       </c>
       <c r="F18" s="3">
-        <v>385200</v>
+        <v>351200</v>
       </c>
       <c r="G18" s="3">
-        <v>186800</v>
+        <v>372600</v>
       </c>
       <c r="H18" s="3">
-        <v>-128400</v>
+        <v>180700</v>
       </c>
       <c r="I18" s="3">
-        <v>252200</v>
+        <v>-124200</v>
       </c>
       <c r="J18" s="3">
+        <v>243900</v>
+      </c>
+      <c r="K18" s="3">
         <v>310500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>301300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>332900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>358800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>386800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>437700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>350300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>596900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>278300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>944700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>334400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>484800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>216000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-60700</v>
+        <v>-30500</v>
       </c>
       <c r="E20" s="3">
-        <v>-46700</v>
+        <v>-58700</v>
       </c>
       <c r="F20" s="3">
-        <v>-29200</v>
+        <v>-45200</v>
       </c>
       <c r="G20" s="3">
-        <v>-17500</v>
+        <v>-28200</v>
       </c>
       <c r="H20" s="3">
-        <v>-72400</v>
+        <v>-16900</v>
       </c>
       <c r="I20" s="3">
-        <v>-19800</v>
+        <v>-70000</v>
       </c>
       <c r="J20" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-36500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-11800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-20100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-17700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-14600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-15700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-37000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-12300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-32900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-20000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>786800</v>
+        <v>955200</v>
       </c>
       <c r="E21" s="3">
-        <v>746000</v>
+        <v>761000</v>
       </c>
       <c r="F21" s="3">
-        <v>785700</v>
+        <v>721500</v>
       </c>
       <c r="G21" s="3">
-        <v>611700</v>
+        <v>759900</v>
       </c>
       <c r="H21" s="3">
-        <v>245200</v>
+        <v>591600</v>
       </c>
       <c r="I21" s="3">
-        <v>523000</v>
+        <v>237100</v>
       </c>
       <c r="J21" s="3">
+        <v>505800</v>
+      </c>
+      <c r="K21" s="3">
         <v>587200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>575700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>576400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>621100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>638800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>687300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>573200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>820200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>491400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2048800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>94200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>927300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>430800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1579,14 +1619,14 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>10</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1600,8 +1640,8 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>10</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>10</v>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>343200</v>
+        <v>507000</v>
       </c>
       <c r="E23" s="3">
-        <v>316400</v>
+        <v>332000</v>
       </c>
       <c r="F23" s="3">
-        <v>356100</v>
+        <v>306000</v>
       </c>
       <c r="G23" s="3">
-        <v>169300</v>
+        <v>344400</v>
       </c>
       <c r="H23" s="3">
-        <v>-200800</v>
+        <v>163700</v>
       </c>
       <c r="I23" s="3">
-        <v>232300</v>
+        <v>-194200</v>
       </c>
       <c r="J23" s="3">
+        <v>224700</v>
+      </c>
+      <c r="K23" s="3">
         <v>295400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>276800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>296500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>347000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>366700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>419900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>332700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>582300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>262500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>907700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>322000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>451900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>196000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>57200</v>
+        <v>-18100</v>
       </c>
       <c r="E24" s="3">
-        <v>72400</v>
+        <v>55300</v>
       </c>
       <c r="F24" s="3">
-        <v>57200</v>
+        <v>70000</v>
       </c>
       <c r="G24" s="3">
-        <v>38500</v>
+        <v>55300</v>
       </c>
       <c r="H24" s="3">
-        <v>-51400</v>
+        <v>37300</v>
       </c>
       <c r="I24" s="3">
-        <v>24500</v>
+        <v>-49700</v>
       </c>
       <c r="J24" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K24" s="3">
         <v>50200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>77200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>54100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>66200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>63900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>53800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>69600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>228900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>41500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>24700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>286000</v>
+        <v>525000</v>
       </c>
       <c r="E26" s="3">
-        <v>244000</v>
+        <v>276600</v>
       </c>
       <c r="F26" s="3">
-        <v>298900</v>
+        <v>236000</v>
       </c>
       <c r="G26" s="3">
-        <v>130700</v>
+        <v>289000</v>
       </c>
       <c r="H26" s="3">
-        <v>-149400</v>
+        <v>126500</v>
       </c>
       <c r="I26" s="3">
-        <v>207800</v>
+        <v>-144500</v>
       </c>
       <c r="J26" s="3">
+        <v>201000</v>
+      </c>
+      <c r="K26" s="3">
         <v>245200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>199700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>263500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>292900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>356100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>278900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>512700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>231100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>678800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>280500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>427300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>194900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>276700</v>
+        <v>521600</v>
       </c>
       <c r="E27" s="3">
-        <v>234600</v>
+        <v>267600</v>
       </c>
       <c r="F27" s="3">
-        <v>289500</v>
+        <v>226900</v>
       </c>
       <c r="G27" s="3">
-        <v>122600</v>
+        <v>280000</v>
       </c>
       <c r="H27" s="3">
-        <v>-161100</v>
+        <v>118600</v>
       </c>
       <c r="I27" s="3">
-        <v>196100</v>
+        <v>-155800</v>
       </c>
       <c r="J27" s="3">
+        <v>189700</v>
+      </c>
+      <c r="K27" s="3">
         <v>235800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>199700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>263500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>292900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>356100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>278900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>512700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>231100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>678800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>280500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>427300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>194900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,73 +2057,79 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="E29" s="3">
-        <v>-7000</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-6800</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>-188100</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>18700</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U29" s="3">
+        <v>3400</v>
+      </c>
+      <c r="V29" s="3">
         <v>-3500</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-21200</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-188100</v>
-      </c>
-      <c r="P29" s="3">
-        <v>18700</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="S29" s="3">
-        <v>1100</v>
-      </c>
-      <c r="T29" s="3">
-        <v>3400</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="X29" s="3">
         <v>-3500</v>
       </c>
-      <c r="V29" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="W29" s="3">
-        <v>-3500</v>
-      </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>60700</v>
+        <v>30500</v>
       </c>
       <c r="E32" s="3">
-        <v>46700</v>
+        <v>58700</v>
       </c>
       <c r="F32" s="3">
-        <v>29200</v>
+        <v>45200</v>
       </c>
       <c r="G32" s="3">
-        <v>17500</v>
+        <v>28200</v>
       </c>
       <c r="H32" s="3">
-        <v>72400</v>
+        <v>16900</v>
       </c>
       <c r="I32" s="3">
-        <v>19800</v>
+        <v>70000</v>
       </c>
       <c r="J32" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K32" s="3">
         <v>15200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>36500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>11800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>20100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>17700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>17600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>14600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>15700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>37000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>12300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>32900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>20000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>276700</v>
+        <v>520500</v>
       </c>
       <c r="E33" s="3">
-        <v>227600</v>
+        <v>267600</v>
       </c>
       <c r="F33" s="3">
-        <v>289500</v>
+        <v>220200</v>
       </c>
       <c r="G33" s="3">
-        <v>119100</v>
+        <v>280000</v>
       </c>
       <c r="H33" s="3">
-        <v>-161100</v>
+        <v>115200</v>
       </c>
       <c r="I33" s="3">
-        <v>196100</v>
+        <v>-155800</v>
       </c>
       <c r="J33" s="3">
+        <v>189700</v>
+      </c>
+      <c r="K33" s="3">
         <v>235800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>197200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>263500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>271700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>168000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>297600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>512700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>230000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>679900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>283900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>423700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>190200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>276700</v>
+        <v>520500</v>
       </c>
       <c r="E35" s="3">
-        <v>227600</v>
+        <v>267600</v>
       </c>
       <c r="F35" s="3">
-        <v>289500</v>
+        <v>220200</v>
       </c>
       <c r="G35" s="3">
-        <v>119100</v>
+        <v>280000</v>
       </c>
       <c r="H35" s="3">
-        <v>-161100</v>
+        <v>115200</v>
       </c>
       <c r="I35" s="3">
-        <v>196100</v>
+        <v>-155800</v>
       </c>
       <c r="J35" s="3">
+        <v>189700</v>
+      </c>
+      <c r="K35" s="3">
         <v>235800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>197200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>263500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>271700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>168000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>297600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>512700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>230000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>679900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>283900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>423700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>190200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2241400</v>
+        <v>1974800</v>
       </c>
       <c r="E41" s="3">
-        <v>2186600</v>
+        <v>2167900</v>
       </c>
       <c r="F41" s="3">
-        <v>2211100</v>
+        <v>2114800</v>
       </c>
       <c r="G41" s="3">
-        <v>2160900</v>
+        <v>2138500</v>
       </c>
       <c r="H41" s="3">
-        <v>2859000</v>
+        <v>2090000</v>
       </c>
       <c r="I41" s="3">
-        <v>1318000</v>
+        <v>2765200</v>
       </c>
       <c r="J41" s="3">
+        <v>1274800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1567800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1250700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>849400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>951700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>978300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>865900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>846600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>814600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>835900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>964900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>814600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>846300</v>
       </c>
-      <c r="V41" s="3" t="s">
+      <c r="W41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2268300</v>
+        <v>2453500</v>
       </c>
       <c r="E42" s="3">
-        <v>1834000</v>
+        <v>2193800</v>
       </c>
       <c r="F42" s="3">
-        <v>1681100</v>
+        <v>1773800</v>
       </c>
       <c r="G42" s="3">
-        <v>1606400</v>
+        <v>1625900</v>
       </c>
       <c r="H42" s="3">
-        <v>1168600</v>
+        <v>1553600</v>
       </c>
       <c r="I42" s="3">
-        <v>4038100</v>
+        <v>1130200</v>
       </c>
       <c r="J42" s="3">
+        <v>3905600</v>
+      </c>
+      <c r="K42" s="3">
         <v>4104600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3378500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3191600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1262300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1749500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2142200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2031300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1920800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1758200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1786200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1672900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1558800</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="W42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1895700</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1586500</v>
+        <v>1831400</v>
       </c>
       <c r="E43" s="3">
-        <v>1719600</v>
+        <v>1534400</v>
       </c>
       <c r="F43" s="3">
-        <v>1513000</v>
+        <v>1663200</v>
       </c>
       <c r="G43" s="3">
-        <v>1599400</v>
+        <v>1463300</v>
       </c>
       <c r="H43" s="3">
-        <v>1491900</v>
+        <v>1546900</v>
       </c>
       <c r="I43" s="3">
-        <v>1449900</v>
+        <v>1443000</v>
       </c>
       <c r="J43" s="3">
+        <v>1402300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1152200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1508000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1248200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1247000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1220800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1210100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1046400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>970500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>902100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3306500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>958200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>970700</v>
       </c>
-      <c r="V43" s="3" t="s">
+      <c r="W43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>915600</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2396700</v>
+        <v>2462600</v>
       </c>
       <c r="E44" s="3">
-        <v>2261300</v>
+        <v>2318000</v>
       </c>
       <c r="F44" s="3">
-        <v>2282300</v>
+        <v>2187100</v>
       </c>
       <c r="G44" s="3">
-        <v>2395500</v>
+        <v>2207400</v>
       </c>
       <c r="H44" s="3">
-        <v>2585800</v>
+        <v>2316900</v>
       </c>
       <c r="I44" s="3">
-        <v>2026600</v>
+        <v>2501000</v>
       </c>
       <c r="J44" s="3">
+        <v>1960100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2062800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2083700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2068100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2006900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1882000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1750700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1524000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1464200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1438400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1391300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1396900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1441400</v>
       </c>
-      <c r="V44" s="3" t="s">
+      <c r="W44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1398000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>695800</v>
+        <v>595000</v>
       </c>
       <c r="E45" s="3">
-        <v>636200</v>
+        <v>672900</v>
       </c>
       <c r="F45" s="3">
-        <v>615200</v>
+        <v>615400</v>
       </c>
       <c r="G45" s="3">
-        <v>618700</v>
+        <v>595000</v>
       </c>
       <c r="H45" s="3">
-        <v>741300</v>
+        <v>598400</v>
       </c>
       <c r="I45" s="3">
-        <v>963100</v>
+        <v>717000</v>
       </c>
       <c r="J45" s="3">
+        <v>931500</v>
+      </c>
+      <c r="K45" s="3">
         <v>735500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>957900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>868200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>641100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>533500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>446000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>435900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>409500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>410600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6195600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>356800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>336900</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="W45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>329800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9188700</v>
+        <v>9317300</v>
       </c>
       <c r="E46" s="3">
-        <v>8637700</v>
+        <v>8887100</v>
       </c>
       <c r="F46" s="3">
-        <v>8302600</v>
+        <v>8354200</v>
       </c>
       <c r="G46" s="3">
-        <v>8380800</v>
+        <v>8030200</v>
       </c>
       <c r="H46" s="3">
-        <v>8846600</v>
+        <v>8105800</v>
       </c>
       <c r="I46" s="3">
-        <v>9795700</v>
+        <v>8556300</v>
       </c>
       <c r="J46" s="3">
+        <v>9474300</v>
+      </c>
+      <c r="K46" s="3">
         <v>9623000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9178900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8225400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6109000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6364000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6414900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5884200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5579700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5345200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8448600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5199300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5154200</v>
       </c>
-      <c r="V46" s="3" t="s">
+      <c r="W46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5272800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>73500</v>
+        <v>81300</v>
       </c>
       <c r="E47" s="3">
-        <v>92200</v>
+        <v>71100</v>
       </c>
       <c r="F47" s="3">
-        <v>93400</v>
+        <v>89200</v>
       </c>
       <c r="G47" s="3">
-        <v>102700</v>
+        <v>90300</v>
       </c>
       <c r="H47" s="3">
-        <v>127200</v>
+        <v>99400</v>
       </c>
       <c r="I47" s="3">
+        <v>123100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K47" s="3">
         <v>85200</v>
       </c>
-      <c r="J47" s="3">
-        <v>85200</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>35500</v>
-      </c>
-      <c r="L47" s="3">
-        <v>43500</v>
       </c>
       <c r="M47" s="3">
         <v>43500</v>
       </c>
       <c r="N47" s="3">
+        <v>43500</v>
+      </c>
+      <c r="O47" s="3">
         <v>39000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>43800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>43900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>42600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>31400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>11876300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>38100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>42300</v>
       </c>
-      <c r="V47" s="3" t="s">
+      <c r="W47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5193800</v>
+        <v>5396000</v>
       </c>
       <c r="E48" s="3">
-        <v>5207800</v>
+        <v>5023400</v>
       </c>
       <c r="F48" s="3">
-        <v>5110900</v>
+        <v>5036900</v>
       </c>
       <c r="G48" s="3">
-        <v>5131900</v>
+        <v>4943200</v>
       </c>
       <c r="H48" s="3">
-        <v>5073600</v>
+        <v>4963500</v>
       </c>
       <c r="I48" s="3">
-        <v>4383600</v>
+        <v>4907100</v>
       </c>
       <c r="J48" s="3">
+        <v>4239800</v>
+      </c>
+      <c r="K48" s="3">
         <v>4402300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4299700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3993900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3886800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3777000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3593700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3132600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3128100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3085500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2983400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2851000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2974400</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="W48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2487300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10707500</v>
+        <v>10513100</v>
       </c>
       <c r="E49" s="3">
-        <v>10925800</v>
+        <v>10356100</v>
       </c>
       <c r="F49" s="3">
-        <v>10555700</v>
+        <v>10567200</v>
       </c>
       <c r="G49" s="3">
-        <v>11111400</v>
+        <v>10209300</v>
       </c>
       <c r="H49" s="3">
-        <v>11670600</v>
+        <v>10746800</v>
       </c>
       <c r="I49" s="3">
-        <v>4212000</v>
+        <v>11287600</v>
       </c>
       <c r="J49" s="3">
+        <v>4073800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2085000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4422200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2057500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2068100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2053500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1887900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1733700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1705400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1755900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1810900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1819900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1989600</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="W49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1943800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>924600</v>
+        <v>1038800</v>
       </c>
       <c r="E52" s="3">
-        <v>958400</v>
+        <v>894200</v>
       </c>
       <c r="F52" s="3">
-        <v>953800</v>
+        <v>927000</v>
       </c>
       <c r="G52" s="3">
-        <v>954900</v>
+        <v>922500</v>
       </c>
       <c r="H52" s="3">
-        <v>985300</v>
+        <v>923600</v>
       </c>
       <c r="I52" s="3">
-        <v>867400</v>
+        <v>953000</v>
       </c>
       <c r="J52" s="3">
+        <v>838900</v>
+      </c>
+      <c r="K52" s="3">
         <v>868600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>911400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>914100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>942300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>930900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>928600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>858600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>843700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>926800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2890200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>913300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>961400</v>
       </c>
-      <c r="V52" s="3" t="s">
+      <c r="W52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>921400</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26088100</v>
+        <v>26346400</v>
       </c>
       <c r="E54" s="3">
-        <v>25821900</v>
+        <v>25232000</v>
       </c>
       <c r="F54" s="3">
-        <v>25016400</v>
+        <v>24974600</v>
       </c>
       <c r="G54" s="3">
-        <v>25681900</v>
+        <v>24195500</v>
       </c>
       <c r="H54" s="3">
-        <v>26703300</v>
+        <v>24839100</v>
       </c>
       <c r="I54" s="3">
-        <v>17238000</v>
+        <v>25827000</v>
       </c>
       <c r="J54" s="3">
+        <v>16672300</v>
+      </c>
+      <c r="K54" s="3">
         <v>17064000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16636600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15234400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13049800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13164500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12868800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11653100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11299600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11144700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11158200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10821600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11121800</v>
       </c>
-      <c r="V54" s="3" t="s">
+      <c r="W54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10666400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1490800</v>
+        <v>1771600</v>
       </c>
       <c r="E57" s="3">
-        <v>1486100</v>
+        <v>1441900</v>
       </c>
       <c r="F57" s="3">
-        <v>1315700</v>
+        <v>1437300</v>
       </c>
       <c r="G57" s="3">
-        <v>1354200</v>
+        <v>1272500</v>
       </c>
       <c r="H57" s="3">
-        <v>1273600</v>
+        <v>1309800</v>
       </c>
       <c r="I57" s="3">
-        <v>1030800</v>
+        <v>1231800</v>
       </c>
       <c r="J57" s="3">
+        <v>997000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1077500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1334000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1269300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1327000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1407700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1397000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1110100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1073700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1069300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1144400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>987400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>971900</v>
       </c>
-      <c r="V57" s="3" t="s">
+      <c r="W57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1006000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1035500</v>
+        <v>1015100</v>
       </c>
       <c r="E58" s="3">
-        <v>1043700</v>
+        <v>1001500</v>
       </c>
       <c r="F58" s="3">
-        <v>441300</v>
+        <v>1009400</v>
       </c>
       <c r="G58" s="3">
-        <v>658400</v>
+        <v>426800</v>
       </c>
       <c r="H58" s="3">
-        <v>755300</v>
+        <v>636800</v>
       </c>
       <c r="I58" s="3">
-        <v>272000</v>
+        <v>730500</v>
       </c>
       <c r="J58" s="3">
+        <v>263100</v>
+      </c>
+      <c r="K58" s="3">
         <v>280200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26900</v>
-      </c>
-      <c r="L58" s="3">
-        <v>32900</v>
       </c>
       <c r="M58" s="3">
         <v>32900</v>
       </c>
       <c r="N58" s="3">
+        <v>32900</v>
+      </c>
+      <c r="O58" s="3">
         <v>26000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>29600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>350300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>359000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>354500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1506800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>22400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>142000</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="W58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2117700</v>
+        <v>2230000</v>
       </c>
       <c r="E59" s="3">
-        <v>1954200</v>
+        <v>2048200</v>
       </c>
       <c r="F59" s="3">
-        <v>1865500</v>
+        <v>1890100</v>
       </c>
       <c r="G59" s="3">
-        <v>2014900</v>
+        <v>1804300</v>
       </c>
       <c r="H59" s="3">
-        <v>1717300</v>
+        <v>1948800</v>
       </c>
       <c r="I59" s="3">
-        <v>1295800</v>
+        <v>1660900</v>
       </c>
       <c r="J59" s="3">
+        <v>1253300</v>
+      </c>
+      <c r="K59" s="3">
         <v>967800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1349900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1167000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>845800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1057500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1154500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>795000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>695600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>711300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3932600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>802200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>694900</v>
       </c>
-      <c r="V59" s="3" t="s">
+      <c r="W59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4644000</v>
+        <v>5016600</v>
       </c>
       <c r="E60" s="3">
-        <v>4484000</v>
+        <v>4491600</v>
       </c>
       <c r="F60" s="3">
-        <v>3622500</v>
+        <v>4336900</v>
       </c>
       <c r="G60" s="3">
-        <v>4027600</v>
+        <v>3503600</v>
       </c>
       <c r="H60" s="3">
-        <v>3746200</v>
+        <v>3895400</v>
       </c>
       <c r="I60" s="3">
-        <v>2598700</v>
+        <v>3623300</v>
       </c>
       <c r="J60" s="3">
+        <v>2513400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2325500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2710900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2469300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2205800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2491200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2581100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2255300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2128400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2135100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4049300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1812000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1808800</v>
       </c>
-      <c r="V60" s="3" t="s">
+      <c r="W60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1795900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7268300</v>
+        <v>6793800</v>
       </c>
       <c r="E61" s="3">
-        <v>7332500</v>
+        <v>7029800</v>
       </c>
       <c r="F61" s="3">
-        <v>7728300</v>
+        <v>7091900</v>
       </c>
       <c r="G61" s="3">
-        <v>7895200</v>
+        <v>7474600</v>
       </c>
       <c r="H61" s="3">
-        <v>8617800</v>
+        <v>7636100</v>
       </c>
       <c r="I61" s="3">
-        <v>1802500</v>
+        <v>8335000</v>
       </c>
       <c r="J61" s="3">
+        <v>1743300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1800100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1879100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1772800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1789300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1787400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1782600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1658000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1648200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1675100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2259700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2063300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2225500</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>2056500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1735900</v>
+        <v>1663200</v>
       </c>
       <c r="E62" s="3">
-        <v>1727800</v>
+        <v>1679000</v>
       </c>
       <c r="F62" s="3">
-        <v>1792000</v>
+        <v>1671100</v>
       </c>
       <c r="G62" s="3">
-        <v>1829300</v>
+        <v>1733200</v>
       </c>
       <c r="H62" s="3">
-        <v>2129400</v>
+        <v>1769300</v>
       </c>
       <c r="I62" s="3">
-        <v>1221100</v>
+        <v>2059500</v>
       </c>
       <c r="J62" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1323800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1471200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1277600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1215200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>893100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>880100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>803700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>814600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>788800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>880800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>777500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>820500</v>
       </c>
-      <c r="V62" s="3" t="s">
+      <c r="W62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13648200</v>
+        <v>13473600</v>
       </c>
       <c r="E66" s="3">
-        <v>13544300</v>
+        <v>13200300</v>
       </c>
       <c r="F66" s="3">
-        <v>13142700</v>
+        <v>13099800</v>
       </c>
       <c r="G66" s="3">
-        <v>13752100</v>
+        <v>12711400</v>
       </c>
       <c r="H66" s="3">
-        <v>14493400</v>
+        <v>13300800</v>
       </c>
       <c r="I66" s="3">
-        <v>5622200</v>
+        <v>14017800</v>
       </c>
       <c r="J66" s="3">
+        <v>5437700</v>
+      </c>
+      <c r="K66" s="3">
         <v>5449500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6061300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5519700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5210300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5171600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5243800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4717000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4591200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4599000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4834700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4652900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4854900</v>
       </c>
-      <c r="V66" s="3" t="s">
+      <c r="W66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4770400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>464600</v>
+        <v>1588600</v>
       </c>
       <c r="E72" s="3">
-        <v>770500</v>
+        <v>449400</v>
       </c>
       <c r="F72" s="3">
-        <v>-103900</v>
+        <v>745200</v>
       </c>
       <c r="G72" s="3">
-        <v>507800</v>
+        <v>-100500</v>
       </c>
       <c r="H72" s="3">
-        <v>454100</v>
+        <v>491200</v>
       </c>
       <c r="I72" s="3">
-        <v>904700</v>
+        <v>439200</v>
       </c>
       <c r="J72" s="3">
+        <v>875100</v>
+      </c>
+      <c r="K72" s="3">
         <v>784500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>515700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>365900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>144700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>36700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-327700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-461200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-844900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1325100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3115800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1713300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2158600</v>
       </c>
-      <c r="V72" s="3" t="s">
+      <c r="W72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2713800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12439900</v>
+        <v>12872900</v>
       </c>
       <c r="E76" s="3">
-        <v>12277700</v>
+        <v>12031700</v>
       </c>
       <c r="F76" s="3">
-        <v>11873700</v>
+        <v>11874700</v>
       </c>
       <c r="G76" s="3">
-        <v>11929800</v>
+        <v>11484100</v>
       </c>
       <c r="H76" s="3">
-        <v>12209900</v>
+        <v>11538300</v>
       </c>
       <c r="I76" s="3">
-        <v>11615700</v>
+        <v>11809300</v>
       </c>
       <c r="J76" s="3">
+        <v>11234500</v>
+      </c>
+      <c r="K76" s="3">
         <v>11614600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10575300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9714700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7839500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7992900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7625000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6936100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6708400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6545700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6323500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6168700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6267000</v>
       </c>
-      <c r="V76" s="3" t="s">
+      <c r="W76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5896000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>276700</v>
+        <v>520500</v>
       </c>
       <c r="E81" s="3">
-        <v>227600</v>
+        <v>267600</v>
       </c>
       <c r="F81" s="3">
-        <v>289500</v>
+        <v>220200</v>
       </c>
       <c r="G81" s="3">
-        <v>119100</v>
+        <v>280000</v>
       </c>
       <c r="H81" s="3">
-        <v>-161100</v>
+        <v>115200</v>
       </c>
       <c r="I81" s="3">
-        <v>196100</v>
+        <v>-155800</v>
       </c>
       <c r="J81" s="3">
+        <v>189700</v>
+      </c>
+      <c r="K81" s="3">
         <v>235800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>197200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>263500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>271700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>168000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>297600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>512700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>230000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>679900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>283900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>423700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>190200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>443600</v>
+        <v>448300</v>
       </c>
       <c r="E83" s="3">
-        <v>429600</v>
+        <v>429100</v>
       </c>
       <c r="F83" s="3">
-        <v>429600</v>
+        <v>415500</v>
       </c>
       <c r="G83" s="3">
-        <v>442400</v>
+        <v>415500</v>
       </c>
       <c r="H83" s="3">
-        <v>446000</v>
+        <v>427900</v>
       </c>
       <c r="I83" s="3">
-        <v>290700</v>
+        <v>431300</v>
       </c>
       <c r="J83" s="3">
+        <v>281100</v>
+      </c>
+      <c r="K83" s="3">
         <v>291900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>298900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>280000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>274100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>272100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>267300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>240500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>237900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>228900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>230000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>226600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>475400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>234800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>894200</v>
+        <v>1096400</v>
       </c>
       <c r="E89" s="3">
-        <v>865100</v>
+        <v>864900</v>
       </c>
       <c r="F89" s="3">
-        <v>685300</v>
+        <v>836700</v>
       </c>
       <c r="G89" s="3">
-        <v>870900</v>
+        <v>662800</v>
       </c>
       <c r="H89" s="3">
-        <v>621100</v>
+        <v>842300</v>
       </c>
       <c r="I89" s="3">
-        <v>410900</v>
+        <v>600700</v>
       </c>
       <c r="J89" s="3">
+        <v>397400</v>
+      </c>
+      <c r="K89" s="3">
         <v>211300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>837900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>464700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>250600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>365500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>760600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>506200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>344500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>184000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>690000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>593500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>679600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>331000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>518800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-270800</v>
+        <v>-608600</v>
       </c>
       <c r="E91" s="3">
-        <v>-308200</v>
+        <v>-262000</v>
       </c>
       <c r="F91" s="3">
-        <v>-272000</v>
+        <v>-298100</v>
       </c>
       <c r="G91" s="3">
-        <v>-321000</v>
+        <v>-263100</v>
       </c>
       <c r="H91" s="3">
-        <v>-253300</v>
+        <v>-310500</v>
       </c>
       <c r="I91" s="3">
-        <v>-242800</v>
+        <v>-245000</v>
       </c>
       <c r="J91" s="3">
+        <v>-234900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-251000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-374800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-360000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-369400</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-436500</v>
       </c>
       <c r="O91" s="3">
         <v>-436500</v>
       </c>
       <c r="P91" s="3">
+        <v>-436500</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-265700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-250200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-287200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-362400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-209800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-495300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-238300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-325100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-769300</v>
+        <v>-927000</v>
       </c>
       <c r="E94" s="3">
-        <v>-542800</v>
+        <v>-744100</v>
       </c>
       <c r="F94" s="3">
-        <v>-395800</v>
+        <v>-525000</v>
       </c>
       <c r="G94" s="3">
-        <v>-858000</v>
+        <v>-382800</v>
       </c>
       <c r="H94" s="3">
-        <v>-6079900</v>
+        <v>-829900</v>
       </c>
       <c r="I94" s="3">
-        <v>-223000</v>
+        <v>-5880400</v>
       </c>
       <c r="J94" s="3">
+        <v>-215700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1211800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-463000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2329300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>76500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-230700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-449500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-427100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-142500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-299600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-537400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-458900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-285200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-314600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-495300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5841,16 +6075,19 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-291100</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-71200</v>
+        <v>-369200</v>
       </c>
       <c r="E100" s="3">
-        <v>-356100</v>
+        <v>-68900</v>
       </c>
       <c r="F100" s="3">
-        <v>-224100</v>
+        <v>-344400</v>
       </c>
       <c r="G100" s="3">
-        <v>-660800</v>
+        <v>-216800</v>
       </c>
       <c r="H100" s="3">
-        <v>7039500</v>
+        <v>-639100</v>
       </c>
       <c r="I100" s="3">
-        <v>-417900</v>
+        <v>6808500</v>
       </c>
       <c r="J100" s="3">
+        <v>-404200</v>
+      </c>
+      <c r="K100" s="3">
         <v>1363500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1763400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-357600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-22500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-353700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-234500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-116700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-282900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>9400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-38400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>12800</v>
+      </c>
+      <c r="L101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N101" s="3">
+        <v>9400</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="R101" s="3">
+        <v>11200</v>
+      </c>
+      <c r="S101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="U101" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="V101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
-        <v>9300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-50200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-39700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-19800</v>
-      </c>
-      <c r="J101" s="3">
-        <v>12800</v>
-      </c>
-      <c r="K101" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>9400</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>11200</v>
-      </c>
-      <c r="R101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="U101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-15300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>54900</v>
+        <v>-193100</v>
       </c>
       <c r="E102" s="3">
-        <v>-24500</v>
+        <v>53100</v>
       </c>
       <c r="F102" s="3">
-        <v>50200</v>
+        <v>-23700</v>
       </c>
       <c r="G102" s="3">
-        <v>-698100</v>
+        <v>48600</v>
       </c>
       <c r="H102" s="3">
-        <v>1541000</v>
+        <v>-675200</v>
       </c>
       <c r="I102" s="3">
-        <v>-249800</v>
+        <v>1490400</v>
       </c>
       <c r="J102" s="3">
+        <v>-241600</v>
+      </c>
+      <c r="K102" s="3">
         <v>375900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>366300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-102300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>112400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-46100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>49400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-21300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-129000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>150300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>112700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>10600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>17600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>IFNNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3395200</v>
+        <v>3446200</v>
       </c>
       <c r="E8" s="3">
-        <v>3073400</v>
+        <v>3280400</v>
       </c>
       <c r="F8" s="3">
-        <v>3048600</v>
+        <v>2969500</v>
       </c>
       <c r="G8" s="3">
-        <v>2970700</v>
+        <v>2945500</v>
       </c>
       <c r="H8" s="3">
-        <v>2811500</v>
+        <v>2870200</v>
       </c>
       <c r="I8" s="3">
-        <v>2454700</v>
+        <v>2716400</v>
       </c>
       <c r="J8" s="3">
+        <v>2371600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2242400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2236800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2525900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2370400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2332800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2330300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2421400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2131200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2060000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1991500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6136200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2054400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4006200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1932100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1966100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1997400</v>
+        <v>2014900</v>
       </c>
       <c r="E9" s="3">
-        <v>1870900</v>
+        <v>1929800</v>
       </c>
       <c r="F9" s="3">
-        <v>1951100</v>
+        <v>1807600</v>
       </c>
       <c r="G9" s="3">
-        <v>1858500</v>
+        <v>1885100</v>
       </c>
       <c r="H9" s="3">
-        <v>1916100</v>
+        <v>1795600</v>
       </c>
       <c r="I9" s="3">
-        <v>1791900</v>
+        <v>1851300</v>
       </c>
       <c r="J9" s="3">
+        <v>1731300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1467800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1409100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1630500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1505800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1451700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1408800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1458500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1316500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1294800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1266700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3817000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1269000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2554200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1237200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1252500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1397800</v>
+        <v>1431300</v>
       </c>
       <c r="E10" s="3">
-        <v>1202500</v>
+        <v>1350500</v>
       </c>
       <c r="F10" s="3">
-        <v>1097500</v>
+        <v>1161800</v>
       </c>
       <c r="G10" s="3">
-        <v>1112200</v>
+        <v>1060400</v>
       </c>
       <c r="H10" s="3">
-        <v>895400</v>
+        <v>1074500</v>
       </c>
       <c r="I10" s="3">
-        <v>662800</v>
+        <v>865100</v>
       </c>
       <c r="J10" s="3">
+        <v>640400</v>
+      </c>
+      <c r="K10" s="3">
         <v>774600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>827700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>895500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>864700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>881100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>921500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>962900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>814700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>765200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>724800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2319200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>785400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1452000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>694900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>449400</v>
+        <v>435300</v>
       </c>
       <c r="E12" s="3">
-        <v>424500</v>
+        <v>434200</v>
       </c>
       <c r="F12" s="3">
-        <v>381600</v>
+        <v>410200</v>
       </c>
       <c r="G12" s="3">
-        <v>369200</v>
+        <v>368700</v>
       </c>
       <c r="H12" s="3">
-        <v>346600</v>
+        <v>356700</v>
       </c>
       <c r="I12" s="3">
-        <v>362400</v>
+        <v>334900</v>
       </c>
       <c r="J12" s="3">
+        <v>350200</v>
+      </c>
+      <c r="K12" s="3">
         <v>272100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>283700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>281700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>285900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>277600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>279200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>263800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>239400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>223300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>218800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>642900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>218800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>460100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>234800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,34 +1143,37 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
-        <v>3400</v>
-      </c>
       <c r="G14" s="3">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="H14" s="3">
-        <v>24800</v>
+        <v>2200</v>
       </c>
       <c r="I14" s="3">
-        <v>19200</v>
+        <v>24000</v>
       </c>
       <c r="J14" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K14" s="3">
         <v>11300</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1171,8 +1190,8 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1186,8 +1205,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1206,35 +1228,35 @@
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="3">
-        <v>72300</v>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="3">
-        <v>77900</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
+        <v>69800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>75300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="3">
         <v>20300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>22200</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3">
         <v>11800</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>10</v>
@@ -1242,11 +1264,11 @@
       <c r="Q15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="3">
         <v>14600</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>10</v>
@@ -1254,8 +1276,8 @@
       <c r="U15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="V15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2857800</v>
+        <v>2773100</v>
       </c>
       <c r="E17" s="3">
-        <v>2682700</v>
+        <v>2761100</v>
       </c>
       <c r="F17" s="3">
-        <v>2697400</v>
+        <v>2592000</v>
       </c>
       <c r="G17" s="3">
-        <v>2598100</v>
+        <v>2606200</v>
       </c>
       <c r="H17" s="3">
-        <v>2630800</v>
+        <v>2510200</v>
       </c>
       <c r="I17" s="3">
-        <v>2578900</v>
+        <v>2541800</v>
       </c>
       <c r="J17" s="3">
+        <v>2491600</v>
+      </c>
+      <c r="K17" s="3">
         <v>1998500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1926200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2224600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2037500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1974000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1943500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1983700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1781000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1463100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1713300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5191400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1720000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3521400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1716100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1696200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>537500</v>
+        <v>673100</v>
       </c>
       <c r="E18" s="3">
-        <v>390700</v>
+        <v>519300</v>
       </c>
       <c r="F18" s="3">
-        <v>351200</v>
+        <v>377500</v>
       </c>
       <c r="G18" s="3">
-        <v>372600</v>
+        <v>339300</v>
       </c>
       <c r="H18" s="3">
-        <v>180700</v>
+        <v>360000</v>
       </c>
       <c r="I18" s="3">
-        <v>-124200</v>
+        <v>174500</v>
       </c>
       <c r="J18" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="K18" s="3">
         <v>243900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>310500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>301300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>332900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>358800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>386800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>437700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>350300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>596900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>278300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>944700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>334400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>484800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>216000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-30500</v>
+        <v>-42500</v>
       </c>
       <c r="E20" s="3">
-        <v>-58700</v>
+        <v>-29500</v>
       </c>
       <c r="F20" s="3">
-        <v>-45200</v>
+        <v>-56700</v>
       </c>
       <c r="G20" s="3">
-        <v>-28200</v>
+        <v>-43600</v>
       </c>
       <c r="H20" s="3">
-        <v>-16900</v>
+        <v>-27300</v>
       </c>
       <c r="I20" s="3">
-        <v>-70000</v>
+        <v>-16400</v>
       </c>
       <c r="J20" s="3">
+        <v>-67600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-19200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-15200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-36500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-11800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-17600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-14600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-15700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-37000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-12300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-32900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-20000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>955200</v>
+        <v>1059300</v>
       </c>
       <c r="E21" s="3">
-        <v>761000</v>
+        <v>922900</v>
       </c>
       <c r="F21" s="3">
-        <v>721500</v>
+        <v>735300</v>
       </c>
       <c r="G21" s="3">
-        <v>759900</v>
+        <v>697100</v>
       </c>
       <c r="H21" s="3">
-        <v>591600</v>
+        <v>734200</v>
       </c>
       <c r="I21" s="3">
-        <v>237100</v>
+        <v>571600</v>
       </c>
       <c r="J21" s="3">
+        <v>229100</v>
+      </c>
+      <c r="K21" s="3">
         <v>505800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>587200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>575700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>576400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>621100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>638800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>687300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>573200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>820200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>491400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2048800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>94200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>927300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>430800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1622,14 +1661,14 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>10</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1643,8 +1682,8 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>10</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>10</v>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>507000</v>
+        <v>630500</v>
       </c>
       <c r="E23" s="3">
-        <v>332000</v>
+        <v>489800</v>
       </c>
       <c r="F23" s="3">
-        <v>306000</v>
+        <v>320700</v>
       </c>
       <c r="G23" s="3">
-        <v>344400</v>
+        <v>295600</v>
       </c>
       <c r="H23" s="3">
-        <v>163700</v>
+        <v>332700</v>
       </c>
       <c r="I23" s="3">
-        <v>-194200</v>
+        <v>158200</v>
       </c>
       <c r="J23" s="3">
+        <v>-187600</v>
+      </c>
+      <c r="K23" s="3">
         <v>224700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>295400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>276800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>296500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>347000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>366700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>419900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>332700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>582300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>262500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>907700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>322000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>451900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>196000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-18100</v>
+        <v>127600</v>
       </c>
       <c r="E24" s="3">
-        <v>55300</v>
+        <v>-17500</v>
       </c>
       <c r="F24" s="3">
-        <v>70000</v>
+        <v>53500</v>
       </c>
       <c r="G24" s="3">
-        <v>55300</v>
+        <v>67600</v>
       </c>
       <c r="H24" s="3">
-        <v>37300</v>
+        <v>53500</v>
       </c>
       <c r="I24" s="3">
-        <v>-49700</v>
+        <v>36000</v>
       </c>
       <c r="J24" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="K24" s="3">
         <v>23700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>50200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>77200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>54100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>66200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>63900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>53800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>69600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>31400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>228900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>41500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>24700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>525000</v>
+        <v>502900</v>
       </c>
       <c r="E26" s="3">
-        <v>276600</v>
+        <v>507300</v>
       </c>
       <c r="F26" s="3">
-        <v>236000</v>
+        <v>267300</v>
       </c>
       <c r="G26" s="3">
-        <v>289000</v>
+        <v>228000</v>
       </c>
       <c r="H26" s="3">
-        <v>126500</v>
+        <v>279300</v>
       </c>
       <c r="I26" s="3">
-        <v>-144500</v>
+        <v>122200</v>
       </c>
       <c r="J26" s="3">
+        <v>-139600</v>
+      </c>
+      <c r="K26" s="3">
         <v>201000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>245200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>199700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>263500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>292900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>356100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>278900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>512700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>231100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>678800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>280500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>427300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>194900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>521600</v>
+        <v>495300</v>
       </c>
       <c r="E27" s="3">
+        <v>504000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>258500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>219300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>270500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>114500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-150500</v>
+      </c>
+      <c r="K27" s="3">
+        <v>189700</v>
+      </c>
+      <c r="L27" s="3">
+        <v>235800</v>
+      </c>
+      <c r="M27" s="3">
+        <v>199700</v>
+      </c>
+      <c r="N27" s="3">
+        <v>263500</v>
+      </c>
+      <c r="O27" s="3">
+        <v>292900</v>
+      </c>
+      <c r="P27" s="3">
+        <v>300500</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>356100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>278900</v>
+      </c>
+      <c r="S27" s="3">
+        <v>512700</v>
+      </c>
+      <c r="T27" s="3">
+        <v>231100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>678800</v>
+      </c>
+      <c r="V27" s="3">
+        <v>280500</v>
+      </c>
+      <c r="W27" s="3">
+        <v>427300</v>
+      </c>
+      <c r="X27" s="3">
+        <v>194900</v>
+      </c>
+      <c r="Y27" s="3">
         <v>267600</v>
       </c>
-      <c r="F27" s="3">
-        <v>226900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>280000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>118600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-155800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>189700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>235800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>199700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>263500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>292900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>300500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>356100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>278900</v>
-      </c>
-      <c r="R27" s="3">
-        <v>512700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>231100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>678800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>280500</v>
-      </c>
-      <c r="V27" s="3">
-        <v>427300</v>
-      </c>
-      <c r="W27" s="3">
-        <v>194900</v>
-      </c>
-      <c r="X27" s="3">
-        <v>267600</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,28 +2117,31 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1100</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
-        <v>-6800</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>-6500</v>
       </c>
       <c r="H29" s="3">
-        <v>-3400</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-3300</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2090,46 +2150,49 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2400</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-21200</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-188100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>18700</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-1100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>1100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>3400</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-3500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-4700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>30500</v>
+        <v>42500</v>
       </c>
       <c r="E32" s="3">
-        <v>58700</v>
+        <v>29500</v>
       </c>
       <c r="F32" s="3">
-        <v>45200</v>
+        <v>56700</v>
       </c>
       <c r="G32" s="3">
-        <v>28200</v>
+        <v>43600</v>
       </c>
       <c r="H32" s="3">
-        <v>16900</v>
+        <v>27300</v>
       </c>
       <c r="I32" s="3">
-        <v>70000</v>
+        <v>16400</v>
       </c>
       <c r="J32" s="3">
+        <v>67600</v>
+      </c>
+      <c r="K32" s="3">
         <v>19200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>15200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>36500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>11800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>17700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>17600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>14600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>15700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>37000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>12300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>32900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>20000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>520500</v>
+        <v>490900</v>
       </c>
       <c r="E33" s="3">
-        <v>267600</v>
+        <v>502900</v>
       </c>
       <c r="F33" s="3">
-        <v>220200</v>
+        <v>258500</v>
       </c>
       <c r="G33" s="3">
-        <v>280000</v>
+        <v>212700</v>
       </c>
       <c r="H33" s="3">
-        <v>115200</v>
+        <v>270500</v>
       </c>
       <c r="I33" s="3">
-        <v>-155800</v>
+        <v>111300</v>
       </c>
       <c r="J33" s="3">
+        <v>-150500</v>
+      </c>
+      <c r="K33" s="3">
         <v>189700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>235800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>197200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>263500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>271700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>168000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>297600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>512700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>230000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>679900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>283900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>423700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>190200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>520500</v>
+        <v>490900</v>
       </c>
       <c r="E35" s="3">
-        <v>267600</v>
+        <v>502900</v>
       </c>
       <c r="F35" s="3">
-        <v>220200</v>
+        <v>258500</v>
       </c>
       <c r="G35" s="3">
-        <v>280000</v>
+        <v>212700</v>
       </c>
       <c r="H35" s="3">
-        <v>115200</v>
+        <v>270500</v>
       </c>
       <c r="I35" s="3">
-        <v>-155800</v>
+        <v>111300</v>
       </c>
       <c r="J35" s="3">
+        <v>-150500</v>
+      </c>
+      <c r="K35" s="3">
         <v>189700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>235800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>197200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>263500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>271700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>168000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>297600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>512700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>230000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>679900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>283900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>423700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>190200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2746,648 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1974800</v>
+        <v>2177500</v>
       </c>
       <c r="E41" s="3">
-        <v>2167900</v>
+        <v>1908000</v>
       </c>
       <c r="F41" s="3">
-        <v>2114800</v>
+        <v>2094500</v>
       </c>
       <c r="G41" s="3">
-        <v>2138500</v>
+        <v>2043300</v>
       </c>
       <c r="H41" s="3">
-        <v>2090000</v>
+        <v>2066200</v>
       </c>
       <c r="I41" s="3">
-        <v>2765200</v>
+        <v>2019300</v>
       </c>
       <c r="J41" s="3">
+        <v>2671600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1274800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1567800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1250700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>849400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>951700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>978300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>865900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>846600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>814600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>835900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>964900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>814600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>846300</v>
       </c>
-      <c r="W41" s="3" t="s">
+      <c r="X41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2453500</v>
+        <v>2496000</v>
       </c>
       <c r="E42" s="3">
-        <v>2193800</v>
+        <v>2370500</v>
       </c>
       <c r="F42" s="3">
-        <v>1773800</v>
+        <v>2119600</v>
       </c>
       <c r="G42" s="3">
-        <v>1625900</v>
+        <v>1713800</v>
       </c>
       <c r="H42" s="3">
-        <v>1553600</v>
+        <v>1570900</v>
       </c>
       <c r="I42" s="3">
-        <v>1130200</v>
+        <v>1501100</v>
       </c>
       <c r="J42" s="3">
+        <v>1092000</v>
+      </c>
+      <c r="K42" s="3">
         <v>3905600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4104600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3378500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3191600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1262300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1749500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2142200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2031300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1920800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1758200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1786200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1672900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1558800</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="X42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1895700</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1831400</v>
+        <v>1732400</v>
       </c>
       <c r="E43" s="3">
-        <v>1534400</v>
+        <v>1769500</v>
       </c>
       <c r="F43" s="3">
-        <v>1663200</v>
+        <v>1482500</v>
       </c>
       <c r="G43" s="3">
-        <v>1463300</v>
+        <v>1606900</v>
       </c>
       <c r="H43" s="3">
-        <v>1546900</v>
+        <v>1413800</v>
       </c>
       <c r="I43" s="3">
-        <v>1443000</v>
+        <v>1494500</v>
       </c>
       <c r="J43" s="3">
+        <v>1394200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1402300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1152200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1508000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1248200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1247000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1220800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1210100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1046400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>970500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>902100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3306500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>958200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>970700</v>
       </c>
-      <c r="W43" s="3" t="s">
+      <c r="X43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>915600</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2462600</v>
+        <v>2529800</v>
       </c>
       <c r="E44" s="3">
-        <v>2318000</v>
+        <v>2379300</v>
       </c>
       <c r="F44" s="3">
-        <v>2187100</v>
+        <v>2239600</v>
       </c>
       <c r="G44" s="3">
-        <v>2207400</v>
+        <v>2113100</v>
       </c>
       <c r="H44" s="3">
-        <v>2316900</v>
+        <v>2132700</v>
       </c>
       <c r="I44" s="3">
-        <v>2501000</v>
+        <v>2238500</v>
       </c>
       <c r="J44" s="3">
+        <v>2416400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1960100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2062800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2083700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2068100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2006900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1882000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1750700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1524000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1464200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1438400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1391300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1396900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1441400</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="X44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1398000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>595000</v>
+        <v>502900</v>
       </c>
       <c r="E45" s="3">
-        <v>672900</v>
+        <v>574900</v>
       </c>
       <c r="F45" s="3">
-        <v>615400</v>
+        <v>650200</v>
       </c>
       <c r="G45" s="3">
-        <v>595000</v>
+        <v>594500</v>
       </c>
       <c r="H45" s="3">
-        <v>598400</v>
+        <v>574900</v>
       </c>
       <c r="I45" s="3">
-        <v>717000</v>
+        <v>578200</v>
       </c>
       <c r="J45" s="3">
+        <v>692700</v>
+      </c>
+      <c r="K45" s="3">
         <v>931500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>735500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>957900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>868200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>641100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>533500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>446000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>435900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>409500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>410600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6195600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>356800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>336900</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="X45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>329800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9317300</v>
+        <v>9438600</v>
       </c>
       <c r="E46" s="3">
-        <v>8887100</v>
+        <v>9002200</v>
       </c>
       <c r="F46" s="3">
-        <v>8354200</v>
+        <v>8586600</v>
       </c>
       <c r="G46" s="3">
-        <v>8030200</v>
+        <v>8071600</v>
       </c>
       <c r="H46" s="3">
-        <v>8105800</v>
+        <v>7758600</v>
       </c>
       <c r="I46" s="3">
-        <v>8556300</v>
+        <v>7831600</v>
       </c>
       <c r="J46" s="3">
+        <v>8266900</v>
+      </c>
+      <c r="K46" s="3">
         <v>9474300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9623000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9178900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8225400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6109000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6364000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6414900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5884200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5579700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5345200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8448600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5199300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5154200</v>
       </c>
-      <c r="W46" s="3" t="s">
+      <c r="X46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5272800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>81300</v>
+        <v>84000</v>
       </c>
       <c r="E47" s="3">
-        <v>71100</v>
+        <v>78500</v>
       </c>
       <c r="F47" s="3">
-        <v>89200</v>
+        <v>68700</v>
       </c>
       <c r="G47" s="3">
-        <v>90300</v>
+        <v>86200</v>
       </c>
       <c r="H47" s="3">
-        <v>99400</v>
+        <v>87300</v>
       </c>
       <c r="I47" s="3">
-        <v>123100</v>
+        <v>96000</v>
       </c>
       <c r="J47" s="3">
+        <v>118900</v>
+      </c>
+      <c r="K47" s="3">
         <v>82400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>85200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>35500</v>
-      </c>
-      <c r="M47" s="3">
-        <v>43500</v>
       </c>
       <c r="N47" s="3">
         <v>43500</v>
       </c>
       <c r="O47" s="3">
+        <v>43500</v>
+      </c>
+      <c r="P47" s="3">
         <v>39000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>43800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>43900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>42600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>31400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>11876300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>38100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>42300</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="X47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5396000</v>
+        <v>5372700</v>
       </c>
       <c r="E48" s="3">
-        <v>5023400</v>
+        <v>5213500</v>
       </c>
       <c r="F48" s="3">
-        <v>5036900</v>
+        <v>4853500</v>
       </c>
       <c r="G48" s="3">
-        <v>4943200</v>
+        <v>4866500</v>
       </c>
       <c r="H48" s="3">
-        <v>4963500</v>
+        <v>4776000</v>
       </c>
       <c r="I48" s="3">
-        <v>4907100</v>
+        <v>4795600</v>
       </c>
       <c r="J48" s="3">
+        <v>4741100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4239800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4402300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4299700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3993900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3886800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3777000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3593700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3132600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3128100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3085500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2983400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2851000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2974400</v>
       </c>
-      <c r="W48" s="3" t="s">
+      <c r="X48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2487300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10513100</v>
+        <v>10288400</v>
       </c>
       <c r="E49" s="3">
-        <v>10356100</v>
+        <v>10157500</v>
       </c>
       <c r="F49" s="3">
-        <v>10567200</v>
+        <v>10005800</v>
       </c>
       <c r="G49" s="3">
-        <v>10209300</v>
+        <v>10209800</v>
       </c>
       <c r="H49" s="3">
-        <v>10746800</v>
+        <v>9864000</v>
       </c>
       <c r="I49" s="3">
-        <v>11287600</v>
+        <v>10383300</v>
       </c>
       <c r="J49" s="3">
+        <v>10905800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4073800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2085000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4422200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2057500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2068100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2053500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1887900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1733700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1705400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1755900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1810900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1819900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1989600</v>
       </c>
-      <c r="W49" s="3" t="s">
+      <c r="X49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1943800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1038800</v>
+        <v>996000</v>
       </c>
       <c r="E52" s="3">
-        <v>894200</v>
+        <v>1003600</v>
       </c>
       <c r="F52" s="3">
-        <v>927000</v>
+        <v>864000</v>
       </c>
       <c r="G52" s="3">
-        <v>922500</v>
+        <v>895600</v>
       </c>
       <c r="H52" s="3">
-        <v>923600</v>
+        <v>891300</v>
       </c>
       <c r="I52" s="3">
-        <v>953000</v>
+        <v>892400</v>
       </c>
       <c r="J52" s="3">
+        <v>920700</v>
+      </c>
+      <c r="K52" s="3">
         <v>838900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>868600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>911400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>914100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>942300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>930900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>928600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>858600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>843700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>926800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2890200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>913300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>961400</v>
       </c>
-      <c r="W52" s="3" t="s">
+      <c r="X52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>921400</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26346400</v>
+        <v>26179700</v>
       </c>
       <c r="E54" s="3">
-        <v>25232000</v>
+        <v>25455300</v>
       </c>
       <c r="F54" s="3">
-        <v>24974600</v>
+        <v>24378600</v>
       </c>
       <c r="G54" s="3">
-        <v>24195500</v>
+        <v>24129800</v>
       </c>
       <c r="H54" s="3">
-        <v>24839100</v>
+        <v>23377100</v>
       </c>
       <c r="I54" s="3">
-        <v>25827000</v>
+        <v>23998900</v>
       </c>
       <c r="J54" s="3">
+        <v>24953500</v>
+      </c>
+      <c r="K54" s="3">
         <v>16672300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17064000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16636600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15234400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13049800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13164500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12868800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11653100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11299600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11144700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11158200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10821600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11121800</v>
       </c>
-      <c r="W54" s="3" t="s">
+      <c r="X54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10666400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1771600</v>
+        <v>1834900</v>
       </c>
       <c r="E57" s="3">
-        <v>1441900</v>
+        <v>1711600</v>
       </c>
       <c r="F57" s="3">
-        <v>1437300</v>
+        <v>1393100</v>
       </c>
       <c r="G57" s="3">
-        <v>1272500</v>
+        <v>1388700</v>
       </c>
       <c r="H57" s="3">
-        <v>1309800</v>
+        <v>1229500</v>
       </c>
       <c r="I57" s="3">
-        <v>1231800</v>
+        <v>1265500</v>
       </c>
       <c r="J57" s="3">
+        <v>1190200</v>
+      </c>
+      <c r="K57" s="3">
         <v>997000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1077500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1334000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1269300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1327000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1407700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1397000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1110100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1073700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1069300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1144400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>987400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>971900</v>
       </c>
-      <c r="W57" s="3" t="s">
+      <c r="X57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1006000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1015100</v>
+        <v>989500</v>
       </c>
       <c r="E58" s="3">
-        <v>1001500</v>
+        <v>980700</v>
       </c>
       <c r="F58" s="3">
-        <v>1009400</v>
+        <v>967600</v>
       </c>
       <c r="G58" s="3">
-        <v>426800</v>
+        <v>975300</v>
       </c>
       <c r="H58" s="3">
-        <v>636800</v>
+        <v>412400</v>
       </c>
       <c r="I58" s="3">
-        <v>730500</v>
+        <v>615300</v>
       </c>
       <c r="J58" s="3">
+        <v>705800</v>
+      </c>
+      <c r="K58" s="3">
         <v>263100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>280200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26900</v>
-      </c>
-      <c r="M58" s="3">
-        <v>32900</v>
       </c>
       <c r="N58" s="3">
         <v>32900</v>
       </c>
       <c r="O58" s="3">
+        <v>32900</v>
+      </c>
+      <c r="P58" s="3">
         <v>26000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>29600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>350300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>359000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>354500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1506800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>22400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>142000</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="X58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2230000</v>
+        <v>1996400</v>
       </c>
       <c r="E59" s="3">
-        <v>2048200</v>
+        <v>2154500</v>
       </c>
       <c r="F59" s="3">
-        <v>1890100</v>
+        <v>1978900</v>
       </c>
       <c r="G59" s="3">
-        <v>1804300</v>
+        <v>1826200</v>
       </c>
       <c r="H59" s="3">
-        <v>1948800</v>
+        <v>1743300</v>
       </c>
       <c r="I59" s="3">
-        <v>1660900</v>
+        <v>1882900</v>
       </c>
       <c r="J59" s="3">
+        <v>1604700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1253300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>967800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1349900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1167000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>845800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1057500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1154500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>795000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>695600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>711300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3932600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>802200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>694900</v>
       </c>
-      <c r="W59" s="3" t="s">
+      <c r="X59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5016600</v>
+        <v>4820700</v>
       </c>
       <c r="E60" s="3">
-        <v>4491600</v>
+        <v>4846900</v>
       </c>
       <c r="F60" s="3">
-        <v>4336900</v>
+        <v>4339600</v>
       </c>
       <c r="G60" s="3">
-        <v>3503600</v>
+        <v>4190200</v>
       </c>
       <c r="H60" s="3">
-        <v>3895400</v>
+        <v>3385100</v>
       </c>
       <c r="I60" s="3">
-        <v>3623300</v>
+        <v>3763600</v>
       </c>
       <c r="J60" s="3">
+        <v>3500700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2513400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2325500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2710900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2469300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2205800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2491200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2581100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2255300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2128400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2135100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4049300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1812000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1808800</v>
       </c>
-      <c r="W60" s="3" t="s">
+      <c r="X60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1795900</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6793800</v>
+        <v>6637100</v>
       </c>
       <c r="E61" s="3">
-        <v>7029800</v>
+        <v>6564000</v>
       </c>
       <c r="F61" s="3">
-        <v>7091900</v>
+        <v>6792000</v>
       </c>
       <c r="G61" s="3">
-        <v>7474600</v>
+        <v>6852000</v>
       </c>
       <c r="H61" s="3">
-        <v>7636100</v>
+        <v>7221800</v>
       </c>
       <c r="I61" s="3">
-        <v>8335000</v>
+        <v>7377800</v>
       </c>
       <c r="J61" s="3">
+        <v>8053100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1743300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1800100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1879100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1772800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1789300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1787400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1782600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1658000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1648200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1675100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2259700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2063300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2225500</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>2056500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1663200</v>
+        <v>1585100</v>
       </c>
       <c r="E62" s="3">
-        <v>1679000</v>
+        <v>1606900</v>
       </c>
       <c r="F62" s="3">
-        <v>1671100</v>
+        <v>1622200</v>
       </c>
       <c r="G62" s="3">
-        <v>1733200</v>
+        <v>1614500</v>
       </c>
       <c r="H62" s="3">
-        <v>1769300</v>
+        <v>1674500</v>
       </c>
       <c r="I62" s="3">
-        <v>2059500</v>
+        <v>1709500</v>
       </c>
       <c r="J62" s="3">
+        <v>1989800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1181000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1323800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1471200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1277600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1215200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>893100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>880100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>803700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>814600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>788800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>880800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>777500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>820500</v>
       </c>
-      <c r="W62" s="3" t="s">
+      <c r="X62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13473600</v>
+        <v>13042900</v>
       </c>
       <c r="E66" s="3">
-        <v>13200300</v>
+        <v>13017800</v>
       </c>
       <c r="F66" s="3">
-        <v>13099800</v>
+        <v>12753800</v>
       </c>
       <c r="G66" s="3">
-        <v>12711400</v>
+        <v>12656700</v>
       </c>
       <c r="H66" s="3">
-        <v>13300800</v>
+        <v>12281500</v>
       </c>
       <c r="I66" s="3">
-        <v>14017800</v>
+        <v>12850900</v>
       </c>
       <c r="J66" s="3">
+        <v>13543600</v>
+      </c>
+      <c r="K66" s="3">
         <v>5437700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5449500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6061300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5519700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5210300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5171600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5243800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4717000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4591200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4599000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4834700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4652900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4854900</v>
       </c>
-      <c r="W66" s="3" t="s">
+      <c r="X66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4770400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1588600</v>
+        <v>1875300</v>
       </c>
       <c r="E72" s="3">
-        <v>449400</v>
+        <v>1534900</v>
       </c>
       <c r="F72" s="3">
-        <v>745200</v>
+        <v>434200</v>
       </c>
       <c r="G72" s="3">
-        <v>-100500</v>
+        <v>720000</v>
       </c>
       <c r="H72" s="3">
-        <v>491200</v>
+        <v>-97100</v>
       </c>
       <c r="I72" s="3">
-        <v>439200</v>
+        <v>474500</v>
       </c>
       <c r="J72" s="3">
+        <v>424400</v>
+      </c>
+      <c r="K72" s="3">
         <v>875100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>784500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>515700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>365900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>144700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>36700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-327700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-461200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-844900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1325100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3115800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1713300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2158600</v>
       </c>
-      <c r="W72" s="3" t="s">
+      <c r="X72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2713800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12872900</v>
+        <v>13136700</v>
       </c>
       <c r="E76" s="3">
-        <v>12031700</v>
+        <v>12437500</v>
       </c>
       <c r="F76" s="3">
-        <v>11874700</v>
+        <v>11624700</v>
       </c>
       <c r="G76" s="3">
-        <v>11484100</v>
+        <v>11473100</v>
       </c>
       <c r="H76" s="3">
-        <v>11538300</v>
+        <v>11095600</v>
       </c>
       <c r="I76" s="3">
-        <v>11809300</v>
+        <v>11148000</v>
       </c>
       <c r="J76" s="3">
+        <v>11409800</v>
+      </c>
+      <c r="K76" s="3">
         <v>11234500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11614600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10575300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9714700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7839500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7992900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7625000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6936100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6708400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6545700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6323500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6168700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6267000</v>
       </c>
-      <c r="W76" s="3" t="s">
+      <c r="X76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5896000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>520500</v>
+        <v>490900</v>
       </c>
       <c r="E81" s="3">
-        <v>267600</v>
+        <v>502900</v>
       </c>
       <c r="F81" s="3">
-        <v>220200</v>
+        <v>258500</v>
       </c>
       <c r="G81" s="3">
-        <v>280000</v>
+        <v>212700</v>
       </c>
       <c r="H81" s="3">
-        <v>115200</v>
+        <v>270500</v>
       </c>
       <c r="I81" s="3">
-        <v>-155800</v>
+        <v>111300</v>
       </c>
       <c r="J81" s="3">
+        <v>-150500</v>
+      </c>
+      <c r="K81" s="3">
         <v>189700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>235800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>197200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>263500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>271700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>168000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>297600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>512700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>230000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>679900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>283900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>423700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>190200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>448300</v>
+        <v>428700</v>
       </c>
       <c r="E83" s="3">
-        <v>429100</v>
+        <v>433100</v>
       </c>
       <c r="F83" s="3">
-        <v>415500</v>
+        <v>414500</v>
       </c>
       <c r="G83" s="3">
-        <v>415500</v>
+        <v>401500</v>
       </c>
       <c r="H83" s="3">
-        <v>427900</v>
+        <v>401500</v>
       </c>
       <c r="I83" s="3">
-        <v>431300</v>
+        <v>413500</v>
       </c>
       <c r="J83" s="3">
+        <v>416700</v>
+      </c>
+      <c r="K83" s="3">
         <v>281100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>291900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>298900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>280000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>274100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>272100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>267300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>240500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>237900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>228900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>230000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>226600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>475400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>234800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1096400</v>
+        <v>867300</v>
       </c>
       <c r="E89" s="3">
-        <v>864900</v>
+        <v>1059300</v>
       </c>
       <c r="F89" s="3">
-        <v>836700</v>
+        <v>835600</v>
       </c>
       <c r="G89" s="3">
-        <v>662800</v>
+        <v>808400</v>
       </c>
       <c r="H89" s="3">
-        <v>842300</v>
+        <v>640400</v>
       </c>
       <c r="I89" s="3">
-        <v>600700</v>
+        <v>813800</v>
       </c>
       <c r="J89" s="3">
+        <v>580400</v>
+      </c>
+      <c r="K89" s="3">
         <v>397400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>211300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>837900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>464700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>250600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>365500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>760600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>506200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>344500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>184000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>690000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>593500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>679600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>331000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>518800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-608600</v>
+        <v>-387300</v>
       </c>
       <c r="E91" s="3">
-        <v>-262000</v>
+        <v>-588000</v>
       </c>
       <c r="F91" s="3">
-        <v>-298100</v>
+        <v>-253100</v>
       </c>
       <c r="G91" s="3">
-        <v>-263100</v>
+        <v>-288000</v>
       </c>
       <c r="H91" s="3">
-        <v>-310500</v>
+        <v>-254200</v>
       </c>
       <c r="I91" s="3">
-        <v>-245000</v>
+        <v>-300000</v>
       </c>
       <c r="J91" s="3">
+        <v>-236700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-234900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-251000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-374800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-360000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-369400</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-436500</v>
       </c>
       <c r="P91" s="3">
         <v>-436500</v>
       </c>
       <c r="Q91" s="3">
+        <v>-436500</v>
+      </c>
+      <c r="R91" s="3">
         <v>-265700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-250200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-287200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-362400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-209800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-495300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-238300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-325100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-927000</v>
+        <v>-577100</v>
       </c>
       <c r="E94" s="3">
-        <v>-744100</v>
+        <v>-895600</v>
       </c>
       <c r="F94" s="3">
-        <v>-525000</v>
+        <v>-718900</v>
       </c>
       <c r="G94" s="3">
-        <v>-382800</v>
+        <v>-507300</v>
       </c>
       <c r="H94" s="3">
-        <v>-829900</v>
+        <v>-369800</v>
       </c>
       <c r="I94" s="3">
-        <v>-5880400</v>
+        <v>-801800</v>
       </c>
       <c r="J94" s="3">
+        <v>-5681500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-215700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1211800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-463000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2329300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>76500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-230700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-449500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-427100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-142500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-299600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-537400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-458900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-285200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-314600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-495300</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6078,16 +6311,19 @@
         <v>0</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-291100</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-369200</v>
+        <v>-25100</v>
       </c>
       <c r="E100" s="3">
-        <v>-68900</v>
+        <v>-356700</v>
       </c>
       <c r="F100" s="3">
-        <v>-344400</v>
+        <v>-66500</v>
       </c>
       <c r="G100" s="3">
-        <v>-216800</v>
+        <v>-332700</v>
       </c>
       <c r="H100" s="3">
-        <v>-639100</v>
+        <v>-209500</v>
       </c>
       <c r="I100" s="3">
-        <v>6808500</v>
+        <v>-617500</v>
       </c>
       <c r="J100" s="3">
+        <v>6578200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-404200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1363500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1763400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-357600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-22500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-353700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-23100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-234500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-116700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-282900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>9400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6800</v>
+        <v>4400</v>
       </c>
       <c r="E101" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
-        <v>9000</v>
-      </c>
       <c r="G101" s="3">
-        <v>-14700</v>
+        <v>8700</v>
       </c>
       <c r="H101" s="3">
-        <v>-48600</v>
+        <v>-14200</v>
       </c>
       <c r="I101" s="3">
-        <v>-38400</v>
+        <v>-46900</v>
       </c>
       <c r="J101" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-19200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9400</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-13500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-15300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-193100</v>
+        <v>269500</v>
       </c>
       <c r="E102" s="3">
-        <v>53100</v>
+        <v>-186500</v>
       </c>
       <c r="F102" s="3">
-        <v>-23700</v>
+        <v>51300</v>
       </c>
       <c r="G102" s="3">
-        <v>48600</v>
+        <v>-22900</v>
       </c>
       <c r="H102" s="3">
-        <v>-675200</v>
+        <v>46900</v>
       </c>
       <c r="I102" s="3">
-        <v>1490400</v>
+        <v>-652400</v>
       </c>
       <c r="J102" s="3">
+        <v>1440000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-241600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>375900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>366300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-102300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>112400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-46100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>49400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-21300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-129000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>150300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>112700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>10600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>17600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>IFNNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3446200</v>
+        <v>3423000</v>
       </c>
       <c r="E8" s="3">
-        <v>3280400</v>
+        <v>3278700</v>
       </c>
       <c r="F8" s="3">
-        <v>2969500</v>
+        <v>3121000</v>
       </c>
       <c r="G8" s="3">
-        <v>2945500</v>
+        <v>2825200</v>
       </c>
       <c r="H8" s="3">
-        <v>2870200</v>
+        <v>2802300</v>
       </c>
       <c r="I8" s="3">
-        <v>2716400</v>
+        <v>2730700</v>
       </c>
       <c r="J8" s="3">
+        <v>2584400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2371600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2242400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2236800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2525900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2370400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2332800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2330300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2421400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2131200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2060000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1991500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6136200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2054400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4006200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1932100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1966100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2014900</v>
+        <v>1953300</v>
       </c>
       <c r="E9" s="3">
-        <v>1929800</v>
+        <v>1917000</v>
       </c>
       <c r="F9" s="3">
-        <v>1807600</v>
+        <v>1836000</v>
       </c>
       <c r="G9" s="3">
-        <v>1885100</v>
+        <v>1719800</v>
       </c>
       <c r="H9" s="3">
-        <v>1795600</v>
+        <v>1793500</v>
       </c>
       <c r="I9" s="3">
-        <v>1851300</v>
+        <v>1708400</v>
       </c>
       <c r="J9" s="3">
+        <v>1761300</v>
+      </c>
+      <c r="K9" s="3">
         <v>1731300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1467800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1409100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1630500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1505800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1451700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1408800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1458500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1316500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1294800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1266700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3817000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1269000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2554200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1237200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1252500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1431300</v>
+        <v>1469700</v>
       </c>
       <c r="E10" s="3">
-        <v>1350500</v>
+        <v>1361700</v>
       </c>
       <c r="F10" s="3">
-        <v>1161800</v>
+        <v>1284900</v>
       </c>
       <c r="G10" s="3">
-        <v>1060400</v>
+        <v>1105400</v>
       </c>
       <c r="H10" s="3">
-        <v>1074500</v>
+        <v>1008800</v>
       </c>
       <c r="I10" s="3">
-        <v>865100</v>
+        <v>1022300</v>
       </c>
       <c r="J10" s="3">
+        <v>823100</v>
+      </c>
+      <c r="K10" s="3">
         <v>640400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>774600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>827700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>895500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>864700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>881100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>921500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>962900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>814700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>765200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>724800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2319200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>785400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1452000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>694900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>435300</v>
+        <v>459800</v>
       </c>
       <c r="E12" s="3">
-        <v>434200</v>
+        <v>411000</v>
       </c>
       <c r="F12" s="3">
-        <v>410200</v>
+        <v>413100</v>
       </c>
       <c r="G12" s="3">
-        <v>368700</v>
+        <v>390300</v>
       </c>
       <c r="H12" s="3">
-        <v>356700</v>
+        <v>350800</v>
       </c>
       <c r="I12" s="3">
-        <v>334900</v>
+        <v>339400</v>
       </c>
       <c r="J12" s="3">
+        <v>318600</v>
+      </c>
+      <c r="K12" s="3">
         <v>350200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>272100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>283700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>281700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>285900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>277600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>279200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>263800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>239400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>223300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>218800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>642900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>218800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>460100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>234800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,37 +1163,40 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="E14" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1100</v>
+        <v>2100</v>
       </c>
       <c r="G14" s="3">
-        <v>3300</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="3">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="I14" s="3">
-        <v>24000</v>
+        <v>2100</v>
       </c>
       <c r="J14" s="3">
+        <v>22800</v>
+      </c>
+      <c r="K14" s="3">
         <v>18500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>11300</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1193,8 +1213,8 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1208,8 +1228,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1217,49 +1237,52 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
+      <c r="D15" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>47700</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3">
-        <v>69800</v>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H15" s="3">
-        <v>75300</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
+        <v>66400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>71600</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3">
         <v>20300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>22200</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3">
         <v>11800</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>10</v>
@@ -1267,11 +1290,11 @@
       <c r="R15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="3">
         <v>14600</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>10</v>
@@ -1279,8 +1302,8 @@
       <c r="V15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2773100</v>
+        <v>2784700</v>
       </c>
       <c r="E17" s="3">
-        <v>2761100</v>
+        <v>2638300</v>
       </c>
       <c r="F17" s="3">
-        <v>2592000</v>
+        <v>2626900</v>
       </c>
       <c r="G17" s="3">
-        <v>2606200</v>
+        <v>2466100</v>
       </c>
       <c r="H17" s="3">
-        <v>2510200</v>
+        <v>2479500</v>
       </c>
       <c r="I17" s="3">
-        <v>2541800</v>
+        <v>2388200</v>
       </c>
       <c r="J17" s="3">
+        <v>2418300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2491600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1998500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1926200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2224600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2037500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1974000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1943500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1983700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1781000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1463100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1713300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5191400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1720000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3521400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1716100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1696200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>673100</v>
+        <v>638300</v>
       </c>
       <c r="E18" s="3">
-        <v>519300</v>
+        <v>640400</v>
       </c>
       <c r="F18" s="3">
-        <v>377500</v>
+        <v>494000</v>
       </c>
       <c r="G18" s="3">
-        <v>339300</v>
+        <v>359100</v>
       </c>
       <c r="H18" s="3">
-        <v>360000</v>
+        <v>322800</v>
       </c>
       <c r="I18" s="3">
-        <v>174500</v>
+        <v>342500</v>
       </c>
       <c r="J18" s="3">
+        <v>166100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-120000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>243900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>310500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>301300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>332900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>358800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>386800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>437700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>350300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>596900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>278300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>944700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>334400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>484800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>216000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-42500</v>
+        <v>-25900</v>
       </c>
       <c r="E20" s="3">
-        <v>-29500</v>
+        <v>-40500</v>
       </c>
       <c r="F20" s="3">
-        <v>-56700</v>
+        <v>-28000</v>
       </c>
       <c r="G20" s="3">
-        <v>-43600</v>
+        <v>-54000</v>
       </c>
       <c r="H20" s="3">
-        <v>-27300</v>
+        <v>-41500</v>
       </c>
       <c r="I20" s="3">
-        <v>-16400</v>
+        <v>-25900</v>
       </c>
       <c r="J20" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-67600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-15200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-36500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-11800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-17700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-17600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-15700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-37000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-12300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-32900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1059300</v>
+        <v>1032700</v>
       </c>
       <c r="E21" s="3">
-        <v>922900</v>
+        <v>1007800</v>
       </c>
       <c r="F21" s="3">
-        <v>735300</v>
+        <v>878100</v>
       </c>
       <c r="G21" s="3">
-        <v>697100</v>
+        <v>699500</v>
       </c>
       <c r="H21" s="3">
-        <v>734200</v>
+        <v>663200</v>
       </c>
       <c r="I21" s="3">
-        <v>571600</v>
+        <v>698500</v>
       </c>
       <c r="J21" s="3">
+        <v>543900</v>
+      </c>
+      <c r="K21" s="3">
         <v>229100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>505800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>587200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>575700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>576400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>621100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>638800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>687300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>573200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>820200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>491400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2048800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>94200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>927300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>430800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1664,14 +1704,14 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>10</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1685,8 +1725,8 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>10</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>10</v>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>630500</v>
+        <v>612400</v>
       </c>
       <c r="E23" s="3">
-        <v>489800</v>
+        <v>599900</v>
       </c>
       <c r="F23" s="3">
-        <v>320700</v>
+        <v>466000</v>
       </c>
       <c r="G23" s="3">
-        <v>295600</v>
+        <v>305100</v>
       </c>
       <c r="H23" s="3">
+        <v>281300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>316600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>150500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-187600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>224700</v>
+      </c>
+      <c r="M23" s="3">
+        <v>295400</v>
+      </c>
+      <c r="N23" s="3">
+        <v>276800</v>
+      </c>
+      <c r="O23" s="3">
+        <v>296500</v>
+      </c>
+      <c r="P23" s="3">
+        <v>347000</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>366700</v>
+      </c>
+      <c r="R23" s="3">
+        <v>419900</v>
+      </c>
+      <c r="S23" s="3">
         <v>332700</v>
       </c>
-      <c r="I23" s="3">
-        <v>158200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-187600</v>
-      </c>
-      <c r="K23" s="3">
-        <v>224700</v>
-      </c>
-      <c r="L23" s="3">
-        <v>295400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>276800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>296500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>347000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>366700</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>419900</v>
-      </c>
-      <c r="R23" s="3">
-        <v>332700</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>582300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>262500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>907700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>322000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>451900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>196000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>127600</v>
+        <v>125600</v>
       </c>
       <c r="E24" s="3">
-        <v>-17500</v>
+        <v>121400</v>
       </c>
       <c r="F24" s="3">
-        <v>53500</v>
+        <v>-16600</v>
       </c>
       <c r="G24" s="3">
-        <v>67600</v>
+        <v>50900</v>
       </c>
       <c r="H24" s="3">
-        <v>53500</v>
+        <v>64300</v>
       </c>
       <c r="I24" s="3">
-        <v>36000</v>
+        <v>50900</v>
       </c>
       <c r="J24" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-48000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>50200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>77200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>54100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>66200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>63900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>53800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>69600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>31400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>228900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>41500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>24700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>502900</v>
+        <v>486800</v>
       </c>
       <c r="E26" s="3">
-        <v>507300</v>
+        <v>478500</v>
       </c>
       <c r="F26" s="3">
-        <v>267300</v>
+        <v>482600</v>
       </c>
       <c r="G26" s="3">
-        <v>228000</v>
+        <v>254300</v>
       </c>
       <c r="H26" s="3">
-        <v>279300</v>
+        <v>216900</v>
       </c>
       <c r="I26" s="3">
-        <v>122200</v>
+        <v>265700</v>
       </c>
       <c r="J26" s="3">
+        <v>116200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-139600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>201000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>245200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>199700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>263500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>292900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>356100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>278900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>512700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>231100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>678800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>280500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>427300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>194900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>495300</v>
+        <v>479500</v>
       </c>
       <c r="E27" s="3">
-        <v>504000</v>
+        <v>471200</v>
       </c>
       <c r="F27" s="3">
-        <v>258500</v>
+        <v>479500</v>
       </c>
       <c r="G27" s="3">
-        <v>219300</v>
+        <v>246000</v>
       </c>
       <c r="H27" s="3">
-        <v>270500</v>
+        <v>208600</v>
       </c>
       <c r="I27" s="3">
-        <v>114500</v>
+        <v>257400</v>
       </c>
       <c r="J27" s="3">
+        <v>109000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-150500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>189700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>235800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>199700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>263500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>292900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>356100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>278900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>512700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>231100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>678800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>280500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>427300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>194900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,79 +2178,85 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-4400</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>-188100</v>
+      </c>
+      <c r="S29" s="3">
+        <v>18700</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1100</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>-21200</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-188100</v>
-      </c>
-      <c r="R29" s="3">
-        <v>18700</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>3400</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-3500</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>42500</v>
+        <v>25900</v>
       </c>
       <c r="E32" s="3">
-        <v>29500</v>
+        <v>40500</v>
       </c>
       <c r="F32" s="3">
-        <v>56700</v>
+        <v>28000</v>
       </c>
       <c r="G32" s="3">
-        <v>43600</v>
+        <v>54000</v>
       </c>
       <c r="H32" s="3">
-        <v>27300</v>
+        <v>41500</v>
       </c>
       <c r="I32" s="3">
-        <v>16400</v>
+        <v>25900</v>
       </c>
       <c r="J32" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K32" s="3">
         <v>67600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>15200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>36500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>11800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>17700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>17600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>15700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>37000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>12300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>32900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>20000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>490900</v>
+        <v>479500</v>
       </c>
       <c r="E33" s="3">
-        <v>502900</v>
+        <v>467100</v>
       </c>
       <c r="F33" s="3">
-        <v>258500</v>
+        <v>478500</v>
       </c>
       <c r="G33" s="3">
-        <v>212700</v>
+        <v>246000</v>
       </c>
       <c r="H33" s="3">
-        <v>270500</v>
+        <v>202400</v>
       </c>
       <c r="I33" s="3">
-        <v>111300</v>
+        <v>257400</v>
       </c>
       <c r="J33" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-150500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>189700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>235800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>197200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>263500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>271700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>168000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>297600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>512700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>230000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>679900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>283900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>423700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>190200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>490900</v>
+        <v>479500</v>
       </c>
       <c r="E35" s="3">
-        <v>502900</v>
+        <v>467100</v>
       </c>
       <c r="F35" s="3">
-        <v>258500</v>
+        <v>478500</v>
       </c>
       <c r="G35" s="3">
-        <v>212700</v>
+        <v>246000</v>
       </c>
       <c r="H35" s="3">
-        <v>270500</v>
+        <v>202400</v>
       </c>
       <c r="I35" s="3">
-        <v>111300</v>
+        <v>257400</v>
       </c>
       <c r="J35" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-150500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>189700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>235800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>197200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>263500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>271700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>168000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>297600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>512700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>230000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>679900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>283900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>423700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>190200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,647 +2833,675 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2177500</v>
+        <v>1332700</v>
       </c>
       <c r="E41" s="3">
-        <v>1908000</v>
+        <v>2071600</v>
       </c>
       <c r="F41" s="3">
-        <v>2094500</v>
+        <v>1815300</v>
       </c>
       <c r="G41" s="3">
-        <v>2043300</v>
+        <v>1992800</v>
       </c>
       <c r="H41" s="3">
-        <v>2066200</v>
+        <v>1944000</v>
       </c>
       <c r="I41" s="3">
-        <v>2019300</v>
+        <v>1965800</v>
       </c>
       <c r="J41" s="3">
+        <v>1921200</v>
+      </c>
+      <c r="K41" s="3">
         <v>2671600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1274800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1567800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1250700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>849400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>951700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>978300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>865900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>846600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>814600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>835900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>964900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>814600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>846300</v>
       </c>
-      <c r="X41" s="3" t="s">
+      <c r="Y41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2496000</v>
+        <v>1993800</v>
       </c>
       <c r="E42" s="3">
-        <v>2370500</v>
+        <v>2374700</v>
       </c>
       <c r="F42" s="3">
-        <v>2119600</v>
+        <v>2255400</v>
       </c>
       <c r="G42" s="3">
-        <v>1713800</v>
+        <v>2016600</v>
       </c>
       <c r="H42" s="3">
-        <v>1570900</v>
+        <v>1630500</v>
       </c>
       <c r="I42" s="3">
-        <v>1501100</v>
+        <v>1494600</v>
       </c>
       <c r="J42" s="3">
+        <v>1428200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1092000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3905600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4104600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3378500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3191600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1262300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1749500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2142200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2031300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1920800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1758200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1786200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1672900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1558800</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="Y42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1895700</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1732400</v>
+        <v>1852700</v>
       </c>
       <c r="E43" s="3">
-        <v>1769500</v>
+        <v>1648200</v>
       </c>
       <c r="F43" s="3">
-        <v>1482500</v>
+        <v>1683500</v>
       </c>
       <c r="G43" s="3">
-        <v>1606900</v>
+        <v>1410500</v>
       </c>
       <c r="H43" s="3">
-        <v>1413800</v>
+        <v>1528800</v>
       </c>
       <c r="I43" s="3">
-        <v>1494500</v>
+        <v>1345100</v>
       </c>
       <c r="J43" s="3">
+        <v>1421900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1394200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1402300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1152200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1508000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1248200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1247000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1220800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1210100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1046400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>970500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>902100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3306500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>958200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>970700</v>
       </c>
-      <c r="X43" s="3" t="s">
+      <c r="Y43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>915600</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2529800</v>
+        <v>2636300</v>
       </c>
       <c r="E44" s="3">
-        <v>2379300</v>
+        <v>2406900</v>
       </c>
       <c r="F44" s="3">
-        <v>2239600</v>
+        <v>2263700</v>
       </c>
       <c r="G44" s="3">
-        <v>2113100</v>
+        <v>2130800</v>
       </c>
       <c r="H44" s="3">
-        <v>2132700</v>
+        <v>2010400</v>
       </c>
       <c r="I44" s="3">
-        <v>2238500</v>
+        <v>2029100</v>
       </c>
       <c r="J44" s="3">
+        <v>2129800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2416400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1960100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2062800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2083700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2068100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2006900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1882000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1750700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1524000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1464200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1438400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1391300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1396900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1441400</v>
       </c>
-      <c r="X44" s="3" t="s">
+      <c r="Y44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1398000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>502900</v>
+        <v>555300</v>
       </c>
       <c r="E45" s="3">
-        <v>574900</v>
+        <v>478500</v>
       </c>
       <c r="F45" s="3">
-        <v>650200</v>
+        <v>547000</v>
       </c>
       <c r="G45" s="3">
-        <v>594500</v>
+        <v>618600</v>
       </c>
       <c r="H45" s="3">
-        <v>574900</v>
+        <v>565700</v>
       </c>
       <c r="I45" s="3">
-        <v>578200</v>
+        <v>547000</v>
       </c>
       <c r="J45" s="3">
+        <v>550100</v>
+      </c>
+      <c r="K45" s="3">
         <v>692700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>931500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>735500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>957900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>868200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>641100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>533500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>446000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>435900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>409500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>410600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6195600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>356800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>336900</v>
       </c>
-      <c r="X45" s="3" t="s">
+      <c r="Y45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>329800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9438600</v>
+        <v>8370700</v>
       </c>
       <c r="E46" s="3">
-        <v>9002200</v>
+        <v>8979900</v>
       </c>
       <c r="F46" s="3">
-        <v>8586600</v>
+        <v>8564800</v>
       </c>
       <c r="G46" s="3">
-        <v>8071600</v>
+        <v>8169300</v>
       </c>
       <c r="H46" s="3">
-        <v>7758600</v>
+        <v>7679400</v>
       </c>
       <c r="I46" s="3">
-        <v>7831600</v>
+        <v>7381500</v>
       </c>
       <c r="J46" s="3">
+        <v>7451100</v>
+      </c>
+      <c r="K46" s="3">
         <v>8266900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9474300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9623000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9178900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8225400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6109000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6364000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6414900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5884200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5579700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5345200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8448600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5199300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5154200</v>
       </c>
-      <c r="X46" s="3" t="s">
+      <c r="Y46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5272800</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>84000</v>
+        <v>95500</v>
       </c>
       <c r="E47" s="3">
-        <v>78500</v>
+        <v>79900</v>
       </c>
       <c r="F47" s="3">
-        <v>68700</v>
+        <v>74700</v>
       </c>
       <c r="G47" s="3">
-        <v>86200</v>
+        <v>65400</v>
       </c>
       <c r="H47" s="3">
-        <v>87300</v>
+        <v>82000</v>
       </c>
       <c r="I47" s="3">
-        <v>96000</v>
+        <v>83000</v>
       </c>
       <c r="J47" s="3">
+        <v>91300</v>
+      </c>
+      <c r="K47" s="3">
         <v>118900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>82400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>85200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>35500</v>
-      </c>
-      <c r="N47" s="3">
-        <v>43500</v>
       </c>
       <c r="O47" s="3">
         <v>43500</v>
       </c>
       <c r="P47" s="3">
+        <v>43500</v>
+      </c>
+      <c r="Q47" s="3">
         <v>39000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>43800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>43900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>42600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>31400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>11876300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>38100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>42300</v>
       </c>
-      <c r="X47" s="3" t="s">
+      <c r="Y47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5372700</v>
+        <v>5324400</v>
       </c>
       <c r="E48" s="3">
-        <v>5213500</v>
+        <v>5111700</v>
       </c>
       <c r="F48" s="3">
-        <v>4853500</v>
+        <v>4960100</v>
       </c>
       <c r="G48" s="3">
-        <v>4866500</v>
+        <v>4617600</v>
       </c>
       <c r="H48" s="3">
-        <v>4776000</v>
+        <v>4630100</v>
       </c>
       <c r="I48" s="3">
-        <v>4795600</v>
+        <v>4543900</v>
       </c>
       <c r="J48" s="3">
+        <v>4562600</v>
+      </c>
+      <c r="K48" s="3">
         <v>4741100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4239800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4402300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4299700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3993900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3886800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3777000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3593700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3132600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3128100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3085500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2983400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2851000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2974400</v>
       </c>
-      <c r="X48" s="3" t="s">
+      <c r="Y48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2487300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10288400</v>
+        <v>9877700</v>
       </c>
       <c r="E49" s="3">
-        <v>10157500</v>
+        <v>9788400</v>
       </c>
       <c r="F49" s="3">
-        <v>10005800</v>
+        <v>9663900</v>
       </c>
       <c r="G49" s="3">
-        <v>10209800</v>
+        <v>9519600</v>
       </c>
       <c r="H49" s="3">
-        <v>9864000</v>
+        <v>9713700</v>
       </c>
       <c r="I49" s="3">
-        <v>10383300</v>
+        <v>9384700</v>
       </c>
       <c r="J49" s="3">
+        <v>9878700</v>
+      </c>
+      <c r="K49" s="3">
         <v>10905800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4073800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2085000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4422200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2057500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2068100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2053500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1887900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1733700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1705400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1755900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1810900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1819900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1989600</v>
       </c>
-      <c r="X49" s="3" t="s">
+      <c r="Y49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1943800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>996000</v>
+        <v>905000</v>
       </c>
       <c r="E52" s="3">
-        <v>1003600</v>
+        <v>947600</v>
       </c>
       <c r="F52" s="3">
-        <v>864000</v>
+        <v>954900</v>
       </c>
       <c r="G52" s="3">
-        <v>895600</v>
+        <v>822000</v>
       </c>
       <c r="H52" s="3">
-        <v>891300</v>
+        <v>852100</v>
       </c>
       <c r="I52" s="3">
-        <v>892400</v>
+        <v>848000</v>
       </c>
       <c r="J52" s="3">
+        <v>849000</v>
+      </c>
+      <c r="K52" s="3">
         <v>920700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>838900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>868600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>911400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>914100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>942300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>930900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>928600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>858600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>843700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>926800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2890200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>913300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>961400</v>
       </c>
-      <c r="X52" s="3" t="s">
+      <c r="Y52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>921400</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26179700</v>
+        <v>24573300</v>
       </c>
       <c r="E54" s="3">
-        <v>25455300</v>
+        <v>24907500</v>
       </c>
       <c r="F54" s="3">
-        <v>24378600</v>
+        <v>24218400</v>
       </c>
       <c r="G54" s="3">
-        <v>24129800</v>
+        <v>23194000</v>
       </c>
       <c r="H54" s="3">
-        <v>23377100</v>
+        <v>22957300</v>
       </c>
       <c r="I54" s="3">
-        <v>23998900</v>
+        <v>22241200</v>
       </c>
       <c r="J54" s="3">
+        <v>22832800</v>
+      </c>
+      <c r="K54" s="3">
         <v>24953500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16672300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17064000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16636600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15234400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13049800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13164500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12868800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11653100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11299600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11144700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11158200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10821600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11121800</v>
       </c>
-      <c r="X54" s="3" t="s">
+      <c r="Y54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10666400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1834900</v>
+        <v>1844300</v>
       </c>
       <c r="E57" s="3">
-        <v>1711600</v>
+        <v>1745700</v>
       </c>
       <c r="F57" s="3">
-        <v>1393100</v>
+        <v>1628500</v>
       </c>
       <c r="G57" s="3">
-        <v>1388700</v>
+        <v>1325400</v>
       </c>
       <c r="H57" s="3">
-        <v>1229500</v>
+        <v>1321200</v>
       </c>
       <c r="I57" s="3">
-        <v>1265500</v>
+        <v>1169700</v>
       </c>
       <c r="J57" s="3">
+        <v>1204000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1190200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>997000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1077500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1334000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1269300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1327000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1407700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1397000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1110100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1073700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1069300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1144400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>987400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>971900</v>
       </c>
-      <c r="X57" s="3" t="s">
+      <c r="Y57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1006000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>989500</v>
+        <v>73700</v>
       </c>
       <c r="E58" s="3">
-        <v>980700</v>
+        <v>941400</v>
       </c>
       <c r="F58" s="3">
-        <v>967600</v>
+        <v>933100</v>
       </c>
       <c r="G58" s="3">
-        <v>975300</v>
+        <v>920600</v>
       </c>
       <c r="H58" s="3">
-        <v>412400</v>
+        <v>927900</v>
       </c>
       <c r="I58" s="3">
-        <v>615300</v>
+        <v>392300</v>
       </c>
       <c r="J58" s="3">
+        <v>585400</v>
+      </c>
+      <c r="K58" s="3">
         <v>705800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>263100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>280200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26900</v>
-      </c>
-      <c r="N58" s="3">
-        <v>32900</v>
       </c>
       <c r="O58" s="3">
         <v>32900</v>
       </c>
       <c r="P58" s="3">
+        <v>32900</v>
+      </c>
+      <c r="Q58" s="3">
         <v>26000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>29600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>350300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>359000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>354500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1506800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>22400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>142000</v>
       </c>
-      <c r="X58" s="3" t="s">
+      <c r="Y58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1996400</v>
+        <v>1995900</v>
       </c>
       <c r="E59" s="3">
-        <v>2154500</v>
+        <v>1899400</v>
       </c>
       <c r="F59" s="3">
-        <v>1978900</v>
+        <v>2049900</v>
       </c>
       <c r="G59" s="3">
-        <v>1826200</v>
+        <v>1882800</v>
       </c>
       <c r="H59" s="3">
-        <v>1743300</v>
+        <v>1737400</v>
       </c>
       <c r="I59" s="3">
-        <v>1882900</v>
+        <v>1658600</v>
       </c>
       <c r="J59" s="3">
+        <v>1791400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1604700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1253300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>967800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1349900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1167000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>845800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1057500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1154500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>795000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>695600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>711300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3932600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>802200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>694900</v>
       </c>
-      <c r="X59" s="3" t="s">
+      <c r="Y59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4820700</v>
+        <v>3913900</v>
       </c>
       <c r="E60" s="3">
-        <v>4846900</v>
+        <v>4586500</v>
       </c>
       <c r="F60" s="3">
-        <v>4339600</v>
+        <v>4611400</v>
       </c>
       <c r="G60" s="3">
-        <v>4190200</v>
+        <v>4128800</v>
       </c>
       <c r="H60" s="3">
-        <v>3385100</v>
+        <v>3986600</v>
       </c>
       <c r="I60" s="3">
-        <v>3763600</v>
+        <v>3220600</v>
       </c>
       <c r="J60" s="3">
+        <v>3580800</v>
+      </c>
+      <c r="K60" s="3">
         <v>3500700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2513400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2325500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2710900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2469300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2205800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2491200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2581100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2255300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2128400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2135100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4049300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1812000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1808800</v>
       </c>
-      <c r="X60" s="3" t="s">
+      <c r="Y60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1795900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6637100</v>
+        <v>6391400</v>
       </c>
       <c r="E61" s="3">
-        <v>6564000</v>
+        <v>6314600</v>
       </c>
       <c r="F61" s="3">
-        <v>6792000</v>
+        <v>6245000</v>
       </c>
       <c r="G61" s="3">
-        <v>6852000</v>
+        <v>6462000</v>
       </c>
       <c r="H61" s="3">
-        <v>7221800</v>
+        <v>6519000</v>
       </c>
       <c r="I61" s="3">
-        <v>7377800</v>
+        <v>6870900</v>
       </c>
       <c r="J61" s="3">
+        <v>7019300</v>
+      </c>
+      <c r="K61" s="3">
         <v>8053100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1743300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1800100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1879100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1772800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1789300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1787400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1782600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1658000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1648200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1675100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2259700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2063300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2225500</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>2056500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1585100</v>
+        <v>1384600</v>
       </c>
       <c r="E62" s="3">
-        <v>1606900</v>
+        <v>1508100</v>
       </c>
       <c r="F62" s="3">
-        <v>1622200</v>
+        <v>1528800</v>
       </c>
       <c r="G62" s="3">
-        <v>1614500</v>
+        <v>1543400</v>
       </c>
       <c r="H62" s="3">
-        <v>1674500</v>
+        <v>1536100</v>
       </c>
       <c r="I62" s="3">
-        <v>1709500</v>
+        <v>1593200</v>
       </c>
       <c r="J62" s="3">
+        <v>1626400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1989800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1181000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1323800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1471200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1277600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1215200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>893100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>880100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>803700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>814600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>788800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>880800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>777500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>820500</v>
       </c>
-      <c r="X62" s="3" t="s">
+      <c r="Y62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13042900</v>
+        <v>11689900</v>
       </c>
       <c r="E66" s="3">
-        <v>13017800</v>
+        <v>12409100</v>
       </c>
       <c r="F66" s="3">
-        <v>12753800</v>
+        <v>12385300</v>
       </c>
       <c r="G66" s="3">
-        <v>12656700</v>
+        <v>12134100</v>
       </c>
       <c r="H66" s="3">
-        <v>12281500</v>
+        <v>12041700</v>
       </c>
       <c r="I66" s="3">
-        <v>12850900</v>
+        <v>11684700</v>
       </c>
       <c r="J66" s="3">
+        <v>12226500</v>
+      </c>
+      <c r="K66" s="3">
         <v>13543600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5437700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5449500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6061300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5519700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5210300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5171600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5243800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4717000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4591200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4599000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4834700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4652900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4854900</v>
       </c>
-      <c r="X66" s="3" t="s">
+      <c r="Y66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4770400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1875300</v>
+        <v>2128700</v>
       </c>
       <c r="E72" s="3">
-        <v>1534900</v>
+        <v>1926300</v>
       </c>
       <c r="F72" s="3">
-        <v>434200</v>
+        <v>1460300</v>
       </c>
       <c r="G72" s="3">
-        <v>720000</v>
+        <v>413100</v>
       </c>
       <c r="H72" s="3">
-        <v>-97100</v>
+        <v>685000</v>
       </c>
       <c r="I72" s="3">
-        <v>474500</v>
+        <v>-92400</v>
       </c>
       <c r="J72" s="3">
+        <v>451500</v>
+      </c>
+      <c r="K72" s="3">
         <v>424400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>875100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>784500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>515700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>365900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>144700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-327700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-461200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-844900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1325100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3115800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1713300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2158600</v>
       </c>
-      <c r="X72" s="3" t="s">
+      <c r="Y72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2713800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13136700</v>
+        <v>12883500</v>
       </c>
       <c r="E76" s="3">
-        <v>12437500</v>
+        <v>12498400</v>
       </c>
       <c r="F76" s="3">
-        <v>11624700</v>
+        <v>11833100</v>
       </c>
       <c r="G76" s="3">
-        <v>11473100</v>
+        <v>11059900</v>
       </c>
       <c r="H76" s="3">
-        <v>11095600</v>
+        <v>10915600</v>
       </c>
       <c r="I76" s="3">
-        <v>11148000</v>
+        <v>10556500</v>
       </c>
       <c r="J76" s="3">
+        <v>10606300</v>
+      </c>
+      <c r="K76" s="3">
         <v>11409800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11234500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11614600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10575300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9714700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7839500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7992900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7625000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6936100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6708400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6545700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6323500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6168700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6267000</v>
       </c>
-      <c r="X76" s="3" t="s">
+      <c r="Y76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5896000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>490900</v>
+        <v>479500</v>
       </c>
       <c r="E81" s="3">
-        <v>502900</v>
+        <v>467100</v>
       </c>
       <c r="F81" s="3">
-        <v>258500</v>
+        <v>478500</v>
       </c>
       <c r="G81" s="3">
-        <v>212700</v>
+        <v>246000</v>
       </c>
       <c r="H81" s="3">
-        <v>270500</v>
+        <v>202400</v>
       </c>
       <c r="I81" s="3">
-        <v>111300</v>
+        <v>257400</v>
       </c>
       <c r="J81" s="3">
+        <v>105900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-150500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>189700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>235800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>197200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>263500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>271700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>168000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>297600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>512700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>230000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>679900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>283900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>423700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>190200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>428700</v>
+        <v>420300</v>
       </c>
       <c r="E83" s="3">
-        <v>433100</v>
+        <v>407900</v>
       </c>
       <c r="F83" s="3">
-        <v>414500</v>
+        <v>412000</v>
       </c>
       <c r="G83" s="3">
-        <v>401500</v>
+        <v>394400</v>
       </c>
       <c r="H83" s="3">
-        <v>401500</v>
+        <v>381900</v>
       </c>
       <c r="I83" s="3">
-        <v>413500</v>
+        <v>381900</v>
       </c>
       <c r="J83" s="3">
+        <v>393400</v>
+      </c>
+      <c r="K83" s="3">
         <v>416700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>281100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>291900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>298900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>280000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>274100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>272100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>267300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>240500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>237900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>228900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>230000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>226600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>475400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>234800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>867300</v>
+        <v>637300</v>
       </c>
       <c r="E89" s="3">
-        <v>1059300</v>
+        <v>825100</v>
       </c>
       <c r="F89" s="3">
-        <v>835600</v>
+        <v>1007800</v>
       </c>
       <c r="G89" s="3">
-        <v>808400</v>
+        <v>795000</v>
       </c>
       <c r="H89" s="3">
-        <v>640400</v>
+        <v>769100</v>
       </c>
       <c r="I89" s="3">
-        <v>813800</v>
+        <v>609200</v>
       </c>
       <c r="J89" s="3">
+        <v>774300</v>
+      </c>
+      <c r="K89" s="3">
         <v>580400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>397400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>211300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>837900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>464700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>250600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>365500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>760600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>506200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>344500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>184000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>690000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>593500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>679600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>331000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>518800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-387300</v>
+        <v>-465000</v>
       </c>
       <c r="E91" s="3">
-        <v>-588000</v>
+        <v>-368500</v>
       </c>
       <c r="F91" s="3">
-        <v>-253100</v>
+        <v>-559400</v>
       </c>
       <c r="G91" s="3">
-        <v>-288000</v>
+        <v>-240800</v>
       </c>
       <c r="H91" s="3">
-        <v>-254200</v>
+        <v>-274000</v>
       </c>
       <c r="I91" s="3">
-        <v>-300000</v>
+        <v>-241800</v>
       </c>
       <c r="J91" s="3">
+        <v>-285400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-236700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-234900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-251000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-374800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-360000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-369400</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-436500</v>
       </c>
       <c r="Q91" s="3">
         <v>-436500</v>
       </c>
       <c r="R91" s="3">
+        <v>-436500</v>
+      </c>
+      <c r="S91" s="3">
         <v>-265700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-250200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-287200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-362400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-209800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-495300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-238300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-325100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-577100</v>
+        <v>-134900</v>
       </c>
       <c r="E94" s="3">
-        <v>-895600</v>
+        <v>-549000</v>
       </c>
       <c r="F94" s="3">
-        <v>-718900</v>
+        <v>-852100</v>
       </c>
       <c r="G94" s="3">
-        <v>-507300</v>
+        <v>-684000</v>
       </c>
       <c r="H94" s="3">
-        <v>-369800</v>
+        <v>-482600</v>
       </c>
       <c r="I94" s="3">
-        <v>-801800</v>
+        <v>-351800</v>
       </c>
       <c r="J94" s="3">
+        <v>-762900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5681500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-215700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1211800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-463000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2329300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>76500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-230700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-449500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-427100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-142500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-299600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-537400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-458900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-285200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-314600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-495300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6314,16 +6548,19 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-291100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-25100</v>
+        <v>-1245500</v>
       </c>
       <c r="E100" s="3">
-        <v>-356700</v>
+        <v>-23900</v>
       </c>
       <c r="F100" s="3">
-        <v>-66500</v>
+        <v>-339400</v>
       </c>
       <c r="G100" s="3">
-        <v>-332700</v>
+        <v>-63300</v>
       </c>
       <c r="H100" s="3">
-        <v>-209500</v>
+        <v>-316600</v>
       </c>
       <c r="I100" s="3">
-        <v>-617500</v>
+        <v>-199300</v>
       </c>
       <c r="J100" s="3">
+        <v>-587500</v>
+      </c>
+      <c r="K100" s="3">
         <v>6578200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-404200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1363500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1763400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-357600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-353700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-23100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-234500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-116700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-282900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>9400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E101" s="3">
-        <v>6500</v>
+        <v>4200</v>
       </c>
       <c r="F101" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>12800</v>
+      </c>
+      <c r="N101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P101" s="3">
+        <v>9400</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="T101" s="3">
+        <v>11200</v>
+      </c>
+      <c r="U101" s="3">
         <v>1100</v>
       </c>
-      <c r="G101" s="3">
-        <v>8700</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-14200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-46900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-37100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>12800</v>
-      </c>
-      <c r="M101" s="3">
-        <v>2400</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="O101" s="3">
-        <v>9400</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="S101" s="3">
-        <v>11200</v>
-      </c>
-      <c r="T101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-13500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-15300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>269500</v>
+        <v>-739000</v>
       </c>
       <c r="E102" s="3">
-        <v>-186500</v>
+        <v>256400</v>
       </c>
       <c r="F102" s="3">
-        <v>51300</v>
+        <v>-177500</v>
       </c>
       <c r="G102" s="3">
-        <v>-22900</v>
+        <v>48800</v>
       </c>
       <c r="H102" s="3">
-        <v>46900</v>
+        <v>-21800</v>
       </c>
       <c r="I102" s="3">
-        <v>-652400</v>
+        <v>44600</v>
       </c>
       <c r="J102" s="3">
+        <v>-620700</v>
+      </c>
+      <c r="K102" s="3">
         <v>1440000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-241600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>375900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>366300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-102300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-21200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>112400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-46100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>49400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-21300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-129000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>150300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>112700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>10600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>17600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>IFNNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3423000</v>
+        <v>3608600</v>
       </c>
       <c r="E8" s="3">
-        <v>3278700</v>
+        <v>3289400</v>
       </c>
       <c r="F8" s="3">
-        <v>3121000</v>
+        <v>3150800</v>
       </c>
       <c r="G8" s="3">
-        <v>2825200</v>
+        <v>2999200</v>
       </c>
       <c r="H8" s="3">
-        <v>2802300</v>
+        <v>2714900</v>
       </c>
       <c r="I8" s="3">
-        <v>2730700</v>
+        <v>2693000</v>
       </c>
       <c r="J8" s="3">
+        <v>2624200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2584400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2371600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2242400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2236800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2525900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2370400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2332800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2330300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2421400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2131200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2060000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1991500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6136200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2054400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4006200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1932100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1966100</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1953300</v>
+        <v>2048700</v>
       </c>
       <c r="E9" s="3">
-        <v>1917000</v>
+        <v>1877100</v>
       </c>
       <c r="F9" s="3">
-        <v>1836000</v>
+        <v>1842200</v>
       </c>
       <c r="G9" s="3">
-        <v>1719800</v>
+        <v>1764400</v>
       </c>
       <c r="H9" s="3">
-        <v>1793500</v>
+        <v>1652700</v>
       </c>
       <c r="I9" s="3">
-        <v>1708400</v>
+        <v>1723500</v>
       </c>
       <c r="J9" s="3">
+        <v>1641700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1761300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1731300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1467800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1409100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1630500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1505800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1451700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1408800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1458500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1316500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1294800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1266700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3817000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1269000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2554200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1237200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1252500</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1469700</v>
+        <v>1559900</v>
       </c>
       <c r="E10" s="3">
-        <v>1361700</v>
+        <v>1412300</v>
       </c>
       <c r="F10" s="3">
-        <v>1284900</v>
+        <v>1308600</v>
       </c>
       <c r="G10" s="3">
-        <v>1105400</v>
+        <v>1234800</v>
       </c>
       <c r="H10" s="3">
-        <v>1008800</v>
+        <v>1062200</v>
       </c>
       <c r="I10" s="3">
-        <v>1022300</v>
+        <v>969500</v>
       </c>
       <c r="J10" s="3">
+        <v>982400</v>
+      </c>
+      <c r="K10" s="3">
         <v>823100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>640400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>774600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>827700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>895500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>864700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>881100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>921500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>962900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>814700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>765200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>724800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2319200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>785400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1452000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>694900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>459800</v>
+        <v>464800</v>
       </c>
       <c r="E12" s="3">
-        <v>411000</v>
+        <v>441800</v>
       </c>
       <c r="F12" s="3">
-        <v>413100</v>
+        <v>395000</v>
       </c>
       <c r="G12" s="3">
-        <v>390300</v>
+        <v>397000</v>
       </c>
       <c r="H12" s="3">
-        <v>350800</v>
+        <v>375000</v>
       </c>
       <c r="I12" s="3">
-        <v>339400</v>
+        <v>337100</v>
       </c>
       <c r="J12" s="3">
+        <v>326100</v>
+      </c>
+      <c r="K12" s="3">
         <v>318600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>350200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>272100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>283700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>281700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>285900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>277600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>279200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>263800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>239400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>223300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>218800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>642900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>218800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>460100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>234800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,40 +1183,43 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F14" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
-        <v>3100</v>
-      </c>
       <c r="I14" s="3">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="J14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K14" s="3">
         <v>22800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>11300</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1216,8 +1236,8 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1231,8 +1251,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>10</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>10</v>
@@ -1240,52 +1260,55 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>47700</v>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>47700</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>45900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45900</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="3">
-        <v>66400</v>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I15" s="3">
-        <v>71600</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+        <v>63800</v>
+      </c>
+      <c r="J15" s="3">
+        <v>68800</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3">
         <v>20300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>22200</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3">
         <v>11800</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>10</v>
@@ -1293,11 +1316,11 @@
       <c r="S15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="3">
         <v>14600</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>10</v>
@@ -1305,8 +1328,8 @@
       <c r="W15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2784700</v>
+        <v>2920400</v>
       </c>
       <c r="E17" s="3">
-        <v>2638300</v>
+        <v>2676000</v>
       </c>
       <c r="F17" s="3">
-        <v>2626900</v>
+        <v>2535400</v>
       </c>
       <c r="G17" s="3">
-        <v>2466100</v>
+        <v>2524400</v>
       </c>
       <c r="H17" s="3">
-        <v>2479500</v>
+        <v>2369800</v>
       </c>
       <c r="I17" s="3">
-        <v>2388200</v>
+        <v>2382800</v>
       </c>
       <c r="J17" s="3">
+        <v>2295000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2418300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2491600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1998500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1926200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2224600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2037500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1974000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1943500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1983700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1781000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1463100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1713300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5191400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1720000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3521400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1716100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1696200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>638300</v>
+        <v>688200</v>
       </c>
       <c r="E18" s="3">
-        <v>640400</v>
+        <v>613400</v>
       </c>
       <c r="F18" s="3">
-        <v>494000</v>
+        <v>615400</v>
       </c>
       <c r="G18" s="3">
-        <v>359100</v>
+        <v>474800</v>
       </c>
       <c r="H18" s="3">
-        <v>322800</v>
+        <v>345100</v>
       </c>
       <c r="I18" s="3">
-        <v>342500</v>
+        <v>310200</v>
       </c>
       <c r="J18" s="3">
+        <v>329100</v>
+      </c>
+      <c r="K18" s="3">
         <v>166100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-120000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>243900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>310500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>301300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>332900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>358800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>386800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>437700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>350300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>596900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>278300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>944700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>334400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>484800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>216000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-25900</v>
+        <v>-30900</v>
       </c>
       <c r="E20" s="3">
-        <v>-40500</v>
+        <v>-24900</v>
       </c>
       <c r="F20" s="3">
-        <v>-28000</v>
+        <v>-38900</v>
       </c>
       <c r="G20" s="3">
-        <v>-54000</v>
+        <v>-26900</v>
       </c>
       <c r="H20" s="3">
-        <v>-41500</v>
+        <v>-51900</v>
       </c>
       <c r="I20" s="3">
-        <v>-25900</v>
+        <v>-39900</v>
       </c>
       <c r="J20" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-15600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-67600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-19200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-36500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-20100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-17700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-17600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-14600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-15700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-37000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-12300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-32900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1032700</v>
+        <v>1078200</v>
       </c>
       <c r="E21" s="3">
-        <v>1007800</v>
+        <v>992400</v>
       </c>
       <c r="F21" s="3">
-        <v>878100</v>
+        <v>968500</v>
       </c>
       <c r="G21" s="3">
-        <v>699500</v>
+        <v>843800</v>
       </c>
       <c r="H21" s="3">
-        <v>663200</v>
+        <v>672200</v>
       </c>
       <c r="I21" s="3">
-        <v>698500</v>
+        <v>637300</v>
       </c>
       <c r="J21" s="3">
+        <v>671300</v>
+      </c>
+      <c r="K21" s="3">
         <v>543900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>229100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>505800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>587200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>575700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>576400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>621100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>638800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>687300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>573200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>820200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>491400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2048800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>94200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>927300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>430800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1707,14 +1747,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>10</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1728,8 +1768,8 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>10</v>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>10</v>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>612400</v>
+        <v>657300</v>
       </c>
       <c r="E23" s="3">
-        <v>599900</v>
+        <v>588500</v>
       </c>
       <c r="F23" s="3">
-        <v>466000</v>
+        <v>576500</v>
       </c>
       <c r="G23" s="3">
-        <v>305100</v>
+        <v>447800</v>
       </c>
       <c r="H23" s="3">
-        <v>281300</v>
+        <v>293200</v>
       </c>
       <c r="I23" s="3">
-        <v>316600</v>
+        <v>270300</v>
       </c>
       <c r="J23" s="3">
+        <v>304200</v>
+      </c>
+      <c r="K23" s="3">
         <v>150500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-187600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>224700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>295400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>276800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>296500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>347000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>366700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>419900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>332700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>582300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>262500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>907700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>322000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>451900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>196000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>125600</v>
+        <v>133700</v>
       </c>
       <c r="E24" s="3">
-        <v>121400</v>
+        <v>120700</v>
       </c>
       <c r="F24" s="3">
-        <v>-16600</v>
+        <v>116700</v>
       </c>
       <c r="G24" s="3">
-        <v>50900</v>
+        <v>-16000</v>
       </c>
       <c r="H24" s="3">
-        <v>64300</v>
+        <v>48900</v>
       </c>
       <c r="I24" s="3">
-        <v>50900</v>
+        <v>61800</v>
       </c>
       <c r="J24" s="3">
+        <v>48900</v>
+      </c>
+      <c r="K24" s="3">
         <v>34300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-48000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>50200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>77200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>54100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>66200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>63900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>53800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>69600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>31400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>228900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>41500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>24700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>486800</v>
+        <v>523600</v>
       </c>
       <c r="E26" s="3">
-        <v>478500</v>
+        <v>467800</v>
       </c>
       <c r="F26" s="3">
-        <v>482600</v>
+        <v>459800</v>
       </c>
       <c r="G26" s="3">
-        <v>254300</v>
+        <v>463800</v>
       </c>
       <c r="H26" s="3">
-        <v>216900</v>
+        <v>244400</v>
       </c>
       <c r="I26" s="3">
-        <v>265700</v>
+        <v>208500</v>
       </c>
       <c r="J26" s="3">
+        <v>255300</v>
+      </c>
+      <c r="K26" s="3">
         <v>116200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-139600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>201000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>245200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>199700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>263500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>292900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>356100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>278900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>512700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>231100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>678800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>280500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>427300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>194900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>479500</v>
+        <v>516700</v>
       </c>
       <c r="E27" s="3">
-        <v>471200</v>
+        <v>460800</v>
       </c>
       <c r="F27" s="3">
-        <v>479500</v>
+        <v>452800</v>
       </c>
       <c r="G27" s="3">
-        <v>246000</v>
+        <v>460800</v>
       </c>
       <c r="H27" s="3">
-        <v>208600</v>
+        <v>236400</v>
       </c>
       <c r="I27" s="3">
-        <v>257400</v>
+        <v>200500</v>
       </c>
       <c r="J27" s="3">
+        <v>247400</v>
+      </c>
+      <c r="K27" s="3">
         <v>109000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-150500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>189700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>235800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>199700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>263500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>292900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>356100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>278900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>512700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>231100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>678800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>280500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>427300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>194900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,35 +2239,38 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-8000</v>
       </c>
       <c r="E29" s="3">
-        <v>-4200</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1000</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
-        <v>-6200</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-3100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -2217,46 +2278,49 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2400</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-188100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>18700</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-1100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>3400</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>25900</v>
+        <v>30900</v>
       </c>
       <c r="E32" s="3">
-        <v>40500</v>
+        <v>24900</v>
       </c>
       <c r="F32" s="3">
-        <v>28000</v>
+        <v>38900</v>
       </c>
       <c r="G32" s="3">
-        <v>54000</v>
+        <v>26900</v>
       </c>
       <c r="H32" s="3">
-        <v>41500</v>
+        <v>51900</v>
       </c>
       <c r="I32" s="3">
-        <v>25900</v>
+        <v>39900</v>
       </c>
       <c r="J32" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K32" s="3">
         <v>15600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>67600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>19200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>36500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>11800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>20100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>17700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>17600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>14600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>15700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>37000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>12300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>32900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>20000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>479500</v>
+        <v>508700</v>
       </c>
       <c r="E33" s="3">
-        <v>467100</v>
+        <v>460800</v>
       </c>
       <c r="F33" s="3">
-        <v>478500</v>
+        <v>448800</v>
       </c>
       <c r="G33" s="3">
-        <v>246000</v>
+        <v>459800</v>
       </c>
       <c r="H33" s="3">
-        <v>202400</v>
+        <v>236400</v>
       </c>
       <c r="I33" s="3">
-        <v>257400</v>
+        <v>194500</v>
       </c>
       <c r="J33" s="3">
+        <v>247400</v>
+      </c>
+      <c r="K33" s="3">
         <v>105900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-150500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>189700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>235800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>197200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>263500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>271700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>168000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>297600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>512700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>230000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>679900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>283900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>423700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>190200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>479500</v>
+        <v>508700</v>
       </c>
       <c r="E35" s="3">
-        <v>467100</v>
+        <v>460800</v>
       </c>
       <c r="F35" s="3">
-        <v>478500</v>
+        <v>448800</v>
       </c>
       <c r="G35" s="3">
-        <v>246000</v>
+        <v>459800</v>
       </c>
       <c r="H35" s="3">
-        <v>202400</v>
+        <v>236400</v>
       </c>
       <c r="I35" s="3">
-        <v>257400</v>
+        <v>194500</v>
       </c>
       <c r="J35" s="3">
+        <v>247400</v>
+      </c>
+      <c r="K35" s="3">
         <v>105900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-150500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>189700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>235800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>197200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>263500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>271700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>168000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>297600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>512700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>230000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>679900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>283900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>423700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>190200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1332700</v>
+        <v>1589900</v>
       </c>
       <c r="E41" s="3">
-        <v>2071600</v>
+        <v>1280700</v>
       </c>
       <c r="F41" s="3">
-        <v>1815300</v>
+        <v>1990800</v>
       </c>
       <c r="G41" s="3">
-        <v>1992800</v>
+        <v>1744500</v>
       </c>
       <c r="H41" s="3">
-        <v>1944000</v>
+        <v>1915000</v>
       </c>
       <c r="I41" s="3">
-        <v>1965800</v>
+        <v>1868100</v>
       </c>
       <c r="J41" s="3">
+        <v>1889100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1921200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2671600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1274800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1567800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1250700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>849400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>951700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>978300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>865900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>846600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>814600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>835900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>964900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>814600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>846300</v>
       </c>
-      <c r="Y41" s="3" t="s">
+      <c r="Z41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1993800</v>
+        <v>1969900</v>
       </c>
       <c r="E42" s="3">
-        <v>2374700</v>
+        <v>1916000</v>
       </c>
       <c r="F42" s="3">
-        <v>2255400</v>
+        <v>2282100</v>
       </c>
       <c r="G42" s="3">
-        <v>2016600</v>
+        <v>2167400</v>
       </c>
       <c r="H42" s="3">
-        <v>1630500</v>
+        <v>1937900</v>
       </c>
       <c r="I42" s="3">
-        <v>1494600</v>
+        <v>1566900</v>
       </c>
       <c r="J42" s="3">
+        <v>1436300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1428200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1092000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3905600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4104600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3378500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3191600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1262300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1749500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2142200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2031300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1920800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1758200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1786200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1672900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1558800</v>
       </c>
-      <c r="Y42" s="3" t="s">
+      <c r="Z42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1895700</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1852700</v>
+        <v>1933000</v>
       </c>
       <c r="E43" s="3">
-        <v>1648200</v>
+        <v>1780400</v>
       </c>
       <c r="F43" s="3">
-        <v>1683500</v>
+        <v>1583900</v>
       </c>
       <c r="G43" s="3">
-        <v>1410500</v>
+        <v>1617800</v>
       </c>
       <c r="H43" s="3">
-        <v>1528800</v>
+        <v>1355500</v>
       </c>
       <c r="I43" s="3">
-        <v>1345100</v>
+        <v>1469200</v>
       </c>
       <c r="J43" s="3">
+        <v>1292600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1421900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1394200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1402300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1152200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1508000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1248200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1247000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1220800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1210100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1046400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>970500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>902100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3306500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>958200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>970700</v>
       </c>
-      <c r="Y43" s="3" t="s">
+      <c r="Z43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>915600</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2636300</v>
+        <v>2826600</v>
       </c>
       <c r="E44" s="3">
-        <v>2406900</v>
+        <v>2533400</v>
       </c>
       <c r="F44" s="3">
-        <v>2263700</v>
+        <v>2313000</v>
       </c>
       <c r="G44" s="3">
-        <v>2130800</v>
+        <v>2175300</v>
       </c>
       <c r="H44" s="3">
-        <v>2010400</v>
+        <v>2047700</v>
       </c>
       <c r="I44" s="3">
-        <v>2029100</v>
+        <v>1932000</v>
       </c>
       <c r="J44" s="3">
+        <v>1949900</v>
+      </c>
+      <c r="K44" s="3">
         <v>2129800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2416400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1960100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2062800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2083700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2068100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2006900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1882000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1750700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1524000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1464200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1438400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1391300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1396900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1441400</v>
       </c>
-      <c r="Y44" s="3" t="s">
+      <c r="Z44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1398000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>555300</v>
+        <v>647300</v>
       </c>
       <c r="E45" s="3">
-        <v>478500</v>
+        <v>533600</v>
       </c>
       <c r="F45" s="3">
-        <v>547000</v>
+        <v>459800</v>
       </c>
       <c r="G45" s="3">
-        <v>618600</v>
+        <v>525600</v>
       </c>
       <c r="H45" s="3">
-        <v>565700</v>
+        <v>594500</v>
       </c>
       <c r="I45" s="3">
-        <v>547000</v>
+        <v>543600</v>
       </c>
       <c r="J45" s="3">
+        <v>525600</v>
+      </c>
+      <c r="K45" s="3">
         <v>550100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>692700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>931500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>735500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>957900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>868200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>641100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>533500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>446000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>435900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>409500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>410600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>6195600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>356800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>336900</v>
       </c>
-      <c r="Y45" s="3" t="s">
+      <c r="Z45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>329800</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8370700</v>
+        <v>8966600</v>
       </c>
       <c r="E46" s="3">
-        <v>8979900</v>
+        <v>8044000</v>
       </c>
       <c r="F46" s="3">
-        <v>8564800</v>
+        <v>8629500</v>
       </c>
       <c r="G46" s="3">
-        <v>8169300</v>
+        <v>8230500</v>
       </c>
       <c r="H46" s="3">
-        <v>7679400</v>
+        <v>7850500</v>
       </c>
       <c r="I46" s="3">
-        <v>7381500</v>
+        <v>7379800</v>
       </c>
       <c r="J46" s="3">
+        <v>7093500</v>
+      </c>
+      <c r="K46" s="3">
         <v>7451100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8266900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9474300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9623000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9178900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8225400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6109000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6364000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6414900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5884200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5579700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5345200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8448600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5199300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5154200</v>
       </c>
-      <c r="Y46" s="3" t="s">
+      <c r="Z46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5272800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>95500</v>
+        <v>101700</v>
       </c>
       <c r="E47" s="3">
-        <v>79900</v>
+        <v>91800</v>
       </c>
       <c r="F47" s="3">
-        <v>74700</v>
+        <v>76800</v>
       </c>
       <c r="G47" s="3">
-        <v>65400</v>
+        <v>71800</v>
       </c>
       <c r="H47" s="3">
-        <v>82000</v>
+        <v>62800</v>
       </c>
       <c r="I47" s="3">
-        <v>83000</v>
+        <v>78800</v>
       </c>
       <c r="J47" s="3">
+        <v>79800</v>
+      </c>
+      <c r="K47" s="3">
         <v>91300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>118900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>82400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>85200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>35500</v>
-      </c>
-      <c r="O47" s="3">
-        <v>43500</v>
       </c>
       <c r="P47" s="3">
         <v>43500</v>
       </c>
       <c r="Q47" s="3">
+        <v>43500</v>
+      </c>
+      <c r="R47" s="3">
         <v>39000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>43800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>43900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>42600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>31400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>11876300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>38100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>42300</v>
       </c>
-      <c r="Y47" s="3" t="s">
+      <c r="Z47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5324400</v>
+        <v>5384000</v>
       </c>
       <c r="E48" s="3">
-        <v>5111700</v>
+        <v>5116700</v>
       </c>
       <c r="F48" s="3">
-        <v>4960100</v>
+        <v>4912200</v>
       </c>
       <c r="G48" s="3">
-        <v>4617600</v>
+        <v>4766600</v>
       </c>
       <c r="H48" s="3">
-        <v>4630100</v>
+        <v>4437400</v>
       </c>
       <c r="I48" s="3">
-        <v>4543900</v>
+        <v>4449400</v>
       </c>
       <c r="J48" s="3">
+        <v>4366600</v>
+      </c>
+      <c r="K48" s="3">
         <v>4562600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4741100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4239800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4402300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4299700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3993900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3886800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3777000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3593700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3132600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3128100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3085500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2983400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2851000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2974400</v>
       </c>
-      <c r="Y48" s="3" t="s">
+      <c r="Z48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2487300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9877700</v>
+        <v>10022900</v>
       </c>
       <c r="E49" s="3">
-        <v>9788400</v>
+        <v>9492300</v>
       </c>
       <c r="F49" s="3">
-        <v>9663900</v>
+        <v>9406500</v>
       </c>
       <c r="G49" s="3">
-        <v>9519600</v>
+        <v>9286800</v>
       </c>
       <c r="H49" s="3">
-        <v>9713700</v>
+        <v>9148200</v>
       </c>
       <c r="I49" s="3">
-        <v>9384700</v>
+        <v>9334700</v>
       </c>
       <c r="J49" s="3">
+        <v>9018500</v>
+      </c>
+      <c r="K49" s="3">
         <v>9878700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10905800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4073800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2085000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4422200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2057500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2068100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2053500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1887900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1733700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1705400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1755900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1810900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1819900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1989600</v>
       </c>
-      <c r="Y49" s="3" t="s">
+      <c r="Z49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1943800</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>905000</v>
+        <v>873700</v>
       </c>
       <c r="E52" s="3">
-        <v>947600</v>
+        <v>869700</v>
       </c>
       <c r="F52" s="3">
-        <v>954900</v>
+        <v>910600</v>
       </c>
       <c r="G52" s="3">
-        <v>822000</v>
+        <v>917600</v>
       </c>
       <c r="H52" s="3">
-        <v>852100</v>
+        <v>789900</v>
       </c>
       <c r="I52" s="3">
-        <v>848000</v>
+        <v>818900</v>
       </c>
       <c r="J52" s="3">
+        <v>814900</v>
+      </c>
+      <c r="K52" s="3">
         <v>849000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>920700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>838900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>868600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>911400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>914100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>942300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>930900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>928600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>858600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>843700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>926800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2890200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>913300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>961400</v>
       </c>
-      <c r="Y52" s="3" t="s">
+      <c r="Z52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>921400</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24573300</v>
+        <v>25348900</v>
       </c>
       <c r="E54" s="3">
-        <v>24907500</v>
+        <v>23614400</v>
       </c>
       <c r="F54" s="3">
-        <v>24218400</v>
+        <v>23935600</v>
       </c>
       <c r="G54" s="3">
-        <v>23194000</v>
+        <v>23273300</v>
       </c>
       <c r="H54" s="3">
-        <v>22957300</v>
+        <v>22288900</v>
       </c>
       <c r="I54" s="3">
-        <v>22241200</v>
+        <v>22061500</v>
       </c>
       <c r="J54" s="3">
+        <v>21373300</v>
+      </c>
+      <c r="K54" s="3">
         <v>22832800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24953500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16672300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17064000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16636600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15234400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13049800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13164500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12868800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11653100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11299600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11144700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11158200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10821600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11121800</v>
       </c>
-      <c r="Y54" s="3" t="s">
+      <c r="Z54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10666400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1844300</v>
+        <v>1858200</v>
       </c>
       <c r="E57" s="3">
-        <v>1745700</v>
+        <v>1772400</v>
       </c>
       <c r="F57" s="3">
-        <v>1628500</v>
+        <v>1677600</v>
       </c>
       <c r="G57" s="3">
-        <v>1325400</v>
+        <v>1564900</v>
       </c>
       <c r="H57" s="3">
-        <v>1321200</v>
+        <v>1273700</v>
       </c>
       <c r="I57" s="3">
-        <v>1169700</v>
+        <v>1269700</v>
       </c>
       <c r="J57" s="3">
+        <v>1124100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1204000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1190200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>997000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1077500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1334000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1269300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1327000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1407700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1397000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1110100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1073700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1069300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1144400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>987400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>971900</v>
       </c>
-      <c r="Y57" s="3" t="s">
+      <c r="Z57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1006000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>73700</v>
+        <v>824800</v>
       </c>
       <c r="E58" s="3">
-        <v>941400</v>
+        <v>70800</v>
       </c>
       <c r="F58" s="3">
-        <v>933100</v>
+        <v>904600</v>
       </c>
       <c r="G58" s="3">
-        <v>920600</v>
+        <v>896700</v>
       </c>
       <c r="H58" s="3">
-        <v>927900</v>
+        <v>884700</v>
       </c>
       <c r="I58" s="3">
-        <v>392300</v>
+        <v>891700</v>
       </c>
       <c r="J58" s="3">
+        <v>377000</v>
+      </c>
+      <c r="K58" s="3">
         <v>585400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>705800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>263100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>280200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26900</v>
-      </c>
-      <c r="O58" s="3">
-        <v>32900</v>
       </c>
       <c r="P58" s="3">
         <v>32900</v>
       </c>
       <c r="Q58" s="3">
+        <v>32900</v>
+      </c>
+      <c r="R58" s="3">
         <v>26000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>29600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>350300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>359000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>354500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1506800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>22400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>142000</v>
       </c>
-      <c r="Y58" s="3" t="s">
+      <c r="Z58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1995900</v>
+        <v>2328900</v>
       </c>
       <c r="E59" s="3">
-        <v>1899400</v>
+        <v>1918000</v>
       </c>
       <c r="F59" s="3">
-        <v>2049900</v>
+        <v>1825200</v>
       </c>
       <c r="G59" s="3">
-        <v>1882800</v>
+        <v>1969900</v>
       </c>
       <c r="H59" s="3">
-        <v>1737400</v>
+        <v>1809300</v>
       </c>
       <c r="I59" s="3">
-        <v>1658600</v>
+        <v>1669600</v>
       </c>
       <c r="J59" s="3">
+        <v>1593800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1791400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1604700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1253300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>967800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1349900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1167000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>845800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1057500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1154500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>795000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>695600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>711300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3932600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>802200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>694900</v>
       </c>
-      <c r="Y59" s="3" t="s">
+      <c r="Z59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3913900</v>
+        <v>5011900</v>
       </c>
       <c r="E60" s="3">
-        <v>4586500</v>
+        <v>3761200</v>
       </c>
       <c r="F60" s="3">
-        <v>4611400</v>
+        <v>4407500</v>
       </c>
       <c r="G60" s="3">
-        <v>4128800</v>
+        <v>4431400</v>
       </c>
       <c r="H60" s="3">
-        <v>3986600</v>
+        <v>3967700</v>
       </c>
       <c r="I60" s="3">
-        <v>3220600</v>
+        <v>3831000</v>
       </c>
       <c r="J60" s="3">
+        <v>3094900</v>
+      </c>
+      <c r="K60" s="3">
         <v>3580800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3500700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2513400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2325500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2710900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2469300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2205800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2491200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2581100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2255300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2128400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2135100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4049300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1812000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1808800</v>
       </c>
-      <c r="Y60" s="3" t="s">
+      <c r="Z60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1795900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6391400</v>
+        <v>5592400</v>
       </c>
       <c r="E61" s="3">
-        <v>6314600</v>
+        <v>6142000</v>
       </c>
       <c r="F61" s="3">
-        <v>6245000</v>
+        <v>6068200</v>
       </c>
       <c r="G61" s="3">
-        <v>6462000</v>
+        <v>6001400</v>
       </c>
       <c r="H61" s="3">
-        <v>6519000</v>
+        <v>6209800</v>
       </c>
       <c r="I61" s="3">
-        <v>6870900</v>
+        <v>6264700</v>
       </c>
       <c r="J61" s="3">
+        <v>6602800</v>
+      </c>
+      <c r="K61" s="3">
         <v>7019300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8053100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1743300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1800100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1879100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1772800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1789300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1787400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1782600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1658000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1648200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1675100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2259700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2063300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2225500</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>2056500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1384600</v>
+        <v>1182900</v>
       </c>
       <c r="E62" s="3">
-        <v>1508100</v>
+        <v>1330500</v>
       </c>
       <c r="F62" s="3">
-        <v>1528800</v>
+        <v>1449200</v>
       </c>
       <c r="G62" s="3">
-        <v>1543400</v>
+        <v>1469200</v>
       </c>
       <c r="H62" s="3">
-        <v>1536100</v>
+        <v>1483100</v>
       </c>
       <c r="I62" s="3">
-        <v>1593200</v>
+        <v>1476200</v>
       </c>
       <c r="J62" s="3">
+        <v>1531000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1626400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1989800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1181000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1323800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1471200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1277600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1215200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>893100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>880100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>803700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>814600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>788800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>880800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>777500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>820500</v>
       </c>
-      <c r="Y62" s="3" t="s">
+      <c r="Z62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11689900</v>
+        <v>11787300</v>
       </c>
       <c r="E66" s="3">
-        <v>12409100</v>
+        <v>11233700</v>
       </c>
       <c r="F66" s="3">
-        <v>12385300</v>
+        <v>11924900</v>
       </c>
       <c r="G66" s="3">
-        <v>12134100</v>
+        <v>11902000</v>
       </c>
       <c r="H66" s="3">
-        <v>12041700</v>
+        <v>11660600</v>
       </c>
       <c r="I66" s="3">
-        <v>11684700</v>
+        <v>11571800</v>
       </c>
       <c r="J66" s="3">
+        <v>11228700</v>
+      </c>
+      <c r="K66" s="3">
         <v>12226500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13543600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5437700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5449500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6061300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5519700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5210300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5171600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5243800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4717000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4591200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4599000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4834700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4652900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4854900</v>
       </c>
-      <c r="Y66" s="3" t="s">
+      <c r="Z66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4770400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2128700</v>
+        <v>3248500</v>
       </c>
       <c r="E72" s="3">
-        <v>1926300</v>
+        <v>2045700</v>
       </c>
       <c r="F72" s="3">
-        <v>1460300</v>
+        <v>1851200</v>
       </c>
       <c r="G72" s="3">
-        <v>413100</v>
+        <v>1403300</v>
       </c>
       <c r="H72" s="3">
-        <v>685000</v>
+        <v>397000</v>
       </c>
       <c r="I72" s="3">
-        <v>-92400</v>
+        <v>658300</v>
       </c>
       <c r="J72" s="3">
+        <v>-88800</v>
+      </c>
+      <c r="K72" s="3">
         <v>451500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>424400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>875100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>784500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>515700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>365900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>144700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>36700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-327700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-461200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-844900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1325100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3115800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1713300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2158600</v>
       </c>
-      <c r="Y72" s="3" t="s">
+      <c r="Z72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2713800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12883500</v>
+        <v>13561600</v>
       </c>
       <c r="E76" s="3">
-        <v>12498400</v>
+        <v>12380700</v>
       </c>
       <c r="F76" s="3">
-        <v>11833100</v>
+        <v>12010700</v>
       </c>
       <c r="G76" s="3">
-        <v>11059900</v>
+        <v>11371400</v>
       </c>
       <c r="H76" s="3">
-        <v>10915600</v>
+        <v>10628300</v>
       </c>
       <c r="I76" s="3">
-        <v>10556500</v>
+        <v>10489700</v>
       </c>
       <c r="J76" s="3">
+        <v>10144600</v>
+      </c>
+      <c r="K76" s="3">
         <v>10606300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11409800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11234500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11614600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10575300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9714700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7839500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7992900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7625000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6936100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6708400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6545700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6323500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6168700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6267000</v>
       </c>
-      <c r="Y76" s="3" t="s">
+      <c r="Z76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5896000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>479500</v>
+        <v>508700</v>
       </c>
       <c r="E81" s="3">
-        <v>467100</v>
+        <v>460800</v>
       </c>
       <c r="F81" s="3">
-        <v>478500</v>
+        <v>448800</v>
       </c>
       <c r="G81" s="3">
-        <v>246000</v>
+        <v>459800</v>
       </c>
       <c r="H81" s="3">
-        <v>202400</v>
+        <v>236400</v>
       </c>
       <c r="I81" s="3">
-        <v>257400</v>
+        <v>194500</v>
       </c>
       <c r="J81" s="3">
+        <v>247400</v>
+      </c>
+      <c r="K81" s="3">
         <v>105900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-150500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>189700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>235800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>197200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>263500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>271700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>168000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>297600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>512700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>230000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>679900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>283900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>423700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>190200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>420300</v>
+        <v>420900</v>
       </c>
       <c r="E83" s="3">
-        <v>407900</v>
+        <v>403900</v>
       </c>
       <c r="F83" s="3">
-        <v>412000</v>
+        <v>392000</v>
       </c>
       <c r="G83" s="3">
-        <v>394400</v>
+        <v>396000</v>
       </c>
       <c r="H83" s="3">
-        <v>381900</v>
+        <v>379000</v>
       </c>
       <c r="I83" s="3">
-        <v>381900</v>
+        <v>367000</v>
       </c>
       <c r="J83" s="3">
+        <v>367000</v>
+      </c>
+      <c r="K83" s="3">
         <v>393400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>416700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>281100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>291900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>298900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>280000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>274100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>272100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>267300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>240500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>237900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>228900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>230000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>226600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>475400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>234800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>637300</v>
+        <v>992400</v>
       </c>
       <c r="E89" s="3">
-        <v>825100</v>
+        <v>612400</v>
       </c>
       <c r="F89" s="3">
-        <v>1007800</v>
+        <v>792900</v>
       </c>
       <c r="G89" s="3">
-        <v>795000</v>
+        <v>968500</v>
       </c>
       <c r="H89" s="3">
-        <v>769100</v>
+        <v>764000</v>
       </c>
       <c r="I89" s="3">
-        <v>609200</v>
+        <v>739100</v>
       </c>
       <c r="J89" s="3">
+        <v>585500</v>
+      </c>
+      <c r="K89" s="3">
         <v>774300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>580400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>397400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>211300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>837900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>464700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>250600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>365500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>760600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>506200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>344500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>184000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>690000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>593500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>679600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>331000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>518800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-465000</v>
+        <v>-473800</v>
       </c>
       <c r="E91" s="3">
-        <v>-368500</v>
+        <v>-446800</v>
       </c>
       <c r="F91" s="3">
-        <v>-559400</v>
+        <v>-354100</v>
       </c>
       <c r="G91" s="3">
-        <v>-240800</v>
+        <v>-537600</v>
       </c>
       <c r="H91" s="3">
-        <v>-274000</v>
+        <v>-231400</v>
       </c>
       <c r="I91" s="3">
-        <v>-241800</v>
+        <v>-263300</v>
       </c>
       <c r="J91" s="3">
+        <v>-232400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-285400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-236700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-234900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-251000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-374800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-360000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-369400</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-436500</v>
       </c>
       <c r="R91" s="3">
         <v>-436500</v>
       </c>
       <c r="S91" s="3">
+        <v>-436500</v>
+      </c>
+      <c r="T91" s="3">
         <v>-265700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-250200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-287200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-362400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-209800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-495300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-238300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-325100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-134900</v>
+        <v>-605400</v>
       </c>
       <c r="E94" s="3">
-        <v>-549000</v>
+        <v>-129700</v>
       </c>
       <c r="F94" s="3">
-        <v>-852100</v>
+        <v>-527600</v>
       </c>
       <c r="G94" s="3">
-        <v>-684000</v>
+        <v>-818900</v>
       </c>
       <c r="H94" s="3">
-        <v>-482600</v>
+        <v>-657300</v>
       </c>
       <c r="I94" s="3">
-        <v>-351800</v>
+        <v>-463800</v>
       </c>
       <c r="J94" s="3">
+        <v>-338100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-762900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5681500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-215700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1211800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-463000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2329300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>76500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-230700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-449500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-427100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-142500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-299600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-537400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-458900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-285200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-314600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-495300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6551,16 +6785,19 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-291100</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1245500</v>
+        <v>-60800</v>
       </c>
       <c r="E100" s="3">
-        <v>-23900</v>
+        <v>-1196900</v>
       </c>
       <c r="F100" s="3">
-        <v>-339400</v>
+        <v>-22900</v>
       </c>
       <c r="G100" s="3">
-        <v>-63300</v>
+        <v>-326100</v>
       </c>
       <c r="H100" s="3">
-        <v>-316600</v>
+        <v>-60800</v>
       </c>
       <c r="I100" s="3">
-        <v>-199300</v>
+        <v>-304200</v>
       </c>
       <c r="J100" s="3">
+        <v>-191500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-587500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6578200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-404200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1363500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-11000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1763400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-357600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-353700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-23100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-234500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-14600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-116700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-282900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>9400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4200</v>
+        <v>-17000</v>
       </c>
       <c r="E101" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="F101" s="3">
-        <v>6200</v>
+        <v>4000</v>
       </c>
       <c r="G101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H101" s="3">
         <v>1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>8300</v>
-      </c>
       <c r="I101" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="N101" s="3">
+        <v>12800</v>
+      </c>
+      <c r="O101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>9400</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="T101" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="U101" s="3">
+        <v>11200</v>
+      </c>
+      <c r="V101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W101" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="X101" s="3">
         <v>-13500</v>
       </c>
-      <c r="J101" s="3">
-        <v>-44600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-37100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>12800</v>
-      </c>
-      <c r="N101" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>9400</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="T101" s="3">
-        <v>11200</v>
-      </c>
-      <c r="U101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-15300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-739000</v>
+        <v>309200</v>
       </c>
       <c r="E102" s="3">
-        <v>256400</v>
+        <v>-710100</v>
       </c>
       <c r="F102" s="3">
-        <v>-177500</v>
+        <v>246400</v>
       </c>
       <c r="G102" s="3">
-        <v>48800</v>
+        <v>-170600</v>
       </c>
       <c r="H102" s="3">
-        <v>-21800</v>
+        <v>46900</v>
       </c>
       <c r="I102" s="3">
-        <v>44600</v>
+        <v>-20900</v>
       </c>
       <c r="J102" s="3">
+        <v>42900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-620700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1440000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-241600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>375900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>366300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-102300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>112400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-46100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>49400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-21300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-129000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>150300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>112700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>10600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>17600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3608600</v>
+        <v>3693300</v>
       </c>
       <c r="E8" s="3">
-        <v>3289400</v>
+        <v>3366600</v>
       </c>
       <c r="F8" s="3">
-        <v>3150800</v>
+        <v>3224700</v>
       </c>
       <c r="G8" s="3">
-        <v>2999200</v>
+        <v>3069500</v>
       </c>
       <c r="H8" s="3">
-        <v>2714900</v>
+        <v>2778600</v>
       </c>
       <c r="I8" s="3">
-        <v>2693000</v>
+        <v>2756200</v>
       </c>
       <c r="J8" s="3">
-        <v>2624200</v>
+        <v>2685700</v>
       </c>
       <c r="K8" s="3">
         <v>2584400</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2048700</v>
+        <v>2096700</v>
       </c>
       <c r="E9" s="3">
-        <v>1877100</v>
+        <v>1921100</v>
       </c>
       <c r="F9" s="3">
-        <v>1842200</v>
+        <v>1885400</v>
       </c>
       <c r="G9" s="3">
-        <v>1764400</v>
+        <v>1805800</v>
       </c>
       <c r="H9" s="3">
-        <v>1652700</v>
+        <v>1691500</v>
       </c>
       <c r="I9" s="3">
-        <v>1723500</v>
+        <v>1763900</v>
       </c>
       <c r="J9" s="3">
-        <v>1641700</v>
+        <v>1680200</v>
       </c>
       <c r="K9" s="3">
         <v>1761300</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1559900</v>
+        <v>1596500</v>
       </c>
       <c r="E10" s="3">
-        <v>1412300</v>
+        <v>1445500</v>
       </c>
       <c r="F10" s="3">
-        <v>1308600</v>
+        <v>1339300</v>
       </c>
       <c r="G10" s="3">
-        <v>1234800</v>
+        <v>1263800</v>
       </c>
       <c r="H10" s="3">
-        <v>1062200</v>
+        <v>1087200</v>
       </c>
       <c r="I10" s="3">
-        <v>969500</v>
+        <v>992200</v>
       </c>
       <c r="J10" s="3">
-        <v>982400</v>
+        <v>1005500</v>
       </c>
       <c r="K10" s="3">
         <v>823100</v>
@@ -1038,25 +1038,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>464800</v>
+        <v>475700</v>
       </c>
       <c r="E12" s="3">
-        <v>441800</v>
+        <v>452200</v>
       </c>
       <c r="F12" s="3">
-        <v>395000</v>
+        <v>404200</v>
       </c>
       <c r="G12" s="3">
-        <v>397000</v>
+        <v>406300</v>
       </c>
       <c r="H12" s="3">
-        <v>375000</v>
+        <v>383800</v>
       </c>
       <c r="I12" s="3">
-        <v>337100</v>
+        <v>345000</v>
       </c>
       <c r="J12" s="3">
-        <v>326100</v>
+        <v>333800</v>
       </c>
       <c r="K12" s="3">
         <v>318600</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>1000</v>
       </c>
       <c r="I14" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="J14" s="3">
         <v>2000</v>
@@ -1272,10 +1272,10 @@
         <v>10</v>
       </c>
       <c r="E15" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="F15" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
@@ -1284,10 +1284,10 @@
         <v>10</v>
       </c>
       <c r="I15" s="3">
-        <v>63800</v>
+        <v>65300</v>
       </c>
       <c r="J15" s="3">
-        <v>68800</v>
+        <v>70400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2920400</v>
+        <v>2988900</v>
       </c>
       <c r="E17" s="3">
-        <v>2676000</v>
+        <v>2738800</v>
       </c>
       <c r="F17" s="3">
-        <v>2535400</v>
+        <v>2594900</v>
       </c>
       <c r="G17" s="3">
-        <v>2524400</v>
+        <v>2583600</v>
       </c>
       <c r="H17" s="3">
-        <v>2369800</v>
+        <v>2425400</v>
       </c>
       <c r="I17" s="3">
-        <v>2382800</v>
+        <v>2438700</v>
       </c>
       <c r="J17" s="3">
-        <v>2295000</v>
+        <v>2348900</v>
       </c>
       <c r="K17" s="3">
         <v>2418300</v>
@@ -1449,25 +1449,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>688200</v>
+        <v>704400</v>
       </c>
       <c r="E18" s="3">
-        <v>613400</v>
+        <v>627800</v>
       </c>
       <c r="F18" s="3">
-        <v>615400</v>
+        <v>629800</v>
       </c>
       <c r="G18" s="3">
-        <v>474800</v>
+        <v>485900</v>
       </c>
       <c r="H18" s="3">
-        <v>345100</v>
+        <v>353200</v>
       </c>
       <c r="I18" s="3">
-        <v>310200</v>
+        <v>317500</v>
       </c>
       <c r="J18" s="3">
-        <v>329100</v>
+        <v>336900</v>
       </c>
       <c r="K18" s="3">
         <v>166100</v>
@@ -1555,25 +1555,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-30900</v>
+        <v>-31600</v>
       </c>
       <c r="E20" s="3">
-        <v>-24900</v>
+        <v>-25500</v>
       </c>
       <c r="F20" s="3">
-        <v>-38900</v>
+        <v>-39800</v>
       </c>
       <c r="G20" s="3">
-        <v>-26900</v>
+        <v>-27600</v>
       </c>
       <c r="H20" s="3">
-        <v>-51900</v>
+        <v>-53100</v>
       </c>
       <c r="I20" s="3">
-        <v>-39900</v>
+        <v>-40800</v>
       </c>
       <c r="J20" s="3">
-        <v>-24900</v>
+        <v>-25500</v>
       </c>
       <c r="K20" s="3">
         <v>-15600</v>
@@ -1632,25 +1632,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1078200</v>
+        <v>1103500</v>
       </c>
       <c r="E21" s="3">
-        <v>992400</v>
+        <v>1015700</v>
       </c>
       <c r="F21" s="3">
-        <v>968500</v>
+        <v>991200</v>
       </c>
       <c r="G21" s="3">
-        <v>843800</v>
+        <v>863600</v>
       </c>
       <c r="H21" s="3">
-        <v>672200</v>
+        <v>688000</v>
       </c>
       <c r="I21" s="3">
-        <v>637300</v>
+        <v>652300</v>
       </c>
       <c r="J21" s="3">
-        <v>671300</v>
+        <v>687000</v>
       </c>
       <c r="K21" s="3">
         <v>543900</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>657300</v>
+        <v>672700</v>
       </c>
       <c r="E23" s="3">
-        <v>588500</v>
+        <v>602300</v>
       </c>
       <c r="F23" s="3">
-        <v>576500</v>
+        <v>590000</v>
       </c>
       <c r="G23" s="3">
-        <v>447800</v>
+        <v>458300</v>
       </c>
       <c r="H23" s="3">
-        <v>293200</v>
+        <v>300100</v>
       </c>
       <c r="I23" s="3">
-        <v>270300</v>
+        <v>276600</v>
       </c>
       <c r="J23" s="3">
-        <v>304200</v>
+        <v>311300</v>
       </c>
       <c r="K23" s="3">
         <v>150500</v>
@@ -1863,25 +1863,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>133700</v>
+        <v>136800</v>
       </c>
       <c r="E24" s="3">
-        <v>120700</v>
+        <v>123500</v>
       </c>
       <c r="F24" s="3">
-        <v>116700</v>
+        <v>119400</v>
       </c>
       <c r="G24" s="3">
-        <v>-16000</v>
+        <v>-16300</v>
       </c>
       <c r="H24" s="3">
-        <v>48900</v>
+        <v>50000</v>
       </c>
       <c r="I24" s="3">
-        <v>61800</v>
+        <v>63300</v>
       </c>
       <c r="J24" s="3">
-        <v>48900</v>
+        <v>50000</v>
       </c>
       <c r="K24" s="3">
         <v>34300</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>523600</v>
+        <v>535900</v>
       </c>
       <c r="E26" s="3">
-        <v>467800</v>
+        <v>478800</v>
       </c>
       <c r="F26" s="3">
-        <v>459800</v>
+        <v>470600</v>
       </c>
       <c r="G26" s="3">
-        <v>463800</v>
+        <v>474700</v>
       </c>
       <c r="H26" s="3">
-        <v>244400</v>
+        <v>250100</v>
       </c>
       <c r="I26" s="3">
-        <v>208500</v>
+        <v>213300</v>
       </c>
       <c r="J26" s="3">
-        <v>255300</v>
+        <v>261300</v>
       </c>
       <c r="K26" s="3">
         <v>116200</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>516700</v>
+        <v>528800</v>
       </c>
       <c r="E27" s="3">
-        <v>460800</v>
+        <v>471600</v>
       </c>
       <c r="F27" s="3">
-        <v>452800</v>
+        <v>463400</v>
       </c>
       <c r="G27" s="3">
-        <v>460800</v>
+        <v>471600</v>
       </c>
       <c r="H27" s="3">
-        <v>236400</v>
+        <v>241900</v>
       </c>
       <c r="I27" s="3">
-        <v>200500</v>
+        <v>205200</v>
       </c>
       <c r="J27" s="3">
-        <v>247400</v>
+        <v>253200</v>
       </c>
       <c r="K27" s="3">
         <v>109000</v>
@@ -2248,13 +2248,13 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="G29" s="3">
         <v>-1000</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-6000</v>
+        <v>-6100</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2479,25 +2479,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>30900</v>
+        <v>31600</v>
       </c>
       <c r="E32" s="3">
-        <v>24900</v>
+        <v>25500</v>
       </c>
       <c r="F32" s="3">
-        <v>38900</v>
+        <v>39800</v>
       </c>
       <c r="G32" s="3">
-        <v>26900</v>
+        <v>27600</v>
       </c>
       <c r="H32" s="3">
-        <v>51900</v>
+        <v>53100</v>
       </c>
       <c r="I32" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="J32" s="3">
-        <v>24900</v>
+        <v>25500</v>
       </c>
       <c r="K32" s="3">
         <v>15600</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>508700</v>
+        <v>520600</v>
       </c>
       <c r="E33" s="3">
-        <v>460800</v>
+        <v>471600</v>
       </c>
       <c r="F33" s="3">
-        <v>448800</v>
+        <v>459400</v>
       </c>
       <c r="G33" s="3">
-        <v>459800</v>
+        <v>470600</v>
       </c>
       <c r="H33" s="3">
-        <v>236400</v>
+        <v>241900</v>
       </c>
       <c r="I33" s="3">
-        <v>194500</v>
+        <v>199100</v>
       </c>
       <c r="J33" s="3">
-        <v>247400</v>
+        <v>253200</v>
       </c>
       <c r="K33" s="3">
         <v>105900</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>508700</v>
+        <v>520600</v>
       </c>
       <c r="E35" s="3">
-        <v>460800</v>
+        <v>471600</v>
       </c>
       <c r="F35" s="3">
-        <v>448800</v>
+        <v>459400</v>
       </c>
       <c r="G35" s="3">
-        <v>459800</v>
+        <v>470600</v>
       </c>
       <c r="H35" s="3">
-        <v>236400</v>
+        <v>241900</v>
       </c>
       <c r="I35" s="3">
-        <v>194500</v>
+        <v>199100</v>
       </c>
       <c r="J35" s="3">
-        <v>247400</v>
+        <v>253200</v>
       </c>
       <c r="K35" s="3">
         <v>105900</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1589900</v>
+        <v>1627200</v>
       </c>
       <c r="E41" s="3">
-        <v>1280700</v>
+        <v>1310700</v>
       </c>
       <c r="F41" s="3">
-        <v>1990800</v>
+        <v>2037500</v>
       </c>
       <c r="G41" s="3">
-        <v>1744500</v>
+        <v>1785400</v>
       </c>
       <c r="H41" s="3">
-        <v>1915000</v>
+        <v>1959900</v>
       </c>
       <c r="I41" s="3">
-        <v>1868100</v>
+        <v>1912000</v>
       </c>
       <c r="J41" s="3">
-        <v>1889100</v>
+        <v>1933400</v>
       </c>
       <c r="K41" s="3">
         <v>1921200</v>
@@ -3004,25 +3004,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1969900</v>
+        <v>2016100</v>
       </c>
       <c r="E42" s="3">
-        <v>1916000</v>
+        <v>1961000</v>
       </c>
       <c r="F42" s="3">
-        <v>2282100</v>
+        <v>2335600</v>
       </c>
       <c r="G42" s="3">
-        <v>2167400</v>
+        <v>2218200</v>
       </c>
       <c r="H42" s="3">
-        <v>1937900</v>
+        <v>1983400</v>
       </c>
       <c r="I42" s="3">
-        <v>1566900</v>
+        <v>1603700</v>
       </c>
       <c r="J42" s="3">
-        <v>1436300</v>
+        <v>1470000</v>
       </c>
       <c r="K42" s="3">
         <v>1428200</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1933000</v>
+        <v>1978300</v>
       </c>
       <c r="E43" s="3">
-        <v>1780400</v>
+        <v>1822100</v>
       </c>
       <c r="F43" s="3">
-        <v>1583900</v>
+        <v>1621000</v>
       </c>
       <c r="G43" s="3">
-        <v>1617800</v>
+        <v>1655700</v>
       </c>
       <c r="H43" s="3">
-        <v>1355500</v>
+        <v>1387300</v>
       </c>
       <c r="I43" s="3">
-        <v>1469200</v>
+        <v>1503600</v>
       </c>
       <c r="J43" s="3">
-        <v>1292600</v>
+        <v>1323000</v>
       </c>
       <c r="K43" s="3">
         <v>1421900</v>
@@ -3158,25 +3158,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2826600</v>
+        <v>2892900</v>
       </c>
       <c r="E44" s="3">
-        <v>2533400</v>
+        <v>2592800</v>
       </c>
       <c r="F44" s="3">
-        <v>2313000</v>
+        <v>2367200</v>
       </c>
       <c r="G44" s="3">
-        <v>2175300</v>
+        <v>2226400</v>
       </c>
       <c r="H44" s="3">
-        <v>2047700</v>
+        <v>2095700</v>
       </c>
       <c r="I44" s="3">
-        <v>1932000</v>
+        <v>1977300</v>
       </c>
       <c r="J44" s="3">
-        <v>1949900</v>
+        <v>1995700</v>
       </c>
       <c r="K44" s="3">
         <v>2129800</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>647300</v>
+        <v>662500</v>
       </c>
       <c r="E45" s="3">
-        <v>533600</v>
+        <v>546100</v>
       </c>
       <c r="F45" s="3">
-        <v>459800</v>
+        <v>470600</v>
       </c>
       <c r="G45" s="3">
-        <v>525600</v>
+        <v>538000</v>
       </c>
       <c r="H45" s="3">
-        <v>594500</v>
+        <v>608400</v>
       </c>
       <c r="I45" s="3">
-        <v>543600</v>
+        <v>556300</v>
       </c>
       <c r="J45" s="3">
-        <v>525600</v>
+        <v>538000</v>
       </c>
       <c r="K45" s="3">
         <v>550100</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8966600</v>
+        <v>9177000</v>
       </c>
       <c r="E46" s="3">
-        <v>8044000</v>
+        <v>8232800</v>
       </c>
       <c r="F46" s="3">
-        <v>8629500</v>
+        <v>8832000</v>
       </c>
       <c r="G46" s="3">
-        <v>8230500</v>
+        <v>8423600</v>
       </c>
       <c r="H46" s="3">
-        <v>7850500</v>
+        <v>8034700</v>
       </c>
       <c r="I46" s="3">
-        <v>7379800</v>
+        <v>7552900</v>
       </c>
       <c r="J46" s="3">
-        <v>7093500</v>
+        <v>7259900</v>
       </c>
       <c r="K46" s="3">
         <v>7451100</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>101700</v>
+        <v>104100</v>
       </c>
       <c r="E47" s="3">
-        <v>91800</v>
+        <v>93900</v>
       </c>
       <c r="F47" s="3">
-        <v>76800</v>
+        <v>78600</v>
       </c>
       <c r="G47" s="3">
-        <v>71800</v>
+        <v>73500</v>
       </c>
       <c r="H47" s="3">
-        <v>62800</v>
+        <v>64300</v>
       </c>
       <c r="I47" s="3">
-        <v>78800</v>
+        <v>80600</v>
       </c>
       <c r="J47" s="3">
-        <v>79800</v>
+        <v>81700</v>
       </c>
       <c r="K47" s="3">
         <v>91300</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5384000</v>
+        <v>5510300</v>
       </c>
       <c r="E48" s="3">
-        <v>5116700</v>
+        <v>5236700</v>
       </c>
       <c r="F48" s="3">
-        <v>4912200</v>
+        <v>5027400</v>
       </c>
       <c r="G48" s="3">
-        <v>4766600</v>
+        <v>4878400</v>
       </c>
       <c r="H48" s="3">
-        <v>4437400</v>
+        <v>4541500</v>
       </c>
       <c r="I48" s="3">
-        <v>4449400</v>
+        <v>4553800</v>
       </c>
       <c r="J48" s="3">
-        <v>4366600</v>
+        <v>4469100</v>
       </c>
       <c r="K48" s="3">
         <v>4562600</v>
@@ -3543,25 +3543,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10022900</v>
+        <v>10258000</v>
       </c>
       <c r="E49" s="3">
-        <v>9492300</v>
+        <v>9715000</v>
       </c>
       <c r="F49" s="3">
-        <v>9406500</v>
+        <v>9627200</v>
       </c>
       <c r="G49" s="3">
-        <v>9286800</v>
+        <v>9504700</v>
       </c>
       <c r="H49" s="3">
-        <v>9148200</v>
+        <v>9362800</v>
       </c>
       <c r="I49" s="3">
-        <v>9334700</v>
+        <v>9553700</v>
       </c>
       <c r="J49" s="3">
-        <v>9018500</v>
+        <v>9230100</v>
       </c>
       <c r="K49" s="3">
         <v>9878700</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>873700</v>
+        <v>894200</v>
       </c>
       <c r="E52" s="3">
-        <v>869700</v>
+        <v>890100</v>
       </c>
       <c r="F52" s="3">
-        <v>910600</v>
+        <v>932000</v>
       </c>
       <c r="G52" s="3">
-        <v>917600</v>
+        <v>939100</v>
       </c>
       <c r="H52" s="3">
-        <v>789900</v>
+        <v>808500</v>
       </c>
       <c r="I52" s="3">
-        <v>818900</v>
+        <v>838100</v>
       </c>
       <c r="J52" s="3">
-        <v>814900</v>
+        <v>834000</v>
       </c>
       <c r="K52" s="3">
         <v>849000</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25348900</v>
+        <v>25943600</v>
       </c>
       <c r="E54" s="3">
-        <v>23614400</v>
+        <v>24168500</v>
       </c>
       <c r="F54" s="3">
-        <v>23935600</v>
+        <v>24497200</v>
       </c>
       <c r="G54" s="3">
-        <v>23273300</v>
+        <v>23819300</v>
       </c>
       <c r="H54" s="3">
-        <v>22288900</v>
+        <v>22811800</v>
       </c>
       <c r="I54" s="3">
-        <v>22061500</v>
+        <v>22579100</v>
       </c>
       <c r="J54" s="3">
-        <v>21373300</v>
+        <v>21874700</v>
       </c>
       <c r="K54" s="3">
         <v>22832800</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1858200</v>
+        <v>1901800</v>
       </c>
       <c r="E57" s="3">
-        <v>1772400</v>
+        <v>1814000</v>
       </c>
       <c r="F57" s="3">
-        <v>1677600</v>
+        <v>1717000</v>
       </c>
       <c r="G57" s="3">
-        <v>1564900</v>
+        <v>1601600</v>
       </c>
       <c r="H57" s="3">
-        <v>1273700</v>
+        <v>1303600</v>
       </c>
       <c r="I57" s="3">
-        <v>1269700</v>
+        <v>1299500</v>
       </c>
       <c r="J57" s="3">
-        <v>1124100</v>
+        <v>1150400</v>
       </c>
       <c r="K57" s="3">
         <v>1204000</v>
@@ -4140,25 +4140,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>824800</v>
+        <v>844200</v>
       </c>
       <c r="E58" s="3">
-        <v>70800</v>
+        <v>72500</v>
       </c>
       <c r="F58" s="3">
-        <v>904600</v>
+        <v>925900</v>
       </c>
       <c r="G58" s="3">
-        <v>896700</v>
+        <v>917700</v>
       </c>
       <c r="H58" s="3">
-        <v>884700</v>
+        <v>905400</v>
       </c>
       <c r="I58" s="3">
-        <v>891700</v>
+        <v>912600</v>
       </c>
       <c r="J58" s="3">
-        <v>377000</v>
+        <v>385900</v>
       </c>
       <c r="K58" s="3">
         <v>585400</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2328900</v>
+        <v>2383600</v>
       </c>
       <c r="E59" s="3">
-        <v>1918000</v>
+        <v>1963000</v>
       </c>
       <c r="F59" s="3">
-        <v>1825200</v>
+        <v>1868100</v>
       </c>
       <c r="G59" s="3">
-        <v>1969900</v>
+        <v>2016100</v>
       </c>
       <c r="H59" s="3">
-        <v>1809300</v>
+        <v>1851700</v>
       </c>
       <c r="I59" s="3">
-        <v>1669600</v>
+        <v>1708800</v>
       </c>
       <c r="J59" s="3">
-        <v>1593800</v>
+        <v>1631200</v>
       </c>
       <c r="K59" s="3">
         <v>1791400</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5011900</v>
+        <v>5129500</v>
       </c>
       <c r="E60" s="3">
-        <v>3761200</v>
+        <v>3849400</v>
       </c>
       <c r="F60" s="3">
-        <v>4407500</v>
+        <v>4510900</v>
       </c>
       <c r="G60" s="3">
-        <v>4431400</v>
+        <v>4535400</v>
       </c>
       <c r="H60" s="3">
-        <v>3967700</v>
+        <v>4060700</v>
       </c>
       <c r="I60" s="3">
-        <v>3831000</v>
+        <v>3920900</v>
       </c>
       <c r="J60" s="3">
-        <v>3094900</v>
+        <v>3167500</v>
       </c>
       <c r="K60" s="3">
         <v>3580800</v>
@@ -4371,25 +4371,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5592400</v>
+        <v>5723600</v>
       </c>
       <c r="E61" s="3">
-        <v>6142000</v>
+        <v>6286100</v>
       </c>
       <c r="F61" s="3">
-        <v>6068200</v>
+        <v>6210500</v>
       </c>
       <c r="G61" s="3">
-        <v>6001400</v>
+        <v>6142200</v>
       </c>
       <c r="H61" s="3">
-        <v>6209800</v>
+        <v>6355500</v>
       </c>
       <c r="I61" s="3">
-        <v>6264700</v>
+        <v>6411600</v>
       </c>
       <c r="J61" s="3">
-        <v>6602800</v>
+        <v>6757700</v>
       </c>
       <c r="K61" s="3">
         <v>7019300</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1182900</v>
+        <v>1210700</v>
       </c>
       <c r="E62" s="3">
-        <v>1330500</v>
+        <v>1361700</v>
       </c>
       <c r="F62" s="3">
-        <v>1449200</v>
+        <v>1483200</v>
       </c>
       <c r="G62" s="3">
-        <v>1469200</v>
+        <v>1503600</v>
       </c>
       <c r="H62" s="3">
-        <v>1483100</v>
+        <v>1517900</v>
       </c>
       <c r="I62" s="3">
-        <v>1476200</v>
+        <v>1510800</v>
       </c>
       <c r="J62" s="3">
-        <v>1531000</v>
+        <v>1566900</v>
       </c>
       <c r="K62" s="3">
         <v>1626400</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11787300</v>
+        <v>12063800</v>
       </c>
       <c r="E66" s="3">
-        <v>11233700</v>
+        <v>11497300</v>
       </c>
       <c r="F66" s="3">
-        <v>11924900</v>
+        <v>12204700</v>
       </c>
       <c r="G66" s="3">
-        <v>11902000</v>
+        <v>12181200</v>
       </c>
       <c r="H66" s="3">
-        <v>11660600</v>
+        <v>11934200</v>
       </c>
       <c r="I66" s="3">
-        <v>11571800</v>
+        <v>11843300</v>
       </c>
       <c r="J66" s="3">
-        <v>11228700</v>
+        <v>11492200</v>
       </c>
       <c r="K66" s="3">
         <v>12226500</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3248500</v>
+        <v>3324700</v>
       </c>
       <c r="E72" s="3">
-        <v>2045700</v>
+        <v>2093700</v>
       </c>
       <c r="F72" s="3">
-        <v>1851200</v>
+        <v>1894600</v>
       </c>
       <c r="G72" s="3">
-        <v>1403300</v>
+        <v>1436300</v>
       </c>
       <c r="H72" s="3">
-        <v>397000</v>
+        <v>406300</v>
       </c>
       <c r="I72" s="3">
-        <v>658300</v>
+        <v>673700</v>
       </c>
       <c r="J72" s="3">
-        <v>-88800</v>
+        <v>-90900</v>
       </c>
       <c r="K72" s="3">
         <v>451500</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13561600</v>
+        <v>13879800</v>
       </c>
       <c r="E76" s="3">
-        <v>12380700</v>
+        <v>12671200</v>
       </c>
       <c r="F76" s="3">
-        <v>12010700</v>
+        <v>12292500</v>
       </c>
       <c r="G76" s="3">
-        <v>11371400</v>
+        <v>11638100</v>
       </c>
       <c r="H76" s="3">
-        <v>10628300</v>
+        <v>10877600</v>
       </c>
       <c r="I76" s="3">
-        <v>10489700</v>
+        <v>10735800</v>
       </c>
       <c r="J76" s="3">
-        <v>10144600</v>
+        <v>10382600</v>
       </c>
       <c r="K76" s="3">
         <v>10606300</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>508700</v>
+        <v>520600</v>
       </c>
       <c r="E81" s="3">
-        <v>460800</v>
+        <v>471600</v>
       </c>
       <c r="F81" s="3">
-        <v>448800</v>
+        <v>459400</v>
       </c>
       <c r="G81" s="3">
-        <v>459800</v>
+        <v>470600</v>
       </c>
       <c r="H81" s="3">
-        <v>236400</v>
+        <v>241900</v>
       </c>
       <c r="I81" s="3">
-        <v>194500</v>
+        <v>199100</v>
       </c>
       <c r="J81" s="3">
-        <v>247400</v>
+        <v>253200</v>
       </c>
       <c r="K81" s="3">
         <v>105900</v>
@@ -5820,25 +5820,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>420900</v>
+        <v>430800</v>
       </c>
       <c r="E83" s="3">
-        <v>403900</v>
+        <v>413400</v>
       </c>
       <c r="F83" s="3">
-        <v>392000</v>
+        <v>401200</v>
       </c>
       <c r="G83" s="3">
-        <v>396000</v>
+        <v>405300</v>
       </c>
       <c r="H83" s="3">
-        <v>379000</v>
+        <v>387900</v>
       </c>
       <c r="I83" s="3">
-        <v>367000</v>
+        <v>375700</v>
       </c>
       <c r="J83" s="3">
-        <v>367000</v>
+        <v>375700</v>
       </c>
       <c r="K83" s="3">
         <v>393400</v>
@@ -6282,25 +6282,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>992400</v>
+        <v>1015700</v>
       </c>
       <c r="E89" s="3">
-        <v>612400</v>
+        <v>626800</v>
       </c>
       <c r="F89" s="3">
-        <v>792900</v>
+        <v>811500</v>
       </c>
       <c r="G89" s="3">
-        <v>968500</v>
+        <v>991200</v>
       </c>
       <c r="H89" s="3">
-        <v>764000</v>
+        <v>781900</v>
       </c>
       <c r="I89" s="3">
-        <v>739100</v>
+        <v>756400</v>
       </c>
       <c r="J89" s="3">
-        <v>585500</v>
+        <v>599200</v>
       </c>
       <c r="K89" s="3">
         <v>774300</v>
@@ -6388,25 +6388,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-473800</v>
+        <v>-484900</v>
       </c>
       <c r="E91" s="3">
-        <v>-446800</v>
+        <v>-457300</v>
       </c>
       <c r="F91" s="3">
-        <v>-354100</v>
+        <v>-362400</v>
       </c>
       <c r="G91" s="3">
-        <v>-537600</v>
+        <v>-550200</v>
       </c>
       <c r="H91" s="3">
-        <v>-231400</v>
+        <v>-236800</v>
       </c>
       <c r="I91" s="3">
-        <v>-263300</v>
+        <v>-269500</v>
       </c>
       <c r="J91" s="3">
-        <v>-232400</v>
+        <v>-237800</v>
       </c>
       <c r="K91" s="3">
         <v>-285400</v>
@@ -6619,25 +6619,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-605400</v>
+        <v>-619600</v>
       </c>
       <c r="E94" s="3">
-        <v>-129700</v>
+        <v>-132700</v>
       </c>
       <c r="F94" s="3">
-        <v>-527600</v>
+        <v>-540000</v>
       </c>
       <c r="G94" s="3">
-        <v>-818900</v>
+        <v>-838100</v>
       </c>
       <c r="H94" s="3">
-        <v>-657300</v>
+        <v>-672700</v>
       </c>
       <c r="I94" s="3">
-        <v>-463800</v>
+        <v>-474700</v>
       </c>
       <c r="J94" s="3">
-        <v>-338100</v>
+        <v>-346100</v>
       </c>
       <c r="K94" s="3">
         <v>-762900</v>
@@ -7033,25 +7033,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-60800</v>
+        <v>-62300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1196900</v>
+        <v>-1225000</v>
       </c>
       <c r="F100" s="3">
-        <v>-22900</v>
+        <v>-23500</v>
       </c>
       <c r="G100" s="3">
-        <v>-326100</v>
+        <v>-333800</v>
       </c>
       <c r="H100" s="3">
-        <v>-60800</v>
+        <v>-62300</v>
       </c>
       <c r="I100" s="3">
-        <v>-304200</v>
+        <v>-311300</v>
       </c>
       <c r="J100" s="3">
-        <v>-191500</v>
+        <v>-196000</v>
       </c>
       <c r="K100" s="3">
         <v>-587500</v>
@@ -7110,25 +7110,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17000</v>
+        <v>-17400</v>
       </c>
       <c r="E101" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F101" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G101" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="H101" s="3">
         <v>1000</v>
       </c>
       <c r="I101" s="3">
-        <v>8000</v>
+        <v>8200</v>
       </c>
       <c r="J101" s="3">
-        <v>-13000</v>
+        <v>-13300</v>
       </c>
       <c r="K101" s="3">
         <v>-44600</v>
@@ -7187,25 +7187,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>309200</v>
+        <v>316400</v>
       </c>
       <c r="E102" s="3">
-        <v>-710100</v>
+        <v>-726800</v>
       </c>
       <c r="F102" s="3">
-        <v>246400</v>
+        <v>252100</v>
       </c>
       <c r="G102" s="3">
-        <v>-170600</v>
+        <v>-174600</v>
       </c>
       <c r="H102" s="3">
-        <v>46900</v>
+        <v>48000</v>
       </c>
       <c r="I102" s="3">
-        <v>-20900</v>
+        <v>-21400</v>
       </c>
       <c r="J102" s="3">
-        <v>42900</v>
+        <v>43900</v>
       </c>
       <c r="K102" s="3">
         <v>-620700</v>

--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>IFNNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3693300</v>
+        <v>4180200</v>
       </c>
       <c r="E8" s="3">
-        <v>3366600</v>
+        <v>4383300</v>
       </c>
       <c r="F8" s="3">
-        <v>3224700</v>
+        <v>3827800</v>
       </c>
       <c r="G8" s="3">
-        <v>3069500</v>
+        <v>3489300</v>
       </c>
       <c r="H8" s="3">
-        <v>2778600</v>
+        <v>3342200</v>
       </c>
       <c r="I8" s="3">
+        <v>3181400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2879900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2756200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2685700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2584400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2371600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2242400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2236800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2525900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2370400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2332800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2330300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2421400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2131200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>2060000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1991500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>6136200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2054400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>4006200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1932100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1966100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2096700</v>
+        <v>2205900</v>
       </c>
       <c r="E9" s="3">
-        <v>1921100</v>
+        <v>2436600</v>
       </c>
       <c r="F9" s="3">
-        <v>1885400</v>
+        <v>2173100</v>
       </c>
       <c r="G9" s="3">
-        <v>1805800</v>
+        <v>1991200</v>
       </c>
       <c r="H9" s="3">
-        <v>1691500</v>
+        <v>1954100</v>
       </c>
       <c r="I9" s="3">
+        <v>1871600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1753100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1763900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1680200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1761300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1731300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1467800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1409100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1630500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1505800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1451700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1408800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1458500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1316500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1294800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1266700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3817000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1269000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>2554200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1237200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1252500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1596500</v>
+        <v>1974200</v>
       </c>
       <c r="E10" s="3">
-        <v>1445500</v>
+        <v>1946700</v>
       </c>
       <c r="F10" s="3">
-        <v>1339300</v>
+        <v>1654700</v>
       </c>
       <c r="G10" s="3">
-        <v>1263800</v>
+        <v>1498100</v>
       </c>
       <c r="H10" s="3">
-        <v>1087200</v>
+        <v>1388100</v>
       </c>
       <c r="I10" s="3">
+        <v>1309800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1126800</v>
+      </c>
+      <c r="K10" s="3">
         <v>992200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1005500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>823100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>640400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>774600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>827700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>895500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>864700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>881100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>921500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>962900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>814700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>765200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>724800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>2319200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>785400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1452000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>694900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1057,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>475700</v>
+        <v>512100</v>
       </c>
       <c r="E12" s="3">
-        <v>452200</v>
+        <v>514200</v>
       </c>
       <c r="F12" s="3">
-        <v>404200</v>
+        <v>493000</v>
       </c>
       <c r="G12" s="3">
-        <v>406300</v>
+        <v>468700</v>
       </c>
       <c r="H12" s="3">
-        <v>383800</v>
+        <v>419000</v>
       </c>
       <c r="I12" s="3">
+        <v>421100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>397800</v>
+      </c>
+      <c r="K12" s="3">
         <v>345000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>333800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>318600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>350200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>272100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>283700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>281700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>285900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>277600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>279200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>263800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>239400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>223300</v>
-      </c>
-      <c r="V12" s="3">
-        <v>218800</v>
-      </c>
-      <c r="W12" s="3">
-        <v>642900</v>
       </c>
       <c r="X12" s="3">
         <v>218800</v>
       </c>
       <c r="Y12" s="3">
+        <v>642900</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>218800</v>
+      </c>
+      <c r="AA12" s="3">
         <v>460100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>234800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,46 +1219,52 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K14" s="3">
         <v>3100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>22800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>18500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>11300</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1239,11 +1278,11 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1254,94 +1293,106 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3">
-        <v>47000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>47000</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="3">
+      <c r="G15" s="3">
+        <v>48700</v>
+      </c>
+      <c r="H15" s="3">
+        <v>48700</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="3">
         <v>65300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>70400</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>20300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>22200</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>11800</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>10</v>
+      <c r="S15" s="3">
+        <v>11800</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U15" s="3">
-        <v>14600</v>
+      <c r="U15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>10</v>
+      <c r="W15" s="3">
+        <v>14600</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Y15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2988900</v>
+        <v>3158100</v>
       </c>
       <c r="E17" s="3">
-        <v>2738800</v>
+        <v>3408900</v>
       </c>
       <c r="F17" s="3">
-        <v>2594900</v>
+        <v>3097800</v>
       </c>
       <c r="G17" s="3">
-        <v>2583600</v>
+        <v>2838600</v>
       </c>
       <c r="H17" s="3">
-        <v>2425400</v>
+        <v>2689400</v>
       </c>
       <c r="I17" s="3">
+        <v>2677800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2513800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2438700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2348900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2418300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2491600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1998500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1926200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2224600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2037500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1974000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1943500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1983700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1781000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1463100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1713300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5191400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1720000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3521400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1716100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1696200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>704400</v>
+        <v>1022000</v>
       </c>
       <c r="E18" s="3">
-        <v>627800</v>
+        <v>974400</v>
       </c>
       <c r="F18" s="3">
-        <v>629800</v>
+        <v>730000</v>
       </c>
       <c r="G18" s="3">
-        <v>485900</v>
+        <v>650700</v>
       </c>
       <c r="H18" s="3">
-        <v>353200</v>
+        <v>652800</v>
       </c>
       <c r="I18" s="3">
+        <v>503600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>366100</v>
+      </c>
+      <c r="K18" s="3">
         <v>317500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>336900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>166100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-120000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>243900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>310500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>301300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>332900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>358800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>386800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>437700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>350300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>596900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>278300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>944700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>334400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>484800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>216000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1614,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-31600</v>
+        <v>-22200</v>
       </c>
       <c r="E20" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-41300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="L20" s="3">
         <v>-25500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-39800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-27600</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-53100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-40800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-25500</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-15600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-67600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-19200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-15200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-24500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-36500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-11800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-20100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-17700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-17600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-14600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-15700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-37000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-12300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-32900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1103500</v>
+        <v>1453700</v>
       </c>
       <c r="E21" s="3">
-        <v>1015700</v>
+        <v>1417700</v>
       </c>
       <c r="F21" s="3">
-        <v>991200</v>
+        <v>1143700</v>
       </c>
       <c r="G21" s="3">
-        <v>863600</v>
+        <v>1052700</v>
       </c>
       <c r="H21" s="3">
-        <v>688000</v>
+        <v>1027300</v>
       </c>
       <c r="I21" s="3">
+        <v>895100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>713100</v>
+      </c>
+      <c r="K21" s="3">
         <v>652300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>687000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>543900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>229100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>505800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>587200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>575700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>576400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>621100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>638800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>687300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>573200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>820200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>491400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>2048800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>94200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>927300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>430800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1750,18 +1829,18 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1771,171 +1850,189 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>10</v>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>672700</v>
+        <v>999800</v>
       </c>
       <c r="E23" s="3">
-        <v>602300</v>
+        <v>948000</v>
       </c>
       <c r="F23" s="3">
-        <v>590000</v>
+        <v>697200</v>
       </c>
       <c r="G23" s="3">
-        <v>458300</v>
+        <v>624200</v>
       </c>
       <c r="H23" s="3">
-        <v>300100</v>
+        <v>611500</v>
       </c>
       <c r="I23" s="3">
+        <v>475000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>311100</v>
+      </c>
+      <c r="K23" s="3">
         <v>276600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>311300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>150500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-187600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>224700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>295400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>276800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>296500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>347000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>366700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>419900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>332700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>582300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>262500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>907700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>322000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>451900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>196000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>136800</v>
+        <v>228500</v>
       </c>
       <c r="E24" s="3">
-        <v>123500</v>
+        <v>174600</v>
       </c>
       <c r="F24" s="3">
-        <v>119400</v>
+        <v>141800</v>
       </c>
       <c r="G24" s="3">
-        <v>-16300</v>
+        <v>128000</v>
       </c>
       <c r="H24" s="3">
+        <v>123800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K24" s="3">
+        <v>63300</v>
+      </c>
+      <c r="L24" s="3">
         <v>50000</v>
       </c>
-      <c r="I24" s="3">
-        <v>63300</v>
-      </c>
-      <c r="J24" s="3">
-        <v>50000</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>34300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-48000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>23700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>50200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>77200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>32900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>54100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>66200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>63900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>53800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>69600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>31400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>228900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>41500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>24700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>1200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>535900</v>
+        <v>771300</v>
       </c>
       <c r="E26" s="3">
-        <v>478800</v>
+        <v>773400</v>
       </c>
       <c r="F26" s="3">
-        <v>470600</v>
+        <v>555500</v>
       </c>
       <c r="G26" s="3">
-        <v>474700</v>
+        <v>496200</v>
       </c>
       <c r="H26" s="3">
-        <v>250100</v>
+        <v>487700</v>
       </c>
       <c r="I26" s="3">
+        <v>492000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>259200</v>
+      </c>
+      <c r="K26" s="3">
         <v>213300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>261300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>116200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-139600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>201000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>245200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>199700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>263500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>292900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>300500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>356100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>278900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>512700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>231100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>678800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>280500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>427300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>194900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>528800</v>
+        <v>763900</v>
       </c>
       <c r="E27" s="3">
-        <v>471600</v>
+        <v>766000</v>
       </c>
       <c r="F27" s="3">
-        <v>463400</v>
+        <v>548000</v>
       </c>
       <c r="G27" s="3">
-        <v>471600</v>
+        <v>488800</v>
       </c>
       <c r="H27" s="3">
-        <v>241900</v>
+        <v>480300</v>
       </c>
       <c r="I27" s="3">
+        <v>488800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>250700</v>
+      </c>
+      <c r="K27" s="3">
         <v>205200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>253200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>109000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-150500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>189700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>235800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>199700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>263500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>292900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>300500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>356100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>278900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>512700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>231100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>678800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>280500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>427300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>194900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,85 +2357,97 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-8200</v>
+        <v>-1100</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="F29" s="3">
-        <v>-4100</v>
+        <v>-8500</v>
       </c>
       <c r="G29" s="3">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-4200</v>
       </c>
       <c r="I29" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-6100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-3100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2400</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-21200</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-188100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>18700</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-1100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>1100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>3400</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>-4700</v>
       </c>
       <c r="AA29" s="3">
         <v>-3500</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>-3500</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>31600</v>
+        <v>22200</v>
       </c>
       <c r="E32" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>32800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>26500</v>
+      </c>
+      <c r="H32" s="3">
+        <v>41300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>28600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>40800</v>
+      </c>
+      <c r="L32" s="3">
         <v>25500</v>
       </c>
-      <c r="F32" s="3">
-        <v>39800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>27600</v>
-      </c>
-      <c r="H32" s="3">
-        <v>53100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>40800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>25500</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>15600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>67600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>19200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>15200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>24500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>36500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>11800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>20100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>17700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>17600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>14600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>15700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>37000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>12300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>32900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>20000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>520600</v>
+        <v>762800</v>
       </c>
       <c r="E33" s="3">
-        <v>471600</v>
+        <v>770200</v>
       </c>
       <c r="F33" s="3">
-        <v>459400</v>
+        <v>539600</v>
       </c>
       <c r="G33" s="3">
-        <v>470600</v>
+        <v>488800</v>
       </c>
       <c r="H33" s="3">
-        <v>241900</v>
+        <v>476100</v>
       </c>
       <c r="I33" s="3">
+        <v>487700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>250700</v>
+      </c>
+      <c r="K33" s="3">
         <v>199100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>253200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>105900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-150500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>189700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>235800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>197200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>263500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>271700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>300500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>168000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>297600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>512700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>230000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>679900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>283900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>423700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>190200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>520600</v>
+        <v>762800</v>
       </c>
       <c r="E35" s="3">
-        <v>471600</v>
+        <v>770200</v>
       </c>
       <c r="F35" s="3">
-        <v>459400</v>
+        <v>539600</v>
       </c>
       <c r="G35" s="3">
-        <v>470600</v>
+        <v>488800</v>
       </c>
       <c r="H35" s="3">
-        <v>241900</v>
+        <v>476100</v>
       </c>
       <c r="I35" s="3">
+        <v>487700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>250700</v>
+      </c>
+      <c r="K35" s="3">
         <v>199100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>253200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>105900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-150500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>189700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>235800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>197200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>263500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>271700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>300500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>168000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>297600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>512700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>230000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>679900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>283900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>423700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>190200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3092,757 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1627200</v>
+        <v>1503400</v>
       </c>
       <c r="E41" s="3">
-        <v>1310700</v>
+        <v>1521400</v>
       </c>
       <c r="F41" s="3">
-        <v>2037500</v>
+        <v>1686500</v>
       </c>
       <c r="G41" s="3">
-        <v>1785400</v>
+        <v>1358500</v>
       </c>
       <c r="H41" s="3">
-        <v>1959900</v>
+        <v>2111800</v>
       </c>
       <c r="I41" s="3">
+        <v>1850400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2031400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1912000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1933400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1921200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2671600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1274800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1567800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1250700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>849400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>951700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>978300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>865900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>846600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>814600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>835900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>964900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>814600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>846300</v>
       </c>
-      <c r="Z41" s="3" t="s">
+      <c r="AB41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2016100</v>
+        <v>2419600</v>
       </c>
       <c r="E42" s="3">
-        <v>1961000</v>
+        <v>2411200</v>
       </c>
       <c r="F42" s="3">
-        <v>2335600</v>
+        <v>2089600</v>
       </c>
       <c r="G42" s="3">
-        <v>2218200</v>
+        <v>2032400</v>
       </c>
       <c r="H42" s="3">
-        <v>1983400</v>
+        <v>2420700</v>
       </c>
       <c r="I42" s="3">
+        <v>2299000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2055700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1603700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1470000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1428200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1092000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3905600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>4104600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3378500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>3191600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1262300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1749500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>2142200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>2031300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1920800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1758200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1786200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1672900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>1558800</v>
       </c>
-      <c r="Z42" s="3" t="s">
+      <c r="AB42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>1895700</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1978300</v>
+        <v>2024000</v>
       </c>
       <c r="E43" s="3">
-        <v>1822100</v>
+        <v>2147700</v>
       </c>
       <c r="F43" s="3">
-        <v>1621000</v>
+        <v>2050400</v>
       </c>
       <c r="G43" s="3">
-        <v>1655700</v>
+        <v>1888500</v>
       </c>
       <c r="H43" s="3">
-        <v>1387300</v>
+        <v>1680100</v>
       </c>
       <c r="I43" s="3">
+        <v>1716100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1437800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1503600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1323000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1421900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1394200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1402300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1152200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1508000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1248200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1247000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1220800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1210100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1046400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>970500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>902100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>3306500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>958200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>970700</v>
       </c>
-      <c r="Z43" s="3" t="s">
+      <c r="AB43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>915600</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2892900</v>
+        <v>3426900</v>
       </c>
       <c r="E44" s="3">
-        <v>2592800</v>
+        <v>3259700</v>
       </c>
       <c r="F44" s="3">
-        <v>2367200</v>
+        <v>2998400</v>
       </c>
       <c r="G44" s="3">
-        <v>2226400</v>
+        <v>2687300</v>
       </c>
       <c r="H44" s="3">
-        <v>2095700</v>
+        <v>2453500</v>
       </c>
       <c r="I44" s="3">
+        <v>2307500</v>
+      </c>
+      <c r="J44" s="3">
+        <v>2172100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1977300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1995700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2129800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2416400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1960100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2062800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2083700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2068100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2006900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1882000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1750700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1524000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1464200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1438400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1391300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1396900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1441400</v>
       </c>
-      <c r="Z44" s="3" t="s">
+      <c r="AB44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>1398000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>662500</v>
+        <v>733200</v>
       </c>
       <c r="E45" s="3">
-        <v>546100</v>
+        <v>661300</v>
       </c>
       <c r="F45" s="3">
-        <v>470600</v>
+        <v>686600</v>
       </c>
       <c r="G45" s="3">
+        <v>566000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>487700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>557600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>630600</v>
+      </c>
+      <c r="K45" s="3">
+        <v>556300</v>
+      </c>
+      <c r="L45" s="3">
         <v>538000</v>
       </c>
-      <c r="H45" s="3">
-        <v>608400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>556300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>538000</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>550100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>692700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>931500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>735500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>957900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>868200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>641100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>533500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>446000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>435900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>409500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>410600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>6195600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>356800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>336900</v>
       </c>
-      <c r="Z45" s="3" t="s">
+      <c r="AB45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>329800</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9177000</v>
+        <v>10107100</v>
       </c>
       <c r="E46" s="3">
-        <v>8232800</v>
+        <v>10001300</v>
       </c>
       <c r="F46" s="3">
-        <v>8832000</v>
+        <v>9511400</v>
       </c>
       <c r="G46" s="3">
-        <v>8423600</v>
+        <v>8532800</v>
       </c>
       <c r="H46" s="3">
-        <v>8034700</v>
+        <v>9153800</v>
       </c>
       <c r="I46" s="3">
+        <v>8730600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>8327500</v>
+      </c>
+      <c r="K46" s="3">
         <v>7552900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7259900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7451100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8266900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>9474300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>9623000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>9178900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8225400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6109000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6364000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>6414900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5884200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5579700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5345200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>8448600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>5199300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>5154200</v>
       </c>
-      <c r="Z46" s="3" t="s">
+      <c r="AB46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>5272800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>104100</v>
+        <v>104700</v>
       </c>
       <c r="E47" s="3">
-        <v>93900</v>
+        <v>107900</v>
       </c>
       <c r="F47" s="3">
-        <v>78600</v>
+        <v>107900</v>
       </c>
       <c r="G47" s="3">
-        <v>73500</v>
+        <v>97300</v>
       </c>
       <c r="H47" s="3">
-        <v>64300</v>
+        <v>81500</v>
       </c>
       <c r="I47" s="3">
+        <v>76200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>66700</v>
+      </c>
+      <c r="K47" s="3">
         <v>80600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>81700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>91300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>118900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>82400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>85200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>35500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>43500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>43500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>39000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>43800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>43900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>42600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>31400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>11876300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>38100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>42300</v>
       </c>
-      <c r="Z47" s="3" t="s">
+      <c r="AB47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5510300</v>
+        <v>6495100</v>
       </c>
       <c r="E48" s="3">
-        <v>5236700</v>
+        <v>6295100</v>
       </c>
       <c r="F48" s="3">
-        <v>5027400</v>
+        <v>5711100</v>
       </c>
       <c r="G48" s="3">
-        <v>4878400</v>
+        <v>5427500</v>
       </c>
       <c r="H48" s="3">
-        <v>4541500</v>
+        <v>5210700</v>
       </c>
       <c r="I48" s="3">
+        <v>5056200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4707000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4553800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4469100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4562600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4741100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4239800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4402300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4299700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3993900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3886800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3777000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3593700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3132600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3128100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>3085500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2983400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2851000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2974400</v>
       </c>
-      <c r="Z48" s="3" t="s">
+      <c r="AB48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>2487300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10258000</v>
+        <v>10208600</v>
       </c>
       <c r="E49" s="3">
-        <v>9715000</v>
+        <v>11178800</v>
       </c>
       <c r="F49" s="3">
-        <v>9627200</v>
+        <v>10631800</v>
       </c>
       <c r="G49" s="3">
-        <v>9504700</v>
+        <v>10069000</v>
       </c>
       <c r="H49" s="3">
-        <v>9362800</v>
+        <v>9978000</v>
       </c>
       <c r="I49" s="3">
+        <v>9851000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>9704000</v>
+      </c>
+      <c r="K49" s="3">
         <v>9553700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>9230100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>9878700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>10905800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4073800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2085000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4422200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2057500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2068100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2053500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>1887900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1733700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1705400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1755900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>1810900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1819900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1989600</v>
       </c>
-      <c r="Z49" s="3" t="s">
+      <c r="AB49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>1943800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>894200</v>
+        <v>903500</v>
       </c>
       <c r="E52" s="3">
-        <v>890100</v>
+        <v>889800</v>
       </c>
       <c r="F52" s="3">
-        <v>932000</v>
+        <v>926800</v>
       </c>
       <c r="G52" s="3">
-        <v>939100</v>
+        <v>922600</v>
       </c>
       <c r="H52" s="3">
-        <v>808500</v>
+        <v>966000</v>
       </c>
       <c r="I52" s="3">
+        <v>973400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>837900</v>
+      </c>
+      <c r="K52" s="3">
         <v>838100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>834000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>849000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>920700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>838900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>868600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>911400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>914100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>942300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>930900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>928600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>858600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>843700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>926800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>2890200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>913300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>961400</v>
       </c>
-      <c r="Z52" s="3" t="s">
+      <c r="AB52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>921400</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25943600</v>
+        <v>27819100</v>
       </c>
       <c r="E54" s="3">
-        <v>24168500</v>
+        <v>28472900</v>
       </c>
       <c r="F54" s="3">
-        <v>24497200</v>
+        <v>26889100</v>
       </c>
       <c r="G54" s="3">
-        <v>23819300</v>
+        <v>25049200</v>
       </c>
       <c r="H54" s="3">
-        <v>22811800</v>
+        <v>25389900</v>
       </c>
       <c r="I54" s="3">
+        <v>24687400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>23643100</v>
+      </c>
+      <c r="K54" s="3">
         <v>22579100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>21874700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>22832800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>24953500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>16672300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>17064000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>16636600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>15234400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>13049800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>13164500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>12868800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>11653100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>11299600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>11144700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>11158200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>10821600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>11121800</v>
       </c>
-      <c r="Z54" s="3" t="s">
+      <c r="AB54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>10666400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4316,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1901800</v>
+        <v>2155100</v>
       </c>
       <c r="E57" s="3">
-        <v>1814000</v>
+        <v>2391100</v>
       </c>
       <c r="F57" s="3">
-        <v>1717000</v>
+        <v>1971100</v>
       </c>
       <c r="G57" s="3">
-        <v>1601600</v>
+        <v>1880100</v>
       </c>
       <c r="H57" s="3">
-        <v>1303600</v>
+        <v>1779600</v>
       </c>
       <c r="I57" s="3">
+        <v>1660000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1351100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1299500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1150400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1204000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1190200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>997000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1077500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1334000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1269300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1327000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1407700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1397000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1110100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1073700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1069300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1144400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>987400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>971900</v>
       </c>
-      <c r="Z57" s="3" t="s">
+      <c r="AB57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1006000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>844200</v>
+        <v>871800</v>
       </c>
       <c r="E58" s="3">
-        <v>72500</v>
+        <v>876000</v>
       </c>
       <c r="F58" s="3">
-        <v>925900</v>
+        <v>875000</v>
       </c>
       <c r="G58" s="3">
-        <v>917700</v>
+        <v>75100</v>
       </c>
       <c r="H58" s="3">
-        <v>905400</v>
+        <v>959600</v>
       </c>
       <c r="I58" s="3">
+        <v>951100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>938400</v>
+      </c>
+      <c r="K58" s="3">
         <v>912600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>385900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>585400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>705800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>263100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>280200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>26900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>32900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>32900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>26000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>29600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>350300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>359000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>354500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1506800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>22400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>142000</v>
       </c>
-      <c r="Z58" s="3" t="s">
+      <c r="AB58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2383600</v>
+        <v>2506400</v>
       </c>
       <c r="E59" s="3">
-        <v>1963000</v>
+        <v>2645000</v>
       </c>
       <c r="F59" s="3">
-        <v>1868100</v>
+        <v>2470400</v>
       </c>
       <c r="G59" s="3">
-        <v>2016100</v>
+        <v>2034500</v>
       </c>
       <c r="H59" s="3">
-        <v>1851700</v>
+        <v>1936100</v>
       </c>
       <c r="I59" s="3">
+        <v>2089600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1919200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1708800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1631200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1791400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1604700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1253300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>967800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1349900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1167000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>845800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1057500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1154500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>795000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>695600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>711300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3932600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>802200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>694900</v>
       </c>
-      <c r="Z59" s="3" t="s">
+      <c r="AB59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5129500</v>
+        <v>5533300</v>
       </c>
       <c r="E60" s="3">
-        <v>3849400</v>
+        <v>5912100</v>
       </c>
       <c r="F60" s="3">
-        <v>4510900</v>
+        <v>5316500</v>
       </c>
       <c r="G60" s="3">
-        <v>4535400</v>
+        <v>3989700</v>
       </c>
       <c r="H60" s="3">
-        <v>4060700</v>
+        <v>4675300</v>
       </c>
       <c r="I60" s="3">
+        <v>4700700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>4208700</v>
+      </c>
+      <c r="K60" s="3">
         <v>3920900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3167500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3580800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3500700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2513400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2325500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2710900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2469300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2205800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2491200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2581100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2255300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2128400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2135100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>4049300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1812000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1808800</v>
       </c>
-      <c r="Z60" s="3" t="s">
+      <c r="AB60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1795900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5723600</v>
+        <v>5293200</v>
       </c>
       <c r="E61" s="3">
-        <v>6286100</v>
+        <v>5522800</v>
       </c>
       <c r="F61" s="3">
-        <v>6210500</v>
+        <v>5932200</v>
       </c>
       <c r="G61" s="3">
-        <v>6142200</v>
+        <v>6515200</v>
       </c>
       <c r="H61" s="3">
-        <v>6355500</v>
+        <v>6436900</v>
       </c>
       <c r="I61" s="3">
+        <v>6366000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>6587100</v>
+      </c>
+      <c r="K61" s="3">
         <v>6411600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6757700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7019300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>8053100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1743300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1800100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1879100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1772800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1789300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1787400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1782600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1658000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1648200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1675100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2259700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2063300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2225500</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
         <v>2056500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1210700</v>
+        <v>1192400</v>
       </c>
       <c r="E62" s="3">
-        <v>1361700</v>
+        <v>1227300</v>
       </c>
       <c r="F62" s="3">
-        <v>1483200</v>
+        <v>1254800</v>
       </c>
       <c r="G62" s="3">
-        <v>1503600</v>
+        <v>1411400</v>
       </c>
       <c r="H62" s="3">
-        <v>1517900</v>
+        <v>1537300</v>
       </c>
       <c r="I62" s="3">
+        <v>1558400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1573200</v>
+      </c>
+      <c r="K62" s="3">
         <v>1510800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1566900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1626400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1989800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1181000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1323800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1471200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1277600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1215200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>893100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>880100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>803700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>814600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>788800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>880800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>777500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>820500</v>
       </c>
-      <c r="Z62" s="3" t="s">
+      <c r="AB62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12063800</v>
+        <v>12018900</v>
       </c>
       <c r="E66" s="3">
-        <v>11497300</v>
+        <v>12662100</v>
       </c>
       <c r="F66" s="3">
-        <v>12204700</v>
+        <v>12503400</v>
       </c>
       <c r="G66" s="3">
-        <v>12181200</v>
+        <v>11916300</v>
       </c>
       <c r="H66" s="3">
-        <v>11934200</v>
+        <v>12649400</v>
       </c>
       <c r="I66" s="3">
+        <v>12625100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>12369100</v>
+      </c>
+      <c r="K66" s="3">
         <v>11843300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>11492200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12226500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>13543600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5437700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5449500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6061300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5519700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5210300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5171600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5243800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4717000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4591200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4599000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>4834700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>4652900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>4854900</v>
       </c>
-      <c r="Z66" s="3" t="s">
+      <c r="AB66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>4770400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3324700</v>
+        <v>4793800</v>
       </c>
       <c r="E72" s="3">
-        <v>2093700</v>
+        <v>3709300</v>
       </c>
       <c r="F72" s="3">
-        <v>1894600</v>
+        <v>3445900</v>
       </c>
       <c r="G72" s="3">
-        <v>1436300</v>
+        <v>2170000</v>
       </c>
       <c r="H72" s="3">
-        <v>406300</v>
+        <v>1963600</v>
       </c>
       <c r="I72" s="3">
+        <v>1488600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>421100</v>
+      </c>
+      <c r="K72" s="3">
         <v>673700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-90900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>451500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>424400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>875100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>784500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>515700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>365900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>144700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>36700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-327700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-461200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-844900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-1325100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-3115800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1713300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-2158600</v>
       </c>
-      <c r="Z72" s="3" t="s">
+      <c r="AB72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-2713800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13879800</v>
+        <v>15800200</v>
       </c>
       <c r="E76" s="3">
-        <v>12671200</v>
+        <v>15810800</v>
       </c>
       <c r="F76" s="3">
-        <v>12292500</v>
+        <v>14385600</v>
       </c>
       <c r="G76" s="3">
-        <v>11638100</v>
+        <v>13133000</v>
       </c>
       <c r="H76" s="3">
-        <v>10877600</v>
+        <v>12740400</v>
       </c>
       <c r="I76" s="3">
+        <v>12062300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>11274000</v>
+      </c>
+      <c r="K76" s="3">
         <v>10735800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10382600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>10606300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11409800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11234500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11614600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10575300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>9714700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7839500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>7992900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>7625000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>6936100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6708400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>6545700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>6323500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>6168700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>6267000</v>
       </c>
-      <c r="Z76" s="3" t="s">
+      <c r="AB76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>5896000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>520600</v>
+        <v>762800</v>
       </c>
       <c r="E81" s="3">
-        <v>471600</v>
+        <v>770200</v>
       </c>
       <c r="F81" s="3">
-        <v>459400</v>
+        <v>539600</v>
       </c>
       <c r="G81" s="3">
-        <v>470600</v>
+        <v>488800</v>
       </c>
       <c r="H81" s="3">
-        <v>241900</v>
+        <v>476100</v>
       </c>
       <c r="I81" s="3">
+        <v>487700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>250700</v>
+      </c>
+      <c r="K81" s="3">
         <v>199100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>253200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>105900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-150500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>189700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>235800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>197200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>263500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>271700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>300500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>168000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>297600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>512700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>230000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>679900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>283900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>423700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>190200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>430800</v>
+        <v>453900</v>
       </c>
       <c r="E83" s="3">
-        <v>413400</v>
+        <v>469800</v>
       </c>
       <c r="F83" s="3">
-        <v>401200</v>
+        <v>446500</v>
       </c>
       <c r="G83" s="3">
-        <v>405300</v>
+        <v>428500</v>
       </c>
       <c r="H83" s="3">
-        <v>387900</v>
+        <v>415800</v>
       </c>
       <c r="I83" s="3">
+        <v>420000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>402000</v>
+      </c>
+      <c r="K83" s="3">
         <v>375700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>375700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>393400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>416700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>281100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>291900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>298900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>280000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>274100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>272100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>267300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>240500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>237900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>228900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>230000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>226600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>475400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>234800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1015700</v>
+        <v>666500</v>
       </c>
       <c r="E89" s="3">
-        <v>626800</v>
+        <v>1667400</v>
       </c>
       <c r="F89" s="3">
-        <v>811500</v>
+        <v>1052700</v>
       </c>
       <c r="G89" s="3">
-        <v>991200</v>
+        <v>649600</v>
       </c>
       <c r="H89" s="3">
-        <v>781900</v>
+        <v>841100</v>
       </c>
       <c r="I89" s="3">
+        <v>1027300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>810400</v>
+      </c>
+      <c r="K89" s="3">
         <v>756400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>599200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>774300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>580400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>397400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>211300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>837900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>464700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>250600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>365500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>760600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>506200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>344500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>184000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>690000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>593500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>679600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>331000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>518800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-484900</v>
+        <v>-579800</v>
       </c>
       <c r="E91" s="3">
-        <v>-457300</v>
+        <v>-820000</v>
       </c>
       <c r="F91" s="3">
+        <v>-502600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-474000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-375600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-570300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-245500</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-269500</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-237800</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-285400</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-236700</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-234900</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-374800</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-360000</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-369400</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-436500</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-436500</v>
+      </c>
+      <c r="V91" s="3">
+        <v>-265700</v>
+      </c>
+      <c r="W91" s="3">
+        <v>-250200</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-287200</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-362400</v>
       </c>
-      <c r="G91" s="3">
-        <v>-550200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-236800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-269500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-237800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-285400</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-236700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-234900</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-251000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-374800</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-360000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-369400</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-436500</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-436500</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-265700</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-250200</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-287200</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-362400</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-209800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-495300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-238300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-325100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-619600</v>
+        <v>-643300</v>
       </c>
       <c r="E94" s="3">
-        <v>-132700</v>
+        <v>-1243200</v>
       </c>
       <c r="F94" s="3">
-        <v>-540000</v>
+        <v>-642200</v>
       </c>
       <c r="G94" s="3">
-        <v>-838100</v>
+        <v>-137500</v>
       </c>
       <c r="H94" s="3">
-        <v>-672700</v>
+        <v>-559700</v>
       </c>
       <c r="I94" s="3">
+        <v>-868600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-697200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-474700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-346100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-762900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-5681500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-215700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1211800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-463000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2329300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>76500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-230700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-449500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-427100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-142500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-299600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-537400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-458900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-285200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-314600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-495300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6788,16 +7255,22 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-291100</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-62300</v>
+        <v>-26500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1225000</v>
+        <v>-618900</v>
       </c>
       <c r="F100" s="3">
-        <v>-23500</v>
+        <v>-64500</v>
       </c>
       <c r="G100" s="3">
-        <v>-333800</v>
+        <v>-1269600</v>
       </c>
       <c r="H100" s="3">
-        <v>-62300</v>
+        <v>-24300</v>
       </c>
       <c r="I100" s="3">
+        <v>-346000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-64500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-311300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-196000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-587500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>6578200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-404200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1363500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-11000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1763400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-357600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-22500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-353700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-23100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-234500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-14600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>4500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-116700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-282900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>9400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17400</v>
+        <v>-14800</v>
       </c>
       <c r="E101" s="3">
-        <v>4100</v>
+        <v>29600</v>
       </c>
       <c r="F101" s="3">
-        <v>4100</v>
+        <v>-18000</v>
       </c>
       <c r="G101" s="3">
-        <v>6100</v>
+        <v>4200</v>
       </c>
       <c r="H101" s="3">
-        <v>1000</v>
+        <v>4200</v>
       </c>
       <c r="I101" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K101" s="3">
         <v>8200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-13300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-44600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-37100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-19200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>12800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>2400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>9400</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-3500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-6600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>11200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>1100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-6700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-13500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>1200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-15300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>316400</v>
+        <v>-18000</v>
       </c>
       <c r="E102" s="3">
-        <v>-726800</v>
+        <v>-165000</v>
       </c>
       <c r="F102" s="3">
-        <v>252100</v>
+        <v>328000</v>
       </c>
       <c r="G102" s="3">
-        <v>-174600</v>
+        <v>-753300</v>
       </c>
       <c r="H102" s="3">
-        <v>48000</v>
+        <v>261300</v>
       </c>
       <c r="I102" s="3">
+        <v>-180900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>49700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-21400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>43900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-620700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1440000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-241600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>375900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>366300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-102300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-21200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>112400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-46100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>49400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-21300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-129000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>150300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>5600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>112700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>10600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>17600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>IFNNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4180200</v>
+        <v>4436800</v>
       </c>
       <c r="E8" s="3">
-        <v>4383300</v>
+        <v>4254800</v>
       </c>
       <c r="F8" s="3">
-        <v>3827800</v>
+        <v>4461600</v>
       </c>
       <c r="G8" s="3">
-        <v>3489300</v>
+        <v>3896200</v>
       </c>
       <c r="H8" s="3">
-        <v>3342200</v>
+        <v>3551600</v>
       </c>
       <c r="I8" s="3">
-        <v>3181400</v>
+        <v>3401900</v>
       </c>
       <c r="J8" s="3">
+        <v>3238200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2879900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2756200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2685700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2584400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2371600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2242400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2236800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2525900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2370400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2332800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2330300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2421400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2131200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2060000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1991500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6136200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2054400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4006200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1932100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1966100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2205900</v>
+        <v>2369200</v>
       </c>
       <c r="E9" s="3">
-        <v>2436600</v>
+        <v>2245300</v>
       </c>
       <c r="F9" s="3">
-        <v>2173100</v>
+        <v>2480100</v>
       </c>
       <c r="G9" s="3">
-        <v>1991200</v>
+        <v>2212000</v>
       </c>
       <c r="H9" s="3">
-        <v>1954100</v>
+        <v>2026700</v>
       </c>
       <c r="I9" s="3">
-        <v>1871600</v>
+        <v>1989000</v>
       </c>
       <c r="J9" s="3">
+        <v>1905000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1753100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1763900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1680200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1761300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1731300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1467800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1409100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1630500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1505800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1451700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1408800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1458500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1316500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1294800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1266700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3817000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1269000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2554200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1237200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1252500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1974200</v>
+        <v>2067600</v>
       </c>
       <c r="E10" s="3">
-        <v>1946700</v>
+        <v>2009500</v>
       </c>
       <c r="F10" s="3">
-        <v>1654700</v>
+        <v>1981500</v>
       </c>
       <c r="G10" s="3">
-        <v>1498100</v>
+        <v>1684300</v>
       </c>
       <c r="H10" s="3">
-        <v>1388100</v>
+        <v>1524900</v>
       </c>
       <c r="I10" s="3">
-        <v>1309800</v>
+        <v>1412900</v>
       </c>
       <c r="J10" s="3">
+        <v>1333200</v>
+      </c>
+      <c r="K10" s="3">
         <v>1126800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>992200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1005500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>823100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>640400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>774600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>827700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>895500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>864700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>881100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>921500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>962900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>814700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>765200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>724800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2319200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>785400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1452000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>694900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>512100</v>
+        <v>524500</v>
       </c>
       <c r="E12" s="3">
-        <v>514200</v>
+        <v>521200</v>
       </c>
       <c r="F12" s="3">
-        <v>493000</v>
+        <v>523400</v>
       </c>
       <c r="G12" s="3">
-        <v>468700</v>
+        <v>501800</v>
       </c>
       <c r="H12" s="3">
-        <v>419000</v>
+        <v>477100</v>
       </c>
       <c r="I12" s="3">
-        <v>421100</v>
+        <v>426500</v>
       </c>
       <c r="J12" s="3">
+        <v>428600</v>
+      </c>
+      <c r="K12" s="3">
         <v>397800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>345000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>333800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>318600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>350200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>272100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>283700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>281700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>285900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>277600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>279200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>263800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>239400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>223300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>218800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>642900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>218800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>460100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>234800</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,49 +1242,52 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>18500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11300</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1284,8 +1304,8 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1299,8 +1319,8 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>10</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>10</v>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1322,47 +1345,47 @@
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3">
-        <v>48700</v>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="H15" s="3">
-        <v>48700</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
+        <v>49500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>49500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="3">
         <v>65300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>70400</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="3">
         <v>20300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>22200</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="3">
         <v>11800</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>10</v>
@@ -1370,11 +1393,11 @@
       <c r="V15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="X15" s="3">
         <v>14600</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>10</v>
@@ -1382,8 +1405,8 @@
       <c r="Z15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
+      <c r="AA15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3158100</v>
+        <v>3281300</v>
       </c>
       <c r="E17" s="3">
-        <v>3408900</v>
+        <v>3214500</v>
       </c>
       <c r="F17" s="3">
-        <v>3097800</v>
+        <v>3469800</v>
       </c>
       <c r="G17" s="3">
-        <v>2838600</v>
+        <v>3153200</v>
       </c>
       <c r="H17" s="3">
-        <v>2689400</v>
+        <v>2889300</v>
       </c>
       <c r="I17" s="3">
-        <v>2677800</v>
+        <v>2737500</v>
       </c>
       <c r="J17" s="3">
+        <v>2725600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2513800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2438700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2348900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2418300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2491600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1998500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1926200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2224600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2037500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1974000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1943500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1983700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1781000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1463100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1713300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5191400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1720000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3521400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1716100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1696200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1022000</v>
+        <v>1155500</v>
       </c>
       <c r="E18" s="3">
-        <v>974400</v>
+        <v>1040300</v>
       </c>
       <c r="F18" s="3">
-        <v>730000</v>
+        <v>991800</v>
       </c>
       <c r="G18" s="3">
-        <v>650700</v>
+        <v>743100</v>
       </c>
       <c r="H18" s="3">
-        <v>652800</v>
+        <v>662300</v>
       </c>
       <c r="I18" s="3">
-        <v>503600</v>
+        <v>664400</v>
       </c>
       <c r="J18" s="3">
+        <v>512600</v>
+      </c>
+      <c r="K18" s="3">
         <v>366100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>317500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>336900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>166100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-120000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>243900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>310500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>301300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>332900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>358800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>386800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>437700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>350300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>596900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>278300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>944700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>334400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>484800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>216000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-22200</v>
+        <v>-9700</v>
       </c>
       <c r="E20" s="3">
-        <v>-26400</v>
+        <v>-22600</v>
       </c>
       <c r="F20" s="3">
-        <v>-32800</v>
+        <v>-26900</v>
       </c>
       <c r="G20" s="3">
-        <v>-26500</v>
+        <v>-33400</v>
       </c>
       <c r="H20" s="3">
-        <v>-41300</v>
+        <v>-26900</v>
       </c>
       <c r="I20" s="3">
-        <v>-28600</v>
+        <v>-42000</v>
       </c>
       <c r="J20" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-55000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-40800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-25500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-67600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-19200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-36500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-11800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-20100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-17700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-17600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-14600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-15700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-37000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-12300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-32900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-20000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1453700</v>
+        <v>1613200</v>
       </c>
       <c r="E21" s="3">
-        <v>1417700</v>
+        <v>1479700</v>
       </c>
       <c r="F21" s="3">
-        <v>1143700</v>
+        <v>1443000</v>
       </c>
       <c r="G21" s="3">
-        <v>1052700</v>
+        <v>1164100</v>
       </c>
       <c r="H21" s="3">
-        <v>1027300</v>
+        <v>1071500</v>
       </c>
       <c r="I21" s="3">
-        <v>895100</v>
+        <v>1045700</v>
       </c>
       <c r="J21" s="3">
+        <v>911100</v>
+      </c>
+      <c r="K21" s="3">
         <v>713100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>652300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>687000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>543900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>229100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>505800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>587200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>575700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>576400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>621100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>638800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>687300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>573200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>820200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>491400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2048800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>94200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>927300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>430800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1835,14 +1875,14 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>10</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1856,8 +1896,8 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>10</v>
+      <c r="AA22" s="3">
+        <v>0</v>
       </c>
       <c r="AB22" s="3" t="s">
         <v>10</v>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>999800</v>
+        <v>1145800</v>
       </c>
       <c r="E23" s="3">
-        <v>948000</v>
+        <v>1017700</v>
       </c>
       <c r="F23" s="3">
-        <v>697200</v>
+        <v>964900</v>
       </c>
       <c r="G23" s="3">
-        <v>624200</v>
+        <v>709700</v>
       </c>
       <c r="H23" s="3">
-        <v>611500</v>
+        <v>635400</v>
       </c>
       <c r="I23" s="3">
-        <v>475000</v>
+        <v>622400</v>
       </c>
       <c r="J23" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K23" s="3">
         <v>311100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>276600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>311300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>150500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-187600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>224700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>295400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>276800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>296500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>347000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>366700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>419900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>332700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>582300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>262500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>907700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>322000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>451900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>196000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>228500</v>
+        <v>256300</v>
       </c>
       <c r="E24" s="3">
-        <v>174600</v>
+        <v>232600</v>
       </c>
       <c r="F24" s="3">
-        <v>141800</v>
+        <v>177700</v>
       </c>
       <c r="G24" s="3">
-        <v>128000</v>
+        <v>144300</v>
       </c>
       <c r="H24" s="3">
-        <v>123800</v>
+        <v>130300</v>
       </c>
       <c r="I24" s="3">
-        <v>-16900</v>
+        <v>126000</v>
       </c>
       <c r="J24" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="K24" s="3">
         <v>51800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>63300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>50000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-48000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>50200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>77200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>32900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>54100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>66200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>63900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>53800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>69600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>31400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>228900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>41500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>24700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>1200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>771300</v>
+        <v>889500</v>
       </c>
       <c r="E26" s="3">
-        <v>773400</v>
+        <v>785100</v>
       </c>
       <c r="F26" s="3">
-        <v>555500</v>
+        <v>787200</v>
       </c>
       <c r="G26" s="3">
-        <v>496200</v>
+        <v>565400</v>
       </c>
       <c r="H26" s="3">
-        <v>487700</v>
+        <v>505100</v>
       </c>
       <c r="I26" s="3">
-        <v>492000</v>
+        <v>496500</v>
       </c>
       <c r="J26" s="3">
+        <v>500800</v>
+      </c>
+      <c r="K26" s="3">
         <v>259200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>213300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>261300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>116200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-139600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>201000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>245200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>199700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>263500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>292900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>300500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>356100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>278900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>512700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>231100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>678800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>280500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>427300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>194900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>763900</v>
+        <v>880900</v>
       </c>
       <c r="E27" s="3">
-        <v>766000</v>
+        <v>777500</v>
       </c>
       <c r="F27" s="3">
-        <v>548000</v>
+        <v>779700</v>
       </c>
       <c r="G27" s="3">
-        <v>488800</v>
+        <v>557800</v>
       </c>
       <c r="H27" s="3">
-        <v>480300</v>
+        <v>497500</v>
       </c>
       <c r="I27" s="3">
-        <v>488800</v>
+        <v>488900</v>
       </c>
       <c r="J27" s="3">
+        <v>497500</v>
+      </c>
+      <c r="K27" s="3">
         <v>250700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>205200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>253200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>109000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-150500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>189700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>235800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>199700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>263500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>292900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>356100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>278900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>512700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>231100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>678800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>280500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>427300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>194900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2372,35 +2433,35 @@
         <v>-1100</v>
       </c>
       <c r="E29" s="3">
-        <v>4200</v>
+        <v>-1100</v>
       </c>
       <c r="F29" s="3">
-        <v>-8500</v>
+        <v>4300</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>-8600</v>
       </c>
       <c r="H29" s="3">
-        <v>-4200</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1100</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-6100</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-3100</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -2408,46 +2469,49 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2400</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-21200</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-188100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>18700</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>1100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>3400</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-4700</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>22200</v>
+        <v>9700</v>
       </c>
       <c r="E32" s="3">
-        <v>26400</v>
+        <v>22600</v>
       </c>
       <c r="F32" s="3">
-        <v>32800</v>
+        <v>26900</v>
       </c>
       <c r="G32" s="3">
-        <v>26500</v>
+        <v>33400</v>
       </c>
       <c r="H32" s="3">
-        <v>41300</v>
+        <v>26900</v>
       </c>
       <c r="I32" s="3">
-        <v>28600</v>
+        <v>42000</v>
       </c>
       <c r="J32" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K32" s="3">
         <v>55000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>40800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>25500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>67600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>19200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>15200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>36500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>11800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>20100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>17700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>17600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>14600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>15700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>37000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>12300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>32900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>20000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>762800</v>
+        <v>879800</v>
       </c>
       <c r="E33" s="3">
-        <v>770200</v>
+        <v>776400</v>
       </c>
       <c r="F33" s="3">
-        <v>539600</v>
+        <v>784000</v>
       </c>
       <c r="G33" s="3">
-        <v>488800</v>
+        <v>549200</v>
       </c>
       <c r="H33" s="3">
-        <v>476100</v>
+        <v>497500</v>
       </c>
       <c r="I33" s="3">
-        <v>487700</v>
+        <v>484600</v>
       </c>
       <c r="J33" s="3">
+        <v>496500</v>
+      </c>
+      <c r="K33" s="3">
         <v>250700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>199100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>253200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>105900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-150500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>189700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>235800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>197200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>263500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>271700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>168000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>297600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>512700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>230000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>679900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>283900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>423700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>190200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>762800</v>
+        <v>879800</v>
       </c>
       <c r="E35" s="3">
-        <v>770200</v>
+        <v>776400</v>
       </c>
       <c r="F35" s="3">
-        <v>539600</v>
+        <v>784000</v>
       </c>
       <c r="G35" s="3">
-        <v>488800</v>
+        <v>549200</v>
       </c>
       <c r="H35" s="3">
-        <v>476100</v>
+        <v>497500</v>
       </c>
       <c r="I35" s="3">
-        <v>487700</v>
+        <v>484600</v>
       </c>
       <c r="J35" s="3">
+        <v>496500</v>
+      </c>
+      <c r="K35" s="3">
         <v>250700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>199100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>253200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>105900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-150500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>189700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>235800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>197200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>263500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>271700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>168000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>297600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>512700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>230000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>679900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>283900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>423700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>190200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,755 +3180,783 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1503400</v>
+        <v>1532400</v>
       </c>
       <c r="E41" s="3">
-        <v>1521400</v>
+        <v>1530300</v>
       </c>
       <c r="F41" s="3">
-        <v>1686500</v>
+        <v>1548600</v>
       </c>
       <c r="G41" s="3">
-        <v>1358500</v>
+        <v>1716600</v>
       </c>
       <c r="H41" s="3">
-        <v>2111800</v>
+        <v>1382700</v>
       </c>
       <c r="I41" s="3">
-        <v>1850400</v>
+        <v>2149500</v>
       </c>
       <c r="J41" s="3">
+        <v>1883500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2031400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1912000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1933400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1921200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2671600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1274800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1567800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1250700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>849400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>951700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>978300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>865900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>846600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>814600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>835900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>964900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>814600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>846300</v>
       </c>
-      <c r="AB41" s="3" t="s">
+      <c r="AC41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2419600</v>
+        <v>2178600</v>
       </c>
       <c r="E42" s="3">
-        <v>2411200</v>
+        <v>2462900</v>
       </c>
       <c r="F42" s="3">
-        <v>2089600</v>
+        <v>2454300</v>
       </c>
       <c r="G42" s="3">
-        <v>2032400</v>
+        <v>2126900</v>
       </c>
       <c r="H42" s="3">
-        <v>2420700</v>
+        <v>2068700</v>
       </c>
       <c r="I42" s="3">
-        <v>2299000</v>
+        <v>2463900</v>
       </c>
       <c r="J42" s="3">
+        <v>2340100</v>
+      </c>
+      <c r="K42" s="3">
         <v>2055700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1603700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1470000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1428200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1092000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3905600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>4104600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3378500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3191600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1262300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1749500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2142200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2031300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1920800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1758200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1786200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1672900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1558800</v>
       </c>
-      <c r="AB42" s="3" t="s">
+      <c r="AC42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1895700</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2024000</v>
+        <v>2275500</v>
       </c>
       <c r="E43" s="3">
-        <v>2147700</v>
+        <v>2060100</v>
       </c>
       <c r="F43" s="3">
-        <v>2050400</v>
+        <v>2186100</v>
       </c>
       <c r="G43" s="3">
-        <v>1888500</v>
+        <v>2087000</v>
       </c>
       <c r="H43" s="3">
-        <v>1680100</v>
+        <v>1922300</v>
       </c>
       <c r="I43" s="3">
-        <v>1716100</v>
+        <v>1710100</v>
       </c>
       <c r="J43" s="3">
+        <v>1746700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1437800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1503600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1323000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1421900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1394200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1402300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1152200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1508000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1248200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1247000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1220800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1210100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1046400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>970500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>902100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3306500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>958200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>970700</v>
       </c>
-      <c r="AB43" s="3" t="s">
+      <c r="AC43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>915600</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3426900</v>
+        <v>3768100</v>
       </c>
       <c r="E44" s="3">
-        <v>3259700</v>
+        <v>3488100</v>
       </c>
       <c r="F44" s="3">
-        <v>2998400</v>
+        <v>3317900</v>
       </c>
       <c r="G44" s="3">
-        <v>2687300</v>
+        <v>3051900</v>
       </c>
       <c r="H44" s="3">
-        <v>2453500</v>
+        <v>2735300</v>
       </c>
       <c r="I44" s="3">
-        <v>2307500</v>
+        <v>2497300</v>
       </c>
       <c r="J44" s="3">
+        <v>2348700</v>
+      </c>
+      <c r="K44" s="3">
         <v>2172100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1977300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1995700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2129800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2416400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1960100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2062800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2083700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2068100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2006900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1882000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1750700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1524000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1464200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1438400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1391300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1396900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1441400</v>
       </c>
-      <c r="AB44" s="3" t="s">
+      <c r="AC44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1398000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>733200</v>
+        <v>831400</v>
       </c>
       <c r="E45" s="3">
-        <v>661300</v>
+        <v>746300</v>
       </c>
       <c r="F45" s="3">
-        <v>686600</v>
+        <v>673100</v>
       </c>
       <c r="G45" s="3">
-        <v>566000</v>
+        <v>698900</v>
       </c>
       <c r="H45" s="3">
-        <v>487700</v>
+        <v>576100</v>
       </c>
       <c r="I45" s="3">
-        <v>557600</v>
+        <v>496500</v>
       </c>
       <c r="J45" s="3">
+        <v>567500</v>
+      </c>
+      <c r="K45" s="3">
         <v>630600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>556300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>538000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>550100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>692700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>931500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>735500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>957900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>868200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>641100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>533500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>446000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>435900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>409500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>410600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6195600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>356800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>336900</v>
       </c>
-      <c r="AB45" s="3" t="s">
+      <c r="AC45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>329800</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10107100</v>
+        <v>10585900</v>
       </c>
       <c r="E46" s="3">
-        <v>10001300</v>
+        <v>10287600</v>
       </c>
       <c r="F46" s="3">
-        <v>9511400</v>
+        <v>10179900</v>
       </c>
       <c r="G46" s="3">
-        <v>8532800</v>
+        <v>9681300</v>
       </c>
       <c r="H46" s="3">
-        <v>9153800</v>
+        <v>8685200</v>
       </c>
       <c r="I46" s="3">
-        <v>8730600</v>
+        <v>9317300</v>
       </c>
       <c r="J46" s="3">
+        <v>8886600</v>
+      </c>
+      <c r="K46" s="3">
         <v>8327500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7552900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7259900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7451100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8266900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9474300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9623000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9178900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8225400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6109000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6364000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6414900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5884200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5579700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5345200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8448600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5199300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5154200</v>
       </c>
-      <c r="AB46" s="3" t="s">
+      <c r="AC46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>5272800</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>104700</v>
+        <v>106600</v>
       </c>
       <c r="E47" s="3">
-        <v>107900</v>
+        <v>106600</v>
       </c>
       <c r="F47" s="3">
-        <v>107900</v>
+        <v>109800</v>
       </c>
       <c r="G47" s="3">
-        <v>97300</v>
+        <v>109800</v>
       </c>
       <c r="H47" s="3">
-        <v>81500</v>
+        <v>99100</v>
       </c>
       <c r="I47" s="3">
-        <v>76200</v>
+        <v>82900</v>
       </c>
       <c r="J47" s="3">
+        <v>77500</v>
+      </c>
+      <c r="K47" s="3">
         <v>66700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>80600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>81700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>91300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>118900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>82400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>85200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>35500</v>
-      </c>
-      <c r="R47" s="3">
-        <v>43500</v>
       </c>
       <c r="S47" s="3">
         <v>43500</v>
       </c>
       <c r="T47" s="3">
+        <v>43500</v>
+      </c>
+      <c r="U47" s="3">
         <v>39000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>43800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>43900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>42600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>31400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>11876300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>38100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>42300</v>
       </c>
-      <c r="AB47" s="3" t="s">
+      <c r="AC47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6495100</v>
+        <v>6839400</v>
       </c>
       <c r="E48" s="3">
-        <v>6295100</v>
+        <v>6611100</v>
       </c>
       <c r="F48" s="3">
-        <v>5711100</v>
+        <v>6407600</v>
       </c>
       <c r="G48" s="3">
-        <v>5427500</v>
+        <v>5813100</v>
       </c>
       <c r="H48" s="3">
-        <v>5210700</v>
+        <v>5524500</v>
       </c>
       <c r="I48" s="3">
-        <v>5056200</v>
+        <v>5303700</v>
       </c>
       <c r="J48" s="3">
+        <v>5146500</v>
+      </c>
+      <c r="K48" s="3">
         <v>4707000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4553800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4469100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4562600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4741100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4239800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4402300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4299700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3993900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3886800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3777000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3593700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3132600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3128100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3085500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2983400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2851000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2974400</v>
       </c>
-      <c r="AB48" s="3" t="s">
+      <c r="AC48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2487300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10208600</v>
+        <v>10132600</v>
       </c>
       <c r="E49" s="3">
-        <v>11178800</v>
+        <v>10391000</v>
       </c>
       <c r="F49" s="3">
-        <v>10631800</v>
+        <v>11378500</v>
       </c>
       <c r="G49" s="3">
-        <v>10069000</v>
+        <v>10821800</v>
       </c>
       <c r="H49" s="3">
-        <v>9978000</v>
+        <v>10248900</v>
       </c>
       <c r="I49" s="3">
-        <v>9851000</v>
+        <v>10156200</v>
       </c>
       <c r="J49" s="3">
+        <v>10027000</v>
+      </c>
+      <c r="K49" s="3">
         <v>9704000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9553700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9230100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9878700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10905800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4073800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2085000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4422200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2057500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2068100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2053500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1887900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1733700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1705400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1755900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1810900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1819900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1989600</v>
       </c>
-      <c r="AB49" s="3" t="s">
+      <c r="AC49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1943800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>903500</v>
+        <v>803400</v>
       </c>
       <c r="E52" s="3">
-        <v>889800</v>
+        <v>919700</v>
       </c>
       <c r="F52" s="3">
+        <v>905700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>943400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>939100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>983200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>990700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>837900</v>
+      </c>
+      <c r="L52" s="3">
+        <v>838100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>834000</v>
+      </c>
+      <c r="N52" s="3">
+        <v>849000</v>
+      </c>
+      <c r="O52" s="3">
+        <v>920700</v>
+      </c>
+      <c r="P52" s="3">
+        <v>838900</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>868600</v>
+      </c>
+      <c r="R52" s="3">
+        <v>911400</v>
+      </c>
+      <c r="S52" s="3">
+        <v>914100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>942300</v>
+      </c>
+      <c r="U52" s="3">
+        <v>930900</v>
+      </c>
+      <c r="V52" s="3">
+        <v>928600</v>
+      </c>
+      <c r="W52" s="3">
+        <v>858600</v>
+      </c>
+      <c r="X52" s="3">
+        <v>843700</v>
+      </c>
+      <c r="Y52" s="3">
         <v>926800</v>
       </c>
-      <c r="G52" s="3">
-        <v>922600</v>
-      </c>
-      <c r="H52" s="3">
-        <v>966000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>973400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>837900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>838100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>834000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>849000</v>
-      </c>
-      <c r="N52" s="3">
-        <v>920700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>838900</v>
-      </c>
-      <c r="P52" s="3">
-        <v>868600</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>911400</v>
-      </c>
-      <c r="R52" s="3">
-        <v>914100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>942300</v>
-      </c>
-      <c r="T52" s="3">
-        <v>930900</v>
-      </c>
-      <c r="U52" s="3">
-        <v>928600</v>
-      </c>
-      <c r="V52" s="3">
-        <v>858600</v>
-      </c>
-      <c r="W52" s="3">
-        <v>843700</v>
-      </c>
-      <c r="X52" s="3">
-        <v>926800</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2890200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>913300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>961400</v>
       </c>
-      <c r="AB52" s="3" t="s">
+      <c r="AC52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>921400</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>27819100</v>
+        <v>28467900</v>
       </c>
       <c r="E54" s="3">
-        <v>28472900</v>
+        <v>28316000</v>
       </c>
       <c r="F54" s="3">
-        <v>26889100</v>
+        <v>28981500</v>
       </c>
       <c r="G54" s="3">
-        <v>25049200</v>
+        <v>27369400</v>
       </c>
       <c r="H54" s="3">
-        <v>25389900</v>
+        <v>25496700</v>
       </c>
       <c r="I54" s="3">
-        <v>24687400</v>
+        <v>25843400</v>
       </c>
       <c r="J54" s="3">
+        <v>25128400</v>
+      </c>
+      <c r="K54" s="3">
         <v>23643100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22579100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21874700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22832800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24953500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16672300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17064000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16636600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15234400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13049800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13164500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12868800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11653100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11299600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11144700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11158200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>10821600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>11121800</v>
       </c>
-      <c r="AB54" s="3" t="s">
+      <c r="AC54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>10666400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2155100</v>
+        <v>2237800</v>
       </c>
       <c r="E57" s="3">
-        <v>2391100</v>
+        <v>2193600</v>
       </c>
       <c r="F57" s="3">
-        <v>1971100</v>
+        <v>2433800</v>
       </c>
       <c r="G57" s="3">
-        <v>1880100</v>
+        <v>2006300</v>
       </c>
       <c r="H57" s="3">
-        <v>1779600</v>
+        <v>1913700</v>
       </c>
       <c r="I57" s="3">
-        <v>1660000</v>
+        <v>1811300</v>
       </c>
       <c r="J57" s="3">
+        <v>1689700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1351100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1299500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1150400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1204000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1190200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>997000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1077500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1334000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1269300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1327000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1407700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1397000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1110100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1073700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1069300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1144400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>987400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>971900</v>
       </c>
-      <c r="AB57" s="3" t="s">
+      <c r="AC57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1006000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>871800</v>
+        <v>886300</v>
       </c>
       <c r="E58" s="3">
-        <v>876000</v>
+        <v>887400</v>
       </c>
       <c r="F58" s="3">
-        <v>875000</v>
+        <v>891700</v>
       </c>
       <c r="G58" s="3">
-        <v>75100</v>
+        <v>890600</v>
       </c>
       <c r="H58" s="3">
-        <v>959600</v>
+        <v>76500</v>
       </c>
       <c r="I58" s="3">
-        <v>951100</v>
+        <v>976700</v>
       </c>
       <c r="J58" s="3">
+        <v>968100</v>
+      </c>
+      <c r="K58" s="3">
         <v>938400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>912600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>385900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>585400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>705800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>263100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>280200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>26900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>32900</v>
       </c>
       <c r="S58" s="3">
         <v>32900</v>
       </c>
       <c r="T58" s="3">
+        <v>32900</v>
+      </c>
+      <c r="U58" s="3">
         <v>26000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>29600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>350300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>359000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>354500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1506800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>22400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>142000</v>
       </c>
-      <c r="AB58" s="3" t="s">
+      <c r="AC58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2506400</v>
+        <v>2494100</v>
       </c>
       <c r="E59" s="3">
-        <v>2645000</v>
+        <v>2551200</v>
       </c>
       <c r="F59" s="3">
-        <v>2470400</v>
+        <v>2692300</v>
       </c>
       <c r="G59" s="3">
-        <v>2034500</v>
+        <v>2514600</v>
       </c>
       <c r="H59" s="3">
-        <v>1936100</v>
+        <v>2070900</v>
       </c>
       <c r="I59" s="3">
-        <v>2089600</v>
+        <v>1970700</v>
       </c>
       <c r="J59" s="3">
+        <v>2126900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1919200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1708800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1631200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1791400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1604700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1253300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>967800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1349900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1167000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>845800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1057500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1154500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>795000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>695600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>711300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3932600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>802200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>694900</v>
       </c>
-      <c r="AB59" s="3" t="s">
+      <c r="AC59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5533300</v>
+        <v>5618200</v>
       </c>
       <c r="E60" s="3">
-        <v>5912100</v>
+        <v>5632200</v>
       </c>
       <c r="F60" s="3">
-        <v>5316500</v>
+        <v>6017700</v>
       </c>
       <c r="G60" s="3">
-        <v>3989700</v>
+        <v>5411400</v>
       </c>
       <c r="H60" s="3">
-        <v>4675300</v>
+        <v>4061000</v>
       </c>
       <c r="I60" s="3">
-        <v>4700700</v>
+        <v>4758800</v>
       </c>
       <c r="J60" s="3">
+        <v>4784700</v>
+      </c>
+      <c r="K60" s="3">
         <v>4208700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3920900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3167500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3580800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2513400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2325500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2710900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2469300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2205800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2491200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2581100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2255300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2128400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2135100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4049300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1812000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1808800</v>
       </c>
-      <c r="AB60" s="3" t="s">
+      <c r="AC60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1795900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5293200</v>
+        <v>5373700</v>
       </c>
       <c r="E61" s="3">
-        <v>5522800</v>
+        <v>5387700</v>
       </c>
       <c r="F61" s="3">
-        <v>5932200</v>
+        <v>5621400</v>
       </c>
       <c r="G61" s="3">
-        <v>6515200</v>
+        <v>6038200</v>
       </c>
       <c r="H61" s="3">
-        <v>6436900</v>
+        <v>6631600</v>
       </c>
       <c r="I61" s="3">
-        <v>6366000</v>
+        <v>6551900</v>
       </c>
       <c r="J61" s="3">
+        <v>6479700</v>
+      </c>
+      <c r="K61" s="3">
         <v>6587100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6411600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6757700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7019300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8053100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1743300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1800100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1879100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1772800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1789300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1787400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1782600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1658000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1648200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1675100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2259700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2063300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2225500</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
         <v>2056500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1192400</v>
+        <v>1117800</v>
       </c>
       <c r="E62" s="3">
-        <v>1227300</v>
+        <v>1213700</v>
       </c>
       <c r="F62" s="3">
-        <v>1254800</v>
+        <v>1249200</v>
       </c>
       <c r="G62" s="3">
-        <v>1411400</v>
+        <v>1277200</v>
       </c>
       <c r="H62" s="3">
-        <v>1537300</v>
+        <v>1436600</v>
       </c>
       <c r="I62" s="3">
-        <v>1558400</v>
+        <v>1564700</v>
       </c>
       <c r="J62" s="3">
+        <v>1586300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1573200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1510800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1566900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1626400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1989800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1181000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1323800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1471200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1277600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1215200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>893100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>880100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>803700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>814600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>788800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>880800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>777500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>820500</v>
       </c>
-      <c r="AB62" s="3" t="s">
+      <c r="AC62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12018900</v>
+        <v>12109700</v>
       </c>
       <c r="E66" s="3">
-        <v>12662100</v>
+        <v>12233600</v>
       </c>
       <c r="F66" s="3">
-        <v>12503400</v>
+        <v>12888300</v>
       </c>
       <c r="G66" s="3">
-        <v>11916300</v>
+        <v>12726800</v>
       </c>
       <c r="H66" s="3">
-        <v>12649400</v>
+        <v>12129100</v>
       </c>
       <c r="I66" s="3">
-        <v>12625100</v>
+        <v>12875400</v>
       </c>
       <c r="J66" s="3">
+        <v>12850600</v>
+      </c>
+      <c r="K66" s="3">
         <v>12369100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11843300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11492200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12226500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>13543600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5437700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5449500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6061300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5519700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5210300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5171600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5243800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4717000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4591200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4599000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4834700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4652900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4854900</v>
       </c>
-      <c r="AB66" s="3" t="s">
+      <c r="AC66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>4770400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4793800</v>
+        <v>4978500</v>
       </c>
       <c r="E72" s="3">
-        <v>3709300</v>
+        <v>4879400</v>
       </c>
       <c r="F72" s="3">
-        <v>3445900</v>
+        <v>3775600</v>
       </c>
       <c r="G72" s="3">
-        <v>2170000</v>
+        <v>3507500</v>
       </c>
       <c r="H72" s="3">
-        <v>1963600</v>
+        <v>2208700</v>
       </c>
       <c r="I72" s="3">
-        <v>1488600</v>
+        <v>1998700</v>
       </c>
       <c r="J72" s="3">
+        <v>1515200</v>
+      </c>
+      <c r="K72" s="3">
         <v>421100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>673700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-90900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>451500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>424400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>875100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>784500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>515700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>365900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>144700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>36700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-327700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-461200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-844900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1325100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3115800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1713300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2158600</v>
       </c>
-      <c r="AB72" s="3" t="s">
+      <c r="AC72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-2713800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15800200</v>
+        <v>16358100</v>
       </c>
       <c r="E76" s="3">
-        <v>15810800</v>
+        <v>16082400</v>
       </c>
       <c r="F76" s="3">
-        <v>14385600</v>
+        <v>16093200</v>
       </c>
       <c r="G76" s="3">
-        <v>13133000</v>
+        <v>14642600</v>
       </c>
       <c r="H76" s="3">
-        <v>12740400</v>
+        <v>13367600</v>
       </c>
       <c r="I76" s="3">
-        <v>12062300</v>
+        <v>12968000</v>
       </c>
       <c r="J76" s="3">
+        <v>12277700</v>
+      </c>
+      <c r="K76" s="3">
         <v>11274000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10735800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10382600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10606300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11409800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11234500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11614600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10575300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9714700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7839500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7992900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7625000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6936100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6708400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6545700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6323500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6168700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6267000</v>
       </c>
-      <c r="AB76" s="3" t="s">
+      <c r="AC76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>5896000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>762800</v>
+        <v>879800</v>
       </c>
       <c r="E81" s="3">
-        <v>770200</v>
+        <v>776400</v>
       </c>
       <c r="F81" s="3">
-        <v>539600</v>
+        <v>784000</v>
       </c>
       <c r="G81" s="3">
-        <v>488800</v>
+        <v>549200</v>
       </c>
       <c r="H81" s="3">
-        <v>476100</v>
+        <v>497500</v>
       </c>
       <c r="I81" s="3">
-        <v>487700</v>
+        <v>484600</v>
       </c>
       <c r="J81" s="3">
+        <v>496500</v>
+      </c>
+      <c r="K81" s="3">
         <v>250700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>199100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>253200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>105900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-150500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>189700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>235800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>197200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>263500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>271700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>168000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>297600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>512700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>230000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>679900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>283900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>423700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>190200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>453900</v>
+        <v>467400</v>
       </c>
       <c r="E83" s="3">
-        <v>469800</v>
+        <v>462000</v>
       </c>
       <c r="F83" s="3">
-        <v>446500</v>
+        <v>478100</v>
       </c>
       <c r="G83" s="3">
-        <v>428500</v>
+        <v>454500</v>
       </c>
       <c r="H83" s="3">
-        <v>415800</v>
+        <v>436100</v>
       </c>
       <c r="I83" s="3">
-        <v>420000</v>
+        <v>423200</v>
       </c>
       <c r="J83" s="3">
+        <v>427500</v>
+      </c>
+      <c r="K83" s="3">
         <v>402000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>375700</v>
       </c>
       <c r="L83" s="3">
         <v>375700</v>
       </c>
       <c r="M83" s="3">
+        <v>375700</v>
+      </c>
+      <c r="N83" s="3">
         <v>393400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>416700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>281100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>291900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>298900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>280000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>274100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>272100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>267300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>240500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>237900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>228900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>230000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>226600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>475400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>234800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>666500</v>
+        <v>695700</v>
       </c>
       <c r="E89" s="3">
-        <v>1667400</v>
+        <v>678400</v>
       </c>
       <c r="F89" s="3">
-        <v>1052700</v>
+        <v>1697200</v>
       </c>
       <c r="G89" s="3">
-        <v>649600</v>
+        <v>1071500</v>
       </c>
       <c r="H89" s="3">
-        <v>841100</v>
+        <v>661200</v>
       </c>
       <c r="I89" s="3">
-        <v>1027300</v>
+        <v>856100</v>
       </c>
       <c r="J89" s="3">
+        <v>1045700</v>
+      </c>
+      <c r="K89" s="3">
         <v>810400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>756400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>599200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>774300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>580400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>397400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>211300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>837900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>464700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>250600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>365500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>760600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>506200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>344500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>184000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>690000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>593500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>679600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>331000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>518800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-579800</v>
+        <v>-566000</v>
       </c>
       <c r="E91" s="3">
-        <v>-820000</v>
+        <v>-605000</v>
       </c>
       <c r="F91" s="3">
-        <v>-502600</v>
+        <v>-866000</v>
       </c>
       <c r="G91" s="3">
-        <v>-474000</v>
+        <v>-542000</v>
       </c>
       <c r="H91" s="3">
-        <v>-375600</v>
+        <v>-494000</v>
       </c>
       <c r="I91" s="3">
-        <v>-570300</v>
+        <v>-408000</v>
       </c>
       <c r="J91" s="3">
+        <v>-597000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-245500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-269500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-237800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-285400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-236700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-234900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-251000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-374800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-360000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-369400</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-436500</v>
       </c>
       <c r="U91" s="3">
         <v>-436500</v>
       </c>
       <c r="V91" s="3">
+        <v>-436500</v>
+      </c>
+      <c r="W91" s="3">
         <v>-265700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-250200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-287200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-362400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-209800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-495300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-238300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-325100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-643300</v>
+        <v>-193800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1243200</v>
+        <v>-654800</v>
       </c>
       <c r="F94" s="3">
-        <v>-642200</v>
+        <v>-1265400</v>
       </c>
       <c r="G94" s="3">
-        <v>-137500</v>
+        <v>-653700</v>
       </c>
       <c r="H94" s="3">
-        <v>-559700</v>
+        <v>-140000</v>
       </c>
       <c r="I94" s="3">
-        <v>-868600</v>
+        <v>-569700</v>
       </c>
       <c r="J94" s="3">
+        <v>-884100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-697200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-474700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-346100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-762900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5681500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-215700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1211800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-463000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2329300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>76500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-230700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-449500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-427100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-142500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-299600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-537400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-458900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-285200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-314600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-495300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7261,16 +7495,19 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-291100</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-26500</v>
+        <v>-501800</v>
       </c>
       <c r="E100" s="3">
-        <v>-618900</v>
+        <v>-26900</v>
       </c>
       <c r="F100" s="3">
+        <v>-630000</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-65700</v>
+      </c>
+      <c r="H100" s="3">
+        <v>-1292300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-352100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-64500</v>
       </c>
-      <c r="G100" s="3">
-        <v>-1269600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-24300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-346000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-64500</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-311300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-196000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-587500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6578200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-404200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1363500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1763400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-357600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-353700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-23100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-234500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>4500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-116700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-282900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>9400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14800</v>
+        <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>29600</v>
+        <v>-15100</v>
       </c>
       <c r="F101" s="3">
-        <v>-18000</v>
+        <v>30200</v>
       </c>
       <c r="G101" s="3">
-        <v>4200</v>
+        <v>-18300</v>
       </c>
       <c r="H101" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I101" s="3">
-        <v>6300</v>
+        <v>4300</v>
       </c>
       <c r="J101" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K101" s="3">
         <v>1100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-13300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-44600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-37100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-19200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>12800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>9400</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-3500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-6600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>11200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-13500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-15300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-18000</v>
+        <v>2200</v>
       </c>
       <c r="E102" s="3">
-        <v>-165000</v>
+        <v>-18300</v>
       </c>
       <c r="F102" s="3">
-        <v>328000</v>
+        <v>-168000</v>
       </c>
       <c r="G102" s="3">
-        <v>-753300</v>
+        <v>333800</v>
       </c>
       <c r="H102" s="3">
-        <v>261300</v>
+        <v>-766800</v>
       </c>
       <c r="I102" s="3">
-        <v>-180900</v>
+        <v>266000</v>
       </c>
       <c r="J102" s="3">
+        <v>-184100</v>
+      </c>
+      <c r="K102" s="3">
         <v>49700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>43900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-620700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1440000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-241600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>375900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>366300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-102300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-21200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>112400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-46100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>49400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-21300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-129000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>150300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>112700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>10600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>17600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -789,25 +789,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4436800</v>
+        <v>4466500</v>
       </c>
       <c r="E8" s="3">
-        <v>4254800</v>
+        <v>4283300</v>
       </c>
       <c r="F8" s="3">
-        <v>4461600</v>
+        <v>4491400</v>
       </c>
       <c r="G8" s="3">
-        <v>3896200</v>
+        <v>3922300</v>
       </c>
       <c r="H8" s="3">
-        <v>3551600</v>
+        <v>3575400</v>
       </c>
       <c r="I8" s="3">
-        <v>3401900</v>
+        <v>3424700</v>
       </c>
       <c r="J8" s="3">
-        <v>3238200</v>
+        <v>3259900</v>
       </c>
       <c r="K8" s="3">
         <v>2879900</v>
@@ -875,25 +875,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2369200</v>
+        <v>2385000</v>
       </c>
       <c r="E9" s="3">
-        <v>2245300</v>
+        <v>2260300</v>
       </c>
       <c r="F9" s="3">
-        <v>2480100</v>
+        <v>2496700</v>
       </c>
       <c r="G9" s="3">
-        <v>2212000</v>
+        <v>2226700</v>
       </c>
       <c r="H9" s="3">
-        <v>2026700</v>
+        <v>2040300</v>
       </c>
       <c r="I9" s="3">
-        <v>1989000</v>
+        <v>2002300</v>
       </c>
       <c r="J9" s="3">
-        <v>1905000</v>
+        <v>1917800</v>
       </c>
       <c r="K9" s="3">
         <v>1753100</v>
@@ -961,25 +961,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2067600</v>
+        <v>2081500</v>
       </c>
       <c r="E10" s="3">
-        <v>2009500</v>
+        <v>2022900</v>
       </c>
       <c r="F10" s="3">
-        <v>1981500</v>
+        <v>1994700</v>
       </c>
       <c r="G10" s="3">
-        <v>1684300</v>
+        <v>1695500</v>
       </c>
       <c r="H10" s="3">
-        <v>1524900</v>
+        <v>1535100</v>
       </c>
       <c r="I10" s="3">
-        <v>1412900</v>
+        <v>1422300</v>
       </c>
       <c r="J10" s="3">
-        <v>1333200</v>
+        <v>1342100</v>
       </c>
       <c r="K10" s="3">
         <v>1126800</v>
@@ -1079,25 +1079,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>524500</v>
+        <v>528000</v>
       </c>
       <c r="E12" s="3">
-        <v>521200</v>
+        <v>524700</v>
       </c>
       <c r="F12" s="3">
-        <v>523400</v>
+        <v>526900</v>
       </c>
       <c r="G12" s="3">
-        <v>501800</v>
+        <v>505200</v>
       </c>
       <c r="H12" s="3">
-        <v>477100</v>
+        <v>480300</v>
       </c>
       <c r="I12" s="3">
-        <v>426500</v>
+        <v>429300</v>
       </c>
       <c r="J12" s="3">
-        <v>428600</v>
+        <v>431500</v>
       </c>
       <c r="K12" s="3">
         <v>397800</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1349,10 +1349,10 @@
         <v>10</v>
       </c>
       <c r="H15" s="3">
-        <v>49500</v>
+        <v>49900</v>
       </c>
       <c r="I15" s="3">
-        <v>49500</v>
+        <v>49900</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>10</v>
@@ -1452,25 +1452,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3281300</v>
+        <v>3303300</v>
       </c>
       <c r="E17" s="3">
-        <v>3214500</v>
+        <v>3236000</v>
       </c>
       <c r="F17" s="3">
-        <v>3469800</v>
+        <v>3493000</v>
       </c>
       <c r="G17" s="3">
-        <v>3153200</v>
+        <v>3174200</v>
       </c>
       <c r="H17" s="3">
-        <v>2889300</v>
+        <v>2908600</v>
       </c>
       <c r="I17" s="3">
-        <v>2737500</v>
+        <v>2755800</v>
       </c>
       <c r="J17" s="3">
-        <v>2725600</v>
+        <v>2743900</v>
       </c>
       <c r="K17" s="3">
         <v>2513800</v>
@@ -1538,25 +1538,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1155500</v>
+        <v>1163200</v>
       </c>
       <c r="E18" s="3">
-        <v>1040300</v>
+        <v>1047200</v>
       </c>
       <c r="F18" s="3">
-        <v>991800</v>
+        <v>998500</v>
       </c>
       <c r="G18" s="3">
-        <v>743100</v>
+        <v>748000</v>
       </c>
       <c r="H18" s="3">
-        <v>662300</v>
+        <v>666700</v>
       </c>
       <c r="I18" s="3">
-        <v>664400</v>
+        <v>668900</v>
       </c>
       <c r="J18" s="3">
-        <v>512600</v>
+        <v>516000</v>
       </c>
       <c r="K18" s="3">
         <v>366100</v>
@@ -1656,25 +1656,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="E20" s="3">
-        <v>-22600</v>
+        <v>-22800</v>
       </c>
       <c r="F20" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="G20" s="3">
-        <v>-33400</v>
+        <v>-33600</v>
       </c>
       <c r="H20" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="I20" s="3">
-        <v>-42000</v>
+        <v>-42300</v>
       </c>
       <c r="J20" s="3">
-        <v>-29100</v>
+        <v>-29300</v>
       </c>
       <c r="K20" s="3">
         <v>-55000</v>
@@ -1742,25 +1742,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1613200</v>
+        <v>1624000</v>
       </c>
       <c r="E21" s="3">
-        <v>1479700</v>
+        <v>1489600</v>
       </c>
       <c r="F21" s="3">
-        <v>1443000</v>
+        <v>1452700</v>
       </c>
       <c r="G21" s="3">
-        <v>1164100</v>
+        <v>1171900</v>
       </c>
       <c r="H21" s="3">
-        <v>1071500</v>
+        <v>1078700</v>
       </c>
       <c r="I21" s="3">
-        <v>1045700</v>
+        <v>1052700</v>
       </c>
       <c r="J21" s="3">
-        <v>911100</v>
+        <v>917100</v>
       </c>
       <c r="K21" s="3">
         <v>713100</v>
@@ -1914,25 +1914,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1145800</v>
+        <v>1153500</v>
       </c>
       <c r="E23" s="3">
-        <v>1017700</v>
+        <v>1024500</v>
       </c>
       <c r="F23" s="3">
-        <v>964900</v>
+        <v>971400</v>
       </c>
       <c r="G23" s="3">
-        <v>709700</v>
+        <v>714400</v>
       </c>
       <c r="H23" s="3">
-        <v>635400</v>
+        <v>639600</v>
       </c>
       <c r="I23" s="3">
-        <v>622400</v>
+        <v>626600</v>
       </c>
       <c r="J23" s="3">
-        <v>483500</v>
+        <v>486800</v>
       </c>
       <c r="K23" s="3">
         <v>311100</v>
@@ -2000,25 +2000,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>256300</v>
+        <v>258000</v>
       </c>
       <c r="E24" s="3">
-        <v>232600</v>
+        <v>234200</v>
       </c>
       <c r="F24" s="3">
-        <v>177700</v>
+        <v>178900</v>
       </c>
       <c r="G24" s="3">
-        <v>144300</v>
+        <v>145300</v>
       </c>
       <c r="H24" s="3">
-        <v>130300</v>
+        <v>131200</v>
       </c>
       <c r="I24" s="3">
-        <v>126000</v>
+        <v>126800</v>
       </c>
       <c r="J24" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="K24" s="3">
         <v>51800</v>
@@ -2172,25 +2172,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>889500</v>
+        <v>895500</v>
       </c>
       <c r="E26" s="3">
-        <v>785100</v>
+        <v>790300</v>
       </c>
       <c r="F26" s="3">
-        <v>787200</v>
+        <v>792500</v>
       </c>
       <c r="G26" s="3">
-        <v>565400</v>
+        <v>569200</v>
       </c>
       <c r="H26" s="3">
-        <v>505100</v>
+        <v>508400</v>
       </c>
       <c r="I26" s="3">
-        <v>496500</v>
+        <v>499800</v>
       </c>
       <c r="J26" s="3">
-        <v>500800</v>
+        <v>504100</v>
       </c>
       <c r="K26" s="3">
         <v>259200</v>
@@ -2258,25 +2258,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>880900</v>
+        <v>886800</v>
       </c>
       <c r="E27" s="3">
-        <v>777500</v>
+        <v>782700</v>
       </c>
       <c r="F27" s="3">
-        <v>779700</v>
+        <v>784900</v>
       </c>
       <c r="G27" s="3">
-        <v>557800</v>
+        <v>561600</v>
       </c>
       <c r="H27" s="3">
-        <v>497500</v>
+        <v>500900</v>
       </c>
       <c r="I27" s="3">
-        <v>488900</v>
+        <v>492200</v>
       </c>
       <c r="J27" s="3">
-        <v>497500</v>
+        <v>500900</v>
       </c>
       <c r="K27" s="3">
         <v>250700</v>
@@ -2439,7 +2439,7 @@
         <v>4300</v>
       </c>
       <c r="G29" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -2688,25 +2688,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="E32" s="3">
-        <v>22600</v>
+        <v>22800</v>
       </c>
       <c r="F32" s="3">
-        <v>26900</v>
+        <v>27100</v>
       </c>
       <c r="G32" s="3">
-        <v>33400</v>
+        <v>33600</v>
       </c>
       <c r="H32" s="3">
-        <v>26900</v>
+        <v>27100</v>
       </c>
       <c r="I32" s="3">
-        <v>42000</v>
+        <v>42300</v>
       </c>
       <c r="J32" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="K32" s="3">
         <v>55000</v>
@@ -2774,25 +2774,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>879800</v>
+        <v>885700</v>
       </c>
       <c r="E33" s="3">
-        <v>776400</v>
+        <v>781600</v>
       </c>
       <c r="F33" s="3">
-        <v>784000</v>
+        <v>789200</v>
       </c>
       <c r="G33" s="3">
-        <v>549200</v>
+        <v>552900</v>
       </c>
       <c r="H33" s="3">
-        <v>497500</v>
+        <v>500900</v>
       </c>
       <c r="I33" s="3">
-        <v>484600</v>
+        <v>487800</v>
       </c>
       <c r="J33" s="3">
-        <v>496500</v>
+        <v>499800</v>
       </c>
       <c r="K33" s="3">
         <v>250700</v>
@@ -2946,25 +2946,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>879800</v>
+        <v>885700</v>
       </c>
       <c r="E35" s="3">
-        <v>776400</v>
+        <v>781600</v>
       </c>
       <c r="F35" s="3">
-        <v>784000</v>
+        <v>789200</v>
       </c>
       <c r="G35" s="3">
-        <v>549200</v>
+        <v>552900</v>
       </c>
       <c r="H35" s="3">
-        <v>497500</v>
+        <v>500900</v>
       </c>
       <c r="I35" s="3">
-        <v>484600</v>
+        <v>487800</v>
       </c>
       <c r="J35" s="3">
-        <v>496500</v>
+        <v>499800</v>
       </c>
       <c r="K35" s="3">
         <v>250700</v>
@@ -3187,25 +3187,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1532400</v>
+        <v>1542700</v>
       </c>
       <c r="E41" s="3">
-        <v>1530300</v>
+        <v>1540500</v>
       </c>
       <c r="F41" s="3">
-        <v>1548600</v>
+        <v>1558900</v>
       </c>
       <c r="G41" s="3">
-        <v>1716600</v>
+        <v>1728100</v>
       </c>
       <c r="H41" s="3">
-        <v>1382700</v>
+        <v>1392000</v>
       </c>
       <c r="I41" s="3">
-        <v>2149500</v>
+        <v>2163900</v>
       </c>
       <c r="J41" s="3">
-        <v>1883500</v>
+        <v>1896100</v>
       </c>
       <c r="K41" s="3">
         <v>2031400</v>
@@ -3273,25 +3273,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2178600</v>
+        <v>2193100</v>
       </c>
       <c r="E42" s="3">
-        <v>2462900</v>
+        <v>2479300</v>
       </c>
       <c r="F42" s="3">
-        <v>2454300</v>
+        <v>2470700</v>
       </c>
       <c r="G42" s="3">
-        <v>2126900</v>
+        <v>2141100</v>
       </c>
       <c r="H42" s="3">
-        <v>2068700</v>
+        <v>2082600</v>
       </c>
       <c r="I42" s="3">
-        <v>2463900</v>
+        <v>2480400</v>
       </c>
       <c r="J42" s="3">
-        <v>2340100</v>
+        <v>2355700</v>
       </c>
       <c r="K42" s="3">
         <v>2055700</v>
@@ -3359,25 +3359,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2275500</v>
+        <v>2290700</v>
       </c>
       <c r="E43" s="3">
-        <v>2060100</v>
+        <v>2073900</v>
       </c>
       <c r="F43" s="3">
-        <v>2186100</v>
+        <v>2200700</v>
       </c>
       <c r="G43" s="3">
-        <v>2087000</v>
+        <v>2101000</v>
       </c>
       <c r="H43" s="3">
-        <v>1922300</v>
+        <v>1935100</v>
       </c>
       <c r="I43" s="3">
-        <v>1710100</v>
+        <v>1721600</v>
       </c>
       <c r="J43" s="3">
-        <v>1746700</v>
+        <v>1758400</v>
       </c>
       <c r="K43" s="3">
         <v>1437800</v>
@@ -3445,25 +3445,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3768100</v>
+        <v>3793300</v>
       </c>
       <c r="E44" s="3">
-        <v>3488100</v>
+        <v>3511400</v>
       </c>
       <c r="F44" s="3">
-        <v>3317900</v>
+        <v>3340100</v>
       </c>
       <c r="G44" s="3">
-        <v>3051900</v>
+        <v>3072300</v>
       </c>
       <c r="H44" s="3">
-        <v>2735300</v>
+        <v>2753600</v>
       </c>
       <c r="I44" s="3">
-        <v>2497300</v>
+        <v>2514000</v>
       </c>
       <c r="J44" s="3">
-        <v>2348700</v>
+        <v>2364400</v>
       </c>
       <c r="K44" s="3">
         <v>2172100</v>
@@ -3531,25 +3531,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>831400</v>
+        <v>836900</v>
       </c>
       <c r="E45" s="3">
-        <v>746300</v>
+        <v>751300</v>
       </c>
       <c r="F45" s="3">
-        <v>673100</v>
+        <v>677600</v>
       </c>
       <c r="G45" s="3">
-        <v>698900</v>
+        <v>703600</v>
       </c>
       <c r="H45" s="3">
-        <v>576100</v>
+        <v>580000</v>
       </c>
       <c r="I45" s="3">
-        <v>496500</v>
+        <v>499800</v>
       </c>
       <c r="J45" s="3">
-        <v>567500</v>
+        <v>571300</v>
       </c>
       <c r="K45" s="3">
         <v>630600</v>
@@ -3617,25 +3617,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10585900</v>
+        <v>10656700</v>
       </c>
       <c r="E46" s="3">
-        <v>10287600</v>
+        <v>10356400</v>
       </c>
       <c r="F46" s="3">
-        <v>10179900</v>
+        <v>10248000</v>
       </c>
       <c r="G46" s="3">
-        <v>9681300</v>
+        <v>9746100</v>
       </c>
       <c r="H46" s="3">
-        <v>8685200</v>
+        <v>8743300</v>
       </c>
       <c r="I46" s="3">
-        <v>9317300</v>
+        <v>9379600</v>
       </c>
       <c r="J46" s="3">
-        <v>8886600</v>
+        <v>8946000</v>
       </c>
       <c r="K46" s="3">
         <v>8327500</v>
@@ -3703,25 +3703,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>106600</v>
+        <v>107300</v>
       </c>
       <c r="E47" s="3">
-        <v>106600</v>
+        <v>107300</v>
       </c>
       <c r="F47" s="3">
-        <v>109800</v>
+        <v>110600</v>
       </c>
       <c r="G47" s="3">
-        <v>109800</v>
+        <v>110600</v>
       </c>
       <c r="H47" s="3">
-        <v>99100</v>
+        <v>99700</v>
       </c>
       <c r="I47" s="3">
-        <v>82900</v>
+        <v>83500</v>
       </c>
       <c r="J47" s="3">
-        <v>77500</v>
+        <v>78100</v>
       </c>
       <c r="K47" s="3">
         <v>66700</v>
@@ -3789,25 +3789,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6839400</v>
+        <v>6885100</v>
       </c>
       <c r="E48" s="3">
-        <v>6611100</v>
+        <v>6655300</v>
       </c>
       <c r="F48" s="3">
-        <v>6407600</v>
+        <v>6450400</v>
       </c>
       <c r="G48" s="3">
-        <v>5813100</v>
+        <v>5852000</v>
       </c>
       <c r="H48" s="3">
-        <v>5524500</v>
+        <v>5561400</v>
       </c>
       <c r="I48" s="3">
-        <v>5303700</v>
+        <v>5339200</v>
       </c>
       <c r="J48" s="3">
-        <v>5146500</v>
+        <v>5180900</v>
       </c>
       <c r="K48" s="3">
         <v>4707000</v>
@@ -3875,25 +3875,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10132600</v>
+        <v>10200300</v>
       </c>
       <c r="E49" s="3">
-        <v>10391000</v>
+        <v>10460500</v>
       </c>
       <c r="F49" s="3">
-        <v>11378500</v>
+        <v>11454600</v>
       </c>
       <c r="G49" s="3">
-        <v>10821800</v>
+        <v>10894100</v>
       </c>
       <c r="H49" s="3">
-        <v>10248900</v>
+        <v>10317400</v>
       </c>
       <c r="I49" s="3">
-        <v>10156200</v>
+        <v>10224100</v>
       </c>
       <c r="J49" s="3">
-        <v>10027000</v>
+        <v>10094100</v>
       </c>
       <c r="K49" s="3">
         <v>9704000</v>
@@ -4133,25 +4133,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>803400</v>
+        <v>808700</v>
       </c>
       <c r="E52" s="3">
-        <v>919700</v>
+        <v>925800</v>
       </c>
       <c r="F52" s="3">
-        <v>905700</v>
+        <v>911700</v>
       </c>
       <c r="G52" s="3">
-        <v>943400</v>
+        <v>949700</v>
       </c>
       <c r="H52" s="3">
-        <v>939100</v>
+        <v>945300</v>
       </c>
       <c r="I52" s="3">
-        <v>983200</v>
+        <v>989800</v>
       </c>
       <c r="J52" s="3">
-        <v>990700</v>
+        <v>997400</v>
       </c>
       <c r="K52" s="3">
         <v>837900</v>
@@ -4305,25 +4305,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28467900</v>
+        <v>28658200</v>
       </c>
       <c r="E54" s="3">
-        <v>28316000</v>
+        <v>28505300</v>
       </c>
       <c r="F54" s="3">
-        <v>28981500</v>
+        <v>29175300</v>
       </c>
       <c r="G54" s="3">
-        <v>27369400</v>
+        <v>27552400</v>
       </c>
       <c r="H54" s="3">
-        <v>25496700</v>
+        <v>25667200</v>
       </c>
       <c r="I54" s="3">
-        <v>25843400</v>
+        <v>26016200</v>
       </c>
       <c r="J54" s="3">
-        <v>25128400</v>
+        <v>25296400</v>
       </c>
       <c r="K54" s="3">
         <v>23643100</v>
@@ -4455,25 +4455,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2237800</v>
+        <v>2252800</v>
       </c>
       <c r="E57" s="3">
-        <v>2193600</v>
+        <v>2208300</v>
       </c>
       <c r="F57" s="3">
-        <v>2433800</v>
+        <v>2450100</v>
       </c>
       <c r="G57" s="3">
-        <v>2006300</v>
+        <v>2019700</v>
       </c>
       <c r="H57" s="3">
-        <v>1913700</v>
+        <v>1926400</v>
       </c>
       <c r="I57" s="3">
-        <v>1811300</v>
+        <v>1823500</v>
       </c>
       <c r="J57" s="3">
-        <v>1689700</v>
+        <v>1701000</v>
       </c>
       <c r="K57" s="3">
         <v>1351100</v>
@@ -4541,25 +4541,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>886300</v>
+        <v>892200</v>
       </c>
       <c r="E58" s="3">
-        <v>887400</v>
+        <v>893300</v>
       </c>
       <c r="F58" s="3">
-        <v>891700</v>
+        <v>897600</v>
       </c>
       <c r="G58" s="3">
-        <v>890600</v>
+        <v>896600</v>
       </c>
       <c r="H58" s="3">
-        <v>76500</v>
+        <v>77000</v>
       </c>
       <c r="I58" s="3">
-        <v>976700</v>
+        <v>983300</v>
       </c>
       <c r="J58" s="3">
-        <v>968100</v>
+        <v>974600</v>
       </c>
       <c r="K58" s="3">
         <v>938400</v>
@@ -4627,25 +4627,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2494100</v>
+        <v>2510800</v>
       </c>
       <c r="E59" s="3">
-        <v>2551200</v>
+        <v>2568200</v>
       </c>
       <c r="F59" s="3">
-        <v>2692300</v>
+        <v>2710300</v>
       </c>
       <c r="G59" s="3">
-        <v>2514600</v>
+        <v>2531400</v>
       </c>
       <c r="H59" s="3">
-        <v>2070900</v>
+        <v>2084700</v>
       </c>
       <c r="I59" s="3">
-        <v>1970700</v>
+        <v>1983900</v>
       </c>
       <c r="J59" s="3">
-        <v>2126900</v>
+        <v>2141100</v>
       </c>
       <c r="K59" s="3">
         <v>1919200</v>
@@ -4713,25 +4713,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5618200</v>
+        <v>5655700</v>
       </c>
       <c r="E60" s="3">
-        <v>5632200</v>
+        <v>5669800</v>
       </c>
       <c r="F60" s="3">
-        <v>6017700</v>
+        <v>6058000</v>
       </c>
       <c r="G60" s="3">
-        <v>5411400</v>
+        <v>5447600</v>
       </c>
       <c r="H60" s="3">
-        <v>4061000</v>
+        <v>4088100</v>
       </c>
       <c r="I60" s="3">
-        <v>4758800</v>
+        <v>4790600</v>
       </c>
       <c r="J60" s="3">
-        <v>4784700</v>
+        <v>4816700</v>
       </c>
       <c r="K60" s="3">
         <v>4208700</v>
@@ -4799,25 +4799,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5373700</v>
+        <v>5409700</v>
       </c>
       <c r="E61" s="3">
-        <v>5387700</v>
+        <v>5423800</v>
       </c>
       <c r="F61" s="3">
-        <v>5621400</v>
+        <v>5659000</v>
       </c>
       <c r="G61" s="3">
-        <v>6038200</v>
+        <v>6078500</v>
       </c>
       <c r="H61" s="3">
-        <v>6631600</v>
+        <v>6675900</v>
       </c>
       <c r="I61" s="3">
-        <v>6551900</v>
+        <v>6595700</v>
       </c>
       <c r="J61" s="3">
-        <v>6479700</v>
+        <v>6523000</v>
       </c>
       <c r="K61" s="3">
         <v>6587100</v>
@@ -4885,25 +4885,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1117800</v>
+        <v>1125300</v>
       </c>
       <c r="E62" s="3">
-        <v>1213700</v>
+        <v>1221800</v>
       </c>
       <c r="F62" s="3">
-        <v>1249200</v>
+        <v>1257600</v>
       </c>
       <c r="G62" s="3">
-        <v>1277200</v>
+        <v>1285700</v>
       </c>
       <c r="H62" s="3">
-        <v>1436600</v>
+        <v>1446200</v>
       </c>
       <c r="I62" s="3">
-        <v>1564700</v>
+        <v>1575200</v>
       </c>
       <c r="J62" s="3">
-        <v>1586300</v>
+        <v>1596900</v>
       </c>
       <c r="K62" s="3">
         <v>1573200</v>
@@ -5229,25 +5229,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12109700</v>
+        <v>12190700</v>
       </c>
       <c r="E66" s="3">
-        <v>12233600</v>
+        <v>12315400</v>
       </c>
       <c r="F66" s="3">
-        <v>12888300</v>
+        <v>12974500</v>
       </c>
       <c r="G66" s="3">
-        <v>12726800</v>
+        <v>12811900</v>
       </c>
       <c r="H66" s="3">
-        <v>12129100</v>
+        <v>12210200</v>
       </c>
       <c r="I66" s="3">
-        <v>12875400</v>
+        <v>12961500</v>
       </c>
       <c r="J66" s="3">
-        <v>12850600</v>
+        <v>12936600</v>
       </c>
       <c r="K66" s="3">
         <v>12369100</v>
@@ -5691,25 +5691,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4978500</v>
+        <v>5011800</v>
       </c>
       <c r="E72" s="3">
-        <v>4879400</v>
+        <v>4912100</v>
       </c>
       <c r="F72" s="3">
-        <v>3775600</v>
+        <v>3800900</v>
       </c>
       <c r="G72" s="3">
-        <v>3507500</v>
+        <v>3530900</v>
       </c>
       <c r="H72" s="3">
-        <v>2208700</v>
+        <v>2223500</v>
       </c>
       <c r="I72" s="3">
-        <v>1998700</v>
+        <v>2012100</v>
       </c>
       <c r="J72" s="3">
-        <v>1515200</v>
+        <v>1525300</v>
       </c>
       <c r="K72" s="3">
         <v>421100</v>
@@ -6035,25 +6035,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16358100</v>
+        <v>16467500</v>
       </c>
       <c r="E76" s="3">
-        <v>16082400</v>
+        <v>16189900</v>
       </c>
       <c r="F76" s="3">
-        <v>16093200</v>
+        <v>16200800</v>
       </c>
       <c r="G76" s="3">
-        <v>14642600</v>
+        <v>14740500</v>
       </c>
       <c r="H76" s="3">
-        <v>13367600</v>
+        <v>13456900</v>
       </c>
       <c r="I76" s="3">
-        <v>12968000</v>
+        <v>13054700</v>
       </c>
       <c r="J76" s="3">
-        <v>12277700</v>
+        <v>12359800</v>
       </c>
       <c r="K76" s="3">
         <v>11274000</v>
@@ -6298,25 +6298,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>879800</v>
+        <v>885700</v>
       </c>
       <c r="E81" s="3">
-        <v>776400</v>
+        <v>781600</v>
       </c>
       <c r="F81" s="3">
-        <v>784000</v>
+        <v>789200</v>
       </c>
       <c r="G81" s="3">
-        <v>549200</v>
+        <v>552900</v>
       </c>
       <c r="H81" s="3">
-        <v>497500</v>
+        <v>500900</v>
       </c>
       <c r="I81" s="3">
-        <v>484600</v>
+        <v>487800</v>
       </c>
       <c r="J81" s="3">
-        <v>496500</v>
+        <v>499800</v>
       </c>
       <c r="K81" s="3">
         <v>250700</v>
@@ -6416,25 +6416,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>467400</v>
+        <v>470500</v>
       </c>
       <c r="E83" s="3">
-        <v>462000</v>
+        <v>465100</v>
       </c>
       <c r="F83" s="3">
-        <v>478100</v>
+        <v>481300</v>
       </c>
       <c r="G83" s="3">
-        <v>454500</v>
+        <v>457500</v>
       </c>
       <c r="H83" s="3">
-        <v>436100</v>
+        <v>439100</v>
       </c>
       <c r="I83" s="3">
-        <v>423200</v>
+        <v>426100</v>
       </c>
       <c r="J83" s="3">
-        <v>427500</v>
+        <v>430400</v>
       </c>
       <c r="K83" s="3">
         <v>402000</v>
@@ -6932,25 +6932,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>695700</v>
+        <v>700300</v>
       </c>
       <c r="E89" s="3">
-        <v>678400</v>
+        <v>683000</v>
       </c>
       <c r="F89" s="3">
-        <v>1697200</v>
+        <v>1708500</v>
       </c>
       <c r="G89" s="3">
-        <v>1071500</v>
+        <v>1078700</v>
       </c>
       <c r="H89" s="3">
-        <v>661200</v>
+        <v>665600</v>
       </c>
       <c r="I89" s="3">
-        <v>856100</v>
+        <v>861900</v>
       </c>
       <c r="J89" s="3">
-        <v>1045700</v>
+        <v>1052700</v>
       </c>
       <c r="K89" s="3">
         <v>810400</v>
@@ -7308,25 +7308,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-193800</v>
+        <v>-195100</v>
       </c>
       <c r="E94" s="3">
-        <v>-654800</v>
+        <v>-659100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1265400</v>
+        <v>-1273800</v>
       </c>
       <c r="G94" s="3">
-        <v>-653700</v>
+        <v>-658000</v>
       </c>
       <c r="H94" s="3">
-        <v>-140000</v>
+        <v>-140900</v>
       </c>
       <c r="I94" s="3">
-        <v>-569700</v>
+        <v>-573500</v>
       </c>
       <c r="J94" s="3">
-        <v>-884100</v>
+        <v>-890000</v>
       </c>
       <c r="K94" s="3">
         <v>-697200</v>
@@ -7770,25 +7770,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-501800</v>
+        <v>-505200</v>
       </c>
       <c r="E100" s="3">
-        <v>-26900</v>
+        <v>-27100</v>
       </c>
       <c r="F100" s="3">
-        <v>-630000</v>
+        <v>-634200</v>
       </c>
       <c r="G100" s="3">
-        <v>-65700</v>
+        <v>-66100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1292300</v>
+        <v>-1300900</v>
       </c>
       <c r="I100" s="3">
-        <v>-24800</v>
+        <v>-24900</v>
       </c>
       <c r="J100" s="3">
-        <v>-352100</v>
+        <v>-354500</v>
       </c>
       <c r="K100" s="3">
         <v>-64500</v>
@@ -7859,13 +7859,13 @@
         <v>2200</v>
       </c>
       <c r="E101" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="F101" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="G101" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="H101" s="3">
         <v>4300</v>
@@ -7945,22 +7945,22 @@
         <v>2200</v>
       </c>
       <c r="E102" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="F102" s="3">
-        <v>-168000</v>
+        <v>-169100</v>
       </c>
       <c r="G102" s="3">
-        <v>333800</v>
+        <v>336100</v>
       </c>
       <c r="H102" s="3">
-        <v>-766800</v>
+        <v>-771900</v>
       </c>
       <c r="I102" s="3">
-        <v>266000</v>
+        <v>267800</v>
       </c>
       <c r="J102" s="3">
-        <v>-184100</v>
+        <v>-185400</v>
       </c>
       <c r="K102" s="3">
         <v>49700</v>

--- a/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFNNY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>IFNNY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4466500</v>
+        <v>4436600</v>
       </c>
       <c r="E8" s="3">
-        <v>4283300</v>
+        <v>4470200</v>
       </c>
       <c r="F8" s="3">
-        <v>4491400</v>
+        <v>4286800</v>
       </c>
       <c r="G8" s="3">
-        <v>3922300</v>
+        <v>4495200</v>
       </c>
       <c r="H8" s="3">
-        <v>3575400</v>
+        <v>3925500</v>
       </c>
       <c r="I8" s="3">
-        <v>3424700</v>
+        <v>3578300</v>
       </c>
       <c r="J8" s="3">
+        <v>3427500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3259900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2879900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2756200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2685700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2584400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2371600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2242400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2236800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2525900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2370400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2332800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2330300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2421400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2131200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2060000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1991500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6136200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2054400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>4006200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1932100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1966100</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2385000</v>
+        <v>2460800</v>
       </c>
       <c r="E9" s="3">
-        <v>2260300</v>
+        <v>2387000</v>
       </c>
       <c r="F9" s="3">
-        <v>2496700</v>
+        <v>2262200</v>
       </c>
       <c r="G9" s="3">
-        <v>2226700</v>
+        <v>2498800</v>
       </c>
       <c r="H9" s="3">
-        <v>2040300</v>
+        <v>2228600</v>
       </c>
       <c r="I9" s="3">
-        <v>2002300</v>
+        <v>2042000</v>
       </c>
       <c r="J9" s="3">
+        <v>2004000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1917800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1753100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1763900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1680200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1761300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1731300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1467800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1409100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1630500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1505800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1451700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1408800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1458500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1316500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1294800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1266700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3817000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1269000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2554200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1237200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1252500</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2081500</v>
+        <v>1975800</v>
       </c>
       <c r="E10" s="3">
-        <v>2022900</v>
+        <v>2083200</v>
       </c>
       <c r="F10" s="3">
-        <v>1994700</v>
+        <v>2024600</v>
       </c>
       <c r="G10" s="3">
-        <v>1695500</v>
+        <v>1996400</v>
       </c>
       <c r="H10" s="3">
-        <v>1535100</v>
+        <v>1696900</v>
       </c>
       <c r="I10" s="3">
-        <v>1422300</v>
+        <v>1536400</v>
       </c>
       <c r="J10" s="3">
+        <v>1423500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1342100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1126800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>992200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1005500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>823100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>640400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>774600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>827700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>895500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>864700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>881100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>921500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>962900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>814700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>765200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>724800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2319200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>785400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1452000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>694900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>713700</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>528000</v>
+        <v>538200</v>
       </c>
       <c r="E12" s="3">
-        <v>524700</v>
+        <v>528400</v>
       </c>
       <c r="F12" s="3">
-        <v>526900</v>
+        <v>525100</v>
       </c>
       <c r="G12" s="3">
-        <v>505200</v>
+        <v>527300</v>
       </c>
       <c r="H12" s="3">
-        <v>480300</v>
+        <v>505600</v>
       </c>
       <c r="I12" s="3">
-        <v>429300</v>
+        <v>480700</v>
       </c>
       <c r="J12" s="3">
+        <v>429700</v>
+      </c>
+      <c r="K12" s="3">
         <v>431500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>397800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>345000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>333800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>318600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>350200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>272100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>283700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>281700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>285900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>277600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>279200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>263800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>239400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>223300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>218800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>642900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>218800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>460100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>234800</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>211300</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1256,41 +1276,41 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11300</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1307,8 +1327,8 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1322,8 +1342,8 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>10</v>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>10</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1348,47 +1371,47 @@
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="3">
-        <v>49900</v>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I15" s="3">
         <v>49900</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>10</v>
+      <c r="J15" s="3">
+        <v>49900</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="3">
         <v>65300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>70400</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="3">
         <v>20300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>22200</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" s="3">
         <v>11800</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>10</v>
@@ -1396,11 +1419,11 @@
       <c r="W15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="3">
         <v>14600</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>10</v>
@@ -1408,8 +1431,8 @@
       <c r="AA15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB15" s="3">
-        <v>0</v>
+      <c r="AB15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3303300</v>
+        <v>3355900</v>
       </c>
       <c r="E17" s="3">
-        <v>3236000</v>
+        <v>3306000</v>
       </c>
       <c r="F17" s="3">
-        <v>3493000</v>
+        <v>3238700</v>
       </c>
       <c r="G17" s="3">
-        <v>3174200</v>
+        <v>3495900</v>
       </c>
       <c r="H17" s="3">
-        <v>2908600</v>
+        <v>3176900</v>
       </c>
       <c r="I17" s="3">
-        <v>2755800</v>
+        <v>2911100</v>
       </c>
       <c r="J17" s="3">
+        <v>2758100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2743900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2513800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2438700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2348900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2418300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2491600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1998500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1926200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2224600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2037500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1974000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1943500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1983700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1781000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1463100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1713300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5191400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1720000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3521400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1716100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1696200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1163200</v>
+        <v>1080700</v>
       </c>
       <c r="E18" s="3">
-        <v>1047200</v>
+        <v>1164200</v>
       </c>
       <c r="F18" s="3">
-        <v>998500</v>
+        <v>1048100</v>
       </c>
       <c r="G18" s="3">
-        <v>748000</v>
+        <v>999300</v>
       </c>
       <c r="H18" s="3">
-        <v>666700</v>
+        <v>748700</v>
       </c>
       <c r="I18" s="3">
-        <v>668900</v>
+        <v>667300</v>
       </c>
       <c r="J18" s="3">
+        <v>669400</v>
+      </c>
+      <c r="K18" s="3">
         <v>516000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>366100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>317500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>336900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>166100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-120000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>243900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>310500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>301300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>332900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>358800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>386800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>437700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>350300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>596900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>278300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>944700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>334400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>484800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>216000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>270000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-9800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-22800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-27100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-33600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-42300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-29300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-55000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-40800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-25500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-15600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-67600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-24500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-36500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-20100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-17700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-17600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-14600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-15700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-37000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-12300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-32900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-20000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-18800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1624000</v>
+        <v>1564600</v>
       </c>
       <c r="E21" s="3">
-        <v>1489600</v>
+        <v>1625300</v>
       </c>
       <c r="F21" s="3">
-        <v>1452700</v>
+        <v>1490800</v>
       </c>
       <c r="G21" s="3">
-        <v>1171900</v>
+        <v>1453900</v>
       </c>
       <c r="H21" s="3">
-        <v>1078700</v>
+        <v>1172900</v>
       </c>
       <c r="I21" s="3">
-        <v>1052700</v>
+        <v>1079600</v>
       </c>
       <c r="J21" s="3">
+        <v>1053500</v>
+      </c>
+      <c r="K21" s="3">
         <v>917100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>713100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>652300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>687000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>543900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>229100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>505800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>587200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>575700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>576400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>621100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>638800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>687300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>573200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>820200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>491400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2048800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>94200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>927300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>430800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>489500</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1878,14 +1918,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>10</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1899,8 +1939,8 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>10</v>
+      <c r="AB22" s="3">
+        <v>0</v>
       </c>
       <c r="AC22" s="3" t="s">
         <v>10</v>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1153500</v>
+        <v>1087200</v>
       </c>
       <c r="E23" s="3">
-        <v>1024500</v>
+        <v>1154400</v>
       </c>
       <c r="F23" s="3">
-        <v>971400</v>
+        <v>1025300</v>
       </c>
       <c r="G23" s="3">
-        <v>714400</v>
+        <v>972200</v>
       </c>
       <c r="H23" s="3">
-        <v>639600</v>
+        <v>715000</v>
       </c>
       <c r="I23" s="3">
-        <v>626600</v>
+        <v>640200</v>
       </c>
       <c r="J23" s="3">
+        <v>627100</v>
+      </c>
+      <c r="K23" s="3">
         <v>486800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>311100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>276600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>311300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>150500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-187600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>224700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>295400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>276800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>296500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>347000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>366700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>419900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>332700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>582300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>262500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>907700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>322000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>451900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>196000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>251200</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>258000</v>
+        <v>181200</v>
       </c>
       <c r="E24" s="3">
-        <v>234200</v>
+        <v>258200</v>
       </c>
       <c r="F24" s="3">
-        <v>178900</v>
+        <v>234400</v>
       </c>
       <c r="G24" s="3">
-        <v>145300</v>
+        <v>179000</v>
       </c>
       <c r="H24" s="3">
-        <v>131200</v>
+        <v>145400</v>
       </c>
       <c r="I24" s="3">
-        <v>126800</v>
+        <v>131300</v>
       </c>
       <c r="J24" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-17300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>51800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>63300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>50000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-48000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>50200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>77200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>32900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>54100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>66200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>63900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>53800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>69600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>31400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>228900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>41500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>24700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>1200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-16400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>895500</v>
+        <v>906000</v>
       </c>
       <c r="E26" s="3">
-        <v>790300</v>
+        <v>896200</v>
       </c>
       <c r="F26" s="3">
-        <v>792500</v>
+        <v>791000</v>
       </c>
       <c r="G26" s="3">
-        <v>569200</v>
+        <v>793100</v>
       </c>
       <c r="H26" s="3">
-        <v>508400</v>
+        <v>569600</v>
       </c>
       <c r="I26" s="3">
-        <v>499800</v>
+        <v>508900</v>
       </c>
       <c r="J26" s="3">
+        <v>500200</v>
+      </c>
+      <c r="K26" s="3">
         <v>504100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>259200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>213300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>261300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>116200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-139600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>201000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>245200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>199700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>263500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>292900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>356100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>278900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>512700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>231100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>678800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>280500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>427300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>194900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>886800</v>
+        <v>898400</v>
       </c>
       <c r="E27" s="3">
-        <v>782700</v>
+        <v>887500</v>
       </c>
       <c r="F27" s="3">
-        <v>784900</v>
+        <v>783400</v>
       </c>
       <c r="G27" s="3">
-        <v>561600</v>
+        <v>785500</v>
       </c>
       <c r="H27" s="3">
+        <v>562000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>501300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>492600</v>
+      </c>
+      <c r="K27" s="3">
         <v>500900</v>
       </c>
-      <c r="I27" s="3">
-        <v>492200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>500900</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>250700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>205200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>253200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>109000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-150500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>189700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>235800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>199700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>263500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>292900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>356100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>278900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>512700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>231100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>678800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>280500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>427300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>194900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>267600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,47 +2482,50 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-1100</v>
+        <v>-4300</v>
       </c>
       <c r="E29" s="3">
         <v>-1100</v>
       </c>
       <c r="F29" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G29" s="3">
         <v>4300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-8700</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-4300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1100</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-6100</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-3100</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2472,46 +2533,49 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2400</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-21200</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-188100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>18700</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>1100</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>3400</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E32" s="3">
         <v>9800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>22800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>27100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>33600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>42300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>29300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>55000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>40800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>25500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>15600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>67600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>19200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>24500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>36500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>20100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>17700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>17600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>14600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>15700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>37000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>12300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>32900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>20000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>18800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>885700</v>
+        <v>894000</v>
       </c>
       <c r="E33" s="3">
-        <v>781600</v>
+        <v>886400</v>
       </c>
       <c r="F33" s="3">
-        <v>789200</v>
+        <v>782300</v>
       </c>
       <c r="G33" s="3">
-        <v>552900</v>
+        <v>789900</v>
       </c>
       <c r="H33" s="3">
-        <v>500900</v>
+        <v>553400</v>
       </c>
       <c r="I33" s="3">
-        <v>487800</v>
+        <v>501300</v>
       </c>
       <c r="J33" s="3">
+        <v>488300</v>
+      </c>
+      <c r="K33" s="3">
         <v>499800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>250700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>199100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>253200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>105900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-150500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>189700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>235800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>197200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>263500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>271700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>168000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>297600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>512700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>230000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>679900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>283900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>423700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>190200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>885700</v>
+        <v>894000</v>
       </c>
       <c r="E35" s="3">
-        <v>781600</v>
+        <v>886400</v>
       </c>
       <c r="F35" s="3">
-        <v>789200</v>
+        <v>782300</v>
       </c>
       <c r="G35" s="3">
-        <v>552900</v>
+        <v>789900</v>
       </c>
       <c r="H35" s="3">
-        <v>500900</v>
+        <v>553400</v>
       </c>
       <c r="I35" s="3">
-        <v>487800</v>
+        <v>501300</v>
       </c>
       <c r="J35" s="3">
+        <v>488300</v>
+      </c>
+      <c r="K35" s="3">
         <v>499800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>250700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>199100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>253200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>105900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-150500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>189700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>235800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>197200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>263500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>271700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>168000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>297600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>512700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>230000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>679900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>283900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>423700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>190200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,782 +3267,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1542700</v>
+        <v>1650300</v>
       </c>
       <c r="E41" s="3">
-        <v>1540500</v>
+        <v>1544000</v>
       </c>
       <c r="F41" s="3">
-        <v>1558900</v>
+        <v>1541800</v>
       </c>
       <c r="G41" s="3">
-        <v>1728100</v>
+        <v>1560200</v>
       </c>
       <c r="H41" s="3">
-        <v>1392000</v>
+        <v>1729500</v>
       </c>
       <c r="I41" s="3">
-        <v>2163900</v>
+        <v>1393100</v>
       </c>
       <c r="J41" s="3">
+        <v>2165700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1896100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2031400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1912000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1933400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1921200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2671600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1274800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1567800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1250700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>849400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>951700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>978300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>865900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>846600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>814600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>835900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>964900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>814600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>846300</v>
       </c>
-      <c r="AC41" s="3" t="s">
+      <c r="AD41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>733600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2193100</v>
+        <v>1589500</v>
       </c>
       <c r="E42" s="3">
-        <v>2479300</v>
+        <v>2195000</v>
       </c>
       <c r="F42" s="3">
-        <v>2470700</v>
+        <v>2481400</v>
       </c>
       <c r="G42" s="3">
-        <v>2141100</v>
+        <v>2472700</v>
       </c>
       <c r="H42" s="3">
-        <v>2082600</v>
+        <v>2142900</v>
       </c>
       <c r="I42" s="3">
-        <v>2480400</v>
+        <v>2084300</v>
       </c>
       <c r="J42" s="3">
+        <v>2482500</v>
+      </c>
+      <c r="K42" s="3">
         <v>2355700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2055700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1603700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1470000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1428200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1092000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3905600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>4104600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3378500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3191600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1262300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1749500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>2142200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2031300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1920800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1758200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1786200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1672900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1558800</v>
       </c>
-      <c r="AC42" s="3" t="s">
+      <c r="AD42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1895700</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2290700</v>
+        <v>2349000</v>
       </c>
       <c r="E43" s="3">
-        <v>2073900</v>
+        <v>2292600</v>
       </c>
       <c r="F43" s="3">
-        <v>2200700</v>
+        <v>2075600</v>
       </c>
       <c r="G43" s="3">
-        <v>2101000</v>
+        <v>2202600</v>
       </c>
       <c r="H43" s="3">
-        <v>1935100</v>
+        <v>2102700</v>
       </c>
       <c r="I43" s="3">
-        <v>1721600</v>
+        <v>1936700</v>
       </c>
       <c r="J43" s="3">
+        <v>1723000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1758400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1437800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1503600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1323000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1421900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1394200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1402300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1152200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1508000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1248200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1247000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1220800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1210100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1046400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>970500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>902100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3306500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>958200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>970700</v>
       </c>
-      <c r="AC43" s="3" t="s">
+      <c r="AD43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>915600</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3793300</v>
+        <v>4073100</v>
       </c>
       <c r="E44" s="3">
-        <v>3511400</v>
+        <v>3796400</v>
       </c>
       <c r="F44" s="3">
-        <v>3340100</v>
+        <v>3514300</v>
       </c>
       <c r="G44" s="3">
-        <v>3072300</v>
+        <v>3342900</v>
       </c>
       <c r="H44" s="3">
-        <v>2753600</v>
+        <v>3074900</v>
       </c>
       <c r="I44" s="3">
-        <v>2514000</v>
+        <v>2755900</v>
       </c>
       <c r="J44" s="3">
+        <v>2516100</v>
+      </c>
+      <c r="K44" s="3">
         <v>2364400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2172100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1977300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1995700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2129800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2416400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1960100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2062800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2083700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2068100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2006900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1882000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1750700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1524000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1464200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1438400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1391300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1396900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1441400</v>
       </c>
-      <c r="AC44" s="3" t="s">
+      <c r="AD44" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1398000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>836900</v>
+        <v>1001500</v>
       </c>
       <c r="E45" s="3">
-        <v>751300</v>
+        <v>837600</v>
       </c>
       <c r="F45" s="3">
-        <v>677600</v>
+        <v>751900</v>
       </c>
       <c r="G45" s="3">
-        <v>703600</v>
+        <v>678100</v>
       </c>
       <c r="H45" s="3">
-        <v>580000</v>
+        <v>704200</v>
       </c>
       <c r="I45" s="3">
-        <v>499800</v>
+        <v>580500</v>
       </c>
       <c r="J45" s="3">
+        <v>500200</v>
+      </c>
+      <c r="K45" s="3">
         <v>571300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>630600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>556300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>538000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>550100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>692700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>931500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>735500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>957900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>868200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>641100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>533500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>446000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>435900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>409500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>410600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>6195600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>356800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>336900</v>
       </c>
-      <c r="AC45" s="3" t="s">
+      <c r="AD45" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>329800</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10656700</v>
+        <v>10663400</v>
       </c>
       <c r="E46" s="3">
-        <v>10356400</v>
+        <v>10665600</v>
       </c>
       <c r="F46" s="3">
-        <v>10248000</v>
+        <v>10365000</v>
       </c>
       <c r="G46" s="3">
-        <v>9746100</v>
+        <v>10256500</v>
       </c>
       <c r="H46" s="3">
-        <v>8743300</v>
+        <v>9754200</v>
       </c>
       <c r="I46" s="3">
-        <v>9379600</v>
+        <v>8750500</v>
       </c>
       <c r="J46" s="3">
+        <v>9387400</v>
+      </c>
+      <c r="K46" s="3">
         <v>8946000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8327500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7552900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7259900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7451100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8266900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9474300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9623000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9178900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8225400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6109000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6364000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6414900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5884200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5579700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5345200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8448600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5199300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5154200</v>
       </c>
-      <c r="AC46" s="3" t="s">
+      <c r="AD46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>5272800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>107300</v>
+        <v>117200</v>
       </c>
       <c r="E47" s="3">
-        <v>107300</v>
+        <v>107400</v>
       </c>
       <c r="F47" s="3">
-        <v>110600</v>
+        <v>107400</v>
       </c>
       <c r="G47" s="3">
-        <v>110600</v>
+        <v>110700</v>
       </c>
       <c r="H47" s="3">
-        <v>99700</v>
+        <v>110700</v>
       </c>
       <c r="I47" s="3">
+        <v>99800</v>
+      </c>
+      <c r="J47" s="3">
         <v>83500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>78100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>66700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>80600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>81700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>91300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>118900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>82400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>85200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>35500</v>
-      </c>
-      <c r="S47" s="3">
-        <v>43500</v>
       </c>
       <c r="T47" s="3">
         <v>43500</v>
       </c>
       <c r="U47" s="3">
+        <v>43500</v>
+      </c>
+      <c r="V47" s="3">
         <v>39000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>43800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>43900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>42600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>31400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>11876300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>38100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>42300</v>
       </c>
-      <c r="AC47" s="3" t="s">
+      <c r="AD47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6885100</v>
+        <v>7315100</v>
       </c>
       <c r="E48" s="3">
-        <v>6655300</v>
+        <v>6890800</v>
       </c>
       <c r="F48" s="3">
-        <v>6450400</v>
+        <v>6660800</v>
       </c>
       <c r="G48" s="3">
-        <v>5852000</v>
+        <v>6455800</v>
       </c>
       <c r="H48" s="3">
-        <v>5561400</v>
+        <v>5856800</v>
       </c>
       <c r="I48" s="3">
-        <v>5339200</v>
+        <v>5566100</v>
       </c>
       <c r="J48" s="3">
+        <v>5343600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5180900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4707000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4553800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4469100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4562600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4741100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4239800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4402300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4299700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3993900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3886800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3777000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3593700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3132600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3128100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3085500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2983400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2851000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2974400</v>
       </c>
-      <c r="AC48" s="3" t="s">
+      <c r="AD48" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2487300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10200300</v>
+        <v>10170800</v>
       </c>
       <c r="E49" s="3">
-        <v>10460500</v>
+        <v>10208800</v>
       </c>
       <c r="F49" s="3">
-        <v>11454600</v>
+        <v>10469200</v>
       </c>
       <c r="G49" s="3">
-        <v>10894100</v>
+        <v>11464100</v>
       </c>
       <c r="H49" s="3">
-        <v>10317400</v>
+        <v>10903200</v>
       </c>
       <c r="I49" s="3">
-        <v>10224100</v>
+        <v>10325900</v>
       </c>
       <c r="J49" s="3">
+        <v>10232600</v>
+      </c>
+      <c r="K49" s="3">
         <v>10094100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9704000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9553700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9230100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9878700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10905800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4073800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2085000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4422200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2057500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2068100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2053500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1887900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1733700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1705400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1755900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1810900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1819900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1989600</v>
       </c>
-      <c r="AC49" s="3" t="s">
+      <c r="AD49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1943800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>808700</v>
+        <v>776900</v>
       </c>
       <c r="E52" s="3">
-        <v>925800</v>
+        <v>809400</v>
       </c>
       <c r="F52" s="3">
-        <v>911700</v>
+        <v>926600</v>
       </c>
       <c r="G52" s="3">
-        <v>949700</v>
+        <v>912500</v>
       </c>
       <c r="H52" s="3">
-        <v>945300</v>
+        <v>950500</v>
       </c>
       <c r="I52" s="3">
-        <v>989800</v>
+        <v>946100</v>
       </c>
       <c r="J52" s="3">
+        <v>990600</v>
+      </c>
+      <c r="K52" s="3">
         <v>997400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>837900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>838100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>834000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>849000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>920700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>838900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>868600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>911400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>914100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>942300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>930900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>928600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>858600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>843700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>926800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2890200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>913300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>961400</v>
       </c>
-      <c r="AC52" s="3" t="s">
+      <c r="AD52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>921400</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28658200</v>
+        <v>29043300</v>
       </c>
       <c r="E54" s="3">
-        <v>28505300</v>
+        <v>28682000</v>
       </c>
       <c r="F54" s="3">
-        <v>29175300</v>
+        <v>28529000</v>
       </c>
       <c r="G54" s="3">
-        <v>27552400</v>
+        <v>29199500</v>
       </c>
       <c r="H54" s="3">
-        <v>25667200</v>
+        <v>27575300</v>
       </c>
       <c r="I54" s="3">
-        <v>26016200</v>
+        <v>25688500</v>
       </c>
       <c r="J54" s="3">
+        <v>26037800</v>
+      </c>
+      <c r="K54" s="3">
         <v>25296400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23643100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22579100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21874700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22832800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24953500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16672300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17064000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16636600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15234400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13049800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13164500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12868800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11653100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11299600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11144700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11158200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10821600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>11121800</v>
       </c>
-      <c r="AC54" s="3" t="s">
+      <c r="AD54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>10666400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2252800</v>
+        <v>2379400</v>
       </c>
       <c r="E57" s="3">
-        <v>2208300</v>
+        <v>2254600</v>
       </c>
       <c r="F57" s="3">
-        <v>2450100</v>
+        <v>2210100</v>
       </c>
       <c r="G57" s="3">
-        <v>2019700</v>
+        <v>2452100</v>
       </c>
       <c r="H57" s="3">
-        <v>1926400</v>
+        <v>2021400</v>
       </c>
       <c r="I57" s="3">
-        <v>1823500</v>
+        <v>1928000</v>
       </c>
       <c r="J57" s="3">
+        <v>1825000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1701000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1351100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1299500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1150400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1204000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1190200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>997000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1077500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1334000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1269300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1327000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1407700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1397000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1110100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1073700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1069300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1144400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>987400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>971900</v>
       </c>
-      <c r="AC57" s="3" t="s">
+      <c r="AD57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1006000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>892200</v>
+        <v>424200</v>
       </c>
       <c r="E58" s="3">
-        <v>893300</v>
+        <v>893000</v>
       </c>
       <c r="F58" s="3">
-        <v>897600</v>
+        <v>894000</v>
       </c>
       <c r="G58" s="3">
-        <v>896600</v>
+        <v>898400</v>
       </c>
       <c r="H58" s="3">
+        <v>897300</v>
+      </c>
+      <c r="I58" s="3">
         <v>77000</v>
       </c>
-      <c r="I58" s="3">
-        <v>983300</v>
-      </c>
       <c r="J58" s="3">
+        <v>984100</v>
+      </c>
+      <c r="K58" s="3">
         <v>974600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>938400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>912600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>385900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>585400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>705800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>263100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>280200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>26900</v>
-      </c>
-      <c r="S58" s="3">
-        <v>32900</v>
       </c>
       <c r="T58" s="3">
         <v>32900</v>
       </c>
       <c r="U58" s="3">
+        <v>32900</v>
+      </c>
+      <c r="V58" s="3">
         <v>26000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>29600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>350300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>359000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>354500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1506800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>22400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>142000</v>
       </c>
-      <c r="AC58" s="3" t="s">
+      <c r="AD58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2510800</v>
+        <v>2722300</v>
       </c>
       <c r="E59" s="3">
-        <v>2568200</v>
+        <v>2512900</v>
       </c>
       <c r="F59" s="3">
-        <v>2710300</v>
+        <v>2570400</v>
       </c>
       <c r="G59" s="3">
-        <v>2531400</v>
+        <v>2712500</v>
       </c>
       <c r="H59" s="3">
-        <v>2084700</v>
+        <v>2533500</v>
       </c>
       <c r="I59" s="3">
-        <v>1983900</v>
+        <v>2086500</v>
       </c>
       <c r="J59" s="3">
+        <v>1985600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2141100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1919200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1708800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1631200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1791400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1604700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1253300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>967800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1349900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1167000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>845800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1057500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1154500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>795000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>695600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>711300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3932600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>802200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>694900</v>
       </c>
-      <c r="AC59" s="3" t="s">
+      <c r="AD59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5655700</v>
+        <v>5525900</v>
       </c>
       <c r="E60" s="3">
-        <v>5669800</v>
+        <v>5660400</v>
       </c>
       <c r="F60" s="3">
-        <v>6058000</v>
+        <v>5674600</v>
       </c>
       <c r="G60" s="3">
-        <v>5447600</v>
+        <v>6063000</v>
       </c>
       <c r="H60" s="3">
-        <v>4088100</v>
+        <v>5452100</v>
       </c>
       <c r="I60" s="3">
-        <v>4790600</v>
+        <v>4091500</v>
       </c>
       <c r="J60" s="3">
+        <v>4794600</v>
+      </c>
+      <c r="K60" s="3">
         <v>4816700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4208700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3920900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3167500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3580800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3500700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2513400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2325500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2710900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2469300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2205800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2491200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2581100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2255300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2128400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2135100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4049300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1812000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1808800</v>
       </c>
-      <c r="AC60" s="3" t="s">
+      <c r="AD60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1795900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5409700</v>
+        <v>5052800</v>
       </c>
       <c r="E61" s="3">
-        <v>5423800</v>
+        <v>5414200</v>
       </c>
       <c r="F61" s="3">
-        <v>5659000</v>
+        <v>5428300</v>
       </c>
       <c r="G61" s="3">
-        <v>6078500</v>
+        <v>5663700</v>
       </c>
       <c r="H61" s="3">
-        <v>6675900</v>
+        <v>6083600</v>
       </c>
       <c r="I61" s="3">
-        <v>6595700</v>
+        <v>6681400</v>
       </c>
       <c r="J61" s="3">
+        <v>6601100</v>
+      </c>
+      <c r="K61" s="3">
         <v>6523000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6587100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6411600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6757700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7019300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8053100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1743300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1800100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1879100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1772800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1789300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1787400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1782600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1658000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1648200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1675100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2259700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2063300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2225500</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
         <v>2056500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1125300</v>
+        <v>1096900</v>
       </c>
       <c r="E62" s="3">
-        <v>1221800</v>
+        <v>1126200</v>
       </c>
       <c r="F62" s="3">
-        <v>1257600</v>
+        <v>1222800</v>
       </c>
       <c r="G62" s="3">
-        <v>1285700</v>
+        <v>1258600</v>
       </c>
       <c r="H62" s="3">
-        <v>1446200</v>
+        <v>1286800</v>
       </c>
       <c r="I62" s="3">
-        <v>1575200</v>
+        <v>1447400</v>
       </c>
       <c r="J62" s="3">
+        <v>1576500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1596900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1573200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1510800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1566900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1626400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1989800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1181000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1323800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1471200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1277600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1215200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>893100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>880100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>803700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>814600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>788800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>880800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>777500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>820500</v>
       </c>
-      <c r="AC62" s="3" t="s">
+      <c r="AD62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>917900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12190700</v>
+        <v>11675700</v>
       </c>
       <c r="E66" s="3">
-        <v>12315400</v>
+        <v>12200800</v>
       </c>
       <c r="F66" s="3">
-        <v>12974500</v>
+        <v>12325600</v>
       </c>
       <c r="G66" s="3">
-        <v>12811900</v>
+        <v>12985300</v>
       </c>
       <c r="H66" s="3">
-        <v>12210200</v>
+        <v>12822500</v>
       </c>
       <c r="I66" s="3">
-        <v>12961500</v>
+        <v>12220400</v>
       </c>
       <c r="J66" s="3">
+        <v>12972300</v>
+      </c>
+      <c r="K66" s="3">
         <v>12936600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12369100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11843300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11492200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12226500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13543600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5437700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5449500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6061300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5519700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5210300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5171600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5243800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4717000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4591200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4599000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4834700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4652900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4854900</v>
       </c>
-      <c r="AC66" s="3" t="s">
+      <c r="AD66" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>4770400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5011800</v>
+        <v>6048900</v>
       </c>
       <c r="E72" s="3">
-        <v>4912100</v>
+        <v>5016000</v>
       </c>
       <c r="F72" s="3">
-        <v>3800900</v>
+        <v>4916100</v>
       </c>
       <c r="G72" s="3">
-        <v>3530900</v>
+        <v>3804000</v>
       </c>
       <c r="H72" s="3">
-        <v>2223500</v>
+        <v>3533800</v>
       </c>
       <c r="I72" s="3">
-        <v>2012100</v>
+        <v>2225300</v>
       </c>
       <c r="J72" s="3">
+        <v>2013800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1525300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>421100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>673700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-90900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>451500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>424400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>875100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>784500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>515700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>365900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>144700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>36700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-327700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-461200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-844900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1325100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3115800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1713300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2158600</v>
       </c>
-      <c r="AC72" s="3" t="s">
+      <c r="AD72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-2713800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16467500</v>
+        <v>17367600</v>
       </c>
       <c r="E76" s="3">
-        <v>16189900</v>
+        <v>16481200</v>
       </c>
       <c r="F76" s="3">
-        <v>16200800</v>
+        <v>16203400</v>
       </c>
       <c r="G76" s="3">
-        <v>14740500</v>
+        <v>16214200</v>
       </c>
       <c r="H76" s="3">
-        <v>13456900</v>
+        <v>14752700</v>
       </c>
       <c r="I76" s="3">
-        <v>13054700</v>
+        <v>13468100</v>
       </c>
       <c r="J76" s="3">
+        <v>13065600</v>
+      </c>
+      <c r="K76" s="3">
         <v>12359800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11274000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10735800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10382600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10606300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11409800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11234500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11614600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10575300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9714700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7839500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7992900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7625000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6936100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6708400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6545700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6323500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6168700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6267000</v>
       </c>
-      <c r="AC76" s="3" t="s">
+      <c r="AD76" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>5896000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>885700</v>
+        <v>894000</v>
       </c>
       <c r="E81" s="3">
-        <v>781600</v>
+        <v>886400</v>
       </c>
       <c r="F81" s="3">
-        <v>789200</v>
+        <v>782300</v>
       </c>
       <c r="G81" s="3">
-        <v>552900</v>
+        <v>789900</v>
       </c>
       <c r="H81" s="3">
-        <v>500900</v>
+        <v>553400</v>
       </c>
       <c r="I81" s="3">
-        <v>487800</v>
+        <v>501300</v>
       </c>
       <c r="J81" s="3">
+        <v>488300</v>
+      </c>
+      <c r="K81" s="3">
         <v>499800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>250700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>199100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>253200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>105900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-150500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>189700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>235800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>197200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>263500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>271700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>168000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>297600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>512700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>230000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>679900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>283900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>423700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>190200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>264100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>470500</v>
+        <v>477400</v>
       </c>
       <c r="E83" s="3">
-        <v>465100</v>
+        <v>470900</v>
       </c>
       <c r="F83" s="3">
-        <v>481300</v>
+        <v>465500</v>
       </c>
       <c r="G83" s="3">
-        <v>457500</v>
+        <v>481700</v>
       </c>
       <c r="H83" s="3">
-        <v>439100</v>
+        <v>457900</v>
       </c>
       <c r="I83" s="3">
-        <v>426100</v>
+        <v>439400</v>
       </c>
       <c r="J83" s="3">
+        <v>426400</v>
+      </c>
+      <c r="K83" s="3">
         <v>430400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>402000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>375700</v>
       </c>
       <c r="M83" s="3">
         <v>375700</v>
       </c>
       <c r="N83" s="3">
+        <v>375700</v>
+      </c>
+      <c r="O83" s="3">
         <v>393400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>416700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>281100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>291900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>298900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>280000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>274100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>272100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>267300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>240500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>237900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>228900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>230000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>226600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>475400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>234800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>238300</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>700300</v>
+        <v>1119700</v>
       </c>
       <c r="E89" s="3">
-        <v>683000</v>
+        <v>700900</v>
       </c>
       <c r="F89" s="3">
-        <v>1708500</v>
+        <v>683600</v>
       </c>
       <c r="G89" s="3">
-        <v>1078700</v>
+        <v>1710000</v>
       </c>
       <c r="H89" s="3">
-        <v>665600</v>
+        <v>1079600</v>
       </c>
       <c r="I89" s="3">
-        <v>861900</v>
+        <v>666200</v>
       </c>
       <c r="J89" s="3">
+        <v>862600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1052700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>810400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>756400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>599200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>774300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>580400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>397400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>211300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>837900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>464700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>250600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>365500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>760600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>506200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>344500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>184000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>690000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>593500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>679600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>331000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>518800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-766000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-566000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-605000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-866000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-542000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-494000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-408000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-597000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-245500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-269500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-237800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-285400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-236700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-234900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-251000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-374800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-360000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-369400</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-436500</v>
       </c>
       <c r="V91" s="3">
         <v>-436500</v>
       </c>
       <c r="W91" s="3">
+        <v>-436500</v>
+      </c>
+      <c r="X91" s="3">
         <v>-265700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-250200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-287200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-362400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-209800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-495300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-238300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-325100</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-195100</v>
+        <v>-154100</v>
       </c>
       <c r="E94" s="3">
-        <v>-659100</v>
+        <v>-195300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1273800</v>
+        <v>-659700</v>
       </c>
       <c r="G94" s="3">
-        <v>-658000</v>
+        <v>-1274900</v>
       </c>
       <c r="H94" s="3">
-        <v>-140900</v>
+        <v>-658600</v>
       </c>
       <c r="I94" s="3">
-        <v>-573500</v>
+        <v>-141100</v>
       </c>
       <c r="J94" s="3">
+        <v>-574000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-890000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-697200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-474700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-346100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-762900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5681500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-215700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1211800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-463000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2329300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>76500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-230700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-449500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-427100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-142500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-299600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-537400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-458900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-285200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-314600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-495300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7498,16 +7732,19 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-291100</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-505200</v>
+        <v>-856100</v>
       </c>
       <c r="E100" s="3">
+        <v>-505600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-27100</v>
       </c>
-      <c r="F100" s="3">
-        <v>-634200</v>
-      </c>
       <c r="G100" s="3">
-        <v>-66100</v>
+        <v>-634700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1300900</v>
+        <v>-66200</v>
       </c>
       <c r="I100" s="3">
-        <v>-24900</v>
+        <v>-1302000</v>
       </c>
       <c r="J100" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-354500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-64500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-311300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-196000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-587500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6578200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-404200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1363500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-11000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1763400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-357600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-353700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-23100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-234500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-14600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-116700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-282900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>9400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E101" s="3">
         <v>2200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-15200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>30400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-18400</v>
-      </c>
-      <c r="H101" s="3">
-        <v>4300</v>
       </c>
       <c r="I101" s="3">
         <v>4300</v>
       </c>
       <c r="J101" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K101" s="3">
         <v>6500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-13300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-44600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-37100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-19200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>12800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>9400</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-3500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-6600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>11200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-6700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-13500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1200</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-15300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-4700</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>106300</v>
+      </c>
+      <c r="E102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18400</v>
       </c>
-      <c r="F102" s="3">
-        <v>-169100</v>
-      </c>
       <c r="G102" s="3">
-        <v>336100</v>
+        <v>-169300</v>
       </c>
       <c r="H102" s="3">
-        <v>-771900</v>
+        <v>336400</v>
       </c>
       <c r="I102" s="3">
-        <v>267800</v>
+        <v>-772500</v>
       </c>
       <c r="J102" s="3">
+        <v>268000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-185400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>49700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>43900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-620700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1440000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-241600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>375900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>366300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-102300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-21200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>112400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-46100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>49400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-21300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-129000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>150300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>5600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>112700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>10600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>17600</v>
       </c>
     </row>
